--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45733.01041666666</v>
+        <v>45734.01041666666</v>
       </c>
       <c r="B2">
-        <v>206</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45733.02083333334</v>
+        <v>45734.02083333334</v>
       </c>
       <c r="B3">
-        <v>206</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45733.03125</v>
+        <v>45734.03125</v>
       </c>
       <c r="B4">
-        <v>205</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45733.04166666666</v>
+        <v>45734.04166666666</v>
       </c>
       <c r="B5">
-        <v>205</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45733.05208333334</v>
+        <v>45734.05208333334</v>
       </c>
       <c r="B6">
-        <v>211</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45733.0625</v>
+        <v>45734.0625</v>
       </c>
       <c r="B7">
-        <v>210</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45733.07291666666</v>
+        <v>45734.07291666666</v>
       </c>
       <c r="B8">
-        <v>212</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45733.08333333334</v>
+        <v>45734.08333333334</v>
       </c>
       <c r="B9">
-        <v>221</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45733.09375</v>
+        <v>45734.09375</v>
       </c>
       <c r="B10">
-        <v>213</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45733.10416666666</v>
+        <v>45734.10416666666</v>
       </c>
       <c r="B11">
-        <v>207</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45733.11458333334</v>
+        <v>45734.11458333334</v>
       </c>
       <c r="B12">
-        <v>207</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45733.125</v>
+        <v>45734.125</v>
       </c>
       <c r="B13">
-        <v>206</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45733.13541666666</v>
+        <v>45734.13541666666</v>
       </c>
       <c r="B14">
-        <v>173</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45733.14583333334</v>
+        <v>45734.14583333334</v>
       </c>
       <c r="B15">
-        <v>172</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45733.15625</v>
+        <v>45734.15625</v>
       </c>
       <c r="B16">
-        <v>172</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45733.16666666666</v>
+        <v>45734.16666666666</v>
       </c>
       <c r="B17">
-        <v>171</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45733.17708333334</v>
+        <v>45734.17708333334</v>
       </c>
       <c r="B18">
-        <v>152</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45733.1875</v>
+        <v>45734.1875</v>
       </c>
       <c r="B19">
-        <v>152</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45733.19791666666</v>
+        <v>45734.19791666666</v>
       </c>
       <c r="B20">
-        <v>150</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45733.20833333334</v>
+        <v>45734.20833333334</v>
       </c>
       <c r="B21">
-        <v>148</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45733.21875</v>
+        <v>45734.21875</v>
       </c>
       <c r="B22">
-        <v>145</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45733.22916666666</v>
+        <v>45734.22916666666</v>
       </c>
       <c r="B23">
-        <v>141</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45733.23958333334</v>
+        <v>45734.23958333334</v>
       </c>
       <c r="B24">
-        <v>139</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45733.25</v>
+        <v>45734.25</v>
       </c>
       <c r="B25">
-        <v>138</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45733.26041666666</v>
+        <v>45734.26041666666</v>
       </c>
       <c r="B26">
-        <v>141</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45733.27083333334</v>
+        <v>45734.27083333334</v>
       </c>
       <c r="B27">
-        <v>140</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45733.28125</v>
+        <v>45734.28125</v>
       </c>
       <c r="B28">
-        <v>141</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45733.29166666666</v>
+        <v>45734.29166666666</v>
       </c>
       <c r="B29">
-        <v>141</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45733.30208333334</v>
+        <v>45734.30208333334</v>
       </c>
       <c r="B30">
-        <v>159</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45733.3125</v>
+        <v>45734.3125</v>
       </c>
       <c r="B31">
-        <v>160</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45733.32291666666</v>
+        <v>45734.32291666666</v>
       </c>
       <c r="B32">
-        <v>162</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45733.33333333334</v>
+        <v>45734.33333333334</v>
       </c>
       <c r="B33">
-        <v>163</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45733.34375</v>
+        <v>45734.34375</v>
       </c>
       <c r="B34">
-        <v>205</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45733.35416666666</v>
+        <v>45734.35416666666</v>
       </c>
       <c r="B35">
-        <v>207</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45733.36458333334</v>
+        <v>45734.36458333334</v>
       </c>
       <c r="B36">
-        <v>209</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45733.375</v>
+        <v>45734.375</v>
       </c>
       <c r="B37">
-        <v>211</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45733.38541666666</v>
+        <v>45734.38541666666</v>
       </c>
       <c r="B38">
-        <v>257</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45733.39583333334</v>
+        <v>45734.39583333334</v>
       </c>
       <c r="B39">
-        <v>260</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45733.40625</v>
+        <v>45734.40625</v>
       </c>
       <c r="B40">
-        <v>262</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45733.41666666666</v>
+        <v>45734.41666666666</v>
       </c>
       <c r="B41">
-        <v>265</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45733.42708333334</v>
+        <v>45734.42708333334</v>
       </c>
       <c r="B42">
-        <v>336</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45733.4375</v>
+        <v>45734.4375</v>
       </c>
       <c r="B43">
-        <v>338</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45733.44791666666</v>
+        <v>45734.44791666666</v>
       </c>
       <c r="B44">
-        <v>341</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45733.45833333334</v>
+        <v>45734.45833333334</v>
       </c>
       <c r="B45">
-        <v>343</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45733.46875</v>
+        <v>45734.46875</v>
       </c>
       <c r="B46">
-        <v>460</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45733.47916666666</v>
+        <v>45734.47916666666</v>
       </c>
       <c r="B47">
-        <v>464</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45733.48958333334</v>
+        <v>45734.48958333334</v>
       </c>
       <c r="B48">
-        <v>467</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45733.5</v>
+        <v>45734.5</v>
       </c>
       <c r="B49">
-        <v>471</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45733.51041666666</v>
+        <v>45734.51041666666</v>
       </c>
       <c r="B50">
-        <v>645</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45733.52083333334</v>
+        <v>45734.52083333334</v>
       </c>
       <c r="B51">
-        <v>650</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45733.53125</v>
+        <v>45734.53125</v>
       </c>
       <c r="B52">
-        <v>655</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45733.54166666666</v>
+        <v>45734.54166666666</v>
       </c>
       <c r="B53">
-        <v>660</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45733.55208333334</v>
+        <v>45734.55208333334</v>
       </c>
       <c r="B54">
-        <v>857</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45733.5625</v>
+        <v>45734.5625</v>
       </c>
       <c r="B55">
-        <v>862</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45733.57291666666</v>
+        <v>45734.57291666666</v>
       </c>
       <c r="B56">
-        <v>867</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45733.58333333334</v>
+        <v>45734.58333333334</v>
       </c>
       <c r="B57">
-        <v>872</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45733.59375</v>
+        <v>45734.59375</v>
       </c>
       <c r="B58">
-        <v>1184</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45733.60416666666</v>
+        <v>45734.60416666666</v>
       </c>
       <c r="B59">
-        <v>1189</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45733.61458333334</v>
+        <v>45734.61458333334</v>
       </c>
       <c r="B60">
-        <v>1194</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45733.625</v>
+        <v>45734.625</v>
       </c>
       <c r="B61">
-        <v>1200</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45733.63541666666</v>
+        <v>45734.63541666666</v>
       </c>
       <c r="B62">
-        <v>1400</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45733.64583333334</v>
+        <v>45734.64583333334</v>
       </c>
       <c r="B63">
-        <v>1405</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45733.65625</v>
+        <v>45734.65625</v>
       </c>
       <c r="B64">
-        <v>1410</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45733.66666666666</v>
+        <v>45734.66666666666</v>
       </c>
       <c r="B65">
-        <v>1415</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45733.67708333334</v>
+        <v>45734.67708333334</v>
       </c>
       <c r="B66">
-        <v>1664</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45733.6875</v>
+        <v>45734.6875</v>
       </c>
       <c r="B67">
-        <v>1667</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45733.69791666666</v>
+        <v>45734.69791666666</v>
       </c>
       <c r="B68">
-        <v>1670</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45733.70833333334</v>
+        <v>45734.70833333334</v>
       </c>
       <c r="B69">
-        <v>1673</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45733.71875</v>
+        <v>45734.71875</v>
       </c>
       <c r="B70">
-        <v>1934</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45733.72916666666</v>
+        <v>45734.72916666666</v>
       </c>
       <c r="B71">
-        <v>1938</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45733.73958333334</v>
+        <v>45734.73958333334</v>
       </c>
       <c r="B72">
-        <v>1941</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45733.75</v>
+        <v>45734.75</v>
       </c>
       <c r="B73">
-        <v>1945</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45733.76041666666</v>
+        <v>45734.76041666666</v>
       </c>
       <c r="B74">
-        <v>2091</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45733.77083333334</v>
+        <v>45734.77083333334</v>
       </c>
       <c r="B75">
-        <v>2095</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45733.78125</v>
+        <v>45734.78125</v>
       </c>
       <c r="B76">
-        <v>2100</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45733.79166666666</v>
+        <v>45734.79166666666</v>
       </c>
       <c r="B77">
-        <v>2104</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45733.80208333334</v>
+        <v>45734.80208333334</v>
       </c>
       <c r="B78">
-        <v>2159</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45733.8125</v>
+        <v>45734.8125</v>
       </c>
       <c r="B79">
-        <v>2163</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45733.82291666666</v>
+        <v>45734.82291666666</v>
       </c>
       <c r="B80">
-        <v>2166</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45733.83333333334</v>
+        <v>45734.83333333334</v>
       </c>
       <c r="B81">
-        <v>2170</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45733.84375</v>
+        <v>45734.84375</v>
       </c>
       <c r="B82">
-        <v>2178</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45733.85416666666</v>
+        <v>45734.85416666666</v>
       </c>
       <c r="B83">
-        <v>2180</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45733.86458333334</v>
+        <v>45734.86458333334</v>
       </c>
       <c r="B84">
-        <v>2181</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45733.875</v>
+        <v>45734.875</v>
       </c>
       <c r="B85">
-        <v>2183</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45733.88541666666</v>
+        <v>45734.88541666666</v>
       </c>
       <c r="B86">
-        <v>2265</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45733.89583333334</v>
+        <v>45734.89583333334</v>
       </c>
       <c r="B87">
-        <v>2268</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45733.90625</v>
+        <v>45734.90625</v>
       </c>
       <c r="B88">
-        <v>2271</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45733.91666666666</v>
+        <v>45734.91666666666</v>
       </c>
       <c r="B89">
-        <v>2273</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45733.92708333334</v>
+        <v>45734.92708333334</v>
       </c>
       <c r="B90">
-        <v>2417</v>
+        <v>993</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45733.9375</v>
+        <v>45734.9375</v>
       </c>
       <c r="B91">
-        <v>2422</v>
+        <v>991</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45733.94791666666</v>
+        <v>45734.94791666666</v>
       </c>
       <c r="B92">
-        <v>2426</v>
+        <v>990</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45733.95833333334</v>
+        <v>45734.95833333334</v>
       </c>
       <c r="B93">
-        <v>2430</v>
+        <v>989</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45733.96875</v>
+        <v>45734.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45733.97916666666</v>
+        <v>45734.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45733.98958333334</v>
+        <v>45734.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45734</v>
+        <v>45735</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45734.01041666666</v>
+        <v>45736.01041666666</v>
       </c>
       <c r="B2">
-        <v>2579</v>
+        <v>636</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45734.02083333334</v>
+        <v>45736.02083333334</v>
       </c>
       <c r="B3">
-        <v>2585</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45734.03125</v>
+        <v>45736.03125</v>
       </c>
       <c r="B4">
-        <v>2603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45734.04166666666</v>
+        <v>45736.04166666666</v>
       </c>
       <c r="B5">
-        <v>2625</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45734.05208333334</v>
+        <v>45736.05208333334</v>
       </c>
       <c r="B6">
-        <v>2672</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45734.0625</v>
+        <v>45736.0625</v>
       </c>
       <c r="B7">
-        <v>2673</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45734.07291666666</v>
+        <v>45736.07291666666</v>
       </c>
       <c r="B8">
-        <v>2667</v>
+        <v>713</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45734.08333333334</v>
+        <v>45736.08333333334</v>
       </c>
       <c r="B9">
-        <v>2665</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45734.09375</v>
+        <v>45736.09375</v>
       </c>
       <c r="B10">
-        <v>2684</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45734.10416666666</v>
+        <v>45736.10416666666</v>
       </c>
       <c r="B11">
-        <v>2684</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45734.11458333334</v>
+        <v>45736.11458333334</v>
       </c>
       <c r="B12">
-        <v>2654</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45734.125</v>
+        <v>45736.125</v>
       </c>
       <c r="B13">
-        <v>2653</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45734.13541666666</v>
+        <v>45736.13541666666</v>
       </c>
       <c r="B14">
-        <v>2668</v>
+        <v>723</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45734.14583333334</v>
+        <v>45736.14583333334</v>
       </c>
       <c r="B15">
-        <v>2665</v>
+        <v>718</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45734.15625</v>
+        <v>45736.15625</v>
       </c>
       <c r="B16">
-        <v>2664</v>
+        <v>716</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45734.16666666666</v>
+        <v>45736.16666666666</v>
       </c>
       <c r="B17">
-        <v>2654</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45734.17708333334</v>
+        <v>45736.17708333334</v>
       </c>
       <c r="B18">
-        <v>2652</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45734.1875</v>
+        <v>45736.1875</v>
       </c>
       <c r="B19">
-        <v>2655</v>
+        <v>703</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45734.19791666666</v>
+        <v>45736.19791666666</v>
       </c>
       <c r="B20">
-        <v>2650</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45734.20833333334</v>
+        <v>45736.20833333334</v>
       </c>
       <c r="B21">
-        <v>2642</v>
+        <v>679</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45734.21875</v>
+        <v>45736.21875</v>
       </c>
       <c r="B22">
-        <v>2606</v>
+        <v>721</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45734.22916666666</v>
+        <v>45736.22916666666</v>
       </c>
       <c r="B23">
-        <v>2608</v>
+        <v>696</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45734.23958333334</v>
+        <v>45736.23958333334</v>
       </c>
       <c r="B24">
-        <v>2604</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45734.25</v>
+        <v>45736.25</v>
       </c>
       <c r="B25">
-        <v>2608</v>
+        <v>672</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45734.26041666666</v>
+        <v>45736.26041666666</v>
       </c>
       <c r="B26">
-        <v>2600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45734.27083333334</v>
+        <v>45736.27083333334</v>
       </c>
       <c r="B27">
-        <v>2596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45734.28125</v>
+        <v>45736.28125</v>
       </c>
       <c r="B28">
-        <v>2599</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45734.29166666666</v>
+        <v>45736.29166666666</v>
       </c>
       <c r="B29">
-        <v>2597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45734.30208333334</v>
+        <v>45736.30208333334</v>
       </c>
       <c r="B30">
-        <v>2583</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45734.3125</v>
+        <v>45736.3125</v>
       </c>
       <c r="B31">
-        <v>2583</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45734.32291666666</v>
+        <v>45736.32291666666</v>
       </c>
       <c r="B32">
-        <v>2584</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45734.33333333334</v>
+        <v>45736.33333333334</v>
       </c>
       <c r="B33">
-        <v>2585</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45734.34375</v>
+        <v>45736.34375</v>
       </c>
       <c r="B34">
-        <v>2554</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45734.35416666666</v>
+        <v>45736.35416666666</v>
       </c>
       <c r="B35">
-        <v>2554</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45734.36458333334</v>
+        <v>45736.36458333334</v>
       </c>
       <c r="B36">
-        <v>2557</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45734.375</v>
+        <v>45736.375</v>
       </c>
       <c r="B37">
-        <v>2558</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45734.38541666666</v>
+        <v>45736.38541666666</v>
       </c>
       <c r="B38">
-        <v>2517</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45734.39583333334</v>
+        <v>45736.39583333334</v>
       </c>
       <c r="B39">
-        <v>2517</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45734.40625</v>
+        <v>45736.40625</v>
       </c>
       <c r="B40">
-        <v>2516</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45734.41666666666</v>
+        <v>45736.41666666666</v>
       </c>
       <c r="B41">
-        <v>2516</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45734.42708333334</v>
+        <v>45736.42708333334</v>
       </c>
       <c r="B42">
-        <v>2453</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45734.4375</v>
+        <v>45736.4375</v>
       </c>
       <c r="B43">
-        <v>2452</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45734.44791666666</v>
+        <v>45736.44791666666</v>
       </c>
       <c r="B44">
-        <v>2450</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45734.45833333334</v>
+        <v>45736.45833333334</v>
       </c>
       <c r="B45">
-        <v>2449</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45734.46875</v>
+        <v>45736.46875</v>
       </c>
       <c r="B46">
-        <v>2368</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45734.47916666666</v>
+        <v>45736.47916666666</v>
       </c>
       <c r="B47">
-        <v>2365</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45734.48958333334</v>
+        <v>45736.48958333334</v>
       </c>
       <c r="B48">
-        <v>2363</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45734.5</v>
+        <v>45736.5</v>
       </c>
       <c r="B49">
-        <v>2361</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45734.51041666666</v>
+        <v>45736.51041666666</v>
       </c>
       <c r="B50">
-        <v>2293</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45734.52083333334</v>
+        <v>45736.52083333334</v>
       </c>
       <c r="B51">
-        <v>2290</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45734.53125</v>
+        <v>45736.53125</v>
       </c>
       <c r="B52">
-        <v>2288</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45734.54166666666</v>
+        <v>45736.54166666666</v>
       </c>
       <c r="B53">
-        <v>2285</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45734.55208333334</v>
+        <v>45736.55208333334</v>
       </c>
       <c r="B54">
-        <v>2250</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45734.5625</v>
+        <v>45736.5625</v>
       </c>
       <c r="B55">
-        <v>2247</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45734.57291666666</v>
+        <v>45736.57291666666</v>
       </c>
       <c r="B56">
-        <v>2245</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45734.58333333334</v>
+        <v>45736.58333333334</v>
       </c>
       <c r="B57">
-        <v>2243</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45734.59375</v>
+        <v>45736.59375</v>
       </c>
       <c r="B58">
-        <v>2209</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45734.60416666666</v>
+        <v>45736.60416666666</v>
       </c>
       <c r="B59">
-        <v>2207</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45734.61458333334</v>
+        <v>45736.61458333334</v>
       </c>
       <c r="B60">
-        <v>2205</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45734.625</v>
+        <v>45736.625</v>
       </c>
       <c r="B61">
-        <v>2202</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45734.63541666666</v>
+        <v>45736.63541666666</v>
       </c>
       <c r="B62">
-        <v>2104</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45734.64583333334</v>
+        <v>45736.64583333334</v>
       </c>
       <c r="B63">
-        <v>2101</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45734.65625</v>
+        <v>45736.65625</v>
       </c>
       <c r="B64">
-        <v>2097</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45734.66666666666</v>
+        <v>45736.66666666666</v>
       </c>
       <c r="B65">
-        <v>2094</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45734.67708333334</v>
+        <v>45736.67708333334</v>
       </c>
       <c r="B66">
-        <v>1909</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45734.6875</v>
+        <v>45736.6875</v>
       </c>
       <c r="B67">
-        <v>1899</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45734.69791666666</v>
+        <v>45736.69791666666</v>
       </c>
       <c r="B68">
-        <v>1889</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45734.70833333334</v>
+        <v>45736.70833333334</v>
       </c>
       <c r="B69">
-        <v>1880</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45734.71875</v>
+        <v>45736.71875</v>
       </c>
       <c r="B70">
-        <v>1580</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45734.72916666666</v>
+        <v>45736.72916666666</v>
       </c>
       <c r="B71">
-        <v>1572</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45734.73958333334</v>
+        <v>45736.73958333334</v>
       </c>
       <c r="B72">
-        <v>1564</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45734.75</v>
+        <v>45736.75</v>
       </c>
       <c r="B73">
-        <v>1556</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45734.76041666666</v>
+        <v>45736.76041666666</v>
       </c>
       <c r="B74">
-        <v>1309</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45734.77083333334</v>
+        <v>45736.77083333334</v>
       </c>
       <c r="B75">
-        <v>1303</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45734.78125</v>
+        <v>45736.78125</v>
       </c>
       <c r="B76">
-        <v>1298</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45734.79166666666</v>
+        <v>45736.79166666666</v>
       </c>
       <c r="B77">
-        <v>1293</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45734.80208333334</v>
+        <v>45736.80208333334</v>
       </c>
       <c r="B78">
-        <v>1135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45734.8125</v>
+        <v>45736.8125</v>
       </c>
       <c r="B79">
-        <v>1132</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45734.82291666666</v>
+        <v>45736.82291666666</v>
       </c>
       <c r="B80">
-        <v>1129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45734.83333333334</v>
+        <v>45736.83333333334</v>
       </c>
       <c r="B81">
-        <v>1126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45734.84375</v>
+        <v>45736.84375</v>
       </c>
       <c r="B82">
-        <v>1048</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45734.85416666666</v>
+        <v>45736.85416666666</v>
       </c>
       <c r="B83">
-        <v>1047</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45734.86458333334</v>
+        <v>45736.86458333334</v>
       </c>
       <c r="B84">
-        <v>1045</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45734.875</v>
+        <v>45736.875</v>
       </c>
       <c r="B85">
-        <v>1044</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45734.88541666666</v>
+        <v>45736.88541666666</v>
       </c>
       <c r="B86">
-        <v>1010</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45734.89583333334</v>
+        <v>45736.89583333334</v>
       </c>
       <c r="B87">
-        <v>1009</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45734.90625</v>
+        <v>45736.90625</v>
       </c>
       <c r="B88">
-        <v>1008</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45734.91666666666</v>
+        <v>45736.91666666666</v>
       </c>
       <c r="B89">
-        <v>1008</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45734.92708333334</v>
+        <v>45736.92708333334</v>
       </c>
       <c r="B90">
-        <v>993</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45734.9375</v>
+        <v>45736.9375</v>
       </c>
       <c r="B91">
-        <v>991</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45734.94791666666</v>
+        <v>45736.94791666666</v>
       </c>
       <c r="B92">
-        <v>990</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45734.95833333334</v>
+        <v>45736.95833333334</v>
       </c>
       <c r="B93">
-        <v>989</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45734.96875</v>
+        <v>45736.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45734.97916666666</v>
+        <v>45736.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45734.98958333334</v>
+        <v>45736.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45735</v>
+        <v>45737</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45736.01041666666</v>
+        <v>45740.01041666666</v>
       </c>
       <c r="B2">
-        <v>636</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45736.02083333334</v>
+        <v>45740.02083333334</v>
       </c>
       <c r="B3">
-        <v>637</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45736.03125</v>
+        <v>45740.03125</v>
       </c>
       <c r="B4">
-        <v>643</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45736.04166666666</v>
+        <v>45740.04166666666</v>
       </c>
       <c r="B5">
-        <v>651</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45736.05208333334</v>
+        <v>45740.05208333334</v>
       </c>
       <c r="B6">
-        <v>694</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45736.0625</v>
+        <v>45740.0625</v>
       </c>
       <c r="B7">
-        <v>694</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45736.07291666666</v>
+        <v>45740.07291666666</v>
       </c>
       <c r="B8">
-        <v>713</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45736.08333333334</v>
+        <v>45740.08333333334</v>
       </c>
       <c r="B9">
-        <v>706</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45736.09375</v>
+        <v>45740.09375</v>
       </c>
       <c r="B10">
-        <v>740</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45736.10416666666</v>
+        <v>45740.10416666666</v>
       </c>
       <c r="B11">
-        <v>735</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45736.11458333334</v>
+        <v>45740.11458333334</v>
       </c>
       <c r="B12">
-        <v>735</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45736.125</v>
+        <v>45740.125</v>
       </c>
       <c r="B13">
-        <v>731</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45736.13541666666</v>
+        <v>45740.13541666666</v>
       </c>
       <c r="B14">
-        <v>723</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45736.14583333334</v>
+        <v>45740.14583333334</v>
       </c>
       <c r="B15">
-        <v>718</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45736.15625</v>
+        <v>45740.15625</v>
       </c>
       <c r="B16">
-        <v>716</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45736.16666666666</v>
+        <v>45740.16666666666</v>
       </c>
       <c r="B17">
-        <v>719</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45736.17708333334</v>
+        <v>45740.17708333334</v>
       </c>
       <c r="B18">
-        <v>692</v>
+        <v>896</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45736.1875</v>
+        <v>45740.1875</v>
       </c>
       <c r="B19">
-        <v>703</v>
+        <v>890</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45736.19791666666</v>
+        <v>45740.19791666666</v>
       </c>
       <c r="B20">
-        <v>675</v>
+        <v>888</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45736.20833333334</v>
+        <v>45740.20833333334</v>
       </c>
       <c r="B21">
-        <v>679</v>
+        <v>874</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45736.21875</v>
+        <v>45740.21875</v>
       </c>
       <c r="B22">
-        <v>721</v>
+        <v>814</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45736.22916666666</v>
+        <v>45740.22916666666</v>
       </c>
       <c r="B23">
-        <v>696</v>
+        <v>811</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45736.23958333334</v>
+        <v>45740.23958333334</v>
       </c>
       <c r="B24">
-        <v>688</v>
+        <v>816</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45736.25</v>
+        <v>45740.25</v>
       </c>
       <c r="B25">
-        <v>672</v>
+        <v>811</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45736.26041666666</v>
+        <v>45740.26041666666</v>
       </c>
       <c r="B26">
-        <v>599</v>
+        <v>667</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45736.27083333334</v>
+        <v>45740.27083333334</v>
       </c>
       <c r="B27">
-        <v>590</v>
+        <v>665</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45736.28125</v>
+        <v>45740.28125</v>
       </c>
       <c r="B28">
-        <v>588</v>
+        <v>667</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45736.29166666666</v>
+        <v>45740.29166666666</v>
       </c>
       <c r="B29">
-        <v>587</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45736.30208333334</v>
+        <v>45740.30208333334</v>
       </c>
       <c r="B30">
-        <v>474</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45736.3125</v>
+        <v>45740.3125</v>
       </c>
       <c r="B31">
-        <v>478</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45736.32291666666</v>
+        <v>45740.32291666666</v>
       </c>
       <c r="B32">
-        <v>483</v>
+        <v>525</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45736.33333333334</v>
+        <v>45740.33333333334</v>
       </c>
       <c r="B33">
-        <v>477</v>
+        <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45736.34375</v>
+        <v>45740.34375</v>
       </c>
       <c r="B34">
-        <v>368</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45736.35416666666</v>
+        <v>45740.35416666666</v>
       </c>
       <c r="B35">
-        <v>368</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45736.36458333334</v>
+        <v>45740.36458333334</v>
       </c>
       <c r="B36">
-        <v>366</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45736.375</v>
+        <v>45740.375</v>
       </c>
       <c r="B37">
-        <v>367</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45736.38541666666</v>
+        <v>45740.38541666666</v>
       </c>
       <c r="B38">
-        <v>364</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45736.39583333334</v>
+        <v>45740.39583333334</v>
       </c>
       <c r="B39">
-        <v>364</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45736.40625</v>
+        <v>45740.40625</v>
       </c>
       <c r="B40">
-        <v>365</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45736.41666666666</v>
+        <v>45740.41666666666</v>
       </c>
       <c r="B41">
-        <v>365</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45736.42708333334</v>
+        <v>45740.42708333334</v>
       </c>
       <c r="B42">
-        <v>346</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45736.4375</v>
+        <v>45740.4375</v>
       </c>
       <c r="B43">
-        <v>346</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45736.44791666666</v>
+        <v>45740.44791666666</v>
       </c>
       <c r="B44">
-        <v>345</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45736.45833333334</v>
+        <v>45740.45833333334</v>
       </c>
       <c r="B45">
-        <v>344</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45736.46875</v>
+        <v>45740.46875</v>
       </c>
       <c r="B46">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45736.47916666666</v>
+        <v>45740.47916666666</v>
       </c>
       <c r="B47">
-        <v>333</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45736.48958333334</v>
+        <v>45740.48958333334</v>
       </c>
       <c r="B48">
-        <v>332</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45736.5</v>
+        <v>45740.5</v>
       </c>
       <c r="B49">
-        <v>331</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45736.51041666666</v>
+        <v>45740.51041666666</v>
       </c>
       <c r="B50">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45736.52083333334</v>
+        <v>45740.52083333334</v>
       </c>
       <c r="B51">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45736.53125</v>
+        <v>45740.53125</v>
       </c>
       <c r="B52">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45736.54166666666</v>
+        <v>45740.54166666666</v>
       </c>
       <c r="B53">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45736.55208333334</v>
+        <v>45740.55208333334</v>
       </c>
       <c r="B54">
-        <v>311</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45736.5625</v>
+        <v>45740.5625</v>
       </c>
       <c r="B55">
-        <v>310</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45736.57291666666</v>
+        <v>45740.57291666666</v>
       </c>
       <c r="B56">
-        <v>308</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45736.58333333334</v>
+        <v>45740.58333333334</v>
       </c>
       <c r="B57">
-        <v>307</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45736.59375</v>
+        <v>45740.59375</v>
       </c>
       <c r="B58">
-        <v>270</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45736.60416666666</v>
+        <v>45740.60416666666</v>
       </c>
       <c r="B59">
-        <v>268</v>
+        <v>411</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45736.61458333334</v>
+        <v>45740.61458333334</v>
       </c>
       <c r="B60">
-        <v>266</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45736.625</v>
+        <v>45740.625</v>
       </c>
       <c r="B61">
-        <v>264</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45736.63541666666</v>
+        <v>45740.63541666666</v>
       </c>
       <c r="B62">
-        <v>214</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45736.64583333334</v>
+        <v>45740.64583333334</v>
       </c>
       <c r="B63">
-        <v>210</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45736.65625</v>
+        <v>45740.65625</v>
       </c>
       <c r="B64">
-        <v>207</v>
+        <v>483</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45736.66666666666</v>
+        <v>45740.66666666666</v>
       </c>
       <c r="B65">
-        <v>204</v>
+        <v>486</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45736.67708333334</v>
+        <v>45740.67708333334</v>
       </c>
       <c r="B66">
-        <v>136</v>
+        <v>615</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45736.6875</v>
+        <v>45740.6875</v>
       </c>
       <c r="B67">
-        <v>133</v>
+        <v>619</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45736.69791666666</v>
+        <v>45740.69791666666</v>
       </c>
       <c r="B68">
-        <v>131</v>
+        <v>624</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45736.70833333334</v>
+        <v>45740.70833333334</v>
       </c>
       <c r="B69">
-        <v>129</v>
+        <v>629</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45736.71875</v>
+        <v>45740.71875</v>
       </c>
       <c r="B70">
-        <v>95</v>
+        <v>808</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45736.72916666666</v>
+        <v>45740.72916666666</v>
       </c>
       <c r="B71">
-        <v>94</v>
+        <v>814</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45736.73958333334</v>
+        <v>45740.73958333334</v>
       </c>
       <c r="B72">
-        <v>94</v>
+        <v>821</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45736.75</v>
+        <v>45740.75</v>
       </c>
       <c r="B73">
-        <v>93</v>
+        <v>827</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45736.76041666666</v>
+        <v>45740.76041666666</v>
       </c>
       <c r="B74">
-        <v>74</v>
+        <v>957</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45736.77083333334</v>
+        <v>45740.77083333334</v>
       </c>
       <c r="B75">
-        <v>74</v>
+        <v>960</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45736.78125</v>
+        <v>45740.78125</v>
       </c>
       <c r="B76">
-        <v>73</v>
+        <v>963</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45736.79166666666</v>
+        <v>45740.79166666666</v>
       </c>
       <c r="B77">
-        <v>73</v>
+        <v>965</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45736.80208333334</v>
+        <v>45740.80208333334</v>
       </c>
       <c r="B78">
-        <v>75</v>
+        <v>980</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45736.8125</v>
+        <v>45740.8125</v>
       </c>
       <c r="B79">
-        <v>75</v>
+        <v>981</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45736.82291666666</v>
+        <v>45740.82291666666</v>
       </c>
       <c r="B80">
-        <v>76</v>
+        <v>981</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45736.83333333334</v>
+        <v>45740.83333333334</v>
       </c>
       <c r="B81">
-        <v>76</v>
+        <v>982</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45736.84375</v>
+        <v>45740.84375</v>
       </c>
       <c r="B82">
-        <v>83</v>
+        <v>911</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45736.85416666666</v>
+        <v>45740.85416666666</v>
       </c>
       <c r="B83">
-        <v>83</v>
+        <v>911</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45736.86458333334</v>
+        <v>45740.86458333334</v>
       </c>
       <c r="B84">
-        <v>83</v>
+        <v>910</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45736.875</v>
+        <v>45740.875</v>
       </c>
       <c r="B85">
-        <v>83</v>
+        <v>910</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45736.88541666666</v>
+        <v>45740.88541666666</v>
       </c>
       <c r="B86">
-        <v>87</v>
+        <v>843</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45736.89583333334</v>
+        <v>45740.89583333334</v>
       </c>
       <c r="B87">
-        <v>89</v>
+        <v>842</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45736.90625</v>
+        <v>45740.90625</v>
       </c>
       <c r="B88">
-        <v>89</v>
+        <v>841</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45736.91666666666</v>
+        <v>45740.91666666666</v>
       </c>
       <c r="B89">
-        <v>90</v>
+        <v>840</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45736.92708333334</v>
+        <v>45740.92708333334</v>
       </c>
       <c r="B90">
-        <v>97</v>
+        <v>788</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45736.9375</v>
+        <v>45740.9375</v>
       </c>
       <c r="B91">
-        <v>97</v>
+        <v>785</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45736.94791666666</v>
+        <v>45740.94791666666</v>
       </c>
       <c r="B92">
-        <v>97</v>
+        <v>783</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45736.95833333334</v>
+        <v>45740.95833333334</v>
       </c>
       <c r="B93">
-        <v>98</v>
+        <v>780</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45736.96875</v>
+        <v>45740.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45736.97916666666</v>
+        <v>45740.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45736.98958333334</v>
+        <v>45740.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45737</v>
+        <v>45741</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45740.01041666666</v>
+        <v>45741.01041666666</v>
       </c>
       <c r="B2">
-        <v>1751</v>
+        <v>915</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45740.02083333334</v>
+        <v>45741.02083333334</v>
       </c>
       <c r="B3">
-        <v>1749</v>
+        <v>920</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45740.03125</v>
+        <v>45741.03125</v>
       </c>
       <c r="B4">
-        <v>1744</v>
+        <v>917</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45740.04166666666</v>
+        <v>45741.04166666666</v>
       </c>
       <c r="B5">
-        <v>1730</v>
+        <v>918</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45740.05208333334</v>
+        <v>45741.05208333334</v>
       </c>
       <c r="B6">
-        <v>1536</v>
+        <v>973</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45740.0625</v>
+        <v>45741.0625</v>
       </c>
       <c r="B7">
-        <v>1531</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45740.07291666666</v>
+        <v>45741.07291666666</v>
       </c>
       <c r="B8">
-        <v>1527</v>
+        <v>982</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45740.08333333334</v>
+        <v>45741.08333333334</v>
       </c>
       <c r="B9">
-        <v>1519</v>
+        <v>982</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45740.09375</v>
+        <v>45741.09375</v>
       </c>
       <c r="B10">
-        <v>1305</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45740.10416666666</v>
+        <v>45741.10416666666</v>
       </c>
       <c r="B11">
-        <v>1301</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45740.11458333334</v>
+        <v>45741.11458333334</v>
       </c>
       <c r="B12">
-        <v>1295</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45740.125</v>
+        <v>45741.125</v>
       </c>
       <c r="B13">
-        <v>1285</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45740.13541666666</v>
+        <v>45741.13541666666</v>
       </c>
       <c r="B14">
-        <v>1100</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45740.14583333334</v>
+        <v>45741.14583333334</v>
       </c>
       <c r="B15">
-        <v>1096</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45740.15625</v>
+        <v>45741.15625</v>
       </c>
       <c r="B16">
-        <v>1079</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45740.16666666666</v>
+        <v>45741.16666666666</v>
       </c>
       <c r="B17">
-        <v>1064</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45740.17708333334</v>
+        <v>45741.17708333334</v>
       </c>
       <c r="B18">
-        <v>896</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45740.1875</v>
+        <v>45741.1875</v>
       </c>
       <c r="B19">
-        <v>890</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45740.19791666666</v>
+        <v>45741.19791666666</v>
       </c>
       <c r="B20">
-        <v>888</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45740.20833333334</v>
+        <v>45741.20833333334</v>
       </c>
       <c r="B21">
-        <v>874</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45740.21875</v>
+        <v>45741.21875</v>
       </c>
       <c r="B22">
-        <v>814</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45740.22916666666</v>
+        <v>45741.22916666666</v>
       </c>
       <c r="B23">
-        <v>811</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45740.23958333334</v>
+        <v>45741.23958333334</v>
       </c>
       <c r="B24">
-        <v>816</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45740.25</v>
+        <v>45741.25</v>
       </c>
       <c r="B25">
-        <v>811</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45740.26041666666</v>
+        <v>45741.26041666666</v>
       </c>
       <c r="B26">
-        <v>667</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45740.27083333334</v>
+        <v>45741.27083333334</v>
       </c>
       <c r="B27">
-        <v>665</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45740.28125</v>
+        <v>45741.28125</v>
       </c>
       <c r="B28">
-        <v>667</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45740.29166666666</v>
+        <v>45741.29166666666</v>
       </c>
       <c r="B29">
-        <v>662</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45740.30208333334</v>
+        <v>45741.30208333334</v>
       </c>
       <c r="B30">
-        <v>531</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45740.3125</v>
+        <v>45741.3125</v>
       </c>
       <c r="B31">
-        <v>527</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45740.32291666666</v>
+        <v>45741.32291666666</v>
       </c>
       <c r="B32">
-        <v>525</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45740.33333333334</v>
+        <v>45741.33333333334</v>
       </c>
       <c r="B33">
-        <v>519</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45740.34375</v>
+        <v>45741.34375</v>
       </c>
       <c r="B34">
-        <v>408</v>
+        <v>855</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45740.35416666666</v>
+        <v>45741.35416666666</v>
       </c>
       <c r="B35">
-        <v>404</v>
+        <v>852</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45740.36458333334</v>
+        <v>45741.36458333334</v>
       </c>
       <c r="B36">
-        <v>402</v>
+        <v>849</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45740.375</v>
+        <v>45741.375</v>
       </c>
       <c r="B37">
-        <v>401</v>
+        <v>846</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45740.38541666666</v>
+        <v>45741.38541666666</v>
       </c>
       <c r="B38">
-        <v>296</v>
+        <v>933</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45740.39583333334</v>
+        <v>45741.39583333334</v>
       </c>
       <c r="B39">
-        <v>296</v>
+        <v>934</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45740.40625</v>
+        <v>45741.40625</v>
       </c>
       <c r="B40">
-        <v>297</v>
+        <v>935</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45740.41666666666</v>
+        <v>45741.41666666666</v>
       </c>
       <c r="B41">
-        <v>297</v>
+        <v>935</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45740.42708333334</v>
+        <v>45741.42708333334</v>
       </c>
       <c r="B42">
-        <v>283</v>
+        <v>922</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45740.4375</v>
+        <v>45741.4375</v>
       </c>
       <c r="B43">
-        <v>284</v>
+        <v>922</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45740.44791666666</v>
+        <v>45741.44791666666</v>
       </c>
       <c r="B44">
-        <v>285</v>
+        <v>923</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45740.45833333334</v>
+        <v>45741.45833333334</v>
       </c>
       <c r="B45">
-        <v>286</v>
+        <v>923</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45740.46875</v>
+        <v>45741.46875</v>
       </c>
       <c r="B46">
-        <v>292</v>
+        <v>907</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45740.47916666666</v>
+        <v>45741.47916666666</v>
       </c>
       <c r="B47">
-        <v>293</v>
+        <v>906</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45740.48958333334</v>
+        <v>45741.48958333334</v>
       </c>
       <c r="B48">
-        <v>295</v>
+        <v>904</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45740.5</v>
+        <v>45741.5</v>
       </c>
       <c r="B49">
-        <v>296</v>
+        <v>903</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45740.51041666666</v>
+        <v>45741.51041666666</v>
       </c>
       <c r="B50">
-        <v>314</v>
+        <v>909</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45740.52083333334</v>
+        <v>45741.52083333334</v>
       </c>
       <c r="B51">
-        <v>316</v>
+        <v>907</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45740.53125</v>
+        <v>45741.53125</v>
       </c>
       <c r="B52">
-        <v>318</v>
+        <v>906</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45740.54166666666</v>
+        <v>45741.54166666666</v>
       </c>
       <c r="B53">
-        <v>320</v>
+        <v>904</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45740.55208333334</v>
+        <v>45741.55208333334</v>
       </c>
       <c r="B54">
-        <v>355</v>
+        <v>831</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45740.5625</v>
+        <v>45741.5625</v>
       </c>
       <c r="B55">
-        <v>357</v>
+        <v>829</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45740.57291666666</v>
+        <v>45741.57291666666</v>
       </c>
       <c r="B56">
-        <v>360</v>
+        <v>827</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45740.58333333334</v>
+        <v>45741.58333333334</v>
       </c>
       <c r="B57">
-        <v>363</v>
+        <v>825</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45740.59375</v>
+        <v>45741.59375</v>
       </c>
       <c r="B58">
-        <v>409</v>
+        <v>722</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45740.60416666666</v>
+        <v>45741.60416666666</v>
       </c>
       <c r="B59">
-        <v>411</v>
+        <v>720</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45740.61458333334</v>
+        <v>45741.61458333334</v>
       </c>
       <c r="B60">
-        <v>414</v>
+        <v>717</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45740.625</v>
+        <v>45741.625</v>
       </c>
       <c r="B61">
-        <v>417</v>
+        <v>714</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45740.63541666666</v>
+        <v>45741.63541666666</v>
       </c>
       <c r="B62">
-        <v>477</v>
+        <v>559</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45740.64583333334</v>
+        <v>45741.64583333334</v>
       </c>
       <c r="B63">
-        <v>480</v>
+        <v>555</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45740.65625</v>
+        <v>45741.65625</v>
       </c>
       <c r="B64">
-        <v>483</v>
+        <v>552</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45740.66666666666</v>
+        <v>45741.66666666666</v>
       </c>
       <c r="B65">
-        <v>486</v>
+        <v>549</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45740.67708333334</v>
+        <v>45741.67708333334</v>
       </c>
       <c r="B66">
-        <v>615</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45740.6875</v>
+        <v>45741.6875</v>
       </c>
       <c r="B67">
-        <v>619</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45740.69791666666</v>
+        <v>45741.69791666666</v>
       </c>
       <c r="B68">
-        <v>624</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45740.70833333334</v>
+        <v>45741.70833333334</v>
       </c>
       <c r="B69">
-        <v>629</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45740.71875</v>
+        <v>45741.71875</v>
       </c>
       <c r="B70">
-        <v>808</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45740.72916666666</v>
+        <v>45741.72916666666</v>
       </c>
       <c r="B71">
-        <v>814</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45740.73958333334</v>
+        <v>45741.73958333334</v>
       </c>
       <c r="B72">
-        <v>821</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45740.75</v>
+        <v>45741.75</v>
       </c>
       <c r="B73">
-        <v>827</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45740.76041666666</v>
+        <v>45741.76041666666</v>
       </c>
       <c r="B74">
-        <v>957</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45740.77083333334</v>
+        <v>45741.77083333334</v>
       </c>
       <c r="B75">
-        <v>960</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45740.78125</v>
+        <v>45741.78125</v>
       </c>
       <c r="B76">
-        <v>963</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45740.79166666666</v>
+        <v>45741.79166666666</v>
       </c>
       <c r="B77">
-        <v>965</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45740.80208333334</v>
+        <v>45741.80208333334</v>
       </c>
       <c r="B78">
-        <v>980</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45740.8125</v>
+        <v>45741.8125</v>
       </c>
       <c r="B79">
-        <v>981</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45740.82291666666</v>
+        <v>45741.82291666666</v>
       </c>
       <c r="B80">
-        <v>981</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45740.83333333334</v>
+        <v>45741.83333333334</v>
       </c>
       <c r="B81">
-        <v>982</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45740.84375</v>
+        <v>45741.84375</v>
       </c>
       <c r="B82">
-        <v>911</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45740.85416666666</v>
+        <v>45741.85416666666</v>
       </c>
       <c r="B83">
-        <v>911</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45740.86458333334</v>
+        <v>45741.86458333334</v>
       </c>
       <c r="B84">
-        <v>910</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45740.875</v>
+        <v>45741.875</v>
       </c>
       <c r="B85">
-        <v>910</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45740.88541666666</v>
+        <v>45741.88541666666</v>
       </c>
       <c r="B86">
-        <v>843</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45740.89583333334</v>
+        <v>45741.89583333334</v>
       </c>
       <c r="B87">
-        <v>842</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45740.90625</v>
+        <v>45741.90625</v>
       </c>
       <c r="B88">
-        <v>841</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45740.91666666666</v>
+        <v>45741.91666666666</v>
       </c>
       <c r="B89">
-        <v>840</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45740.92708333334</v>
+        <v>45741.92708333334</v>
       </c>
       <c r="B90">
-        <v>788</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45740.9375</v>
+        <v>45741.9375</v>
       </c>
       <c r="B91">
-        <v>785</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45740.94791666666</v>
+        <v>45741.94791666666</v>
       </c>
       <c r="B92">
-        <v>783</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45740.95833333334</v>
+        <v>45741.95833333334</v>
       </c>
       <c r="B93">
-        <v>780</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45740.96875</v>
+        <v>45741.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45740.97916666666</v>
+        <v>45741.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45740.98958333334</v>
+        <v>45741.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45741</v>
+        <v>45742</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45741.01041666666</v>
+        <v>45744.01041666666</v>
       </c>
       <c r="B2">
-        <v>915</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45741.02083333334</v>
+        <v>45744.02083333334</v>
       </c>
       <c r="B3">
-        <v>920</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45741.03125</v>
+        <v>45744.03125</v>
       </c>
       <c r="B4">
-        <v>917</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45741.04166666666</v>
+        <v>45744.04166666666</v>
       </c>
       <c r="B5">
-        <v>918</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45741.05208333334</v>
+        <v>45744.05208333334</v>
       </c>
       <c r="B6">
-        <v>973</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45741.0625</v>
+        <v>45744.0625</v>
       </c>
       <c r="B7">
-        <v>980</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45741.07291666666</v>
+        <v>45744.07291666666</v>
       </c>
       <c r="B8">
-        <v>982</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45741.08333333334</v>
+        <v>45744.08333333334</v>
       </c>
       <c r="B9">
-        <v>982</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45741.09375</v>
+        <v>45744.09375</v>
       </c>
       <c r="B10">
-        <v>1004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45741.10416666666</v>
+        <v>45744.10416666666</v>
       </c>
       <c r="B11">
-        <v>1003</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45741.11458333334</v>
+        <v>45744.11458333334</v>
       </c>
       <c r="B12">
-        <v>1003</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45741.125</v>
+        <v>45744.125</v>
       </c>
       <c r="B13">
-        <v>1004</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45741.13541666666</v>
+        <v>45744.13541666666</v>
       </c>
       <c r="B14">
-        <v>1106</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45741.14583333334</v>
+        <v>45744.14583333334</v>
       </c>
       <c r="B15">
-        <v>1108</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45741.15625</v>
+        <v>45744.15625</v>
       </c>
       <c r="B16">
-        <v>1111</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45741.16666666666</v>
+        <v>45744.16666666666</v>
       </c>
       <c r="B17">
-        <v>1114</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45741.17708333334</v>
+        <v>45744.17708333334</v>
       </c>
       <c r="B18">
-        <v>1138</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45741.1875</v>
+        <v>45744.1875</v>
       </c>
       <c r="B19">
-        <v>1130</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45741.19791666666</v>
+        <v>45744.19791666666</v>
       </c>
       <c r="B20">
-        <v>1138</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45741.20833333334</v>
+        <v>45744.20833333334</v>
       </c>
       <c r="B21">
-        <v>1131</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45741.21875</v>
+        <v>45744.21875</v>
       </c>
       <c r="B22">
-        <v>1190</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45741.22916666666</v>
+        <v>45744.22916666666</v>
       </c>
       <c r="B23">
-        <v>1187</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45741.23958333334</v>
+        <v>45744.23958333334</v>
       </c>
       <c r="B24">
-        <v>1185</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45741.25</v>
+        <v>45744.25</v>
       </c>
       <c r="B25">
-        <v>1185</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45741.26041666666</v>
+        <v>45744.26041666666</v>
       </c>
       <c r="B26">
-        <v>1179</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45741.27083333334</v>
+        <v>45744.27083333334</v>
       </c>
       <c r="B27">
-        <v>1159</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45741.28125</v>
+        <v>45744.28125</v>
       </c>
       <c r="B28">
-        <v>1154</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45741.29166666666</v>
+        <v>45744.29166666666</v>
       </c>
       <c r="B29">
-        <v>1153</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45741.30208333334</v>
+        <v>45744.30208333334</v>
       </c>
       <c r="B30">
-        <v>1039</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45741.3125</v>
+        <v>45744.3125</v>
       </c>
       <c r="B31">
-        <v>1030</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45741.32291666666</v>
+        <v>45744.32291666666</v>
       </c>
       <c r="B32">
-        <v>1022</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45741.33333333334</v>
+        <v>45744.33333333334</v>
       </c>
       <c r="B33">
-        <v>1012</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45741.34375</v>
+        <v>45744.34375</v>
       </c>
       <c r="B34">
-        <v>855</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45741.35416666666</v>
+        <v>45744.35416666666</v>
       </c>
       <c r="B35">
-        <v>852</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45741.36458333334</v>
+        <v>45744.36458333334</v>
       </c>
       <c r="B36">
-        <v>849</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45741.375</v>
+        <v>45744.375</v>
       </c>
       <c r="B37">
-        <v>846</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45741.38541666666</v>
+        <v>45744.38541666666</v>
       </c>
       <c r="B38">
-        <v>933</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45741.39583333334</v>
+        <v>45744.39583333334</v>
       </c>
       <c r="B39">
-        <v>934</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45741.40625</v>
+        <v>45744.40625</v>
       </c>
       <c r="B40">
-        <v>935</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45741.41666666666</v>
+        <v>45744.41666666666</v>
       </c>
       <c r="B41">
-        <v>935</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45741.42708333334</v>
+        <v>45744.42708333334</v>
       </c>
       <c r="B42">
-        <v>922</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45741.4375</v>
+        <v>45744.4375</v>
       </c>
       <c r="B43">
-        <v>922</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45741.44791666666</v>
+        <v>45744.44791666666</v>
       </c>
       <c r="B44">
-        <v>923</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45741.45833333334</v>
+        <v>45744.45833333334</v>
       </c>
       <c r="B45">
-        <v>923</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45741.46875</v>
+        <v>45744.46875</v>
       </c>
       <c r="B46">
-        <v>907</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45741.47916666666</v>
+        <v>45744.47916666666</v>
       </c>
       <c r="B47">
-        <v>906</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45741.48958333334</v>
+        <v>45744.48958333334</v>
       </c>
       <c r="B48">
-        <v>904</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45741.5</v>
+        <v>45744.5</v>
       </c>
       <c r="B49">
-        <v>903</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45741.51041666666</v>
+        <v>45744.51041666666</v>
       </c>
       <c r="B50">
-        <v>909</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45741.52083333334</v>
+        <v>45744.52083333334</v>
       </c>
       <c r="B51">
-        <v>907</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45741.53125</v>
+        <v>45744.53125</v>
       </c>
       <c r="B52">
-        <v>906</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45741.54166666666</v>
+        <v>45744.54166666666</v>
       </c>
       <c r="B53">
-        <v>904</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45741.55208333334</v>
+        <v>45744.55208333334</v>
       </c>
       <c r="B54">
-        <v>831</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45741.5625</v>
+        <v>45744.5625</v>
       </c>
       <c r="B55">
-        <v>829</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45741.57291666666</v>
+        <v>45744.57291666666</v>
       </c>
       <c r="B56">
-        <v>827</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45741.58333333334</v>
+        <v>45744.58333333334</v>
       </c>
       <c r="B57">
-        <v>825</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45741.59375</v>
+        <v>45744.59375</v>
       </c>
       <c r="B58">
-        <v>722</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45741.60416666666</v>
+        <v>45744.60416666666</v>
       </c>
       <c r="B59">
-        <v>720</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45741.61458333334</v>
+        <v>45744.61458333334</v>
       </c>
       <c r="B60">
-        <v>717</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45741.625</v>
+        <v>45744.625</v>
       </c>
       <c r="B61">
-        <v>714</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45741.63541666666</v>
+        <v>45744.63541666666</v>
       </c>
       <c r="B62">
-        <v>559</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45741.64583333334</v>
+        <v>45744.64583333334</v>
       </c>
       <c r="B63">
-        <v>555</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45741.65625</v>
+        <v>45744.65625</v>
       </c>
       <c r="B64">
-        <v>552</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45741.66666666666</v>
+        <v>45744.66666666666</v>
       </c>
       <c r="B65">
-        <v>549</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45741.67708333334</v>
+        <v>45744.67708333334</v>
       </c>
       <c r="B66">
-        <v>379</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45741.6875</v>
+        <v>45744.6875</v>
       </c>
       <c r="B67">
-        <v>377</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45741.69791666666</v>
+        <v>45744.69791666666</v>
       </c>
       <c r="B68">
-        <v>375</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45741.70833333334</v>
+        <v>45744.70833333334</v>
       </c>
       <c r="B69">
-        <v>374</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45741.71875</v>
+        <v>45744.71875</v>
       </c>
       <c r="B70">
-        <v>312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45741.72916666666</v>
+        <v>45744.72916666666</v>
       </c>
       <c r="B71">
-        <v>313</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45741.73958333334</v>
+        <v>45744.73958333334</v>
       </c>
       <c r="B72">
-        <v>314</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45741.75</v>
+        <v>45744.75</v>
       </c>
       <c r="B73">
-        <v>315</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45741.76041666666</v>
+        <v>45744.76041666666</v>
       </c>
       <c r="B74">
-        <v>283</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45741.77083333334</v>
+        <v>45744.77083333334</v>
       </c>
       <c r="B75">
-        <v>283</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45741.78125</v>
+        <v>45744.78125</v>
       </c>
       <c r="B76">
-        <v>284</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45741.79166666666</v>
+        <v>45744.79166666666</v>
       </c>
       <c r="B77">
-        <v>284</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45741.80208333334</v>
+        <v>45744.80208333334</v>
       </c>
       <c r="B78">
-        <v>267</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45741.8125</v>
+        <v>45744.8125</v>
       </c>
       <c r="B79">
-        <v>267</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45741.82291666666</v>
+        <v>45744.82291666666</v>
       </c>
       <c r="B80">
-        <v>267</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45741.83333333334</v>
+        <v>45744.83333333334</v>
       </c>
       <c r="B81">
-        <v>267</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45741.84375</v>
+        <v>45744.84375</v>
       </c>
       <c r="B82">
-        <v>257</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45741.85416666666</v>
+        <v>45744.85416666666</v>
       </c>
       <c r="B83">
-        <v>257</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45741.86458333334</v>
+        <v>45744.86458333334</v>
       </c>
       <c r="B84">
-        <v>258</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45741.875</v>
+        <v>45744.875</v>
       </c>
       <c r="B85">
-        <v>258</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45741.88541666666</v>
+        <v>45744.88541666666</v>
       </c>
       <c r="B86">
-        <v>227</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45741.89583333334</v>
+        <v>45744.89583333334</v>
       </c>
       <c r="B87">
-        <v>227</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45741.90625</v>
+        <v>45744.90625</v>
       </c>
       <c r="B88">
-        <v>227</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45741.91666666666</v>
+        <v>45744.91666666666</v>
       </c>
       <c r="B89">
-        <v>228</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45741.92708333334</v>
+        <v>45744.92708333334</v>
       </c>
       <c r="B90">
-        <v>199</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45741.9375</v>
+        <v>45744.9375</v>
       </c>
       <c r="B91">
-        <v>199</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45741.94791666666</v>
+        <v>45744.94791666666</v>
       </c>
       <c r="B92">
-        <v>199</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45741.95833333334</v>
+        <v>45744.95833333334</v>
       </c>
       <c r="B93">
-        <v>199</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45741.96875</v>
+        <v>45744.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45741.97916666666</v>
+        <v>45744.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45741.98958333334</v>
+        <v>45744.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45742</v>
+        <v>45745</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45744.01041666666</v>
+        <v>45747.01041666666</v>
       </c>
       <c r="B2">
-        <v>1617</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45744.02083333334</v>
+        <v>45747.02083333334</v>
       </c>
       <c r="B3">
-        <v>1641</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45744.03125</v>
+        <v>45747.03125</v>
       </c>
       <c r="B4">
-        <v>1643</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45744.04166666666</v>
+        <v>45747.04166666666</v>
       </c>
       <c r="B5">
-        <v>1651</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45744.05208333334</v>
+        <v>45747.05208333334</v>
       </c>
       <c r="B6">
-        <v>1806</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45744.0625</v>
+        <v>45747.0625</v>
       </c>
       <c r="B7">
-        <v>1814</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45744.07291666666</v>
+        <v>45747.07291666666</v>
       </c>
       <c r="B8">
-        <v>1804</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45744.08333333334</v>
+        <v>45747.08333333334</v>
       </c>
       <c r="B9">
-        <v>1803</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45744.09375</v>
+        <v>45747.09375</v>
       </c>
       <c r="B10">
-        <v>2002</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45744.10416666666</v>
+        <v>45747.10416666666</v>
       </c>
       <c r="B11">
-        <v>2014</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45744.11458333334</v>
+        <v>45747.11458333334</v>
       </c>
       <c r="B12">
-        <v>2024</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45744.125</v>
+        <v>45747.125</v>
       </c>
       <c r="B13">
-        <v>2038</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45744.13541666666</v>
+        <v>45747.13541666666</v>
       </c>
       <c r="B14">
-        <v>2131</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45744.14583333334</v>
+        <v>45747.14583333334</v>
       </c>
       <c r="B15">
-        <v>2141</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45744.15625</v>
+        <v>45747.15625</v>
       </c>
       <c r="B16">
-        <v>2147</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45744.16666666666</v>
+        <v>45747.16666666666</v>
       </c>
       <c r="B17">
-        <v>2155</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45744.17708333334</v>
+        <v>45747.17708333334</v>
       </c>
       <c r="B18">
-        <v>2267</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45744.1875</v>
+        <v>45747.1875</v>
       </c>
       <c r="B19">
-        <v>2268</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45744.19791666666</v>
+        <v>45747.19791666666</v>
       </c>
       <c r="B20">
-        <v>2269</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45744.20833333334</v>
+        <v>45747.20833333334</v>
       </c>
       <c r="B21">
-        <v>2261</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45744.21875</v>
+        <v>45747.21875</v>
       </c>
       <c r="B22">
-        <v>2293</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45744.22916666666</v>
+        <v>45747.22916666666</v>
       </c>
       <c r="B23">
-        <v>2294</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45744.23958333334</v>
+        <v>45747.23958333334</v>
       </c>
       <c r="B24">
-        <v>2293</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45744.25</v>
+        <v>45747.25</v>
       </c>
       <c r="B25">
-        <v>2291</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45744.26041666666</v>
+        <v>45747.26041666666</v>
       </c>
       <c r="B26">
-        <v>2272</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45744.27083333334</v>
+        <v>45747.27083333334</v>
       </c>
       <c r="B27">
-        <v>2265</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45744.28125</v>
+        <v>45747.28125</v>
       </c>
       <c r="B28">
-        <v>2265</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45744.29166666666</v>
+        <v>45747.29166666666</v>
       </c>
       <c r="B29">
-        <v>2266</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45744.30208333334</v>
+        <v>45747.30208333334</v>
       </c>
       <c r="B30">
-        <v>2299</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45744.3125</v>
+        <v>45747.3125</v>
       </c>
       <c r="B31">
-        <v>2299</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45744.32291666666</v>
+        <v>45747.32291666666</v>
       </c>
       <c r="B32">
-        <v>2301</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45744.33333333334</v>
+        <v>45747.33333333334</v>
       </c>
       <c r="B33">
-        <v>2302</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45744.34375</v>
+        <v>45747.34375</v>
       </c>
       <c r="B34">
-        <v>2264</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45744.35416666666</v>
+        <v>45747.35416666666</v>
       </c>
       <c r="B35">
-        <v>2267</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45744.36458333334</v>
+        <v>45747.36458333334</v>
       </c>
       <c r="B36">
-        <v>2269</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45744.375</v>
+        <v>45747.375</v>
       </c>
       <c r="B37">
-        <v>2273</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45744.38541666666</v>
+        <v>45747.38541666666</v>
       </c>
       <c r="B38">
-        <v>2264</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45744.39583333334</v>
+        <v>45747.39583333334</v>
       </c>
       <c r="B39">
-        <v>2266</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45744.40625</v>
+        <v>45747.40625</v>
       </c>
       <c r="B40">
-        <v>2268</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45744.41666666666</v>
+        <v>45747.41666666666</v>
       </c>
       <c r="B41">
-        <v>2269</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45744.42708333334</v>
+        <v>45747.42708333334</v>
       </c>
       <c r="B42">
-        <v>2306</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45744.4375</v>
+        <v>45747.4375</v>
       </c>
       <c r="B43">
-        <v>2308</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45744.44791666666</v>
+        <v>45747.44791666666</v>
       </c>
       <c r="B44">
-        <v>2309</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45744.45833333334</v>
+        <v>45747.45833333334</v>
       </c>
       <c r="B45">
-        <v>2311</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45744.46875</v>
+        <v>45747.46875</v>
       </c>
       <c r="B46">
-        <v>2374</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45744.47916666666</v>
+        <v>45747.47916666666</v>
       </c>
       <c r="B47">
-        <v>2375</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45744.48958333334</v>
+        <v>45747.48958333334</v>
       </c>
       <c r="B48">
-        <v>2376</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45744.5</v>
+        <v>45747.5</v>
       </c>
       <c r="B49">
-        <v>2377</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45744.51041666666</v>
+        <v>45747.51041666666</v>
       </c>
       <c r="B50">
-        <v>2412</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45744.52083333334</v>
+        <v>45747.52083333334</v>
       </c>
       <c r="B51">
-        <v>2413</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45744.53125</v>
+        <v>45747.53125</v>
       </c>
       <c r="B52">
-        <v>2414</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45744.54166666666</v>
+        <v>45747.54166666666</v>
       </c>
       <c r="B53">
-        <v>2414</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45744.55208333334</v>
+        <v>45747.55208333334</v>
       </c>
       <c r="B54">
-        <v>2435</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45744.5625</v>
+        <v>45747.5625</v>
       </c>
       <c r="B55">
-        <v>2434</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45744.57291666666</v>
+        <v>45747.57291666666</v>
       </c>
       <c r="B56">
-        <v>2434</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45744.58333333334</v>
+        <v>45747.58333333334</v>
       </c>
       <c r="B57">
-        <v>2434</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45744.59375</v>
+        <v>45747.59375</v>
       </c>
       <c r="B58">
-        <v>2451</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45744.60416666666</v>
+        <v>45747.60416666666</v>
       </c>
       <c r="B59">
-        <v>2450</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45744.61458333334</v>
+        <v>45747.61458333334</v>
       </c>
       <c r="B60">
-        <v>2449</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45744.625</v>
+        <v>45747.625</v>
       </c>
       <c r="B61">
-        <v>2448</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45744.63541666666</v>
+        <v>45747.63541666666</v>
       </c>
       <c r="B62">
-        <v>2420</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45744.64583333334</v>
+        <v>45747.64583333334</v>
       </c>
       <c r="B63">
-        <v>2417</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45744.65625</v>
+        <v>45747.65625</v>
       </c>
       <c r="B64">
-        <v>2415</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45744.66666666666</v>
+        <v>45747.66666666666</v>
       </c>
       <c r="B65">
-        <v>2412</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45744.67708333334</v>
+        <v>45747.67708333334</v>
       </c>
       <c r="B66">
-        <v>2360</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45744.6875</v>
+        <v>45747.6875</v>
       </c>
       <c r="B67">
-        <v>2358</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45744.69791666666</v>
+        <v>45747.69791666666</v>
       </c>
       <c r="B68">
-        <v>2356</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45744.70833333334</v>
+        <v>45747.70833333334</v>
       </c>
       <c r="B69">
-        <v>2353</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45744.71875</v>
+        <v>45747.71875</v>
       </c>
       <c r="B70">
-        <v>2310</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45744.72916666666</v>
+        <v>45747.72916666666</v>
       </c>
       <c r="B71">
-        <v>2309</v>
+        <v>380</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45744.73958333334</v>
+        <v>45747.73958333334</v>
       </c>
       <c r="B72">
-        <v>2309</v>
+        <v>381</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45744.75</v>
+        <v>45747.75</v>
       </c>
       <c r="B73">
-        <v>2308</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45744.76041666666</v>
+        <v>45747.76041666666</v>
       </c>
       <c r="B74">
-        <v>2263</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45744.77083333334</v>
+        <v>45747.77083333334</v>
       </c>
       <c r="B75">
-        <v>2259</v>
+        <v>408</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45744.78125</v>
+        <v>45747.78125</v>
       </c>
       <c r="B76">
-        <v>2255</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45744.79166666666</v>
+        <v>45747.79166666666</v>
       </c>
       <c r="B77">
-        <v>2251</v>
+        <v>411</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45744.80208333334</v>
+        <v>45747.80208333334</v>
       </c>
       <c r="B78">
-        <v>2302</v>
+        <v>391</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45744.8125</v>
+        <v>45747.8125</v>
       </c>
       <c r="B79">
-        <v>2299</v>
+        <v>391</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45744.82291666666</v>
+        <v>45747.82291666666</v>
       </c>
       <c r="B80">
-        <v>2296</v>
+        <v>392</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45744.83333333334</v>
+        <v>45747.83333333334</v>
       </c>
       <c r="B81">
-        <v>2293</v>
+        <v>392</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45744.84375</v>
+        <v>45747.84375</v>
       </c>
       <c r="B82">
-        <v>2125</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45744.85416666666</v>
+        <v>45747.85416666666</v>
       </c>
       <c r="B83">
-        <v>2122</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45744.86458333334</v>
+        <v>45747.86458333334</v>
       </c>
       <c r="B84">
-        <v>2119</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45744.875</v>
+        <v>45747.875</v>
       </c>
       <c r="B85">
-        <v>2116</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45744.88541666666</v>
+        <v>45747.88541666666</v>
       </c>
       <c r="B86">
-        <v>2033</v>
+        <v>333</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45744.89583333334</v>
+        <v>45747.89583333334</v>
       </c>
       <c r="B87">
-        <v>2031</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45744.90625</v>
+        <v>45747.90625</v>
       </c>
       <c r="B88">
-        <v>2030</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45744.91666666666</v>
+        <v>45747.91666666666</v>
       </c>
       <c r="B89">
-        <v>2028</v>
+        <v>332</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45744.92708333334</v>
+        <v>45747.92708333334</v>
       </c>
       <c r="B90">
-        <v>2019</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45744.9375</v>
+        <v>45747.9375</v>
       </c>
       <c r="B91">
-        <v>2020</v>
+        <v>284</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45744.94791666666</v>
+        <v>45747.94791666666</v>
       </c>
       <c r="B92">
-        <v>2021</v>
+        <v>283</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45744.95833333334</v>
+        <v>45747.95833333334</v>
       </c>
       <c r="B93">
-        <v>2022</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45744.96875</v>
+        <v>45747.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45744.97916666666</v>
+        <v>45747.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45744.98958333334</v>
+        <v>45747.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45745</v>
+        <v>45748</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45747.01041666666</v>
+        <v>45751.01041666666</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>769</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45747.02083333334</v>
+        <v>45751.02083333334</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>770</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45747.03125</v>
+        <v>45751.03125</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45747.04166666666</v>
+        <v>45751.04166666666</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45747.05208333334</v>
+        <v>45751.05208333334</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>737</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45747.0625</v>
+        <v>45751.0625</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>740</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45747.07291666666</v>
+        <v>45751.07291666666</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>740</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45747.08333333334</v>
+        <v>45751.08333333334</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>741</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45747.09375</v>
+        <v>45751.09375</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>699</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45747.10416666666</v>
+        <v>45751.10416666666</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>699</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45747.11458333334</v>
+        <v>45751.11458333334</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>697</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45747.125</v>
+        <v>45751.125</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>697</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45747.13541666666</v>
+        <v>45751.13541666666</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>766</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45747.14583333334</v>
+        <v>45751.14583333334</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>771</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45747.15625</v>
+        <v>45751.15625</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>770</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45747.16666666666</v>
+        <v>45751.16666666666</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>770</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45747.17708333334</v>
+        <v>45751.17708333334</v>
       </c>
       <c r="B18">
-        <v>35</v>
+        <v>767</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45747.1875</v>
+        <v>45751.1875</v>
       </c>
       <c r="B19">
-        <v>34</v>
+        <v>769</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45747.19791666666</v>
+        <v>45751.19791666666</v>
       </c>
       <c r="B20">
-        <v>35</v>
+        <v>769</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45747.20833333334</v>
+        <v>45751.20833333334</v>
       </c>
       <c r="B21">
-        <v>35</v>
+        <v>769</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45747.21875</v>
+        <v>45751.21875</v>
       </c>
       <c r="B22">
-        <v>32</v>
+        <v>877</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45747.22916666666</v>
+        <v>45751.22916666666</v>
       </c>
       <c r="B23">
-        <v>31</v>
+        <v>876</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45747.23958333334</v>
+        <v>45751.23958333334</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45747.25</v>
+        <v>45751.25</v>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>873</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45747.26041666666</v>
+        <v>45751.26041666666</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>877</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45747.27083333334</v>
+        <v>45751.27083333334</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45747.28125</v>
+        <v>45751.28125</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>870</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45747.29166666666</v>
+        <v>45751.29166666666</v>
       </c>
       <c r="B29">
-        <v>25</v>
+        <v>868</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45747.30208333334</v>
+        <v>45751.30208333334</v>
       </c>
       <c r="B30">
-        <v>56</v>
+        <v>853</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45747.3125</v>
+        <v>45751.3125</v>
       </c>
       <c r="B31">
-        <v>56</v>
+        <v>853</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45747.32291666666</v>
+        <v>45751.32291666666</v>
       </c>
       <c r="B32">
-        <v>56</v>
+        <v>855</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45747.33333333334</v>
+        <v>45751.33333333334</v>
       </c>
       <c r="B33">
-        <v>57</v>
+        <v>853</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45747.34375</v>
+        <v>45751.34375</v>
       </c>
       <c r="B34">
-        <v>66</v>
+        <v>805</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45747.35416666666</v>
+        <v>45751.35416666666</v>
       </c>
       <c r="B35">
-        <v>66</v>
+        <v>808</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45747.36458333334</v>
+        <v>45751.36458333334</v>
       </c>
       <c r="B36">
-        <v>67</v>
+        <v>805</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45747.375</v>
+        <v>45751.375</v>
       </c>
       <c r="B37">
-        <v>69</v>
+        <v>805</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45747.38541666666</v>
+        <v>45751.38541666666</v>
       </c>
       <c r="B38">
-        <v>56</v>
+        <v>747</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45747.39583333334</v>
+        <v>45751.39583333334</v>
       </c>
       <c r="B39">
-        <v>57</v>
+        <v>747</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45747.40625</v>
+        <v>45751.40625</v>
       </c>
       <c r="B40">
-        <v>58</v>
+        <v>747</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45747.41666666666</v>
+        <v>45751.41666666666</v>
       </c>
       <c r="B41">
-        <v>61</v>
+        <v>748</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45747.42708333334</v>
+        <v>45751.42708333334</v>
       </c>
       <c r="B42">
-        <v>87</v>
+        <v>795</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45747.4375</v>
+        <v>45751.4375</v>
       </c>
       <c r="B43">
-        <v>88</v>
+        <v>796</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45747.44791666666</v>
+        <v>45751.44791666666</v>
       </c>
       <c r="B44">
-        <v>90</v>
+        <v>798</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45747.45833333334</v>
+        <v>45751.45833333334</v>
       </c>
       <c r="B45">
-        <v>90</v>
+        <v>799</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45747.46875</v>
+        <v>45751.46875</v>
       </c>
       <c r="B46">
-        <v>85</v>
+        <v>848</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45747.47916666666</v>
+        <v>45751.47916666666</v>
       </c>
       <c r="B47">
-        <v>86</v>
+        <v>849</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45747.48958333334</v>
+        <v>45751.48958333334</v>
       </c>
       <c r="B48">
-        <v>86</v>
+        <v>849</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45747.5</v>
+        <v>45751.5</v>
       </c>
       <c r="B49">
-        <v>87</v>
+        <v>849</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45747.51041666666</v>
+        <v>45751.51041666666</v>
       </c>
       <c r="B50">
-        <v>110</v>
+        <v>840</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45747.52083333334</v>
+        <v>45751.52083333334</v>
       </c>
       <c r="B51">
-        <v>110</v>
+        <v>840</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45747.53125</v>
+        <v>45751.53125</v>
       </c>
       <c r="B52">
-        <v>111</v>
+        <v>839</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45747.54166666666</v>
+        <v>45751.54166666666</v>
       </c>
       <c r="B53">
-        <v>112</v>
+        <v>839</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45747.55208333334</v>
+        <v>45751.55208333334</v>
       </c>
       <c r="B54">
-        <v>140</v>
+        <v>892</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45747.5625</v>
+        <v>45751.5625</v>
       </c>
       <c r="B55">
-        <v>141</v>
+        <v>891</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45747.57291666666</v>
+        <v>45751.57291666666</v>
       </c>
       <c r="B56">
-        <v>142</v>
+        <v>890</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45747.58333333334</v>
+        <v>45751.58333333334</v>
       </c>
       <c r="B57">
-        <v>142</v>
+        <v>889</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45747.59375</v>
+        <v>45751.59375</v>
       </c>
       <c r="B58">
-        <v>203</v>
+        <v>920</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45747.60416666666</v>
+        <v>45751.60416666666</v>
       </c>
       <c r="B59">
-        <v>203</v>
+        <v>916</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45747.61458333334</v>
+        <v>45751.61458333334</v>
       </c>
       <c r="B60">
-        <v>203</v>
+        <v>913</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45747.625</v>
+        <v>45751.625</v>
       </c>
       <c r="B61">
-        <v>204</v>
+        <v>910</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45747.63541666666</v>
+        <v>45751.63541666666</v>
       </c>
       <c r="B62">
-        <v>237</v>
+        <v>771</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45747.64583333334</v>
+        <v>45751.64583333334</v>
       </c>
       <c r="B63">
-        <v>237</v>
+        <v>768</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45747.65625</v>
+        <v>45751.65625</v>
       </c>
       <c r="B64">
-        <v>238</v>
+        <v>764</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45747.66666666666</v>
+        <v>45751.66666666666</v>
       </c>
       <c r="B65">
-        <v>239</v>
+        <v>761</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45747.67708333334</v>
+        <v>45751.67708333334</v>
       </c>
       <c r="B66">
-        <v>304</v>
+        <v>637</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45747.6875</v>
+        <v>45751.6875</v>
       </c>
       <c r="B67">
-        <v>303</v>
+        <v>633</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45747.69791666666</v>
+        <v>45751.69791666666</v>
       </c>
       <c r="B68">
-        <v>304</v>
+        <v>630</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45747.70833333334</v>
+        <v>45751.70833333334</v>
       </c>
       <c r="B69">
-        <v>304</v>
+        <v>627</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45747.71875</v>
+        <v>45751.71875</v>
       </c>
       <c r="B70">
-        <v>379</v>
+        <v>492</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45747.72916666666</v>
+        <v>45751.72916666666</v>
       </c>
       <c r="B71">
-        <v>380</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45747.73958333334</v>
+        <v>45751.73958333334</v>
       </c>
       <c r="B72">
-        <v>381</v>
+        <v>485</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45747.75</v>
+        <v>45751.75</v>
       </c>
       <c r="B73">
-        <v>382</v>
+        <v>481</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45747.76041666666</v>
+        <v>45751.76041666666</v>
       </c>
       <c r="B74">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45747.77083333334</v>
+        <v>45751.77083333334</v>
       </c>
       <c r="B75">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45747.78125</v>
+        <v>45751.78125</v>
       </c>
       <c r="B76">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45747.79166666666</v>
+        <v>45751.79166666666</v>
       </c>
       <c r="B77">
-        <v>411</v>
+        <v>393</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45747.80208333334</v>
+        <v>45751.80208333334</v>
       </c>
       <c r="B78">
-        <v>391</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45747.8125</v>
+        <v>45751.8125</v>
       </c>
       <c r="B79">
-        <v>391</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45747.82291666666</v>
+        <v>45751.82291666666</v>
       </c>
       <c r="B80">
-        <v>392</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45747.83333333334</v>
+        <v>45751.83333333334</v>
       </c>
       <c r="B81">
-        <v>392</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45747.84375</v>
+        <v>45751.84375</v>
       </c>
       <c r="B82">
-        <v>368</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45747.85416666666</v>
+        <v>45751.85416666666</v>
       </c>
       <c r="B83">
-        <v>368</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45747.86458333334</v>
+        <v>45751.86458333334</v>
       </c>
       <c r="B84">
-        <v>367</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45747.875</v>
+        <v>45751.875</v>
       </c>
       <c r="B85">
-        <v>366</v>
+        <v>305</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45747.88541666666</v>
+        <v>45751.88541666666</v>
       </c>
       <c r="B86">
-        <v>333</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45747.89583333334</v>
+        <v>45751.89583333334</v>
       </c>
       <c r="B87">
-        <v>332</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45747.90625</v>
+        <v>45751.90625</v>
       </c>
       <c r="B88">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45747.91666666666</v>
+        <v>45751.91666666666</v>
       </c>
       <c r="B89">
-        <v>332</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45747.92708333334</v>
+        <v>45751.92708333334</v>
       </c>
       <c r="B90">
-        <v>285</v>
+        <v>310</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45747.9375</v>
+        <v>45751.9375</v>
       </c>
       <c r="B91">
-        <v>284</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45747.94791666666</v>
+        <v>45751.94791666666</v>
       </c>
       <c r="B92">
-        <v>283</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45747.95833333334</v>
+        <v>45751.95833333334</v>
       </c>
       <c r="B93">
-        <v>282</v>
+        <v>314</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45747.96875</v>
+        <v>45751.96875</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45747.97916666666</v>
+        <v>45751.97916666666</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45747.98958333334</v>
+        <v>45751.98958333334</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>358</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45748</v>
+        <v>45752</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,770 +397,770 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45751.01041666666</v>
+        <v>45758.01041666666</v>
       </c>
       <c r="B2">
-        <v>769</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45751.02083333334</v>
+        <v>45758.02083333334</v>
       </c>
       <c r="B3">
-        <v>770</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45751.03125</v>
+        <v>45758.03125</v>
       </c>
       <c r="B4">
-        <v>772</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45751.04166666666</v>
+        <v>45758.04166666666</v>
       </c>
       <c r="B5">
-        <v>772</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45751.05208333334</v>
+        <v>45758.05208333334</v>
       </c>
       <c r="B6">
-        <v>737</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45751.0625</v>
+        <v>45758.0625</v>
       </c>
       <c r="B7">
-        <v>740</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45751.07291666666</v>
+        <v>45758.07291666666</v>
       </c>
       <c r="B8">
-        <v>740</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45751.08333333334</v>
+        <v>45758.08333333334</v>
       </c>
       <c r="B9">
-        <v>741</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45751.09375</v>
+        <v>45758.09375</v>
       </c>
       <c r="B10">
-        <v>699</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45751.10416666666</v>
+        <v>45758.10416666666</v>
       </c>
       <c r="B11">
-        <v>699</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45751.11458333334</v>
+        <v>45758.11458333334</v>
       </c>
       <c r="B12">
-        <v>697</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45751.125</v>
+        <v>45758.125</v>
       </c>
       <c r="B13">
-        <v>697</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45751.13541666666</v>
+        <v>45758.13541666666</v>
       </c>
       <c r="B14">
-        <v>766</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45751.14583333334</v>
+        <v>45758.14583333334</v>
       </c>
       <c r="B15">
-        <v>771</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45751.15625</v>
+        <v>45758.15625</v>
       </c>
       <c r="B16">
-        <v>770</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45751.16666666666</v>
+        <v>45758.16666666666</v>
       </c>
       <c r="B17">
-        <v>770</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45751.17708333334</v>
+        <v>45758.17708333334</v>
       </c>
       <c r="B18">
-        <v>767</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45751.1875</v>
+        <v>45758.1875</v>
       </c>
       <c r="B19">
-        <v>769</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45751.19791666666</v>
+        <v>45758.19791666666</v>
       </c>
       <c r="B20">
-        <v>769</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45751.20833333334</v>
+        <v>45758.20833333334</v>
       </c>
       <c r="B21">
-        <v>769</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45751.21875</v>
+        <v>45758.21875</v>
       </c>
       <c r="B22">
-        <v>877</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45751.22916666666</v>
+        <v>45758.22916666666</v>
       </c>
       <c r="B23">
-        <v>876</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45751.23958333334</v>
+        <v>45758.23958333334</v>
       </c>
       <c r="B24">
-        <v>875</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45751.25</v>
+        <v>45758.25</v>
       </c>
       <c r="B25">
-        <v>873</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45751.26041666666</v>
+        <v>45758.26041666666</v>
       </c>
       <c r="B26">
-        <v>877</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45751.27083333334</v>
+        <v>45758.27083333334</v>
       </c>
       <c r="B27">
-        <v>875</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45751.28125</v>
+        <v>45758.28125</v>
       </c>
       <c r="B28">
-        <v>870</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45751.29166666666</v>
+        <v>45758.29166666666</v>
       </c>
       <c r="B29">
-        <v>868</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45751.30208333334</v>
+        <v>45758.30208333334</v>
       </c>
       <c r="B30">
-        <v>853</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45751.3125</v>
+        <v>45758.3125</v>
       </c>
       <c r="B31">
-        <v>853</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45751.32291666666</v>
+        <v>45758.32291666666</v>
       </c>
       <c r="B32">
-        <v>855</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45751.33333333334</v>
+        <v>45758.33333333334</v>
       </c>
       <c r="B33">
-        <v>853</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45751.34375</v>
+        <v>45758.34375</v>
       </c>
       <c r="B34">
-        <v>805</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45751.35416666666</v>
+        <v>45758.35416666666</v>
       </c>
       <c r="B35">
-        <v>808</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45751.36458333334</v>
+        <v>45758.36458333334</v>
       </c>
       <c r="B36">
-        <v>805</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45751.375</v>
+        <v>45758.375</v>
       </c>
       <c r="B37">
-        <v>805</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45751.38541666666</v>
+        <v>45758.38541666666</v>
       </c>
       <c r="B38">
-        <v>747</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45751.39583333334</v>
+        <v>45758.39583333334</v>
       </c>
       <c r="B39">
-        <v>747</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45751.40625</v>
+        <v>45758.40625</v>
       </c>
       <c r="B40">
-        <v>747</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45751.41666666666</v>
+        <v>45758.41666666666</v>
       </c>
       <c r="B41">
-        <v>748</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45751.42708333334</v>
+        <v>45758.42708333334</v>
       </c>
       <c r="B42">
-        <v>795</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45751.4375</v>
+        <v>45758.4375</v>
       </c>
       <c r="B43">
-        <v>796</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45751.44791666666</v>
+        <v>45758.44791666666</v>
       </c>
       <c r="B44">
-        <v>798</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45751.45833333334</v>
+        <v>45758.45833333334</v>
       </c>
       <c r="B45">
-        <v>799</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45751.46875</v>
+        <v>45758.46875</v>
       </c>
       <c r="B46">
-        <v>848</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45751.47916666666</v>
+        <v>45758.47916666666</v>
       </c>
       <c r="B47">
-        <v>849</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45751.48958333334</v>
+        <v>45758.48958333334</v>
       </c>
       <c r="B48">
-        <v>849</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45751.5</v>
+        <v>45758.5</v>
       </c>
       <c r="B49">
-        <v>849</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45751.51041666666</v>
+        <v>45758.51041666666</v>
       </c>
       <c r="B50">
-        <v>840</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45751.52083333334</v>
+        <v>45758.52083333334</v>
       </c>
       <c r="B51">
-        <v>840</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45751.53125</v>
+        <v>45758.53125</v>
       </c>
       <c r="B52">
-        <v>839</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45751.54166666666</v>
+        <v>45758.54166666666</v>
       </c>
       <c r="B53">
-        <v>839</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45751.55208333334</v>
+        <v>45758.55208333334</v>
       </c>
       <c r="B54">
-        <v>892</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45751.5625</v>
+        <v>45758.5625</v>
       </c>
       <c r="B55">
-        <v>891</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45751.57291666666</v>
+        <v>45758.57291666666</v>
       </c>
       <c r="B56">
-        <v>890</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45751.58333333334</v>
+        <v>45758.58333333334</v>
       </c>
       <c r="B57">
-        <v>889</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45751.59375</v>
+        <v>45758.59375</v>
       </c>
       <c r="B58">
-        <v>920</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45751.60416666666</v>
+        <v>45758.60416666666</v>
       </c>
       <c r="B59">
-        <v>916</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45751.61458333334</v>
+        <v>45758.61458333334</v>
       </c>
       <c r="B60">
-        <v>913</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45751.625</v>
+        <v>45758.625</v>
       </c>
       <c r="B61">
-        <v>910</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45751.63541666666</v>
+        <v>45758.63541666666</v>
       </c>
       <c r="B62">
-        <v>771</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45751.64583333334</v>
+        <v>45758.64583333334</v>
       </c>
       <c r="B63">
-        <v>768</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45751.65625</v>
+        <v>45758.65625</v>
       </c>
       <c r="B64">
-        <v>764</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45751.66666666666</v>
+        <v>45758.66666666666</v>
       </c>
       <c r="B65">
-        <v>761</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45751.67708333334</v>
+        <v>45758.67708333334</v>
       </c>
       <c r="B66">
-        <v>637</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45751.6875</v>
+        <v>45758.6875</v>
       </c>
       <c r="B67">
-        <v>633</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45751.69791666666</v>
+        <v>45758.69791666666</v>
       </c>
       <c r="B68">
-        <v>630</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45751.70833333334</v>
+        <v>45758.70833333334</v>
       </c>
       <c r="B69">
-        <v>627</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45751.71875</v>
+        <v>45758.71875</v>
       </c>
       <c r="B70">
-        <v>492</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45751.72916666666</v>
+        <v>45758.72916666666</v>
       </c>
       <c r="B71">
-        <v>488</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45751.73958333334</v>
+        <v>45758.73958333334</v>
       </c>
       <c r="B72">
-        <v>485</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45751.75</v>
+        <v>45758.75</v>
       </c>
       <c r="B73">
-        <v>481</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45751.76041666666</v>
+        <v>45758.76041666666</v>
       </c>
       <c r="B74">
-        <v>399</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45751.77083333334</v>
+        <v>45758.77083333334</v>
       </c>
       <c r="B75">
-        <v>397</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45751.78125</v>
+        <v>45758.78125</v>
       </c>
       <c r="B76">
-        <v>395</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45751.79166666666</v>
+        <v>45758.79166666666</v>
       </c>
       <c r="B77">
-        <v>393</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45751.80208333334</v>
+        <v>45758.80208333334</v>
       </c>
       <c r="B78">
-        <v>357</v>
+        <v>940</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45751.8125</v>
+        <v>45758.8125</v>
       </c>
       <c r="B79">
-        <v>355</v>
+        <v>935</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45751.82291666666</v>
+        <v>45758.82291666666</v>
       </c>
       <c r="B80">
-        <v>354</v>
+        <v>931</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45751.83333333334</v>
+        <v>45758.83333333334</v>
       </c>
       <c r="B81">
-        <v>353</v>
+        <v>926</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45751.84375</v>
+        <v>45758.84375</v>
       </c>
       <c r="B82">
-        <v>305</v>
+        <v>731</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45751.85416666666</v>
+        <v>45758.85416666666</v>
       </c>
       <c r="B83">
-        <v>305</v>
+        <v>729</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45751.86458333334</v>
+        <v>45758.86458333334</v>
       </c>
       <c r="B84">
-        <v>304</v>
+        <v>726</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45751.875</v>
+        <v>45758.875</v>
       </c>
       <c r="B85">
-        <v>305</v>
+        <v>724</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45751.88541666666</v>
+        <v>45758.88541666666</v>
       </c>
       <c r="B86">
-        <v>299</v>
+        <v>613</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45751.89583333334</v>
+        <v>45758.89583333334</v>
       </c>
       <c r="B87">
-        <v>299</v>
+        <v>611</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45751.90625</v>
+        <v>45758.90625</v>
       </c>
       <c r="B88">
-        <v>300</v>
+        <v>610</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45751.91666666666</v>
+        <v>45758.91666666666</v>
       </c>
       <c r="B89">
-        <v>303</v>
+        <v>608</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45751.92708333334</v>
+        <v>45758.92708333334</v>
       </c>
       <c r="B90">
-        <v>310</v>
+        <v>552</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45751.9375</v>
+        <v>45758.9375</v>
       </c>
       <c r="B91">
-        <v>311</v>
+        <v>551</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45751.94791666666</v>
+        <v>45758.94791666666</v>
       </c>
       <c r="B92">
-        <v>312</v>
+        <v>550</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45751.95833333334</v>
+        <v>45758.95833333334</v>
       </c>
       <c r="B93">
-        <v>314</v>
+        <v>549</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45751.96875</v>
+        <v>45758.96875</v>
       </c>
       <c r="B94">
-        <v>355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45751.97916666666</v>
+        <v>45758.97916666666</v>
       </c>
       <c r="B95">
-        <v>357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45751.98958333334</v>
+        <v>45758.98958333334</v>
       </c>
       <c r="B96">
-        <v>358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45752</v>
+        <v>45759</v>
       </c>
       <c r="B97">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45758.01041666666</v>
+        <v>45776.01041666666</v>
       </c>
       <c r="B2">
-        <v>2385</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45758.02083333334</v>
+        <v>45776.02083333334</v>
       </c>
       <c r="B3">
-        <v>2384</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45758.03125</v>
+        <v>45776.03125</v>
       </c>
       <c r="B4">
-        <v>2384</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45758.04166666666</v>
+        <v>45776.04166666666</v>
       </c>
       <c r="B5">
-        <v>2379</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45758.05208333334</v>
+        <v>45776.05208333334</v>
       </c>
       <c r="B6">
-        <v>2377</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45758.0625</v>
+        <v>45776.0625</v>
       </c>
       <c r="B7">
-        <v>2379</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45758.07291666666</v>
+        <v>45776.07291666666</v>
       </c>
       <c r="B8">
-        <v>2359</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45758.08333333334</v>
+        <v>45776.08333333334</v>
       </c>
       <c r="B9">
-        <v>2357</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45758.09375</v>
+        <v>45776.09375</v>
       </c>
       <c r="B10">
-        <v>2337</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45758.10416666666</v>
+        <v>45776.10416666666</v>
       </c>
       <c r="B11">
-        <v>2335</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45758.11458333334</v>
+        <v>45776.11458333334</v>
       </c>
       <c r="B12">
-        <v>2330</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45758.125</v>
+        <v>45776.125</v>
       </c>
       <c r="B13">
-        <v>2328</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45758.13541666666</v>
+        <v>45776.13541666666</v>
       </c>
       <c r="B14">
-        <v>2203</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45758.14583333334</v>
+        <v>45776.14583333334</v>
       </c>
       <c r="B15">
-        <v>2203</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45758.15625</v>
+        <v>45776.15625</v>
       </c>
       <c r="B16">
-        <v>2199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45758.16666666666</v>
+        <v>45776.16666666666</v>
       </c>
       <c r="B17">
-        <v>2196</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45758.17708333334</v>
+        <v>45776.17708333334</v>
       </c>
       <c r="B18">
-        <v>2134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45758.1875</v>
+        <v>45776.1875</v>
       </c>
       <c r="B19">
-        <v>2130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45758.19791666666</v>
+        <v>45776.19791666666</v>
       </c>
       <c r="B20">
-        <v>2139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45758.20833333334</v>
+        <v>45776.20833333334</v>
       </c>
       <c r="B21">
-        <v>2138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45758.21875</v>
+        <v>45776.21875</v>
       </c>
       <c r="B22">
-        <v>2027</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45758.22916666666</v>
+        <v>45776.22916666666</v>
       </c>
       <c r="B23">
-        <v>2028</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45758.23958333334</v>
+        <v>45776.23958333334</v>
       </c>
       <c r="B24">
-        <v>2030</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45758.25</v>
+        <v>45776.25</v>
       </c>
       <c r="B25">
-        <v>2027</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45758.26041666666</v>
+        <v>45776.26041666666</v>
       </c>
       <c r="B26">
-        <v>1911</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45758.27083333334</v>
+        <v>45776.27083333334</v>
       </c>
       <c r="B27">
-        <v>1923</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45758.28125</v>
+        <v>45776.28125</v>
       </c>
       <c r="B28">
-        <v>1918</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45758.29166666666</v>
+        <v>45776.29166666666</v>
       </c>
       <c r="B29">
-        <v>1917</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45758.30208333334</v>
+        <v>45776.30208333334</v>
       </c>
       <c r="B30">
-        <v>1808</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45758.3125</v>
+        <v>45776.3125</v>
       </c>
       <c r="B31">
-        <v>1808</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45758.32291666666</v>
+        <v>45776.32291666666</v>
       </c>
       <c r="B32">
-        <v>1807</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45758.33333333334</v>
+        <v>45776.33333333334</v>
       </c>
       <c r="B33">
-        <v>1808</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45758.34375</v>
+        <v>45776.34375</v>
       </c>
       <c r="B34">
-        <v>1841</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45758.35416666666</v>
+        <v>45776.35416666666</v>
       </c>
       <c r="B35">
-        <v>1847</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45758.36458333334</v>
+        <v>45776.36458333334</v>
       </c>
       <c r="B36">
-        <v>1853</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45758.375</v>
+        <v>45776.375</v>
       </c>
       <c r="B37">
-        <v>1860</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45758.38541666666</v>
+        <v>45776.38541666666</v>
       </c>
       <c r="B38">
-        <v>2083</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45758.39583333334</v>
+        <v>45776.39583333334</v>
       </c>
       <c r="B39">
-        <v>2085</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45758.40625</v>
+        <v>45776.40625</v>
       </c>
       <c r="B40">
-        <v>2086</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45758.41666666666</v>
+        <v>45776.41666666666</v>
       </c>
       <c r="B41">
-        <v>2087</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45758.42708333334</v>
+        <v>45776.42708333334</v>
       </c>
       <c r="B42">
-        <v>2174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45758.4375</v>
+        <v>45776.4375</v>
       </c>
       <c r="B43">
-        <v>2174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45758.44791666666</v>
+        <v>45776.44791666666</v>
       </c>
       <c r="B44">
-        <v>2173</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45758.45833333334</v>
+        <v>45776.45833333334</v>
       </c>
       <c r="B45">
-        <v>2172</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45758.46875</v>
+        <v>45776.46875</v>
       </c>
       <c r="B46">
-        <v>2209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45758.47916666666</v>
+        <v>45776.47916666666</v>
       </c>
       <c r="B47">
-        <v>2208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45758.48958333334</v>
+        <v>45776.48958333334</v>
       </c>
       <c r="B48">
-        <v>2207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45758.5</v>
+        <v>45776.5</v>
       </c>
       <c r="B49">
-        <v>2206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45758.51041666666</v>
+        <v>45776.51041666666</v>
       </c>
       <c r="B50">
-        <v>1807</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45758.52083333334</v>
+        <v>45776.52083333334</v>
       </c>
       <c r="B51">
-        <v>1806</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45758.53125</v>
+        <v>45776.53125</v>
       </c>
       <c r="B52">
-        <v>1804</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45758.54166666666</v>
+        <v>45776.54166666666</v>
       </c>
       <c r="B53">
-        <v>1803</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45758.55208333334</v>
+        <v>45776.55208333334</v>
       </c>
       <c r="B54">
-        <v>1794</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45758.5625</v>
+        <v>45776.5625</v>
       </c>
       <c r="B55">
-        <v>1792</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45758.57291666666</v>
+        <v>45776.57291666666</v>
       </c>
       <c r="B56">
-        <v>1790</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45758.58333333334</v>
+        <v>45776.58333333334</v>
       </c>
       <c r="B57">
-        <v>1788</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45758.59375</v>
+        <v>45776.59375</v>
       </c>
       <c r="B58">
-        <v>1817</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45758.60416666666</v>
+        <v>45776.60416666666</v>
       </c>
       <c r="B59">
-        <v>1816</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45758.61458333334</v>
+        <v>45776.61458333334</v>
       </c>
       <c r="B60">
-        <v>1814</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45758.625</v>
+        <v>45776.625</v>
       </c>
       <c r="B61">
-        <v>1813</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45758.63541666666</v>
+        <v>45776.63541666666</v>
       </c>
       <c r="B62">
-        <v>2061</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45758.64583333334</v>
+        <v>45776.64583333334</v>
       </c>
       <c r="B63">
-        <v>2059</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45758.65625</v>
+        <v>45776.65625</v>
       </c>
       <c r="B64">
-        <v>2056</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45758.66666666666</v>
+        <v>45776.66666666666</v>
       </c>
       <c r="B65">
-        <v>2053</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45758.67708333334</v>
+        <v>45776.67708333334</v>
       </c>
       <c r="B66">
-        <v>1969</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45758.6875</v>
+        <v>45776.6875</v>
       </c>
       <c r="B67">
-        <v>1963</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45758.69791666666</v>
+        <v>45776.69791666666</v>
       </c>
       <c r="B68">
-        <v>1957</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45758.70833333334</v>
+        <v>45776.70833333334</v>
       </c>
       <c r="B69">
-        <v>1951</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45758.71875</v>
+        <v>45776.71875</v>
       </c>
       <c r="B70">
-        <v>1596</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45758.72916666666</v>
+        <v>45776.72916666666</v>
       </c>
       <c r="B71">
-        <v>1585</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45758.73958333334</v>
+        <v>45776.73958333334</v>
       </c>
       <c r="B72">
-        <v>1573</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45758.75</v>
+        <v>45776.75</v>
       </c>
       <c r="B73">
-        <v>1561</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45758.76041666666</v>
+        <v>45776.76041666666</v>
       </c>
       <c r="B74">
-        <v>1214</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45758.77083333334</v>
+        <v>45776.77083333334</v>
       </c>
       <c r="B75">
-        <v>1206</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45758.78125</v>
+        <v>45776.78125</v>
       </c>
       <c r="B76">
-        <v>1198</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45758.79166666666</v>
+        <v>45776.79166666666</v>
       </c>
       <c r="B77">
-        <v>1191</v>
+        <v>324</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45758.80208333334</v>
+        <v>45776.80208333334</v>
       </c>
       <c r="B78">
-        <v>940</v>
+        <v>395</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45758.8125</v>
+        <v>45776.8125</v>
       </c>
       <c r="B79">
-        <v>935</v>
+        <v>396</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45758.82291666666</v>
+        <v>45776.82291666666</v>
       </c>
       <c r="B80">
-        <v>931</v>
+        <v>399</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45758.83333333334</v>
+        <v>45776.83333333334</v>
       </c>
       <c r="B81">
-        <v>926</v>
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45758.84375</v>
+        <v>45776.84375</v>
       </c>
       <c r="B82">
-        <v>731</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45758.85416666666</v>
+        <v>45776.85416666666</v>
       </c>
       <c r="B83">
-        <v>729</v>
+        <v>414</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45758.86458333334</v>
+        <v>45776.86458333334</v>
       </c>
       <c r="B84">
-        <v>726</v>
+        <v>417</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45758.875</v>
+        <v>45776.875</v>
       </c>
       <c r="B85">
-        <v>724</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45758.88541666666</v>
+        <v>45776.88541666666</v>
       </c>
       <c r="B86">
-        <v>613</v>
+        <v>397</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45758.89583333334</v>
+        <v>45776.89583333334</v>
       </c>
       <c r="B87">
-        <v>611</v>
+        <v>399</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45758.90625</v>
+        <v>45776.90625</v>
       </c>
       <c r="B88">
-        <v>610</v>
+        <v>401</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45758.91666666666</v>
+        <v>45776.91666666666</v>
       </c>
       <c r="B89">
-        <v>608</v>
+        <v>405</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45758.92708333334</v>
+        <v>45776.92708333334</v>
       </c>
       <c r="B90">
-        <v>552</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45758.9375</v>
+        <v>45776.9375</v>
       </c>
       <c r="B91">
-        <v>551</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45758.94791666666</v>
+        <v>45776.94791666666</v>
       </c>
       <c r="B92">
-        <v>550</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45758.95833333334</v>
+        <v>45776.95833333334</v>
       </c>
       <c r="B93">
-        <v>549</v>
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45758.96875</v>
+        <v>45776.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45758.97916666666</v>
+        <v>45776.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45758.98958333334</v>
+        <v>45776.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45759</v>
+        <v>45777</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45776.01041666666</v>
+        <v>45786.01041666666</v>
       </c>
       <c r="B2">
-        <v>331</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45776.02083333334</v>
+        <v>45786.02083333334</v>
       </c>
       <c r="B3">
-        <v>341</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45776.03125</v>
+        <v>45786.03125</v>
       </c>
       <c r="B4">
-        <v>333</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45776.04166666666</v>
+        <v>45786.04166666666</v>
       </c>
       <c r="B5">
-        <v>330</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45776.05208333334</v>
+        <v>45786.05208333334</v>
       </c>
       <c r="B6">
-        <v>237</v>
+        <v>959</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45776.0625</v>
+        <v>45786.0625</v>
       </c>
       <c r="B7">
-        <v>235</v>
+        <v>957</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45776.07291666666</v>
+        <v>45786.07291666666</v>
       </c>
       <c r="B8">
-        <v>240</v>
+        <v>955</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45776.08333333334</v>
+        <v>45786.08333333334</v>
       </c>
       <c r="B9">
-        <v>228</v>
+        <v>953</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45776.09375</v>
+        <v>45786.09375</v>
       </c>
       <c r="B10">
-        <v>176</v>
+        <v>862</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45776.10416666666</v>
+        <v>45786.10416666666</v>
       </c>
       <c r="B11">
-        <v>175</v>
+        <v>859</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45776.11458333334</v>
+        <v>45786.11458333334</v>
       </c>
       <c r="B12">
-        <v>179</v>
+        <v>855</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45776.125</v>
+        <v>45786.125</v>
       </c>
       <c r="B13">
-        <v>173</v>
+        <v>852</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45776.13541666666</v>
+        <v>45786.13541666666</v>
       </c>
       <c r="B14">
-        <v>155</v>
+        <v>794</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45776.14583333334</v>
+        <v>45786.14583333334</v>
       </c>
       <c r="B15">
-        <v>155</v>
+        <v>792</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45776.15625</v>
+        <v>45786.15625</v>
       </c>
       <c r="B16">
-        <v>164</v>
+        <v>790</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45776.16666666666</v>
+        <v>45786.16666666666</v>
       </c>
       <c r="B17">
-        <v>153</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45776.17708333334</v>
+        <v>45786.17708333334</v>
       </c>
       <c r="B18">
-        <v>133</v>
+        <v>846</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45776.1875</v>
+        <v>45786.1875</v>
       </c>
       <c r="B19">
-        <v>132</v>
+        <v>848</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45776.19791666666</v>
+        <v>45786.19791666666</v>
       </c>
       <c r="B20">
-        <v>140</v>
+        <v>851</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45776.20833333334</v>
+        <v>45786.20833333334</v>
       </c>
       <c r="B21">
-        <v>129</v>
+        <v>854</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45776.21875</v>
+        <v>45786.21875</v>
       </c>
       <c r="B22">
-        <v>121</v>
+        <v>979</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45776.22916666666</v>
+        <v>45786.22916666666</v>
       </c>
       <c r="B23">
-        <v>118</v>
+        <v>985</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45776.23958333334</v>
+        <v>45786.23958333334</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>991</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45776.25</v>
+        <v>45786.25</v>
       </c>
       <c r="B25">
-        <v>117</v>
+        <v>997</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45776.26041666666</v>
+        <v>45786.26041666666</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45776.27083333334</v>
+        <v>45786.27083333334</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45776.28125</v>
+        <v>45786.28125</v>
       </c>
       <c r="B28">
-        <v>96</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45776.29166666666</v>
+        <v>45786.29166666666</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45776.30208333334</v>
+        <v>45786.30208333334</v>
       </c>
       <c r="B30">
-        <v>133</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45776.3125</v>
+        <v>45786.3125</v>
       </c>
       <c r="B31">
-        <v>134</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45776.32291666666</v>
+        <v>45786.32291666666</v>
       </c>
       <c r="B32">
-        <v>138</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45776.33333333334</v>
+        <v>45786.33333333334</v>
       </c>
       <c r="B33">
-        <v>142</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45776.34375</v>
+        <v>45786.34375</v>
       </c>
       <c r="B34">
-        <v>178</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45776.35416666666</v>
+        <v>45786.35416666666</v>
       </c>
       <c r="B35">
-        <v>184</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45776.36458333334</v>
+        <v>45786.36458333334</v>
       </c>
       <c r="B36">
-        <v>190</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45776.375</v>
+        <v>45786.375</v>
       </c>
       <c r="B37">
-        <v>185</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45776.38541666666</v>
+        <v>45786.38541666666</v>
       </c>
       <c r="B38">
-        <v>195</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45776.39583333334</v>
+        <v>45786.39583333334</v>
       </c>
       <c r="B39">
-        <v>196</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45776.40625</v>
+        <v>45786.40625</v>
       </c>
       <c r="B40">
-        <v>200</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45776.41666666666</v>
+        <v>45786.41666666666</v>
       </c>
       <c r="B41">
-        <v>202</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45776.42708333334</v>
+        <v>45786.42708333334</v>
       </c>
       <c r="B42">
-        <v>195</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45776.4375</v>
+        <v>45786.4375</v>
       </c>
       <c r="B43">
-        <v>195</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45776.44791666666</v>
+        <v>45786.44791666666</v>
       </c>
       <c r="B44">
-        <v>196</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45776.45833333334</v>
+        <v>45786.45833333334</v>
       </c>
       <c r="B45">
-        <v>197</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45776.46875</v>
+        <v>45786.46875</v>
       </c>
       <c r="B46">
-        <v>215</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45776.47916666666</v>
+        <v>45786.47916666666</v>
       </c>
       <c r="B47">
-        <v>212</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45776.48958333334</v>
+        <v>45786.48958333334</v>
       </c>
       <c r="B48">
-        <v>212</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45776.5</v>
+        <v>45786.5</v>
       </c>
       <c r="B49">
-        <v>212</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45776.51041666666</v>
+        <v>45786.51041666666</v>
       </c>
       <c r="B50">
-        <v>200</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45776.52083333334</v>
+        <v>45786.52083333334</v>
       </c>
       <c r="B51">
-        <v>197</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45776.53125</v>
+        <v>45786.53125</v>
       </c>
       <c r="B52">
-        <v>197</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45776.54166666666</v>
+        <v>45786.54166666666</v>
       </c>
       <c r="B53">
-        <v>197</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45776.55208333334</v>
+        <v>45786.55208333334</v>
       </c>
       <c r="B54">
-        <v>207</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45776.5625</v>
+        <v>45786.5625</v>
       </c>
       <c r="B55">
-        <v>206</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45776.57291666666</v>
+        <v>45786.57291666666</v>
       </c>
       <c r="B56">
-        <v>206</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45776.58333333334</v>
+        <v>45786.58333333334</v>
       </c>
       <c r="B57">
-        <v>206</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45776.59375</v>
+        <v>45786.59375</v>
       </c>
       <c r="B58">
-        <v>186</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45776.60416666666</v>
+        <v>45786.60416666666</v>
       </c>
       <c r="B59">
-        <v>185</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45776.61458333334</v>
+        <v>45786.61458333334</v>
       </c>
       <c r="B60">
-        <v>185</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45776.625</v>
+        <v>45786.625</v>
       </c>
       <c r="B61">
-        <v>184</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45776.63541666666</v>
+        <v>45786.63541666666</v>
       </c>
       <c r="B62">
-        <v>181</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45776.64583333334</v>
+        <v>45786.64583333334</v>
       </c>
       <c r="B63">
-        <v>180</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45776.65625</v>
+        <v>45786.65625</v>
       </c>
       <c r="B64">
-        <v>179</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45776.66666666666</v>
+        <v>45786.66666666666</v>
       </c>
       <c r="B65">
-        <v>178</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45776.67708333334</v>
+        <v>45786.67708333334</v>
       </c>
       <c r="B66">
-        <v>195</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45776.6875</v>
+        <v>45786.6875</v>
       </c>
       <c r="B67">
-        <v>196</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45776.69791666666</v>
+        <v>45786.69791666666</v>
       </c>
       <c r="B68">
-        <v>197</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45776.70833333334</v>
+        <v>45786.70833333334</v>
       </c>
       <c r="B69">
-        <v>198</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45776.71875</v>
+        <v>45786.71875</v>
       </c>
       <c r="B70">
-        <v>249</v>
+        <v>923</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45776.72916666666</v>
+        <v>45786.72916666666</v>
       </c>
       <c r="B71">
-        <v>249</v>
+        <v>918</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45776.73958333334</v>
+        <v>45786.73958333334</v>
       </c>
       <c r="B72">
-        <v>248</v>
+        <v>912</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45776.75</v>
+        <v>45786.75</v>
       </c>
       <c r="B73">
-        <v>248</v>
+        <v>907</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45776.76041666666</v>
+        <v>45786.76041666666</v>
       </c>
       <c r="B74">
-        <v>318</v>
+        <v>830</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45776.77083333334</v>
+        <v>45786.77083333334</v>
       </c>
       <c r="B75">
-        <v>320</v>
+        <v>826</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45776.78125</v>
+        <v>45786.78125</v>
       </c>
       <c r="B76">
-        <v>322</v>
+        <v>822</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45776.79166666666</v>
+        <v>45786.79166666666</v>
       </c>
       <c r="B77">
-        <v>324</v>
+        <v>818</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45776.80208333334</v>
+        <v>45786.80208333334</v>
       </c>
       <c r="B78">
-        <v>395</v>
+        <v>796</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45776.8125</v>
+        <v>45786.8125</v>
       </c>
       <c r="B79">
-        <v>396</v>
+        <v>795</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45776.82291666666</v>
+        <v>45786.82291666666</v>
       </c>
       <c r="B80">
-        <v>399</v>
+        <v>794</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45776.83333333334</v>
+        <v>45786.83333333334</v>
       </c>
       <c r="B81">
-        <v>402</v>
+        <v>794</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45776.84375</v>
+        <v>45786.84375</v>
       </c>
       <c r="B82">
-        <v>411</v>
+        <v>769</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45776.85416666666</v>
+        <v>45786.85416666666</v>
       </c>
       <c r="B83">
-        <v>414</v>
+        <v>769</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45776.86458333334</v>
+        <v>45786.86458333334</v>
       </c>
       <c r="B84">
-        <v>417</v>
+        <v>768</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45776.875</v>
+        <v>45786.875</v>
       </c>
       <c r="B85">
-        <v>420</v>
+        <v>767</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45776.88541666666</v>
+        <v>45786.88541666666</v>
       </c>
       <c r="B86">
-        <v>397</v>
+        <v>714</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45776.89583333334</v>
+        <v>45786.89583333334</v>
       </c>
       <c r="B87">
-        <v>399</v>
+        <v>712</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45776.90625</v>
+        <v>45786.90625</v>
       </c>
       <c r="B88">
-        <v>401</v>
+        <v>710</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45776.91666666666</v>
+        <v>45786.91666666666</v>
       </c>
       <c r="B89">
-        <v>405</v>
+        <v>708</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45776.92708333334</v>
+        <v>45786.92708333334</v>
       </c>
       <c r="B90">
-        <v>371</v>
+        <v>625</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45776.9375</v>
+        <v>45786.9375</v>
       </c>
       <c r="B91">
-        <v>372</v>
+        <v>623</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45776.94791666666</v>
+        <v>45786.94791666666</v>
       </c>
       <c r="B92">
-        <v>372</v>
+        <v>620</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45776.95833333334</v>
+        <v>45786.95833333334</v>
       </c>
       <c r="B93">
-        <v>373</v>
+        <v>618</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45776.96875</v>
+        <v>45786.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45776.97916666666</v>
+        <v>45786.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45776.98958333334</v>
+        <v>45786.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45777</v>
+        <v>45787</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45786.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B2">
-        <v>1012</v>
+        <v>867</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45786.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B3">
-        <v>1011</v>
+        <v>867</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45786.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B4">
-        <v>1011</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45786.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B5">
-        <v>1010</v>
+        <v>870</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45786.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B6">
-        <v>959</v>
+        <v>815</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45786.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B7">
-        <v>957</v>
+        <v>808</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45786.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B8">
-        <v>955</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45786.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B9">
-        <v>953</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45786.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B10">
-        <v>862</v>
+        <v>810</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45786.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B11">
-        <v>859</v>
+        <v>811</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45786.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B12">
-        <v>855</v>
+        <v>818</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45786.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B13">
-        <v>852</v>
+        <v>820</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45786.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B14">
-        <v>794</v>
+        <v>837</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45786.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B15">
-        <v>792</v>
+        <v>837</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45786.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B16">
-        <v>790</v>
+        <v>834</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45786.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B17">
-        <v>788</v>
+        <v>839</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45786.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B18">
-        <v>846</v>
+        <v>829</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45786.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B19">
-        <v>848</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45786.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B20">
-        <v>851</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45786.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B21">
-        <v>854</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45786.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B22">
-        <v>979</v>
+        <v>834</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45786.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B23">
-        <v>985</v>
+        <v>832</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45786.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B24">
-        <v>991</v>
+        <v>829</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45786.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B25">
-        <v>997</v>
+        <v>829</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45786.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B26">
-        <v>1229</v>
+        <v>832</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45786.27083333334</v>
+        <v>45797.27083333334</v>
       </c>
       <c r="B27">
-        <v>1240</v>
+        <v>829</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45786.28125</v>
+        <v>45797.28125</v>
       </c>
       <c r="B28">
-        <v>1252</v>
+        <v>828</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45786.29166666666</v>
+        <v>45797.29166666666</v>
       </c>
       <c r="B29">
-        <v>1264</v>
+        <v>817</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45786.30208333334</v>
+        <v>45797.30208333334</v>
       </c>
       <c r="B30">
-        <v>1401</v>
+        <v>848</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45786.3125</v>
+        <v>45797.3125</v>
       </c>
       <c r="B31">
-        <v>1407</v>
+        <v>842</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45786.32291666666</v>
+        <v>45797.32291666666</v>
       </c>
       <c r="B32">
-        <v>1414</v>
+        <v>849</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45786.33333333334</v>
+        <v>45797.33333333334</v>
       </c>
       <c r="B33">
-        <v>1421</v>
+        <v>859</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45786.34375</v>
+        <v>45797.34375</v>
       </c>
       <c r="B34">
-        <v>1514</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45786.35416666666</v>
+        <v>45797.35416666666</v>
       </c>
       <c r="B35">
-        <v>1518</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45786.36458333334</v>
+        <v>45797.36458333334</v>
       </c>
       <c r="B36">
-        <v>1523</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45786.375</v>
+        <v>45797.375</v>
       </c>
       <c r="B37">
-        <v>1527</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45786.38541666666</v>
+        <v>45797.38541666666</v>
       </c>
       <c r="B38">
-        <v>1527</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45786.39583333334</v>
+        <v>45797.39583333334</v>
       </c>
       <c r="B39">
-        <v>1527</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45786.40625</v>
+        <v>45797.40625</v>
       </c>
       <c r="B40">
-        <v>1527</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45786.41666666666</v>
+        <v>45797.41666666666</v>
       </c>
       <c r="B41">
-        <v>1526</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45786.42708333334</v>
+        <v>45797.42708333334</v>
       </c>
       <c r="B42">
-        <v>1473</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45786.4375</v>
+        <v>45797.4375</v>
       </c>
       <c r="B43">
-        <v>1472</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45786.44791666666</v>
+        <v>45797.44791666666</v>
       </c>
       <c r="B44">
-        <v>1471</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45786.45833333334</v>
+        <v>45797.45833333334</v>
       </c>
       <c r="B45">
-        <v>1470</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45786.46875</v>
+        <v>45797.46875</v>
       </c>
       <c r="B46">
-        <v>1428</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45786.47916666666</v>
+        <v>45797.47916666666</v>
       </c>
       <c r="B47">
-        <v>1426</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45786.48958333334</v>
+        <v>45797.48958333334</v>
       </c>
       <c r="B48">
-        <v>1424</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45786.5</v>
+        <v>45797.5</v>
       </c>
       <c r="B49">
-        <v>1422</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45786.51041666666</v>
+        <v>45797.51041666666</v>
       </c>
       <c r="B50">
-        <v>1434</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45786.52083333334</v>
+        <v>45797.52083333334</v>
       </c>
       <c r="B51">
-        <v>1432</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45786.53125</v>
+        <v>45797.53125</v>
       </c>
       <c r="B52">
-        <v>1430</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45786.54166666666</v>
+        <v>45797.54166666666</v>
       </c>
       <c r="B53">
-        <v>1429</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45786.55208333334</v>
+        <v>45797.55208333334</v>
       </c>
       <c r="B54">
-        <v>1422</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45786.5625</v>
+        <v>45797.5625</v>
       </c>
       <c r="B55">
-        <v>1418</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45786.57291666666</v>
+        <v>45797.57291666666</v>
       </c>
       <c r="B56">
-        <v>1414</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45786.58333333334</v>
+        <v>45797.58333333334</v>
       </c>
       <c r="B57">
-        <v>1410</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45786.59375</v>
+        <v>45797.59375</v>
       </c>
       <c r="B58">
-        <v>1367</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45786.60416666666</v>
+        <v>45797.60416666666</v>
       </c>
       <c r="B59">
-        <v>1364</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45786.61458333334</v>
+        <v>45797.61458333334</v>
       </c>
       <c r="B60">
-        <v>1360</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45786.625</v>
+        <v>45797.625</v>
       </c>
       <c r="B61">
-        <v>1356</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45786.63541666666</v>
+        <v>45797.63541666666</v>
       </c>
       <c r="B62">
-        <v>1223</v>
+        <v>895</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45786.64583333334</v>
+        <v>45797.64583333334</v>
       </c>
       <c r="B63">
-        <v>1219</v>
+        <v>894</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45786.65625</v>
+        <v>45797.65625</v>
       </c>
       <c r="B64">
-        <v>1215</v>
+        <v>893</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45786.66666666666</v>
+        <v>45797.66666666666</v>
       </c>
       <c r="B65">
-        <v>1211</v>
+        <v>892</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45786.67708333334</v>
+        <v>45797.67708333334</v>
       </c>
       <c r="B66">
-        <v>1082</v>
+        <v>805</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45786.6875</v>
+        <v>45797.6875</v>
       </c>
       <c r="B67">
-        <v>1075</v>
+        <v>803</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45786.69791666666</v>
+        <v>45797.69791666666</v>
       </c>
       <c r="B68">
-        <v>1069</v>
+        <v>802</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45786.70833333334</v>
+        <v>45797.70833333334</v>
       </c>
       <c r="B69">
-        <v>1063</v>
+        <v>800</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45786.71875</v>
+        <v>45797.71875</v>
       </c>
       <c r="B70">
-        <v>923</v>
+        <v>722</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45786.72916666666</v>
+        <v>45797.72916666666</v>
       </c>
       <c r="B71">
-        <v>918</v>
+        <v>717</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45786.73958333334</v>
+        <v>45797.73958333334</v>
       </c>
       <c r="B72">
-        <v>912</v>
+        <v>712</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45786.75</v>
+        <v>45797.75</v>
       </c>
       <c r="B73">
-        <v>907</v>
+        <v>708</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45786.76041666666</v>
+        <v>45797.76041666666</v>
       </c>
       <c r="B74">
-        <v>830</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45786.77083333334</v>
+        <v>45797.77083333334</v>
       </c>
       <c r="B75">
-        <v>826</v>
+        <v>575</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45786.78125</v>
+        <v>45797.78125</v>
       </c>
       <c r="B76">
-        <v>822</v>
+        <v>572</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45786.79166666666</v>
+        <v>45797.79166666666</v>
       </c>
       <c r="B77">
-        <v>818</v>
+        <v>569</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45786.80208333334</v>
+        <v>45797.80208333334</v>
       </c>
       <c r="B78">
-        <v>796</v>
+        <v>459</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45786.8125</v>
+        <v>45797.8125</v>
       </c>
       <c r="B79">
-        <v>795</v>
+        <v>456</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45786.82291666666</v>
+        <v>45797.82291666666</v>
       </c>
       <c r="B80">
-        <v>794</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45786.83333333334</v>
+        <v>45797.83333333334</v>
       </c>
       <c r="B81">
-        <v>794</v>
+        <v>451</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45786.84375</v>
+        <v>45797.84375</v>
       </c>
       <c r="B82">
-        <v>769</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45786.85416666666</v>
+        <v>45797.85416666666</v>
       </c>
       <c r="B83">
-        <v>769</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45786.86458333334</v>
+        <v>45797.86458333334</v>
       </c>
       <c r="B84">
-        <v>768</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45786.875</v>
+        <v>45797.875</v>
       </c>
       <c r="B85">
-        <v>767</v>
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45786.88541666666</v>
+        <v>45797.88541666666</v>
       </c>
       <c r="B86">
-        <v>714</v>
+        <v>282</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45786.89583333334</v>
+        <v>45797.89583333334</v>
       </c>
       <c r="B87">
-        <v>712</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45786.90625</v>
+        <v>45797.90625</v>
       </c>
       <c r="B88">
-        <v>710</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45786.91666666666</v>
+        <v>45797.91666666666</v>
       </c>
       <c r="B89">
-        <v>708</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45786.92708333334</v>
+        <v>45797.92708333334</v>
       </c>
       <c r="B90">
-        <v>625</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45786.9375</v>
+        <v>45797.9375</v>
       </c>
       <c r="B91">
-        <v>623</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45786.94791666666</v>
+        <v>45797.94791666666</v>
       </c>
       <c r="B92">
-        <v>620</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45786.95833333334</v>
+        <v>45797.95833333334</v>
       </c>
       <c r="B93">
-        <v>618</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45786.96875</v>
+        <v>45797.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45786.97916666666</v>
+        <v>45797.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45786.98958333334</v>
+        <v>45797.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45787</v>
+        <v>45798</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45797.01041666666</v>
+        <v>45799.01041666666</v>
       </c>
       <c r="B2">
-        <v>867</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45797.02083333334</v>
+        <v>45799.02083333334</v>
       </c>
       <c r="B3">
-        <v>867</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45797.03125</v>
+        <v>45799.03125</v>
       </c>
       <c r="B4">
-        <v>872</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45797.04166666666</v>
+        <v>45799.04166666666</v>
       </c>
       <c r="B5">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45797.05208333334</v>
+        <v>45799.05208333334</v>
       </c>
       <c r="B6">
-        <v>815</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45797.0625</v>
+        <v>45799.0625</v>
       </c>
       <c r="B7">
-        <v>808</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45797.07291666666</v>
+        <v>45799.07291666666</v>
       </c>
       <c r="B8">
-        <v>804</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45797.08333333334</v>
+        <v>45799.08333333334</v>
       </c>
       <c r="B9">
-        <v>799</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45797.09375</v>
+        <v>45799.09375</v>
       </c>
       <c r="B10">
-        <v>810</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45797.10416666666</v>
+        <v>45799.10416666666</v>
       </c>
       <c r="B11">
-        <v>811</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45797.11458333334</v>
+        <v>45799.11458333334</v>
       </c>
       <c r="B12">
-        <v>818</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45797.125</v>
+        <v>45799.125</v>
       </c>
       <c r="B13">
-        <v>820</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45797.13541666666</v>
+        <v>45799.13541666666</v>
       </c>
       <c r="B14">
-        <v>837</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45797.14583333334</v>
+        <v>45799.14583333334</v>
       </c>
       <c r="B15">
-        <v>837</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45797.15625</v>
+        <v>45799.15625</v>
       </c>
       <c r="B16">
-        <v>834</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45797.16666666666</v>
+        <v>45799.16666666666</v>
       </c>
       <c r="B17">
-        <v>839</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45797.17708333334</v>
+        <v>45799.17708333334</v>
       </c>
       <c r="B18">
-        <v>829</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45797.1875</v>
+        <v>45799.1875</v>
       </c>
       <c r="B19">
-        <v>830</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45797.19791666666</v>
+        <v>45799.19791666666</v>
       </c>
       <c r="B20">
-        <v>831</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45797.20833333334</v>
+        <v>45799.20833333334</v>
       </c>
       <c r="B21">
-        <v>824</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45797.21875</v>
+        <v>45799.21875</v>
       </c>
       <c r="B22">
-        <v>834</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45797.22916666666</v>
+        <v>45799.22916666666</v>
       </c>
       <c r="B23">
-        <v>832</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45797.23958333334</v>
+        <v>45799.23958333334</v>
       </c>
       <c r="B24">
-        <v>829</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45797.25</v>
+        <v>45799.25</v>
       </c>
       <c r="B25">
-        <v>829</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45797.26041666666</v>
+        <v>45799.26041666666</v>
       </c>
       <c r="B26">
-        <v>832</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45797.27083333334</v>
+        <v>45799.27083333334</v>
       </c>
       <c r="B27">
-        <v>829</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45797.28125</v>
+        <v>45799.28125</v>
       </c>
       <c r="B28">
-        <v>828</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45797.29166666666</v>
+        <v>45799.29166666666</v>
       </c>
       <c r="B29">
-        <v>817</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45797.30208333334</v>
+        <v>45799.30208333334</v>
       </c>
       <c r="B30">
-        <v>848</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45797.3125</v>
+        <v>45799.3125</v>
       </c>
       <c r="B31">
-        <v>842</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45797.32291666666</v>
+        <v>45799.32291666666</v>
       </c>
       <c r="B32">
-        <v>849</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45797.33333333334</v>
+        <v>45799.33333333334</v>
       </c>
       <c r="B33">
-        <v>859</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45797.34375</v>
+        <v>45799.34375</v>
       </c>
       <c r="B34">
-        <v>1103</v>
+        <v>982</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45797.35416666666</v>
+        <v>45799.35416666666</v>
       </c>
       <c r="B35">
-        <v>1111</v>
+        <v>984</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45797.36458333334</v>
+        <v>45799.36458333334</v>
       </c>
       <c r="B36">
-        <v>1120</v>
+        <v>986</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45797.375</v>
+        <v>45799.375</v>
       </c>
       <c r="B37">
-        <v>1126</v>
+        <v>983</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45797.38541666666</v>
+        <v>45799.38541666666</v>
       </c>
       <c r="B38">
-        <v>1393</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45797.39583333334</v>
+        <v>45799.39583333334</v>
       </c>
       <c r="B39">
-        <v>1392</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45797.40625</v>
+        <v>45799.40625</v>
       </c>
       <c r="B40">
-        <v>1391</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45797.41666666666</v>
+        <v>45799.41666666666</v>
       </c>
       <c r="B41">
-        <v>1390</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45797.42708333334</v>
+        <v>45799.42708333334</v>
       </c>
       <c r="B42">
-        <v>1307</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45797.4375</v>
+        <v>45799.4375</v>
       </c>
       <c r="B43">
-        <v>1304</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45797.44791666666</v>
+        <v>45799.44791666666</v>
       </c>
       <c r="B44">
-        <v>1301</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45797.45833333334</v>
+        <v>45799.45833333334</v>
       </c>
       <c r="B45">
-        <v>1298</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45797.46875</v>
+        <v>45799.46875</v>
       </c>
       <c r="B46">
-        <v>1181</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45797.47916666666</v>
+        <v>45799.47916666666</v>
       </c>
       <c r="B47">
-        <v>1179</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45797.48958333334</v>
+        <v>45799.48958333334</v>
       </c>
       <c r="B48">
-        <v>1177</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45797.5</v>
+        <v>45799.5</v>
       </c>
       <c r="B49">
-        <v>1174</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45797.51041666666</v>
+        <v>45799.51041666666</v>
       </c>
       <c r="B50">
-        <v>1106</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45797.52083333334</v>
+        <v>45799.52083333334</v>
       </c>
       <c r="B51">
-        <v>1105</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45797.53125</v>
+        <v>45799.53125</v>
       </c>
       <c r="B52">
-        <v>1104</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45797.54166666666</v>
+        <v>45799.54166666666</v>
       </c>
       <c r="B53">
-        <v>1103</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45797.55208333334</v>
+        <v>45799.55208333334</v>
       </c>
       <c r="B54">
-        <v>1102</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45797.5625</v>
+        <v>45799.5625</v>
       </c>
       <c r="B55">
-        <v>1101</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45797.57291666666</v>
+        <v>45799.57291666666</v>
       </c>
       <c r="B56">
-        <v>1101</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45797.58333333334</v>
+        <v>45799.58333333334</v>
       </c>
       <c r="B57">
-        <v>1100</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45797.59375</v>
+        <v>45799.59375</v>
       </c>
       <c r="B58">
-        <v>1080</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45797.60416666666</v>
+        <v>45799.60416666666</v>
       </c>
       <c r="B59">
-        <v>1079</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45797.61458333334</v>
+        <v>45799.61458333334</v>
       </c>
       <c r="B60">
-        <v>1078</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45797.625</v>
+        <v>45799.625</v>
       </c>
       <c r="B61">
-        <v>1078</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45797.63541666666</v>
+        <v>45799.63541666666</v>
       </c>
       <c r="B62">
-        <v>895</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45797.64583333334</v>
+        <v>45799.64583333334</v>
       </c>
       <c r="B63">
-        <v>894</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45797.65625</v>
+        <v>45799.65625</v>
       </c>
       <c r="B64">
-        <v>893</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45797.66666666666</v>
+        <v>45799.66666666666</v>
       </c>
       <c r="B65">
-        <v>892</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45797.67708333334</v>
+        <v>45799.67708333334</v>
       </c>
       <c r="B66">
-        <v>805</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45797.6875</v>
+        <v>45799.6875</v>
       </c>
       <c r="B67">
-        <v>803</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45797.69791666666</v>
+        <v>45799.69791666666</v>
       </c>
       <c r="B68">
-        <v>802</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45797.70833333334</v>
+        <v>45799.70833333334</v>
       </c>
       <c r="B69">
-        <v>800</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45797.71875</v>
+        <v>45799.71875</v>
       </c>
       <c r="B70">
-        <v>722</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45797.72916666666</v>
+        <v>45799.72916666666</v>
       </c>
       <c r="B71">
-        <v>717</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45797.73958333334</v>
+        <v>45799.73958333334</v>
       </c>
       <c r="B72">
-        <v>712</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45797.75</v>
+        <v>45799.75</v>
       </c>
       <c r="B73">
-        <v>708</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45797.76041666666</v>
+        <v>45799.76041666666</v>
       </c>
       <c r="B74">
-        <v>579</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45797.77083333334</v>
+        <v>45799.77083333334</v>
       </c>
       <c r="B75">
-        <v>575</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45797.78125</v>
+        <v>45799.78125</v>
       </c>
       <c r="B76">
-        <v>572</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45797.79166666666</v>
+        <v>45799.79166666666</v>
       </c>
       <c r="B77">
-        <v>569</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45797.80208333334</v>
+        <v>45799.80208333334</v>
       </c>
       <c r="B78">
-        <v>459</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45797.8125</v>
+        <v>45799.8125</v>
       </c>
       <c r="B79">
-        <v>456</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45797.82291666666</v>
+        <v>45799.82291666666</v>
       </c>
       <c r="B80">
-        <v>453</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45797.83333333334</v>
+        <v>45799.83333333334</v>
       </c>
       <c r="B81">
-        <v>451</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45797.84375</v>
+        <v>45799.84375</v>
       </c>
       <c r="B82">
-        <v>360</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45797.85416666666</v>
+        <v>45799.85416666666</v>
       </c>
       <c r="B83">
-        <v>358</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45797.86458333334</v>
+        <v>45799.86458333334</v>
       </c>
       <c r="B84">
-        <v>357</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45797.875</v>
+        <v>45799.875</v>
       </c>
       <c r="B85">
-        <v>356</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45797.88541666666</v>
+        <v>45799.88541666666</v>
       </c>
       <c r="B86">
-        <v>282</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45797.89583333334</v>
+        <v>45799.89583333334</v>
       </c>
       <c r="B87">
-        <v>279</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45797.90625</v>
+        <v>45799.90625</v>
       </c>
       <c r="B88">
-        <v>280</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45797.91666666666</v>
+        <v>45799.91666666666</v>
       </c>
       <c r="B89">
-        <v>280</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45797.92708333334</v>
+        <v>45799.92708333334</v>
       </c>
       <c r="B90">
-        <v>239</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45797.9375</v>
+        <v>45799.9375</v>
       </c>
       <c r="B91">
-        <v>238</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45797.94791666666</v>
+        <v>45799.94791666666</v>
       </c>
       <c r="B92">
-        <v>238</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45797.95833333334</v>
+        <v>45799.95833333334</v>
       </c>
       <c r="B93">
-        <v>238</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45797.96875</v>
+        <v>45799.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45797.97916666666</v>
+        <v>45799.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45797.98958333334</v>
+        <v>45799.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45798</v>
+        <v>45800</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45799.01041666666</v>
+        <v>45807.01041666666</v>
       </c>
       <c r="B2">
-        <v>1173</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45799.02083333334</v>
+        <v>45807.02083333334</v>
       </c>
       <c r="B3">
-        <v>1178</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45799.03125</v>
+        <v>45807.03125</v>
       </c>
       <c r="B4">
-        <v>1186</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45799.04166666666</v>
+        <v>45807.04166666666</v>
       </c>
       <c r="B5">
-        <v>1197</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45799.05208333334</v>
+        <v>45807.05208333334</v>
       </c>
       <c r="B6">
-        <v>1256</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45799.0625</v>
+        <v>45807.0625</v>
       </c>
       <c r="B7">
-        <v>1261</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45799.07291666666</v>
+        <v>45807.07291666666</v>
       </c>
       <c r="B8">
-        <v>1260</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45799.08333333334</v>
+        <v>45807.08333333334</v>
       </c>
       <c r="B9">
-        <v>1266</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45799.09375</v>
+        <v>45807.09375</v>
       </c>
       <c r="B10">
-        <v>1360</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45799.10416666666</v>
+        <v>45807.10416666666</v>
       </c>
       <c r="B11">
-        <v>1369</v>
+        <v>632</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45799.11458333334</v>
+        <v>45807.11458333334</v>
       </c>
       <c r="B12">
-        <v>1362</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45799.125</v>
+        <v>45807.125</v>
       </c>
       <c r="B13">
-        <v>1368</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45799.13541666666</v>
+        <v>45807.13541666666</v>
       </c>
       <c r="B14">
-        <v>1416</v>
+        <v>811</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45799.14583333334</v>
+        <v>45807.14583333334</v>
       </c>
       <c r="B15">
-        <v>1416</v>
+        <v>816</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45799.15625</v>
+        <v>45807.15625</v>
       </c>
       <c r="B16">
-        <v>1407</v>
+        <v>821</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45799.16666666666</v>
+        <v>45807.16666666666</v>
       </c>
       <c r="B17">
-        <v>1407</v>
+        <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45799.17708333334</v>
+        <v>45807.17708333334</v>
       </c>
       <c r="B18">
-        <v>1466</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45799.1875</v>
+        <v>45807.1875</v>
       </c>
       <c r="B19">
-        <v>1467</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45799.19791666666</v>
+        <v>45807.19791666666</v>
       </c>
       <c r="B20">
-        <v>1465</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45799.20833333334</v>
+        <v>45807.20833333334</v>
       </c>
       <c r="B21">
-        <v>1463</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45799.21875</v>
+        <v>45807.21875</v>
       </c>
       <c r="B22">
-        <v>1431</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45799.22916666666</v>
+        <v>45807.22916666666</v>
       </c>
       <c r="B23">
-        <v>1427</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45799.23958333334</v>
+        <v>45807.23958333334</v>
       </c>
       <c r="B24">
-        <v>1420</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45799.25</v>
+        <v>45807.25</v>
       </c>
       <c r="B25">
-        <v>1419</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45799.26041666666</v>
+        <v>45807.26041666666</v>
       </c>
       <c r="B26">
-        <v>1216</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45799.27083333334</v>
+        <v>45807.27083333334</v>
       </c>
       <c r="B27">
-        <v>1210</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45799.28125</v>
+        <v>45807.28125</v>
       </c>
       <c r="B28">
-        <v>1202</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45799.29166666666</v>
+        <v>45807.29166666666</v>
       </c>
       <c r="B29">
-        <v>1196</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45799.30208333334</v>
+        <v>45807.30208333334</v>
       </c>
       <c r="B30">
-        <v>1155</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45799.3125</v>
+        <v>45807.3125</v>
       </c>
       <c r="B31">
-        <v>1163</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45799.32291666666</v>
+        <v>45807.32291666666</v>
       </c>
       <c r="B32">
-        <v>1052</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45799.33333333334</v>
+        <v>45807.33333333334</v>
       </c>
       <c r="B33">
-        <v>1044</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45799.34375</v>
+        <v>45807.34375</v>
       </c>
       <c r="B34">
-        <v>982</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45799.35416666666</v>
+        <v>45807.35416666666</v>
       </c>
       <c r="B35">
-        <v>984</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45799.36458333334</v>
+        <v>45807.36458333334</v>
       </c>
       <c r="B36">
-        <v>986</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45799.375</v>
+        <v>45807.375</v>
       </c>
       <c r="B37">
-        <v>983</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45799.38541666666</v>
+        <v>45807.38541666666</v>
       </c>
       <c r="B38">
-        <v>1318</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45799.39583333334</v>
+        <v>45807.39583333334</v>
       </c>
       <c r="B39">
-        <v>1320</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45799.40625</v>
+        <v>45807.40625</v>
       </c>
       <c r="B40">
-        <v>1323</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45799.41666666666</v>
+        <v>45807.41666666666</v>
       </c>
       <c r="B41">
-        <v>1325</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45799.42708333334</v>
+        <v>45807.42708333334</v>
       </c>
       <c r="B42">
-        <v>1448</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45799.4375</v>
+        <v>45807.4375</v>
       </c>
       <c r="B43">
-        <v>1451</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45799.44791666666</v>
+        <v>45807.44791666666</v>
       </c>
       <c r="B44">
-        <v>1453</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45799.45833333334</v>
+        <v>45807.45833333334</v>
       </c>
       <c r="B45">
-        <v>1456</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45799.46875</v>
+        <v>45807.46875</v>
       </c>
       <c r="B46">
-        <v>1544</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45799.47916666666</v>
+        <v>45807.47916666666</v>
       </c>
       <c r="B47">
-        <v>1545</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45799.48958333334</v>
+        <v>45807.48958333334</v>
       </c>
       <c r="B48">
-        <v>1547</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45799.5</v>
+        <v>45807.5</v>
       </c>
       <c r="B49">
-        <v>1548</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45799.51041666666</v>
+        <v>45807.51041666666</v>
       </c>
       <c r="B50">
-        <v>1644</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45799.52083333334</v>
+        <v>45807.52083333334</v>
       </c>
       <c r="B51">
-        <v>1645</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45799.53125</v>
+        <v>45807.53125</v>
       </c>
       <c r="B52">
-        <v>1645</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45799.54166666666</v>
+        <v>45807.54166666666</v>
       </c>
       <c r="B53">
-        <v>1646</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45799.55208333334</v>
+        <v>45807.55208333334</v>
       </c>
       <c r="B54">
-        <v>1675</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45799.5625</v>
+        <v>45807.5625</v>
       </c>
       <c r="B55">
-        <v>1675</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45799.57291666666</v>
+        <v>45807.57291666666</v>
       </c>
       <c r="B56">
-        <v>1675</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45799.58333333334</v>
+        <v>45807.58333333334</v>
       </c>
       <c r="B57">
-        <v>1675</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45799.59375</v>
+        <v>45807.59375</v>
       </c>
       <c r="B58">
-        <v>1694</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45799.60416666666</v>
+        <v>45807.60416666666</v>
       </c>
       <c r="B59">
-        <v>1694</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45799.61458333334</v>
+        <v>45807.61458333334</v>
       </c>
       <c r="B60">
-        <v>1693</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45799.625</v>
+        <v>45807.625</v>
       </c>
       <c r="B61">
-        <v>1692</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45799.63541666666</v>
+        <v>45807.63541666666</v>
       </c>
       <c r="B62">
-        <v>1677</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45799.64583333334</v>
+        <v>45807.64583333334</v>
       </c>
       <c r="B63">
-        <v>1676</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45799.65625</v>
+        <v>45807.65625</v>
       </c>
       <c r="B64">
-        <v>1676</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45799.66666666666</v>
+        <v>45807.66666666666</v>
       </c>
       <c r="B65">
-        <v>1675</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45799.67708333334</v>
+        <v>45807.67708333334</v>
       </c>
       <c r="B66">
-        <v>1492</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45799.6875</v>
+        <v>45807.6875</v>
       </c>
       <c r="B67">
-        <v>1489</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45799.69791666666</v>
+        <v>45807.69791666666</v>
       </c>
       <c r="B68">
-        <v>1486</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45799.70833333334</v>
+        <v>45807.70833333334</v>
       </c>
       <c r="B69">
-        <v>1483</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45799.71875</v>
+        <v>45807.71875</v>
       </c>
       <c r="B70">
-        <v>1451</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45799.72916666666</v>
+        <v>45807.72916666666</v>
       </c>
       <c r="B71">
-        <v>1447</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45799.73958333334</v>
+        <v>45807.73958333334</v>
       </c>
       <c r="B72">
-        <v>1443</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45799.75</v>
+        <v>45807.75</v>
       </c>
       <c r="B73">
-        <v>1440</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45799.76041666666</v>
+        <v>45807.76041666666</v>
       </c>
       <c r="B74">
-        <v>1299</v>
+        <v>982</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45799.77083333334</v>
+        <v>45807.77083333334</v>
       </c>
       <c r="B75">
-        <v>1297</v>
+        <v>978</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45799.78125</v>
+        <v>45807.78125</v>
       </c>
       <c r="B76">
-        <v>1295</v>
+        <v>973</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45799.79166666666</v>
+        <v>45807.79166666666</v>
       </c>
       <c r="B77">
-        <v>1293</v>
+        <v>969</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45799.80208333334</v>
+        <v>45807.80208333334</v>
       </c>
       <c r="B78">
-        <v>1293</v>
+        <v>907</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45799.8125</v>
+        <v>45807.8125</v>
       </c>
       <c r="B79">
-        <v>1294</v>
+        <v>906</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45799.82291666666</v>
+        <v>45807.82291666666</v>
       </c>
       <c r="B80">
-        <v>1295</v>
+        <v>905</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45799.83333333334</v>
+        <v>45807.83333333334</v>
       </c>
       <c r="B81">
-        <v>1295</v>
+        <v>905</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45799.84375</v>
+        <v>45807.84375</v>
       </c>
       <c r="B82">
-        <v>1279</v>
+        <v>912</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45799.85416666666</v>
+        <v>45807.85416666666</v>
       </c>
       <c r="B83">
-        <v>1278</v>
+        <v>913</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45799.86458333334</v>
+        <v>45807.86458333334</v>
       </c>
       <c r="B84">
-        <v>1277</v>
+        <v>915</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45799.875</v>
+        <v>45807.875</v>
       </c>
       <c r="B85">
-        <v>1275</v>
+        <v>916</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45799.88541666666</v>
+        <v>45807.88541666666</v>
       </c>
       <c r="B86">
-        <v>1200</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45799.89583333334</v>
+        <v>45807.89583333334</v>
       </c>
       <c r="B87">
-        <v>1197</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45799.90625</v>
+        <v>45807.90625</v>
       </c>
       <c r="B88">
-        <v>1194</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45799.91666666666</v>
+        <v>45807.91666666666</v>
       </c>
       <c r="B89">
-        <v>1191</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45799.92708333334</v>
+        <v>45807.92708333334</v>
       </c>
       <c r="B90">
-        <v>1035</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45799.9375</v>
+        <v>45807.9375</v>
       </c>
       <c r="B91">
-        <v>1031</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45799.94791666666</v>
+        <v>45807.94791666666</v>
       </c>
       <c r="B92">
-        <v>1027</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45799.95833333334</v>
+        <v>45807.95833333334</v>
       </c>
       <c r="B93">
-        <v>1024</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45799.96875</v>
+        <v>45807.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45799.97916666666</v>
+        <v>45807.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45799.98958333334</v>
+        <v>45807.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45800</v>
+        <v>45808</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45807.01041666666</v>
+        <v>45810.01041666666</v>
       </c>
       <c r="B2">
-        <v>340</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45807.02083333334</v>
+        <v>45810.02083333334</v>
       </c>
       <c r="B3">
-        <v>343</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45807.03125</v>
+        <v>45810.03125</v>
       </c>
       <c r="B4">
-        <v>346</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45807.04166666666</v>
+        <v>45810.04166666666</v>
       </c>
       <c r="B5">
-        <v>348</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45807.05208333334</v>
+        <v>45810.05208333334</v>
       </c>
       <c r="B6">
-        <v>444</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45807.0625</v>
+        <v>45810.0625</v>
       </c>
       <c r="B7">
-        <v>448</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45807.07291666666</v>
+        <v>45810.07291666666</v>
       </c>
       <c r="B8">
-        <v>451</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45807.08333333334</v>
+        <v>45810.08333333334</v>
       </c>
       <c r="B9">
-        <v>455</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45807.09375</v>
+        <v>45810.09375</v>
       </c>
       <c r="B10">
-        <v>627</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45807.10416666666</v>
+        <v>45810.10416666666</v>
       </c>
       <c r="B11">
-        <v>632</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45807.11458333334</v>
+        <v>45810.11458333334</v>
       </c>
       <c r="B12">
-        <v>636</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45807.125</v>
+        <v>45810.125</v>
       </c>
       <c r="B13">
-        <v>640</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45807.13541666666</v>
+        <v>45810.13541666666</v>
       </c>
       <c r="B14">
-        <v>811</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45807.14583333334</v>
+        <v>45810.14583333334</v>
       </c>
       <c r="B15">
-        <v>816</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45807.15625</v>
+        <v>45810.15625</v>
       </c>
       <c r="B16">
-        <v>821</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45807.16666666666</v>
+        <v>45810.16666666666</v>
       </c>
       <c r="B17">
-        <v>826</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45807.17708333334</v>
+        <v>45810.17708333334</v>
       </c>
       <c r="B18">
-        <v>1017</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45807.1875</v>
+        <v>45810.1875</v>
       </c>
       <c r="B19">
-        <v>1021</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45807.19791666666</v>
+        <v>45810.19791666666</v>
       </c>
       <c r="B20">
-        <v>1026</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45807.20833333334</v>
+        <v>45810.20833333334</v>
       </c>
       <c r="B21">
-        <v>1030</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45807.21875</v>
+        <v>45810.21875</v>
       </c>
       <c r="B22">
-        <v>1152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45807.22916666666</v>
+        <v>45810.22916666666</v>
       </c>
       <c r="B23">
-        <v>1153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45807.23958333334</v>
+        <v>45810.23958333334</v>
       </c>
       <c r="B24">
-        <v>1155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45807.25</v>
+        <v>45810.25</v>
       </c>
       <c r="B25">
-        <v>1158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45807.26041666666</v>
+        <v>45810.26041666666</v>
       </c>
       <c r="B26">
-        <v>1166</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45807.27083333334</v>
+        <v>45810.27083333334</v>
       </c>
       <c r="B27">
-        <v>1166</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45807.28125</v>
+        <v>45810.28125</v>
       </c>
       <c r="B28">
-        <v>1165</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45807.29166666666</v>
+        <v>45810.29166666666</v>
       </c>
       <c r="B29">
-        <v>1165</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45807.30208333334</v>
+        <v>45810.30208333334</v>
       </c>
       <c r="B30">
-        <v>1123</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45807.3125</v>
+        <v>45810.3125</v>
       </c>
       <c r="B31">
-        <v>1124</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45807.32291666666</v>
+        <v>45810.32291666666</v>
       </c>
       <c r="B32">
-        <v>1126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45807.33333333334</v>
+        <v>45810.33333333334</v>
       </c>
       <c r="B33">
-        <v>1128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45807.34375</v>
+        <v>45810.34375</v>
       </c>
       <c r="B34">
-        <v>1140</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45807.35416666666</v>
+        <v>45810.35416666666</v>
       </c>
       <c r="B35">
-        <v>1140</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45807.36458333334</v>
+        <v>45810.36458333334</v>
       </c>
       <c r="B36">
-        <v>1141</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45807.375</v>
+        <v>45810.375</v>
       </c>
       <c r="B37">
-        <v>1141</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45807.38541666666</v>
+        <v>45810.38541666666</v>
       </c>
       <c r="B38">
-        <v>1188</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45807.39583333334</v>
+        <v>45810.39583333334</v>
       </c>
       <c r="B39">
-        <v>1188</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45807.40625</v>
+        <v>45810.40625</v>
       </c>
       <c r="B40">
-        <v>1188</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45807.41666666666</v>
+        <v>45810.41666666666</v>
       </c>
       <c r="B41">
-        <v>1187</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45807.42708333334</v>
+        <v>45810.42708333334</v>
       </c>
       <c r="B42">
-        <v>1158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45807.4375</v>
+        <v>45810.4375</v>
       </c>
       <c r="B43">
-        <v>1159</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45807.44791666666</v>
+        <v>45810.44791666666</v>
       </c>
       <c r="B44">
-        <v>1160</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45807.45833333334</v>
+        <v>45810.45833333334</v>
       </c>
       <c r="B45">
-        <v>1161</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45807.46875</v>
+        <v>45810.46875</v>
       </c>
       <c r="B46">
-        <v>1152</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45807.47916666666</v>
+        <v>45810.47916666666</v>
       </c>
       <c r="B47">
-        <v>1153</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45807.48958333334</v>
+        <v>45810.48958333334</v>
       </c>
       <c r="B48">
-        <v>1153</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45807.5</v>
+        <v>45810.5</v>
       </c>
       <c r="B49">
-        <v>1153</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45807.51041666666</v>
+        <v>45810.51041666666</v>
       </c>
       <c r="B50">
-        <v>1167</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45807.52083333334</v>
+        <v>45810.52083333334</v>
       </c>
       <c r="B51">
-        <v>1166</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45807.53125</v>
+        <v>45810.53125</v>
       </c>
       <c r="B52">
-        <v>1165</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45807.54166666666</v>
+        <v>45810.54166666666</v>
       </c>
       <c r="B53">
-        <v>1164</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45807.55208333334</v>
+        <v>45810.55208333334</v>
       </c>
       <c r="B54">
-        <v>1192</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45807.5625</v>
+        <v>45810.5625</v>
       </c>
       <c r="B55">
-        <v>1191</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45807.57291666666</v>
+        <v>45810.57291666666</v>
       </c>
       <c r="B56">
-        <v>1191</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45807.58333333334</v>
+        <v>45810.58333333334</v>
       </c>
       <c r="B57">
-        <v>1190</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45807.59375</v>
+        <v>45810.59375</v>
       </c>
       <c r="B58">
-        <v>1210</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45807.60416666666</v>
+        <v>45810.60416666666</v>
       </c>
       <c r="B59">
-        <v>1210</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45807.61458333334</v>
+        <v>45810.61458333334</v>
       </c>
       <c r="B60">
-        <v>1210</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45807.625</v>
+        <v>45810.625</v>
       </c>
       <c r="B61">
-        <v>1210</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45807.63541666666</v>
+        <v>45810.63541666666</v>
       </c>
       <c r="B62">
-        <v>1214</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45807.64583333334</v>
+        <v>45810.64583333334</v>
       </c>
       <c r="B63">
-        <v>1215</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45807.65625</v>
+        <v>45810.65625</v>
       </c>
       <c r="B64">
-        <v>1216</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45807.66666666666</v>
+        <v>45810.66666666666</v>
       </c>
       <c r="B65">
-        <v>1216</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45807.67708333334</v>
+        <v>45810.67708333334</v>
       </c>
       <c r="B66">
-        <v>1176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45807.6875</v>
+        <v>45810.6875</v>
       </c>
       <c r="B67">
-        <v>1175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45807.69791666666</v>
+        <v>45810.69791666666</v>
       </c>
       <c r="B68">
-        <v>1174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45807.70833333334</v>
+        <v>45810.70833333334</v>
       </c>
       <c r="B69">
-        <v>1172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45807.71875</v>
+        <v>45810.71875</v>
       </c>
       <c r="B70">
-        <v>1114</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45807.72916666666</v>
+        <v>45810.72916666666</v>
       </c>
       <c r="B71">
-        <v>1110</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45807.73958333334</v>
+        <v>45810.73958333334</v>
       </c>
       <c r="B72">
-        <v>1105</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45807.75</v>
+        <v>45810.75</v>
       </c>
       <c r="B73">
-        <v>1100</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45807.76041666666</v>
+        <v>45810.76041666666</v>
       </c>
       <c r="B74">
-        <v>982</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45807.77083333334</v>
+        <v>45810.77083333334</v>
       </c>
       <c r="B75">
-        <v>978</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45807.78125</v>
+        <v>45810.78125</v>
       </c>
       <c r="B76">
-        <v>973</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45807.79166666666</v>
+        <v>45810.79166666666</v>
       </c>
       <c r="B77">
-        <v>969</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45807.80208333334</v>
+        <v>45810.80208333334</v>
       </c>
       <c r="B78">
-        <v>907</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45807.8125</v>
+        <v>45810.8125</v>
       </c>
       <c r="B79">
-        <v>906</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45807.82291666666</v>
+        <v>45810.82291666666</v>
       </c>
       <c r="B80">
-        <v>905</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45807.83333333334</v>
+        <v>45810.83333333334</v>
       </c>
       <c r="B81">
-        <v>905</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45807.84375</v>
+        <v>45810.84375</v>
       </c>
       <c r="B82">
-        <v>912</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45807.85416666666</v>
+        <v>45810.85416666666</v>
       </c>
       <c r="B83">
-        <v>913</v>
+        <v>381</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45807.86458333334</v>
+        <v>45810.86458333334</v>
       </c>
       <c r="B84">
-        <v>915</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45807.875</v>
+        <v>45810.875</v>
       </c>
       <c r="B85">
-        <v>916</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45807.88541666666</v>
+        <v>45810.88541666666</v>
       </c>
       <c r="B86">
-        <v>1008</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45807.89583333334</v>
+        <v>45810.89583333334</v>
       </c>
       <c r="B87">
-        <v>1010</v>
+        <v>423</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45807.90625</v>
+        <v>45810.90625</v>
       </c>
       <c r="B88">
-        <v>1012</v>
+        <v>425</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45807.91666666666</v>
+        <v>45810.91666666666</v>
       </c>
       <c r="B89">
-        <v>1015</v>
+        <v>427</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45807.92708333334</v>
+        <v>45810.92708333334</v>
       </c>
       <c r="B90">
-        <v>1054</v>
+        <v>436</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45807.9375</v>
+        <v>45810.9375</v>
       </c>
       <c r="B91">
-        <v>1056</v>
+        <v>437</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45807.94791666666</v>
+        <v>45810.94791666666</v>
       </c>
       <c r="B92">
-        <v>1058</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45807.95833333334</v>
+        <v>45810.95833333334</v>
       </c>
       <c r="B93">
-        <v>1060</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45807.96875</v>
+        <v>45810.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45807.97916666666</v>
+        <v>45810.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45807.98958333334</v>
+        <v>45810.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45808</v>
+        <v>45811</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45810.01041666666</v>
+        <v>45821.01041666666</v>
       </c>
       <c r="B2">
-        <v>95</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45810.02083333334</v>
+        <v>45821.02083333334</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45810.03125</v>
+        <v>45821.03125</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45810.04166666666</v>
+        <v>45821.04166666666</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45810.05208333334</v>
+        <v>45821.05208333334</v>
       </c>
       <c r="B6">
-        <v>113</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45810.0625</v>
+        <v>45821.0625</v>
       </c>
       <c r="B7">
-        <v>115</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45810.07291666666</v>
+        <v>45821.07291666666</v>
       </c>
       <c r="B8">
-        <v>117</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45810.08333333334</v>
+        <v>45821.08333333334</v>
       </c>
       <c r="B9">
-        <v>120</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45810.09375</v>
+        <v>45821.09375</v>
       </c>
       <c r="B10">
-        <v>148</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45810.10416666666</v>
+        <v>45821.10416666666</v>
       </c>
       <c r="B11">
-        <v>148</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45810.11458333334</v>
+        <v>45821.11458333334</v>
       </c>
       <c r="B12">
-        <v>149</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45810.125</v>
+        <v>45821.125</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45810.13541666666</v>
+        <v>45821.13541666666</v>
       </c>
       <c r="B14">
-        <v>167</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45810.14583333334</v>
+        <v>45821.14583333334</v>
       </c>
       <c r="B15">
-        <v>163</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45810.15625</v>
+        <v>45821.15625</v>
       </c>
       <c r="B16">
-        <v>164</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45810.16666666666</v>
+        <v>45821.16666666666</v>
       </c>
       <c r="B17">
-        <v>165</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45810.17708333334</v>
+        <v>45821.17708333334</v>
       </c>
       <c r="B18">
-        <v>159</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45810.1875</v>
+        <v>45821.1875</v>
       </c>
       <c r="B19">
-        <v>160</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45810.19791666666</v>
+        <v>45821.19791666666</v>
       </c>
       <c r="B20">
-        <v>160</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45810.20833333334</v>
+        <v>45821.20833333334</v>
       </c>
       <c r="B21">
-        <v>155</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45810.21875</v>
+        <v>45821.21875</v>
       </c>
       <c r="B22">
-        <v>150</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45810.22916666666</v>
+        <v>45821.22916666666</v>
       </c>
       <c r="B23">
-        <v>147</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45810.23958333334</v>
+        <v>45821.23958333334</v>
       </c>
       <c r="B24">
-        <v>146</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45810.25</v>
+        <v>45821.25</v>
       </c>
       <c r="B25">
-        <v>146</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45810.26041666666</v>
+        <v>45821.26041666666</v>
       </c>
       <c r="B26">
-        <v>105</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45810.27083333334</v>
+        <v>45821.27083333334</v>
       </c>
       <c r="B27">
-        <v>106</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45810.28125</v>
+        <v>45821.28125</v>
       </c>
       <c r="B28">
-        <v>106</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45810.29166666666</v>
+        <v>45821.29166666666</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45810.30208333334</v>
+        <v>45821.30208333334</v>
       </c>
       <c r="B30">
-        <v>75</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45810.3125</v>
+        <v>45821.3125</v>
       </c>
       <c r="B31">
-        <v>76</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45810.32291666666</v>
+        <v>45821.32291666666</v>
       </c>
       <c r="B32">
-        <v>77</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45810.33333333334</v>
+        <v>45821.33333333334</v>
       </c>
       <c r="B33">
-        <v>74</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45810.34375</v>
+        <v>45821.34375</v>
       </c>
       <c r="B34">
-        <v>57</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45810.35416666666</v>
+        <v>45821.35416666666</v>
       </c>
       <c r="B35">
-        <v>59</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45810.36458333334</v>
+        <v>45821.36458333334</v>
       </c>
       <c r="B36">
-        <v>61</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45810.375</v>
+        <v>45821.375</v>
       </c>
       <c r="B37">
-        <v>57</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45810.38541666666</v>
+        <v>45821.38541666666</v>
       </c>
       <c r="B38">
-        <v>47</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45810.39583333334</v>
+        <v>45821.39583333334</v>
       </c>
       <c r="B39">
-        <v>47</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45810.40625</v>
+        <v>45821.40625</v>
       </c>
       <c r="B40">
-        <v>47</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45810.41666666666</v>
+        <v>45821.41666666666</v>
       </c>
       <c r="B41">
-        <v>47</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45810.42708333334</v>
+        <v>45821.42708333334</v>
       </c>
       <c r="B42">
-        <v>45</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45810.4375</v>
+        <v>45821.4375</v>
       </c>
       <c r="B43">
-        <v>45</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45810.44791666666</v>
+        <v>45821.44791666666</v>
       </c>
       <c r="B44">
-        <v>45</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45810.45833333334</v>
+        <v>45821.45833333334</v>
       </c>
       <c r="B45">
-        <v>46</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45810.46875</v>
+        <v>45821.46875</v>
       </c>
       <c r="B46">
-        <v>54</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45810.47916666666</v>
+        <v>45821.47916666666</v>
       </c>
       <c r="B47">
-        <v>55</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45810.48958333334</v>
+        <v>45821.48958333334</v>
       </c>
       <c r="B48">
-        <v>55</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45810.5</v>
+        <v>45821.5</v>
       </c>
       <c r="B49">
-        <v>55</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45810.51041666666</v>
+        <v>45821.51041666666</v>
       </c>
       <c r="B50">
-        <v>79</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45810.52083333334</v>
+        <v>45821.52083333334</v>
       </c>
       <c r="B51">
-        <v>80</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45810.53125</v>
+        <v>45821.53125</v>
       </c>
       <c r="B52">
-        <v>81</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45810.54166666666</v>
+        <v>45821.54166666666</v>
       </c>
       <c r="B53">
-        <v>81</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45810.55208333334</v>
+        <v>45821.55208333334</v>
       </c>
       <c r="B54">
-        <v>108</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45810.5625</v>
+        <v>45821.5625</v>
       </c>
       <c r="B55">
-        <v>108</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45810.57291666666</v>
+        <v>45821.57291666666</v>
       </c>
       <c r="B56">
-        <v>109</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45810.58333333334</v>
+        <v>45821.58333333334</v>
       </c>
       <c r="B57">
-        <v>109</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45810.59375</v>
+        <v>45821.59375</v>
       </c>
       <c r="B58">
-        <v>141</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45810.60416666666</v>
+        <v>45821.60416666666</v>
       </c>
       <c r="B59">
-        <v>142</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45810.61458333334</v>
+        <v>45821.61458333334</v>
       </c>
       <c r="B60">
-        <v>142</v>
+        <v>497</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45810.625</v>
+        <v>45821.625</v>
       </c>
       <c r="B61">
-        <v>142</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45810.63541666666</v>
+        <v>45821.63541666666</v>
       </c>
       <c r="B62">
-        <v>162</v>
+        <v>583</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45810.64583333334</v>
+        <v>45821.64583333334</v>
       </c>
       <c r="B63">
-        <v>162</v>
+        <v>585</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45810.65625</v>
+        <v>45821.65625</v>
       </c>
       <c r="B64">
-        <v>162</v>
+        <v>586</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45810.66666666666</v>
+        <v>45821.66666666666</v>
       </c>
       <c r="B65">
-        <v>162</v>
+        <v>588</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45810.67708333334</v>
+        <v>45821.67708333334</v>
       </c>
       <c r="B66">
-        <v>178</v>
+        <v>621</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45810.6875</v>
+        <v>45821.6875</v>
       </c>
       <c r="B67">
-        <v>178</v>
+        <v>623</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45810.69791666666</v>
+        <v>45821.69791666666</v>
       </c>
       <c r="B68">
-        <v>178</v>
+        <v>625</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45810.70833333334</v>
+        <v>45821.70833333334</v>
       </c>
       <c r="B69">
-        <v>179</v>
+        <v>626</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45810.71875</v>
+        <v>45821.71875</v>
       </c>
       <c r="B70">
-        <v>201</v>
+        <v>676</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45810.72916666666</v>
+        <v>45821.72916666666</v>
       </c>
       <c r="B71">
-        <v>202</v>
+        <v>676</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45810.73958333334</v>
+        <v>45821.73958333334</v>
       </c>
       <c r="B72">
-        <v>203</v>
+        <v>676</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45810.75</v>
+        <v>45821.75</v>
       </c>
       <c r="B73">
-        <v>204</v>
+        <v>675</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45810.76041666666</v>
+        <v>45821.76041666666</v>
       </c>
       <c r="B74">
-        <v>250</v>
+        <v>709</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45810.77083333334</v>
+        <v>45821.77083333334</v>
       </c>
       <c r="B75">
-        <v>251</v>
+        <v>708</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45810.78125</v>
+        <v>45821.78125</v>
       </c>
       <c r="B76">
-        <v>253</v>
+        <v>707</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45810.79166666666</v>
+        <v>45821.79166666666</v>
       </c>
       <c r="B77">
-        <v>256</v>
+        <v>707</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45810.80208333334</v>
+        <v>45821.80208333334</v>
       </c>
       <c r="B78">
-        <v>315</v>
+        <v>758</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45810.8125</v>
+        <v>45821.8125</v>
       </c>
       <c r="B79">
-        <v>318</v>
+        <v>759</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45810.82291666666</v>
+        <v>45821.82291666666</v>
       </c>
       <c r="B80">
-        <v>322</v>
+        <v>761</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45810.83333333334</v>
+        <v>45821.83333333334</v>
       </c>
       <c r="B81">
-        <v>325</v>
+        <v>762</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45810.84375</v>
+        <v>45821.84375</v>
       </c>
       <c r="B82">
-        <v>379</v>
+        <v>806</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45810.85416666666</v>
+        <v>45821.85416666666</v>
       </c>
       <c r="B83">
-        <v>381</v>
+        <v>807</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45810.86458333334</v>
+        <v>45821.86458333334</v>
       </c>
       <c r="B84">
-        <v>383</v>
+        <v>807</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45810.875</v>
+        <v>45821.875</v>
       </c>
       <c r="B85">
-        <v>385</v>
+        <v>807</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45810.88541666666</v>
+        <v>45821.88541666666</v>
       </c>
       <c r="B86">
-        <v>422</v>
+        <v>818</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45810.89583333334</v>
+        <v>45821.89583333334</v>
       </c>
       <c r="B87">
-        <v>423</v>
+        <v>818</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45810.90625</v>
+        <v>45821.90625</v>
       </c>
       <c r="B88">
-        <v>425</v>
+        <v>819</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45810.91666666666</v>
+        <v>45821.91666666666</v>
       </c>
       <c r="B89">
-        <v>427</v>
+        <v>820</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45810.92708333334</v>
+        <v>45821.92708333334</v>
       </c>
       <c r="B90">
-        <v>436</v>
+        <v>851</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45810.9375</v>
+        <v>45821.9375</v>
       </c>
       <c r="B91">
-        <v>437</v>
+        <v>851</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45810.94791666666</v>
+        <v>45821.94791666666</v>
       </c>
       <c r="B92">
-        <v>438</v>
+        <v>850</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45810.95833333334</v>
+        <v>45821.95833333334</v>
       </c>
       <c r="B93">
-        <v>439</v>
+        <v>850</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45810.96875</v>
+        <v>45821.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45810.97916666666</v>
+        <v>45821.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45810.98958333334</v>
+        <v>45821.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45811</v>
+        <v>45822</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45821.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B2">
-        <v>317</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45821.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B3">
-        <v>315</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45821.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B4">
-        <v>313</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45821.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B5">
-        <v>311</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45821.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B6">
-        <v>317</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45821.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B7">
-        <v>315</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45821.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B8">
-        <v>313</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45821.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B9">
-        <v>310</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45821.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B10">
-        <v>334</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45821.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B11">
-        <v>333</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45821.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B12">
-        <v>333</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45821.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B13">
-        <v>333</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45821.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B14">
-        <v>369</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45821.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B15">
-        <v>369</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45821.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B16">
-        <v>370</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45821.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B17">
-        <v>371</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45821.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B18">
-        <v>388</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45821.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B19">
-        <v>389</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45821.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B20">
-        <v>390</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45821.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B21">
-        <v>391</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45821.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B22">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45821.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B23">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45821.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B24">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45821.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B25">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45821.26041666666</v>
+        <v>45825.26041666666</v>
       </c>
       <c r="B26">
-        <v>324</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45821.27083333334</v>
+        <v>45825.27083333334</v>
       </c>
       <c r="B27">
-        <v>323</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45821.28125</v>
+        <v>45825.28125</v>
       </c>
       <c r="B28">
-        <v>323</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45821.29166666666</v>
+        <v>45825.29166666666</v>
       </c>
       <c r="B29">
-        <v>323</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45821.30208333334</v>
+        <v>45825.30208333334</v>
       </c>
       <c r="B30">
-        <v>286</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45821.3125</v>
+        <v>45825.3125</v>
       </c>
       <c r="B31">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45821.32291666666</v>
+        <v>45825.32291666666</v>
       </c>
       <c r="B32">
-        <v>287</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45821.33333333334</v>
+        <v>45825.33333333334</v>
       </c>
       <c r="B33">
-        <v>287</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45821.34375</v>
+        <v>45825.34375</v>
       </c>
       <c r="B34">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45821.35416666666</v>
+        <v>45825.35416666666</v>
       </c>
       <c r="B35">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45821.36458333334</v>
+        <v>45825.36458333334</v>
       </c>
       <c r="B36">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45821.375</v>
+        <v>45825.375</v>
       </c>
       <c r="B37">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45821.38541666666</v>
+        <v>45825.38541666666</v>
       </c>
       <c r="B38">
-        <v>272</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45821.39583333334</v>
+        <v>45825.39583333334</v>
       </c>
       <c r="B39">
-        <v>272</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45821.40625</v>
+        <v>45825.40625</v>
       </c>
       <c r="B40">
-        <v>272</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45821.41666666666</v>
+        <v>45825.41666666666</v>
       </c>
       <c r="B41">
-        <v>272</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45821.42708333334</v>
+        <v>45825.42708333334</v>
       </c>
       <c r="B42">
-        <v>264</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45821.4375</v>
+        <v>45825.4375</v>
       </c>
       <c r="B43">
-        <v>265</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45821.44791666666</v>
+        <v>45825.44791666666</v>
       </c>
       <c r="B44">
-        <v>266</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45821.45833333334</v>
+        <v>45825.45833333334</v>
       </c>
       <c r="B45">
-        <v>266</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45821.46875</v>
+        <v>45825.46875</v>
       </c>
       <c r="B46">
-        <v>297</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45821.47916666666</v>
+        <v>45825.47916666666</v>
       </c>
       <c r="B47">
-        <v>298</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45821.48958333334</v>
+        <v>45825.48958333334</v>
       </c>
       <c r="B48">
-        <v>299</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45821.5</v>
+        <v>45825.5</v>
       </c>
       <c r="B49">
-        <v>299</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45821.51041666666</v>
+        <v>45825.51041666666</v>
       </c>
       <c r="B50">
-        <v>357</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45821.52083333334</v>
+        <v>45825.52083333334</v>
       </c>
       <c r="B51">
-        <v>358</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45821.53125</v>
+        <v>45825.53125</v>
       </c>
       <c r="B52">
-        <v>359</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45821.54166666666</v>
+        <v>45825.54166666666</v>
       </c>
       <c r="B53">
-        <v>359</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45821.55208333334</v>
+        <v>45825.55208333334</v>
       </c>
       <c r="B54">
-        <v>420</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45821.5625</v>
+        <v>45825.5625</v>
       </c>
       <c r="B55">
-        <v>422</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45821.57291666666</v>
+        <v>45825.57291666666</v>
       </c>
       <c r="B56">
-        <v>423</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45821.58333333334</v>
+        <v>45825.58333333334</v>
       </c>
       <c r="B57">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45821.59375</v>
+        <v>45825.59375</v>
       </c>
       <c r="B58">
-        <v>494</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45821.60416666666</v>
+        <v>45825.60416666666</v>
       </c>
       <c r="B59">
-        <v>495</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45821.61458333334</v>
+        <v>45825.61458333334</v>
       </c>
       <c r="B60">
-        <v>497</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45821.625</v>
+        <v>45825.625</v>
       </c>
       <c r="B61">
-        <v>497</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45821.63541666666</v>
+        <v>45825.63541666666</v>
       </c>
       <c r="B62">
-        <v>583</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45821.64583333334</v>
+        <v>45825.64583333334</v>
       </c>
       <c r="B63">
-        <v>585</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45821.65625</v>
+        <v>45825.65625</v>
       </c>
       <c r="B64">
-        <v>586</v>
+        <v>382</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45821.66666666666</v>
+        <v>45825.66666666666</v>
       </c>
       <c r="B65">
-        <v>588</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45821.67708333334</v>
+        <v>45825.67708333334</v>
       </c>
       <c r="B66">
-        <v>621</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45821.6875</v>
+        <v>45825.6875</v>
       </c>
       <c r="B67">
-        <v>623</v>
+        <v>388</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45821.69791666666</v>
+        <v>45825.69791666666</v>
       </c>
       <c r="B68">
-        <v>625</v>
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45821.70833333334</v>
+        <v>45825.70833333334</v>
       </c>
       <c r="B69">
-        <v>626</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45821.71875</v>
+        <v>45825.71875</v>
       </c>
       <c r="B70">
-        <v>676</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45821.72916666666</v>
+        <v>45825.72916666666</v>
       </c>
       <c r="B71">
-        <v>676</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45821.73958333334</v>
+        <v>45825.73958333334</v>
       </c>
       <c r="B72">
-        <v>676</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45821.75</v>
+        <v>45825.75</v>
       </c>
       <c r="B73">
-        <v>675</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45821.76041666666</v>
+        <v>45825.76041666666</v>
       </c>
       <c r="B74">
-        <v>709</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45821.77083333334</v>
+        <v>45825.77083333334</v>
       </c>
       <c r="B75">
-        <v>708</v>
+        <v>364</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45821.78125</v>
+        <v>45825.78125</v>
       </c>
       <c r="B76">
-        <v>707</v>
+        <v>364</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45821.79166666666</v>
+        <v>45825.79166666666</v>
       </c>
       <c r="B77">
-        <v>707</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45821.80208333334</v>
+        <v>45825.80208333334</v>
       </c>
       <c r="B78">
-        <v>758</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45821.8125</v>
+        <v>45825.8125</v>
       </c>
       <c r="B79">
-        <v>759</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45821.82291666666</v>
+        <v>45825.82291666666</v>
       </c>
       <c r="B80">
-        <v>761</v>
+        <v>385</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45821.83333333334</v>
+        <v>45825.83333333334</v>
       </c>
       <c r="B81">
-        <v>762</v>
+        <v>388</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45821.84375</v>
+        <v>45825.84375</v>
       </c>
       <c r="B82">
-        <v>806</v>
+        <v>395</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45821.85416666666</v>
+        <v>45825.85416666666</v>
       </c>
       <c r="B83">
-        <v>807</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45821.86458333334</v>
+        <v>45825.86458333334</v>
       </c>
       <c r="B84">
-        <v>807</v>
+        <v>401</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45821.875</v>
+        <v>45825.875</v>
       </c>
       <c r="B85">
-        <v>807</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45821.88541666666</v>
+        <v>45825.88541666666</v>
       </c>
       <c r="B86">
-        <v>818</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45821.89583333334</v>
+        <v>45825.89583333334</v>
       </c>
       <c r="B87">
-        <v>818</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45821.90625</v>
+        <v>45825.90625</v>
       </c>
       <c r="B88">
-        <v>819</v>
+        <v>462</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45821.91666666666</v>
+        <v>45825.91666666666</v>
       </c>
       <c r="B89">
-        <v>820</v>
+        <v>464</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45821.92708333334</v>
+        <v>45825.92708333334</v>
       </c>
       <c r="B90">
-        <v>851</v>
+        <v>590</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45821.9375</v>
+        <v>45825.9375</v>
       </c>
       <c r="B91">
-        <v>851</v>
+        <v>593</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45821.94791666666</v>
+        <v>45825.94791666666</v>
       </c>
       <c r="B92">
-        <v>850</v>
+        <v>595</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45821.95833333334</v>
+        <v>45825.95833333334</v>
       </c>
       <c r="B93">
-        <v>850</v>
+        <v>598</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45821.96875</v>
+        <v>45825.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45821.97916666666</v>
+        <v>45825.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45821.98958333334</v>
+        <v>45825.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45822</v>
+        <v>45826</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45825.01041666666</v>
+        <v>45828.01041666666</v>
       </c>
       <c r="B2">
-        <v>243</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45825.02083333334</v>
+        <v>45828.02083333334</v>
       </c>
       <c r="B3">
-        <v>244</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45825.03125</v>
+        <v>45828.03125</v>
       </c>
       <c r="B4">
-        <v>244</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45825.04166666666</v>
+        <v>45828.04166666666</v>
       </c>
       <c r="B5">
-        <v>246</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45825.05208333334</v>
+        <v>45828.05208333334</v>
       </c>
       <c r="B6">
-        <v>260</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45825.0625</v>
+        <v>45828.0625</v>
       </c>
       <c r="B7">
-        <v>262</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45825.07291666666</v>
+        <v>45828.07291666666</v>
       </c>
       <c r="B8">
-        <v>263</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45825.08333333334</v>
+        <v>45828.08333333334</v>
       </c>
       <c r="B9">
-        <v>265</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45825.09375</v>
+        <v>45828.09375</v>
       </c>
       <c r="B10">
-        <v>287</v>
+        <v>736</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45825.10416666666</v>
+        <v>45828.10416666666</v>
       </c>
       <c r="B11">
-        <v>289</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45825.11458333334</v>
+        <v>45828.11458333334</v>
       </c>
       <c r="B12">
-        <v>291</v>
+        <v>738</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45825.125</v>
+        <v>45828.125</v>
       </c>
       <c r="B13">
-        <v>293</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45825.13541666666</v>
+        <v>45828.13541666666</v>
       </c>
       <c r="B14">
-        <v>304</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45825.14583333334</v>
+        <v>45828.14583333334</v>
       </c>
       <c r="B15">
-        <v>306</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45825.15625</v>
+        <v>45828.15625</v>
       </c>
       <c r="B16">
-        <v>308</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45825.16666666666</v>
+        <v>45828.16666666666</v>
       </c>
       <c r="B17">
-        <v>309</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45825.17708333334</v>
+        <v>45828.17708333334</v>
       </c>
       <c r="B18">
-        <v>331</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45825.1875</v>
+        <v>45828.1875</v>
       </c>
       <c r="B19">
-        <v>331</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45825.19791666666</v>
+        <v>45828.19791666666</v>
       </c>
       <c r="B20">
-        <v>331</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45825.20833333334</v>
+        <v>45828.20833333334</v>
       </c>
       <c r="B21">
-        <v>333</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45825.21875</v>
+        <v>45828.21875</v>
       </c>
       <c r="B22">
-        <v>369</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45825.22916666666</v>
+        <v>45828.22916666666</v>
       </c>
       <c r="B23">
-        <v>369</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45825.23958333334</v>
+        <v>45828.23958333334</v>
       </c>
       <c r="B24">
-        <v>369</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45825.25</v>
+        <v>45828.25</v>
       </c>
       <c r="B25">
-        <v>370</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45825.26041666666</v>
+        <v>45828.26041666666</v>
       </c>
       <c r="B26">
-        <v>386</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45825.27083333334</v>
+        <v>45828.27083333334</v>
       </c>
       <c r="B27">
-        <v>385</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45825.28125</v>
+        <v>45828.28125</v>
       </c>
       <c r="B28">
-        <v>383</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45825.29166666666</v>
+        <v>45828.29166666666</v>
       </c>
       <c r="B29">
-        <v>383</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45825.30208333334</v>
+        <v>45828.30208333334</v>
       </c>
       <c r="B30">
-        <v>316</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45825.3125</v>
+        <v>45828.3125</v>
       </c>
       <c r="B31">
-        <v>315</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45825.32291666666</v>
+        <v>45828.32291666666</v>
       </c>
       <c r="B32">
-        <v>314</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45825.33333333334</v>
+        <v>45828.33333333334</v>
       </c>
       <c r="B33">
-        <v>314</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45825.34375</v>
+        <v>45828.34375</v>
       </c>
       <c r="B34">
-        <v>283</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45825.35416666666</v>
+        <v>45828.35416666666</v>
       </c>
       <c r="B35">
-        <v>284</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45825.36458333334</v>
+        <v>45828.36458333334</v>
       </c>
       <c r="B36">
-        <v>287</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45825.375</v>
+        <v>45828.375</v>
       </c>
       <c r="B37">
-        <v>285</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45825.38541666666</v>
+        <v>45828.38541666666</v>
       </c>
       <c r="B38">
-        <v>310</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45825.39583333334</v>
+        <v>45828.39583333334</v>
       </c>
       <c r="B39">
-        <v>312</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45825.40625</v>
+        <v>45828.40625</v>
       </c>
       <c r="B40">
-        <v>317</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45825.41666666666</v>
+        <v>45828.41666666666</v>
       </c>
       <c r="B41">
-        <v>319</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45825.42708333334</v>
+        <v>45828.42708333334</v>
       </c>
       <c r="B42">
-        <v>392</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45825.4375</v>
+        <v>45828.4375</v>
       </c>
       <c r="B43">
-        <v>393</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45825.44791666666</v>
+        <v>45828.44791666666</v>
       </c>
       <c r="B44">
-        <v>395</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45825.45833333334</v>
+        <v>45828.45833333334</v>
       </c>
       <c r="B45">
-        <v>396</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45825.46875</v>
+        <v>45828.46875</v>
       </c>
       <c r="B46">
-        <v>431</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45825.47916666666</v>
+        <v>45828.47916666666</v>
       </c>
       <c r="B47">
-        <v>431</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45825.48958333334</v>
+        <v>45828.48958333334</v>
       </c>
       <c r="B48">
-        <v>430</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45825.5</v>
+        <v>45828.5</v>
       </c>
       <c r="B49">
-        <v>429</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45825.51041666666</v>
+        <v>45828.51041666666</v>
       </c>
       <c r="B50">
-        <v>399</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45825.52083333334</v>
+        <v>45828.52083333334</v>
       </c>
       <c r="B51">
-        <v>398</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45825.53125</v>
+        <v>45828.53125</v>
       </c>
       <c r="B52">
-        <v>397</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45825.54166666666</v>
+        <v>45828.54166666666</v>
       </c>
       <c r="B53">
-        <v>395</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45825.55208333334</v>
+        <v>45828.55208333334</v>
       </c>
       <c r="B54">
-        <v>385</v>
+        <v>815</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45825.5625</v>
+        <v>45828.5625</v>
       </c>
       <c r="B55">
-        <v>385</v>
+        <v>810</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45825.57291666666</v>
+        <v>45828.57291666666</v>
       </c>
       <c r="B56">
-        <v>385</v>
+        <v>806</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45825.58333333334</v>
+        <v>45828.58333333334</v>
       </c>
       <c r="B57">
-        <v>384</v>
+        <v>801</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45825.59375</v>
+        <v>45828.59375</v>
       </c>
       <c r="B58">
-        <v>388</v>
+        <v>706</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45825.60416666666</v>
+        <v>45828.60416666666</v>
       </c>
       <c r="B59">
-        <v>388</v>
+        <v>703</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45825.61458333334</v>
+        <v>45828.61458333334</v>
       </c>
       <c r="B60">
-        <v>387</v>
+        <v>700</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45825.625</v>
+        <v>45828.625</v>
       </c>
       <c r="B61">
-        <v>386</v>
+        <v>695</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45825.63541666666</v>
+        <v>45828.63541666666</v>
       </c>
       <c r="B62">
-        <v>384</v>
+        <v>617</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45825.64583333334</v>
+        <v>45828.64583333334</v>
       </c>
       <c r="B63">
-        <v>383</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45825.65625</v>
+        <v>45828.65625</v>
       </c>
       <c r="B64">
-        <v>382</v>
+        <v>613</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45825.66666666666</v>
+        <v>45828.66666666666</v>
       </c>
       <c r="B65">
-        <v>380</v>
+        <v>610</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45825.67708333334</v>
+        <v>45828.67708333334</v>
       </c>
       <c r="B66">
-        <v>389</v>
+        <v>597</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45825.6875</v>
+        <v>45828.6875</v>
       </c>
       <c r="B67">
-        <v>388</v>
+        <v>595</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45825.69791666666</v>
+        <v>45828.69791666666</v>
       </c>
       <c r="B68">
-        <v>386</v>
+        <v>593</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45825.70833333334</v>
+        <v>45828.70833333334</v>
       </c>
       <c r="B69">
-        <v>385</v>
+        <v>591</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45825.71875</v>
+        <v>45828.71875</v>
       </c>
       <c r="B70">
-        <v>369</v>
+        <v>561</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45825.72916666666</v>
+        <v>45828.72916666666</v>
       </c>
       <c r="B71">
-        <v>368</v>
+        <v>559</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45825.73958333334</v>
+        <v>45828.73958333334</v>
       </c>
       <c r="B72">
-        <v>367</v>
+        <v>557</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45825.75</v>
+        <v>45828.75</v>
       </c>
       <c r="B73">
-        <v>366</v>
+        <v>555</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45825.76041666666</v>
+        <v>45828.76041666666</v>
       </c>
       <c r="B74">
-        <v>363</v>
+        <v>553</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45825.77083333334</v>
+        <v>45828.77083333334</v>
       </c>
       <c r="B75">
-        <v>364</v>
+        <v>551</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45825.78125</v>
+        <v>45828.78125</v>
       </c>
       <c r="B76">
-        <v>364</v>
+        <v>549</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45825.79166666666</v>
+        <v>45828.79166666666</v>
       </c>
       <c r="B77">
-        <v>365</v>
+        <v>548</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45825.80208333334</v>
+        <v>45828.80208333334</v>
       </c>
       <c r="B78">
-        <v>378</v>
+        <v>576</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45825.8125</v>
+        <v>45828.8125</v>
       </c>
       <c r="B79">
-        <v>381</v>
+        <v>576</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45825.82291666666</v>
+        <v>45828.82291666666</v>
       </c>
       <c r="B80">
-        <v>385</v>
+        <v>576</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45825.83333333334</v>
+        <v>45828.83333333334</v>
       </c>
       <c r="B81">
-        <v>388</v>
+        <v>577</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45825.84375</v>
+        <v>45828.84375</v>
       </c>
       <c r="B82">
-        <v>395</v>
+        <v>675</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45825.85416666666</v>
+        <v>45828.85416666666</v>
       </c>
       <c r="B83">
-        <v>398</v>
+        <v>675</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45825.86458333334</v>
+        <v>45828.86458333334</v>
       </c>
       <c r="B84">
-        <v>401</v>
+        <v>675</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45825.875</v>
+        <v>45828.875</v>
       </c>
       <c r="B85">
-        <v>405</v>
+        <v>676</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45825.88541666666</v>
+        <v>45828.88541666666</v>
       </c>
       <c r="B86">
-        <v>458</v>
+        <v>752</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45825.89583333334</v>
+        <v>45828.89583333334</v>
       </c>
       <c r="B87">
-        <v>460</v>
+        <v>752</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45825.90625</v>
+        <v>45828.90625</v>
       </c>
       <c r="B88">
-        <v>462</v>
+        <v>753</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45825.91666666666</v>
+        <v>45828.91666666666</v>
       </c>
       <c r="B89">
-        <v>464</v>
+        <v>754</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45825.92708333334</v>
+        <v>45828.92708333334</v>
       </c>
       <c r="B90">
-        <v>590</v>
+        <v>781</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45825.9375</v>
+        <v>45828.9375</v>
       </c>
       <c r="B91">
-        <v>593</v>
+        <v>781</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45825.94791666666</v>
+        <v>45828.94791666666</v>
       </c>
       <c r="B92">
-        <v>595</v>
+        <v>782</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45825.95833333334</v>
+        <v>45828.95833333334</v>
       </c>
       <c r="B93">
-        <v>598</v>
+        <v>783</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45825.96875</v>
+        <v>45828.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45825.97916666666</v>
+        <v>45828.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45825.98958333334</v>
+        <v>45828.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45826</v>
+        <v>45829</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,519 +397,519 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45828.01041666666</v>
+        <v>45859.01041666666</v>
       </c>
       <c r="B2">
-        <v>531</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45828.02083333334</v>
+        <v>45859.02083333334</v>
       </c>
       <c r="B3">
-        <v>535</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45828.03125</v>
+        <v>45859.03125</v>
       </c>
       <c r="B4">
-        <v>542</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45828.04166666666</v>
+        <v>45859.04166666666</v>
       </c>
       <c r="B5">
-        <v>548</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45828.05208333334</v>
+        <v>45859.05208333334</v>
       </c>
       <c r="B6">
-        <v>617</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45828.0625</v>
+        <v>45859.0625</v>
       </c>
       <c r="B7">
-        <v>621</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45828.07291666666</v>
+        <v>45859.07291666666</v>
       </c>
       <c r="B8">
-        <v>615</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45828.08333333334</v>
+        <v>45859.08333333334</v>
       </c>
       <c r="B9">
-        <v>617</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45828.09375</v>
+        <v>45859.09375</v>
       </c>
       <c r="B10">
-        <v>736</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45828.10416666666</v>
+        <v>45859.10416666666</v>
       </c>
       <c r="B11">
-        <v>730</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45828.11458333334</v>
+        <v>45859.11458333334</v>
       </c>
       <c r="B12">
-        <v>738</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45828.125</v>
+        <v>45859.125</v>
       </c>
       <c r="B13">
-        <v>750</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45828.13541666666</v>
+        <v>45859.13541666666</v>
       </c>
       <c r="B14">
-        <v>1072</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45828.14583333334</v>
+        <v>45859.14583333334</v>
       </c>
       <c r="B15">
-        <v>1083</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45828.15625</v>
+        <v>45859.15625</v>
       </c>
       <c r="B16">
-        <v>1100</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45828.16666666666</v>
+        <v>45859.16666666666</v>
       </c>
       <c r="B17">
-        <v>1116</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45828.17708333334</v>
+        <v>45859.17708333334</v>
       </c>
       <c r="B18">
-        <v>1602</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45828.1875</v>
+        <v>45859.1875</v>
       </c>
       <c r="B19">
-        <v>1615</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45828.19791666666</v>
+        <v>45859.19791666666</v>
       </c>
       <c r="B20">
-        <v>1629</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45828.20833333334</v>
+        <v>45859.20833333334</v>
       </c>
       <c r="B21">
-        <v>1639</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45828.21875</v>
+        <v>45859.21875</v>
       </c>
       <c r="B22">
-        <v>1948</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45828.22916666666</v>
+        <v>45859.22916666666</v>
       </c>
       <c r="B23">
-        <v>1965</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45828.23958333334</v>
+        <v>45859.23958333334</v>
       </c>
       <c r="B24">
-        <v>1963</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45828.25</v>
+        <v>45859.25</v>
       </c>
       <c r="B25">
-        <v>1969</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45828.26041666666</v>
+        <v>45859.26041666666</v>
       </c>
       <c r="B26">
-        <v>2042</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45828.27083333334</v>
+        <v>45859.27083333334</v>
       </c>
       <c r="B27">
-        <v>2070</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45828.28125</v>
+        <v>45859.28125</v>
       </c>
       <c r="B28">
-        <v>2068</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45828.29166666666</v>
+        <v>45859.29166666666</v>
       </c>
       <c r="B29">
-        <v>2057</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45828.30208333334</v>
+        <v>45859.30208333334</v>
       </c>
       <c r="B30">
-        <v>2029</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45828.3125</v>
+        <v>45859.3125</v>
       </c>
       <c r="B31">
-        <v>2031</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45828.32291666666</v>
+        <v>45859.32291666666</v>
       </c>
       <c r="B32">
-        <v>2035</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45828.33333333334</v>
+        <v>45859.33333333334</v>
       </c>
       <c r="B33">
-        <v>2033</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45828.34375</v>
+        <v>45859.34375</v>
       </c>
       <c r="B34">
-        <v>1905</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45828.35416666666</v>
+        <v>45859.35416666666</v>
       </c>
       <c r="B35">
-        <v>1902</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45828.36458333334</v>
+        <v>45859.36458333334</v>
       </c>
       <c r="B36">
-        <v>1899</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45828.375</v>
+        <v>45859.375</v>
       </c>
       <c r="B37">
-        <v>1896</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45828.38541666666</v>
+        <v>45859.38541666666</v>
       </c>
       <c r="B38">
-        <v>1774</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45828.39583333334</v>
+        <v>45859.39583333334</v>
       </c>
       <c r="B39">
-        <v>1770</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45828.40625</v>
+        <v>45859.40625</v>
       </c>
       <c r="B40">
-        <v>1767</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45828.41666666666</v>
+        <v>45859.41666666666</v>
       </c>
       <c r="B41">
-        <v>1763</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45828.42708333334</v>
+        <v>45859.42708333334</v>
       </c>
       <c r="B42">
-        <v>1595</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45828.4375</v>
+        <v>45859.4375</v>
       </c>
       <c r="B43">
-        <v>1591</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45828.44791666666</v>
+        <v>45859.44791666666</v>
       </c>
       <c r="B44">
-        <v>1586</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45828.45833333334</v>
+        <v>45859.45833333334</v>
       </c>
       <c r="B45">
-        <v>1580</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45828.46875</v>
+        <v>45859.46875</v>
       </c>
       <c r="B46">
-        <v>1333</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45828.47916666666</v>
+        <v>45859.47916666666</v>
       </c>
       <c r="B47">
-        <v>1326</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45828.48958333334</v>
+        <v>45859.48958333334</v>
       </c>
       <c r="B48">
-        <v>1320</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45828.5</v>
+        <v>45859.5</v>
       </c>
       <c r="B49">
-        <v>1313</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45828.51041666666</v>
+        <v>45859.51041666666</v>
       </c>
       <c r="B50">
-        <v>1018</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45828.52083333334</v>
+        <v>45859.52083333334</v>
       </c>
       <c r="B51">
-        <v>1013</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45828.53125</v>
+        <v>45859.53125</v>
       </c>
       <c r="B52">
-        <v>1007</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45828.54166666666</v>
+        <v>45859.54166666666</v>
       </c>
       <c r="B53">
-        <v>1000</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45828.55208333334</v>
+        <v>45859.55208333334</v>
       </c>
       <c r="B54">
-        <v>815</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45828.5625</v>
+        <v>45859.5625</v>
       </c>
       <c r="B55">
-        <v>810</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45828.57291666666</v>
+        <v>45859.57291666666</v>
       </c>
       <c r="B56">
-        <v>806</v>
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45828.58333333334</v>
+        <v>45859.58333333334</v>
       </c>
       <c r="B57">
-        <v>801</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45828.59375</v>
+        <v>45859.59375</v>
       </c>
       <c r="B58">
-        <v>706</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45828.60416666666</v>
+        <v>45859.60416666666</v>
       </c>
       <c r="B59">
-        <v>703</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45828.61458333334</v>
+        <v>45859.61458333334</v>
       </c>
       <c r="B60">
-        <v>700</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45828.625</v>
+        <v>45859.625</v>
       </c>
       <c r="B61">
-        <v>695</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45828.63541666666</v>
+        <v>45859.63541666666</v>
       </c>
       <c r="B62">
-        <v>617</v>
+        <v>509</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45828.64583333334</v>
+        <v>45859.64583333334</v>
       </c>
       <c r="B63">
-        <v>615</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45828.65625</v>
+        <v>45859.65625</v>
       </c>
       <c r="B64">
-        <v>613</v>
+        <v>512</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45828.66666666666</v>
+        <v>45859.66666666666</v>
       </c>
       <c r="B65">
-        <v>610</v>
+        <v>513</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45828.67708333334</v>
+        <v>45859.67708333334</v>
       </c>
       <c r="B66">
         <v>597</v>
@@ -917,223 +917,223 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45828.6875</v>
+        <v>45859.6875</v>
       </c>
       <c r="B67">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45828.69791666666</v>
+        <v>45859.69791666666</v>
       </c>
       <c r="B68">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45828.70833333334</v>
+        <v>45859.70833333334</v>
       </c>
       <c r="B69">
-        <v>591</v>
+        <v>601</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45828.71875</v>
+        <v>45859.71875</v>
       </c>
       <c r="B70">
-        <v>561</v>
+        <v>607</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45828.72916666666</v>
+        <v>45859.72916666666</v>
       </c>
       <c r="B71">
-        <v>559</v>
+        <v>608</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45828.73958333334</v>
+        <v>45859.73958333334</v>
       </c>
       <c r="B72">
-        <v>557</v>
+        <v>608</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45828.75</v>
+        <v>45859.75</v>
       </c>
       <c r="B73">
-        <v>555</v>
+        <v>609</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45828.76041666666</v>
+        <v>45859.76041666666</v>
       </c>
       <c r="B74">
-        <v>553</v>
+        <v>605</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45828.77083333334</v>
+        <v>45859.77083333334</v>
       </c>
       <c r="B75">
-        <v>551</v>
+        <v>606</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45828.78125</v>
+        <v>45859.78125</v>
       </c>
       <c r="B76">
-        <v>549</v>
+        <v>607</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45828.79166666666</v>
+        <v>45859.79166666666</v>
       </c>
       <c r="B77">
-        <v>548</v>
+        <v>608</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45828.80208333334</v>
+        <v>45859.80208333334</v>
       </c>
       <c r="B78">
-        <v>576</v>
+        <v>643</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45828.8125</v>
+        <v>45859.8125</v>
       </c>
       <c r="B79">
-        <v>576</v>
+        <v>645</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45828.82291666666</v>
+        <v>45859.82291666666</v>
       </c>
       <c r="B80">
-        <v>576</v>
+        <v>648</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45828.83333333334</v>
+        <v>45859.83333333334</v>
       </c>
       <c r="B81">
-        <v>577</v>
+        <v>650</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45828.84375</v>
+        <v>45859.84375</v>
       </c>
       <c r="B82">
-        <v>675</v>
+        <v>733</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45828.85416666666</v>
+        <v>45859.85416666666</v>
       </c>
       <c r="B83">
-        <v>675</v>
+        <v>736</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45828.86458333334</v>
+        <v>45859.86458333334</v>
       </c>
       <c r="B84">
-        <v>675</v>
+        <v>739</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45828.875</v>
+        <v>45859.875</v>
       </c>
       <c r="B85">
-        <v>676</v>
+        <v>742</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45828.88541666666</v>
+        <v>45859.88541666666</v>
       </c>
       <c r="B86">
-        <v>752</v>
+        <v>803</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45828.89583333334</v>
+        <v>45859.89583333334</v>
       </c>
       <c r="B87">
-        <v>752</v>
+        <v>806</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45828.90625</v>
+        <v>45859.90625</v>
       </c>
       <c r="B88">
-        <v>753</v>
+        <v>809</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45828.91666666666</v>
+        <v>45859.91666666666</v>
       </c>
       <c r="B89">
-        <v>754</v>
+        <v>812</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45828.92708333334</v>
+        <v>45859.92708333334</v>
       </c>
       <c r="B90">
-        <v>781</v>
+        <v>861</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45828.9375</v>
+        <v>45859.9375</v>
       </c>
       <c r="B91">
-        <v>781</v>
+        <v>863</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45828.94791666666</v>
+        <v>45859.94791666666</v>
       </c>
       <c r="B92">
-        <v>782</v>
+        <v>866</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45828.95833333334</v>
+        <v>45859.95833333334</v>
       </c>
       <c r="B93">
-        <v>783</v>
+        <v>869</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45828.96875</v>
+        <v>45859.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45828.97916666666</v>
+        <v>45859.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45828.98958333334</v>
+        <v>45859.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45829</v>
+        <v>45860</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45859.01041666666</v>
+        <v>45863.01041666666</v>
       </c>
       <c r="B2">
-        <v>504</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45859.02083333334</v>
+        <v>45863.02083333334</v>
       </c>
       <c r="B3">
-        <v>505</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45859.03125</v>
+        <v>45863.03125</v>
       </c>
       <c r="B4">
-        <v>514</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45859.04166666666</v>
+        <v>45863.04166666666</v>
       </c>
       <c r="B5">
-        <v>515</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45859.05208333334</v>
+        <v>45863.05208333334</v>
       </c>
       <c r="B6">
-        <v>472</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45859.0625</v>
+        <v>45863.0625</v>
       </c>
       <c r="B7">
-        <v>479</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45859.07291666666</v>
+        <v>45863.07291666666</v>
       </c>
       <c r="B8">
-        <v>460</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45859.08333333334</v>
+        <v>45863.08333333334</v>
       </c>
       <c r="B9">
-        <v>480</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45859.09375</v>
+        <v>45863.09375</v>
       </c>
       <c r="B10">
-        <v>428</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45859.10416666666</v>
+        <v>45863.10416666666</v>
       </c>
       <c r="B11">
-        <v>429</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45859.11458333334</v>
+        <v>45863.11458333334</v>
       </c>
       <c r="B12">
-        <v>430</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45859.125</v>
+        <v>45863.125</v>
       </c>
       <c r="B13">
-        <v>429</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45859.13541666666</v>
+        <v>45863.13541666666</v>
       </c>
       <c r="B14">
-        <v>350</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45859.14583333334</v>
+        <v>45863.14583333334</v>
       </c>
       <c r="B15">
-        <v>347</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45859.15625</v>
+        <v>45863.15625</v>
       </c>
       <c r="B16">
-        <v>355</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45859.16666666666</v>
+        <v>45863.16666666666</v>
       </c>
       <c r="B17">
-        <v>351</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45859.17708333334</v>
+        <v>45863.17708333334</v>
       </c>
       <c r="B18">
-        <v>322</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45859.1875</v>
+        <v>45863.1875</v>
       </c>
       <c r="B19">
-        <v>320</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45859.19791666666</v>
+        <v>45863.19791666666</v>
       </c>
       <c r="B20">
-        <v>317</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45859.20833333334</v>
+        <v>45863.20833333334</v>
       </c>
       <c r="B21">
-        <v>316</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45859.21875</v>
+        <v>45863.21875</v>
       </c>
       <c r="B22">
-        <v>284</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45859.22916666666</v>
+        <v>45863.22916666666</v>
       </c>
       <c r="B23">
-        <v>282</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45859.23958333334</v>
+        <v>45863.23958333334</v>
       </c>
       <c r="B24">
-        <v>286</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45859.25</v>
+        <v>45863.25</v>
       </c>
       <c r="B25">
-        <v>283</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45859.26041666666</v>
+        <v>45863.26041666666</v>
       </c>
       <c r="B26">
-        <v>250</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45859.27083333334</v>
+        <v>45863.27083333334</v>
       </c>
       <c r="B27">
-        <v>245</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45859.28125</v>
+        <v>45863.28125</v>
       </c>
       <c r="B28">
-        <v>240</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45859.29166666666</v>
+        <v>45863.29166666666</v>
       </c>
       <c r="B29">
-        <v>238</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45859.30208333334</v>
+        <v>45863.30208333334</v>
       </c>
       <c r="B30">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45859.3125</v>
+        <v>45863.3125</v>
       </c>
       <c r="B31">
-        <v>160</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45859.32291666666</v>
+        <v>45863.32291666666</v>
       </c>
       <c r="B32">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45859.33333333334</v>
+        <v>45863.33333333334</v>
       </c>
       <c r="B33">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45859.34375</v>
+        <v>45863.34375</v>
       </c>
       <c r="B34">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45859.35416666666</v>
+        <v>45863.35416666666</v>
       </c>
       <c r="B35">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45859.36458333334</v>
+        <v>45863.36458333334</v>
       </c>
       <c r="B36">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45859.375</v>
+        <v>45863.375</v>
       </c>
       <c r="B37">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45859.38541666666</v>
+        <v>45863.38541666666</v>
       </c>
       <c r="B38">
-        <v>83</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45859.39583333334</v>
+        <v>45863.39583333334</v>
       </c>
       <c r="B39">
-        <v>83</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45859.40625</v>
+        <v>45863.40625</v>
       </c>
       <c r="B40">
-        <v>83</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45859.41666666666</v>
+        <v>45863.41666666666</v>
       </c>
       <c r="B41">
-        <v>83</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45859.42708333334</v>
+        <v>45863.42708333334</v>
       </c>
       <c r="B42">
-        <v>106</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45859.4375</v>
+        <v>45863.4375</v>
       </c>
       <c r="B43">
-        <v>106</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45859.44791666666</v>
+        <v>45863.44791666666</v>
       </c>
       <c r="B44">
-        <v>107</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45859.45833333334</v>
+        <v>45863.45833333334</v>
       </c>
       <c r="B45">
-        <v>107</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45859.46875</v>
+        <v>45863.46875</v>
       </c>
       <c r="B46">
-        <v>150</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45859.47916666666</v>
+        <v>45863.47916666666</v>
       </c>
       <c r="B47">
-        <v>151</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45859.48958333334</v>
+        <v>45863.48958333334</v>
       </c>
       <c r="B48">
-        <v>152</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45859.5</v>
+        <v>45863.5</v>
       </c>
       <c r="B49">
-        <v>153</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45859.51041666666</v>
+        <v>45863.51041666666</v>
       </c>
       <c r="B50">
-        <v>224</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45859.52083333334</v>
+        <v>45863.52083333334</v>
       </c>
       <c r="B51">
-        <v>225</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45859.53125</v>
+        <v>45863.53125</v>
       </c>
       <c r="B52">
-        <v>227</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45859.54166666666</v>
+        <v>45863.54166666666</v>
       </c>
       <c r="B53">
-        <v>228</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45859.55208333334</v>
+        <v>45863.55208333334</v>
       </c>
       <c r="B54">
-        <v>307</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45859.5625</v>
+        <v>45863.5625</v>
       </c>
       <c r="B55">
-        <v>308</v>
+        <v>416</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45859.57291666666</v>
+        <v>45863.57291666666</v>
       </c>
       <c r="B56">
-        <v>310</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45859.58333333334</v>
+        <v>45863.58333333334</v>
       </c>
       <c r="B57">
-        <v>311</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45859.59375</v>
+        <v>45863.59375</v>
       </c>
       <c r="B58">
-        <v>419</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45859.60416666666</v>
+        <v>45863.60416666666</v>
       </c>
       <c r="B59">
-        <v>421</v>
+        <v>520</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45859.61458333334</v>
+        <v>45863.61458333334</v>
       </c>
       <c r="B60">
-        <v>422</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45859.625</v>
+        <v>45863.625</v>
       </c>
       <c r="B61">
-        <v>424</v>
+        <v>523</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45859.63541666666</v>
+        <v>45863.63541666666</v>
       </c>
       <c r="B62">
-        <v>509</v>
+        <v>621</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45859.64583333334</v>
+        <v>45863.64583333334</v>
       </c>
       <c r="B63">
-        <v>510</v>
+        <v>623</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45859.65625</v>
+        <v>45863.65625</v>
       </c>
       <c r="B64">
-        <v>512</v>
+        <v>625</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45859.66666666666</v>
+        <v>45863.66666666666</v>
       </c>
       <c r="B65">
-        <v>513</v>
+        <v>627</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45859.67708333334</v>
+        <v>45863.67708333334</v>
       </c>
       <c r="B66">
-        <v>597</v>
+        <v>703</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45859.6875</v>
+        <v>45863.6875</v>
       </c>
       <c r="B67">
-        <v>598</v>
+        <v>705</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45859.69791666666</v>
+        <v>45863.69791666666</v>
       </c>
       <c r="B68">
-        <v>599</v>
+        <v>707</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45859.70833333334</v>
+        <v>45863.70833333334</v>
       </c>
       <c r="B69">
-        <v>601</v>
+        <v>708</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45859.71875</v>
+        <v>45863.71875</v>
       </c>
       <c r="B70">
-        <v>607</v>
+        <v>746</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45859.72916666666</v>
+        <v>45863.72916666666</v>
       </c>
       <c r="B71">
-        <v>608</v>
+        <v>746</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45859.73958333334</v>
+        <v>45863.73958333334</v>
       </c>
       <c r="B72">
-        <v>608</v>
+        <v>746</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45859.75</v>
+        <v>45863.75</v>
       </c>
       <c r="B73">
-        <v>609</v>
+        <v>746</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45859.76041666666</v>
+        <v>45863.76041666666</v>
       </c>
       <c r="B74">
-        <v>605</v>
+        <v>752</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45859.77083333334</v>
+        <v>45863.77083333334</v>
       </c>
       <c r="B75">
-        <v>606</v>
+        <v>751</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45859.78125</v>
+        <v>45863.78125</v>
       </c>
       <c r="B76">
-        <v>607</v>
+        <v>750</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45859.79166666666</v>
+        <v>45863.79166666666</v>
       </c>
       <c r="B77">
-        <v>608</v>
+        <v>749</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45859.80208333334</v>
+        <v>45863.80208333334</v>
       </c>
       <c r="B78">
-        <v>643</v>
+        <v>777</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45859.8125</v>
+        <v>45863.8125</v>
       </c>
       <c r="B79">
-        <v>645</v>
+        <v>781</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45859.82291666666</v>
+        <v>45863.82291666666</v>
       </c>
       <c r="B80">
-        <v>648</v>
+        <v>784</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45859.83333333334</v>
+        <v>45863.83333333334</v>
       </c>
       <c r="B81">
-        <v>650</v>
+        <v>788</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45859.84375</v>
+        <v>45863.84375</v>
       </c>
       <c r="B82">
-        <v>733</v>
+        <v>885</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45859.85416666666</v>
+        <v>45863.85416666666</v>
       </c>
       <c r="B83">
-        <v>736</v>
+        <v>887</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45859.86458333334</v>
+        <v>45863.86458333334</v>
       </c>
       <c r="B84">
-        <v>739</v>
+        <v>889</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45859.875</v>
+        <v>45863.875</v>
       </c>
       <c r="B85">
-        <v>742</v>
+        <v>892</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45859.88541666666</v>
+        <v>45863.88541666666</v>
       </c>
       <c r="B86">
-        <v>803</v>
+        <v>911</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45859.89583333334</v>
+        <v>45863.89583333334</v>
       </c>
       <c r="B87">
-        <v>806</v>
+        <v>914</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45859.90625</v>
+        <v>45863.90625</v>
       </c>
       <c r="B88">
-        <v>809</v>
+        <v>917</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45859.91666666666</v>
+        <v>45863.91666666666</v>
       </c>
       <c r="B89">
-        <v>812</v>
+        <v>920</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45859.92708333334</v>
+        <v>45863.92708333334</v>
       </c>
       <c r="B90">
-        <v>861</v>
+        <v>903</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45859.9375</v>
+        <v>45863.9375</v>
       </c>
       <c r="B91">
-        <v>863</v>
+        <v>904</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45859.94791666666</v>
+        <v>45863.94791666666</v>
       </c>
       <c r="B92">
-        <v>866</v>
+        <v>905</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45859.95833333334</v>
+        <v>45863.95833333334</v>
       </c>
       <c r="B93">
-        <v>869</v>
+        <v>905</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45859.96875</v>
+        <v>45863.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45859.97916666666</v>
+        <v>45863.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45859.98958333334</v>
+        <v>45863.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45860</v>
+        <v>45864</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45863.01041666666</v>
+        <v>45875.01041666666</v>
       </c>
       <c r="B2">
-        <v>353</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45863.02083333334</v>
+        <v>45875.02083333334</v>
       </c>
       <c r="B3">
-        <v>357</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45863.03125</v>
+        <v>45875.03125</v>
       </c>
       <c r="B4">
-        <v>356</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45863.04166666666</v>
+        <v>45875.04166666666</v>
       </c>
       <c r="B5">
-        <v>354</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45863.05208333334</v>
+        <v>45875.05208333334</v>
       </c>
       <c r="B6">
-        <v>326</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45863.0625</v>
+        <v>45875.0625</v>
       </c>
       <c r="B7">
-        <v>323</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45863.07291666666</v>
+        <v>45875.07291666666</v>
       </c>
       <c r="B8">
-        <v>320</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45863.08333333334</v>
+        <v>45875.08333333334</v>
       </c>
       <c r="B9">
-        <v>319</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45863.09375</v>
+        <v>45875.09375</v>
       </c>
       <c r="B10">
-        <v>275</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45863.10416666666</v>
+        <v>45875.10416666666</v>
       </c>
       <c r="B11">
-        <v>271</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45863.11458333334</v>
+        <v>45875.11458333334</v>
       </c>
       <c r="B12">
-        <v>270</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45863.125</v>
+        <v>45875.125</v>
       </c>
       <c r="B13">
-        <v>269</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45863.13541666666</v>
+        <v>45875.13541666666</v>
       </c>
       <c r="B14">
-        <v>222</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45863.14583333334</v>
+        <v>45875.14583333334</v>
       </c>
       <c r="B15">
-        <v>221</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45863.15625</v>
+        <v>45875.15625</v>
       </c>
       <c r="B16">
-        <v>219</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45863.16666666666</v>
+        <v>45875.16666666666</v>
       </c>
       <c r="B17">
-        <v>218</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45863.17708333334</v>
+        <v>45875.17708333334</v>
       </c>
       <c r="B18">
-        <v>200</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45863.1875</v>
+        <v>45875.1875</v>
       </c>
       <c r="B19">
-        <v>199</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45863.19791666666</v>
+        <v>45875.19791666666</v>
       </c>
       <c r="B20">
-        <v>198</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45863.20833333334</v>
+        <v>45875.20833333334</v>
       </c>
       <c r="B21">
-        <v>195</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45863.21875</v>
+        <v>45875.21875</v>
       </c>
       <c r="B22">
-        <v>178</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45863.22916666666</v>
+        <v>45875.22916666666</v>
       </c>
       <c r="B23">
-        <v>177</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45863.23958333334</v>
+        <v>45875.23958333334</v>
       </c>
       <c r="B24">
-        <v>177</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45863.25</v>
+        <v>45875.25</v>
       </c>
       <c r="B25">
-        <v>177</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45863.26041666666</v>
+        <v>45875.26041666666</v>
       </c>
       <c r="B26">
-        <v>164</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45863.27083333334</v>
+        <v>45875.27083333334</v>
       </c>
       <c r="B27">
-        <v>163</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45863.28125</v>
+        <v>45875.28125</v>
       </c>
       <c r="B28">
-        <v>163</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45863.29166666666</v>
+        <v>45875.29166666666</v>
       </c>
       <c r="B29">
-        <v>162</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45863.30208333334</v>
+        <v>45875.30208333334</v>
       </c>
       <c r="B30">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45863.3125</v>
+        <v>45875.3125</v>
       </c>
       <c r="B31">
-        <v>135</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45863.32291666666</v>
+        <v>45875.32291666666</v>
       </c>
       <c r="B32">
-        <v>136</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45863.33333333334</v>
+        <v>45875.33333333334</v>
       </c>
       <c r="B33">
-        <v>137</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45863.34375</v>
+        <v>45875.34375</v>
       </c>
       <c r="B34">
-        <v>113</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45863.35416666666</v>
+        <v>45875.35416666666</v>
       </c>
       <c r="B35">
-        <v>114</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45863.36458333334</v>
+        <v>45875.36458333334</v>
       </c>
       <c r="B36">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45863.375</v>
+        <v>45875.375</v>
       </c>
       <c r="B37">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45863.38541666666</v>
+        <v>45875.38541666666</v>
       </c>
       <c r="B38">
-        <v>158</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45863.39583333334</v>
+        <v>45875.39583333334</v>
       </c>
       <c r="B39">
-        <v>160</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45863.40625</v>
+        <v>45875.40625</v>
       </c>
       <c r="B40">
-        <v>162</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45863.41666666666</v>
+        <v>45875.41666666666</v>
       </c>
       <c r="B41">
-        <v>163</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45863.42708333334</v>
+        <v>45875.42708333334</v>
       </c>
       <c r="B42">
-        <v>216</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45863.4375</v>
+        <v>45875.4375</v>
       </c>
       <c r="B43">
-        <v>217</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45863.44791666666</v>
+        <v>45875.44791666666</v>
       </c>
       <c r="B44">
-        <v>219</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45863.45833333334</v>
+        <v>45875.45833333334</v>
       </c>
       <c r="B45">
-        <v>221</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45863.46875</v>
+        <v>45875.46875</v>
       </c>
       <c r="B46">
-        <v>270</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45863.47916666666</v>
+        <v>45875.47916666666</v>
       </c>
       <c r="B47">
-        <v>271</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45863.48958333334</v>
+        <v>45875.48958333334</v>
       </c>
       <c r="B48">
-        <v>271</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45863.5</v>
+        <v>45875.5</v>
       </c>
       <c r="B49">
-        <v>272</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45863.51041666666</v>
+        <v>45875.51041666666</v>
       </c>
       <c r="B50">
-        <v>342</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45863.52083333334</v>
+        <v>45875.52083333334</v>
       </c>
       <c r="B51">
-        <v>342</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45863.53125</v>
+        <v>45875.53125</v>
       </c>
       <c r="B52">
-        <v>343</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45863.54166666666</v>
+        <v>45875.54166666666</v>
       </c>
       <c r="B53">
-        <v>343</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45863.55208333334</v>
+        <v>45875.55208333334</v>
       </c>
       <c r="B54">
-        <v>415</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45863.5625</v>
+        <v>45875.5625</v>
       </c>
       <c r="B55">
-        <v>416</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45863.57291666666</v>
+        <v>45875.57291666666</v>
       </c>
       <c r="B56">
-        <v>417</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45863.58333333334</v>
+        <v>45875.58333333334</v>
       </c>
       <c r="B57">
-        <v>418</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45863.59375</v>
+        <v>45875.59375</v>
       </c>
       <c r="B58">
-        <v>518</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45863.60416666666</v>
+        <v>45875.60416666666</v>
       </c>
       <c r="B59">
-        <v>520</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45863.61458333334</v>
+        <v>45875.61458333334</v>
       </c>
       <c r="B60">
-        <v>521</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45863.625</v>
+        <v>45875.625</v>
       </c>
       <c r="B61">
-        <v>523</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45863.63541666666</v>
+        <v>45875.63541666666</v>
       </c>
       <c r="B62">
-        <v>621</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45863.64583333334</v>
+        <v>45875.64583333334</v>
       </c>
       <c r="B63">
-        <v>623</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45863.65625</v>
+        <v>45875.65625</v>
       </c>
       <c r="B64">
-        <v>625</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45863.66666666666</v>
+        <v>45875.66666666666</v>
       </c>
       <c r="B65">
-        <v>627</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45863.67708333334</v>
+        <v>45875.67708333334</v>
       </c>
       <c r="B66">
-        <v>703</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45863.6875</v>
+        <v>45875.6875</v>
       </c>
       <c r="B67">
-        <v>705</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45863.69791666666</v>
+        <v>45875.69791666666</v>
       </c>
       <c r="B68">
-        <v>707</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45863.70833333334</v>
+        <v>45875.70833333334</v>
       </c>
       <c r="B69">
-        <v>708</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45863.71875</v>
+        <v>45875.71875</v>
       </c>
       <c r="B70">
-        <v>746</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45863.72916666666</v>
+        <v>45875.72916666666</v>
       </c>
       <c r="B71">
-        <v>746</v>
+        <v>369</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45863.73958333334</v>
+        <v>45875.73958333334</v>
       </c>
       <c r="B72">
-        <v>746</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45863.75</v>
+        <v>45875.75</v>
       </c>
       <c r="B73">
-        <v>746</v>
+        <v>371</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45863.76041666666</v>
+        <v>45875.76041666666</v>
       </c>
       <c r="B74">
-        <v>752</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45863.77083333334</v>
+        <v>45875.77083333334</v>
       </c>
       <c r="B75">
-        <v>751</v>
+        <v>372</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45863.78125</v>
+        <v>45875.78125</v>
       </c>
       <c r="B76">
-        <v>750</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45863.79166666666</v>
+        <v>45875.79166666666</v>
       </c>
       <c r="B77">
-        <v>749</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45863.80208333334</v>
+        <v>45875.80208333334</v>
       </c>
       <c r="B78">
-        <v>777</v>
+        <v>391</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45863.8125</v>
+        <v>45875.8125</v>
       </c>
       <c r="B79">
-        <v>781</v>
+        <v>394</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45863.82291666666</v>
+        <v>45875.82291666666</v>
       </c>
       <c r="B80">
-        <v>784</v>
+        <v>398</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45863.83333333334</v>
+        <v>45875.83333333334</v>
       </c>
       <c r="B81">
-        <v>788</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45863.84375</v>
+        <v>45875.84375</v>
       </c>
       <c r="B82">
-        <v>885</v>
+        <v>432</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45863.85416666666</v>
+        <v>45875.85416666666</v>
       </c>
       <c r="B83">
-        <v>887</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45863.86458333334</v>
+        <v>45875.86458333334</v>
       </c>
       <c r="B84">
-        <v>889</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45863.875</v>
+        <v>45875.875</v>
       </c>
       <c r="B85">
-        <v>892</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45863.88541666666</v>
+        <v>45875.88541666666</v>
       </c>
       <c r="B86">
-        <v>911</v>
+        <v>618</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45863.89583333334</v>
+        <v>45875.89583333334</v>
       </c>
       <c r="B87">
-        <v>914</v>
+        <v>621</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45863.90625</v>
+        <v>45875.90625</v>
       </c>
       <c r="B88">
-        <v>917</v>
+        <v>623</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45863.91666666666</v>
+        <v>45875.91666666666</v>
       </c>
       <c r="B89">
-        <v>920</v>
+        <v>626</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45863.92708333334</v>
+        <v>45875.92708333334</v>
       </c>
       <c r="B90">
-        <v>903</v>
+        <v>852</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45863.9375</v>
+        <v>45875.9375</v>
       </c>
       <c r="B91">
-        <v>904</v>
+        <v>857</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45863.94791666666</v>
+        <v>45875.94791666666</v>
       </c>
       <c r="B92">
-        <v>905</v>
+        <v>862</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45863.95833333334</v>
+        <v>45875.95833333334</v>
       </c>
       <c r="B93">
-        <v>905</v>
+        <v>866</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45863.96875</v>
+        <v>45875.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45863.97916666666</v>
+        <v>45875.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45863.98958333334</v>
+        <v>45875.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45864</v>
+        <v>45876</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45875.01041666666</v>
+        <v>45889.01041666666</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45875.02083333334</v>
+        <v>45889.02083333334</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45875.03125</v>
+        <v>45889.03125</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45875.04166666666</v>
+        <v>45889.04166666666</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45875.05208333334</v>
+        <v>45889.05208333334</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45875.0625</v>
+        <v>45889.0625</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45875.07291666666</v>
+        <v>45889.07291666666</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45875.08333333334</v>
+        <v>45889.08333333334</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45875.09375</v>
+        <v>45889.09375</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45875.10416666666</v>
+        <v>45889.10416666666</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45875.11458333334</v>
+        <v>45889.11458333334</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45875.125</v>
+        <v>45889.125</v>
       </c>
       <c r="B13">
-        <v>59</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45875.13541666666</v>
+        <v>45889.13541666666</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45875.14583333334</v>
+        <v>45889.14583333334</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45875.15625</v>
+        <v>45889.15625</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45875.16666666666</v>
+        <v>45889.16666666666</v>
       </c>
       <c r="B17">
-        <v>69</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45875.17708333334</v>
+        <v>45889.17708333334</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45875.1875</v>
+        <v>45889.1875</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45875.19791666666</v>
+        <v>45889.19791666666</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45875.20833333334</v>
+        <v>45889.20833333334</v>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45875.21875</v>
+        <v>45889.21875</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45875.22916666666</v>
+        <v>45889.22916666666</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45875.23958333334</v>
+        <v>45889.23958333334</v>
       </c>
       <c r="B24">
-        <v>89</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45875.25</v>
+        <v>45889.25</v>
       </c>
       <c r="B25">
-        <v>89</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45875.26041666666</v>
+        <v>45889.26041666666</v>
       </c>
       <c r="B26">
-        <v>82</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45875.27083333334</v>
+        <v>45889.27083333334</v>
       </c>
       <c r="B27">
-        <v>82</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45875.28125</v>
+        <v>45889.28125</v>
       </c>
       <c r="B28">
-        <v>82</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45875.29166666666</v>
+        <v>45889.29166666666</v>
       </c>
       <c r="B29">
-        <v>83</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45875.30208333334</v>
+        <v>45889.30208333334</v>
       </c>
       <c r="B30">
-        <v>66</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45875.3125</v>
+        <v>45889.3125</v>
       </c>
       <c r="B31">
-        <v>67</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45875.32291666666</v>
+        <v>45889.32291666666</v>
       </c>
       <c r="B32">
-        <v>67</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45875.33333333334</v>
+        <v>45889.33333333334</v>
       </c>
       <c r="B33">
-        <v>67</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45875.34375</v>
+        <v>45889.34375</v>
       </c>
       <c r="B34">
-        <v>57</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45875.35416666666</v>
+        <v>45889.35416666666</v>
       </c>
       <c r="B35">
-        <v>57</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45875.36458333334</v>
+        <v>45889.36458333334</v>
       </c>
       <c r="B36">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45875.375</v>
+        <v>45889.375</v>
       </c>
       <c r="B37">
-        <v>58</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45875.38541666666</v>
+        <v>45889.38541666666</v>
       </c>
       <c r="B38">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45875.39583333334</v>
+        <v>45889.39583333334</v>
       </c>
       <c r="B39">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45875.40625</v>
+        <v>45889.40625</v>
       </c>
       <c r="B40">
-        <v>63</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45875.41666666666</v>
+        <v>45889.41666666666</v>
       </c>
       <c r="B41">
-        <v>64</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45875.42708333334</v>
+        <v>45889.42708333334</v>
       </c>
       <c r="B42">
-        <v>77</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45875.4375</v>
+        <v>45889.4375</v>
       </c>
       <c r="B43">
-        <v>78</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45875.44791666666</v>
+        <v>45889.44791666666</v>
       </c>
       <c r="B44">
-        <v>78</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45875.45833333334</v>
+        <v>45889.45833333334</v>
       </c>
       <c r="B45">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45875.46875</v>
+        <v>45889.46875</v>
       </c>
       <c r="B46">
-        <v>100</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45875.47916666666</v>
+        <v>45889.47916666666</v>
       </c>
       <c r="B47">
-        <v>100</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45875.48958333334</v>
+        <v>45889.48958333334</v>
       </c>
       <c r="B48">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45875.5</v>
+        <v>45889.5</v>
       </c>
       <c r="B49">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45875.51041666666</v>
+        <v>45889.51041666666</v>
       </c>
       <c r="B50">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45875.52083333334</v>
+        <v>45889.52083333334</v>
       </c>
       <c r="B51">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45875.53125</v>
+        <v>45889.53125</v>
       </c>
       <c r="B52">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45875.54166666666</v>
+        <v>45889.54166666666</v>
       </c>
       <c r="B53">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45875.55208333334</v>
+        <v>45889.55208333334</v>
       </c>
       <c r="B54">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45875.5625</v>
+        <v>45889.5625</v>
       </c>
       <c r="B55">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45875.57291666666</v>
+        <v>45889.57291666666</v>
       </c>
       <c r="B56">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45875.58333333334</v>
+        <v>45889.58333333334</v>
       </c>
       <c r="B57">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45875.59375</v>
+        <v>45889.59375</v>
       </c>
       <c r="B58">
-        <v>238</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45875.60416666666</v>
+        <v>45889.60416666666</v>
       </c>
       <c r="B59">
-        <v>239</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45875.61458333334</v>
+        <v>45889.61458333334</v>
       </c>
       <c r="B60">
-        <v>239</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45875.625</v>
+        <v>45889.625</v>
       </c>
       <c r="B61">
-        <v>240</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45875.63541666666</v>
+        <v>45889.63541666666</v>
       </c>
       <c r="B62">
-        <v>312</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45875.64583333334</v>
+        <v>45889.64583333334</v>
       </c>
       <c r="B63">
-        <v>312</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45875.65625</v>
+        <v>45889.65625</v>
       </c>
       <c r="B64">
-        <v>312</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45875.66666666666</v>
+        <v>45889.66666666666</v>
       </c>
       <c r="B65">
-        <v>311</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45875.67708333334</v>
+        <v>45889.67708333334</v>
       </c>
       <c r="B66">
-        <v>350</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45875.6875</v>
+        <v>45889.6875</v>
       </c>
       <c r="B67">
-        <v>350</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45875.69791666666</v>
+        <v>45889.69791666666</v>
       </c>
       <c r="B68">
-        <v>351</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45875.70833333334</v>
+        <v>45889.70833333334</v>
       </c>
       <c r="B69">
-        <v>351</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45875.71875</v>
+        <v>45889.71875</v>
       </c>
       <c r="B70">
-        <v>368</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45875.72916666666</v>
+        <v>45889.72916666666</v>
       </c>
       <c r="B71">
-        <v>369</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45875.73958333334</v>
+        <v>45889.73958333334</v>
       </c>
       <c r="B72">
-        <v>370</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45875.75</v>
+        <v>45889.75</v>
       </c>
       <c r="B73">
-        <v>371</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45875.76041666666</v>
+        <v>45889.76041666666</v>
       </c>
       <c r="B74">
-        <v>371</v>
+        <v>343</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45875.77083333334</v>
+        <v>45889.77083333334</v>
       </c>
       <c r="B75">
-        <v>372</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45875.78125</v>
+        <v>45889.78125</v>
       </c>
       <c r="B76">
-        <v>374</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45875.79166666666</v>
+        <v>45889.79166666666</v>
       </c>
       <c r="B77">
-        <v>376</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45875.80208333334</v>
+        <v>45889.80208333334</v>
       </c>
       <c r="B78">
-        <v>391</v>
+        <v>490</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45875.8125</v>
+        <v>45889.8125</v>
       </c>
       <c r="B79">
-        <v>394</v>
+        <v>496</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45875.82291666666</v>
+        <v>45889.82291666666</v>
       </c>
       <c r="B80">
-        <v>398</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45875.83333333334</v>
+        <v>45889.83333333334</v>
       </c>
       <c r="B81">
-        <v>401</v>
+        <v>510</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45875.84375</v>
+        <v>45889.84375</v>
       </c>
       <c r="B82">
-        <v>432</v>
+        <v>664</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45875.85416666666</v>
+        <v>45889.85416666666</v>
       </c>
       <c r="B83">
-        <v>437</v>
+        <v>668</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45875.86458333334</v>
+        <v>45889.86458333334</v>
       </c>
       <c r="B84">
-        <v>442</v>
+        <v>673</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45875.875</v>
+        <v>45889.875</v>
       </c>
       <c r="B85">
-        <v>447</v>
+        <v>677</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45875.88541666666</v>
+        <v>45889.88541666666</v>
       </c>
       <c r="B86">
-        <v>618</v>
+        <v>711</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45875.89583333334</v>
+        <v>45889.89583333334</v>
       </c>
       <c r="B87">
-        <v>621</v>
+        <v>713</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45875.90625</v>
+        <v>45889.90625</v>
       </c>
       <c r="B88">
-        <v>623</v>
+        <v>716</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45875.91666666666</v>
+        <v>45889.91666666666</v>
       </c>
       <c r="B89">
-        <v>626</v>
+        <v>718</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45875.92708333334</v>
+        <v>45889.92708333334</v>
       </c>
       <c r="B90">
-        <v>852</v>
+        <v>720</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45875.9375</v>
+        <v>45889.9375</v>
       </c>
       <c r="B91">
-        <v>857</v>
+        <v>720</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45875.94791666666</v>
+        <v>45889.94791666666</v>
       </c>
       <c r="B92">
-        <v>862</v>
+        <v>720</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45875.95833333334</v>
+        <v>45889.95833333334</v>
       </c>
       <c r="B93">
-        <v>866</v>
+        <v>720</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45875.96875</v>
+        <v>45889.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45875.97916666666</v>
+        <v>45889.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45875.98958333334</v>
+        <v>45889.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45876</v>
+        <v>45890</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45889.01041666666</v>
+        <v>45890.01041666666</v>
       </c>
       <c r="B2">
-        <v>292</v>
+        <v>761</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45889.02083333334</v>
+        <v>45890.02083333334</v>
       </c>
       <c r="B3">
-        <v>289</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45889.03125</v>
+        <v>45890.03125</v>
       </c>
       <c r="B4">
-        <v>287</v>
+        <v>751</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45889.04166666666</v>
+        <v>45890.04166666666</v>
       </c>
       <c r="B5">
-        <v>284</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45889.05208333334</v>
+        <v>45890.05208333334</v>
       </c>
       <c r="B6">
-        <v>285</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45889.0625</v>
+        <v>45890.0625</v>
       </c>
       <c r="B7">
-        <v>288</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45889.07291666666</v>
+        <v>45890.07291666666</v>
       </c>
       <c r="B8">
-        <v>286</v>
+        <v>684</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45889.08333333334</v>
+        <v>45890.08333333334</v>
       </c>
       <c r="B9">
-        <v>289</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45889.09375</v>
+        <v>45890.09375</v>
       </c>
       <c r="B10">
-        <v>304</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45889.10416666666</v>
+        <v>45890.10416666666</v>
       </c>
       <c r="B11">
-        <v>304</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45889.11458333334</v>
+        <v>45890.11458333334</v>
       </c>
       <c r="B12">
-        <v>306</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45889.125</v>
+        <v>45890.125</v>
       </c>
       <c r="B13">
-        <v>308</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45889.13541666666</v>
+        <v>45890.13541666666</v>
       </c>
       <c r="B14">
-        <v>329</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45889.14583333334</v>
+        <v>45890.14583333334</v>
       </c>
       <c r="B15">
-        <v>333</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45889.15625</v>
+        <v>45890.15625</v>
       </c>
       <c r="B16">
-        <v>335</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45889.16666666666</v>
+        <v>45890.16666666666</v>
       </c>
       <c r="B17">
-        <v>337</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45889.17708333334</v>
+        <v>45890.17708333334</v>
       </c>
       <c r="B18">
-        <v>299</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45889.1875</v>
+        <v>45890.1875</v>
       </c>
       <c r="B19">
-        <v>297</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45889.19791666666</v>
+        <v>45890.19791666666</v>
       </c>
       <c r="B20">
-        <v>295</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45889.20833333334</v>
+        <v>45890.20833333334</v>
       </c>
       <c r="B21">
-        <v>293</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45889.21875</v>
+        <v>45890.21875</v>
       </c>
       <c r="B22">
-        <v>245</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45889.22916666666</v>
+        <v>45890.22916666666</v>
       </c>
       <c r="B23">
-        <v>244</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45889.23958333334</v>
+        <v>45890.23958333334</v>
       </c>
       <c r="B24">
-        <v>240</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45889.25</v>
+        <v>45890.25</v>
       </c>
       <c r="B25">
-        <v>240</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45889.26041666666</v>
+        <v>45890.26041666666</v>
       </c>
       <c r="B26">
-        <v>187</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45889.27083333334</v>
+        <v>45890.27083333334</v>
       </c>
       <c r="B27">
-        <v>187</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45889.28125</v>
+        <v>45890.28125</v>
       </c>
       <c r="B28">
-        <v>187</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45889.29166666666</v>
+        <v>45890.29166666666</v>
       </c>
       <c r="B29">
-        <v>178</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45889.30208333334</v>
+        <v>45890.30208333334</v>
       </c>
       <c r="B30">
-        <v>134</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45889.3125</v>
+        <v>45890.3125</v>
       </c>
       <c r="B31">
-        <v>135</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45889.32291666666</v>
+        <v>45890.32291666666</v>
       </c>
       <c r="B32">
-        <v>137</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45889.33333333334</v>
+        <v>45890.33333333334</v>
       </c>
       <c r="B33">
-        <v>142</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45889.34375</v>
+        <v>45890.34375</v>
       </c>
       <c r="B34">
-        <v>131</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45889.35416666666</v>
+        <v>45890.35416666666</v>
       </c>
       <c r="B35">
-        <v>132</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45889.36458333334</v>
+        <v>45890.36458333334</v>
       </c>
       <c r="B36">
-        <v>137</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45889.375</v>
+        <v>45890.375</v>
       </c>
       <c r="B37">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45889.38541666666</v>
+        <v>45890.38541666666</v>
       </c>
       <c r="B38">
-        <v>117</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45889.39583333334</v>
+        <v>45890.39583333334</v>
       </c>
       <c r="B39">
-        <v>118</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45889.40625</v>
+        <v>45890.40625</v>
       </c>
       <c r="B40">
-        <v>119</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45889.41666666666</v>
+        <v>45890.41666666666</v>
       </c>
       <c r="B41">
-        <v>120</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45889.42708333334</v>
+        <v>45890.42708333334</v>
       </c>
       <c r="B42">
-        <v>118</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45889.4375</v>
+        <v>45890.4375</v>
       </c>
       <c r="B43">
-        <v>116</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45889.44791666666</v>
+        <v>45890.44791666666</v>
       </c>
       <c r="B44">
-        <v>114</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45889.45833333334</v>
+        <v>45890.45833333334</v>
       </c>
       <c r="B45">
-        <v>113</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45889.46875</v>
+        <v>45890.46875</v>
       </c>
       <c r="B46">
-        <v>127</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45889.47916666666</v>
+        <v>45890.47916666666</v>
       </c>
       <c r="B47">
-        <v>127</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45889.48958333334</v>
+        <v>45890.48958333334</v>
       </c>
       <c r="B48">
-        <v>128</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45889.5</v>
+        <v>45890.5</v>
       </c>
       <c r="B49">
-        <v>130</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45889.51041666666</v>
+        <v>45890.51041666666</v>
       </c>
       <c r="B50">
-        <v>148</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45889.52083333334</v>
+        <v>45890.52083333334</v>
       </c>
       <c r="B51">
-        <v>149</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45889.53125</v>
+        <v>45890.53125</v>
       </c>
       <c r="B52">
-        <v>150</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45889.54166666666</v>
+        <v>45890.54166666666</v>
       </c>
       <c r="B53">
-        <v>152</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45889.55208333334</v>
+        <v>45890.55208333334</v>
       </c>
       <c r="B54">
-        <v>178</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45889.5625</v>
+        <v>45890.5625</v>
       </c>
       <c r="B55">
-        <v>178</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45889.57291666666</v>
+        <v>45890.57291666666</v>
       </c>
       <c r="B56">
-        <v>178</v>
+        <v>488</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45889.58333333334</v>
+        <v>45890.58333333334</v>
       </c>
       <c r="B57">
-        <v>178</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45889.59375</v>
+        <v>45890.59375</v>
       </c>
       <c r="B58">
-        <v>201</v>
+        <v>699</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45889.60416666666</v>
+        <v>45890.60416666666</v>
       </c>
       <c r="B59">
-        <v>201</v>
+        <v>702</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45889.61458333334</v>
+        <v>45890.61458333334</v>
       </c>
       <c r="B60">
-        <v>201</v>
+        <v>705</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45889.625</v>
+        <v>45890.625</v>
       </c>
       <c r="B61">
-        <v>201</v>
+        <v>708</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45889.63541666666</v>
+        <v>45890.63541666666</v>
       </c>
       <c r="B62">
-        <v>236</v>
+        <v>913</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45889.64583333334</v>
+        <v>45890.64583333334</v>
       </c>
       <c r="B63">
-        <v>236</v>
+        <v>918</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45889.65625</v>
+        <v>45890.65625</v>
       </c>
       <c r="B64">
-        <v>235</v>
+        <v>922</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45889.66666666666</v>
+        <v>45890.66666666666</v>
       </c>
       <c r="B65">
-        <v>235</v>
+        <v>926</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45889.67708333334</v>
+        <v>45890.67708333334</v>
       </c>
       <c r="B66">
-        <v>272</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45889.6875</v>
+        <v>45890.6875</v>
       </c>
       <c r="B67">
-        <v>267</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45889.69791666666</v>
+        <v>45890.69791666666</v>
       </c>
       <c r="B68">
-        <v>266</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45889.70833333334</v>
+        <v>45890.70833333334</v>
       </c>
       <c r="B69">
-        <v>266</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45889.71875</v>
+        <v>45890.71875</v>
       </c>
       <c r="B70">
-        <v>301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45889.72916666666</v>
+        <v>45890.72916666666</v>
       </c>
       <c r="B71">
-        <v>300</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45889.73958333334</v>
+        <v>45890.73958333334</v>
       </c>
       <c r="B72">
-        <v>295</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45889.75</v>
+        <v>45890.75</v>
       </c>
       <c r="B73">
-        <v>294</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45889.76041666666</v>
+        <v>45890.76041666666</v>
       </c>
       <c r="B74">
-        <v>343</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45889.77083333334</v>
+        <v>45890.77083333334</v>
       </c>
       <c r="B75">
-        <v>345</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45889.78125</v>
+        <v>45890.78125</v>
       </c>
       <c r="B76">
-        <v>343</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45889.79166666666</v>
+        <v>45890.79166666666</v>
       </c>
       <c r="B77">
-        <v>347</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45889.80208333334</v>
+        <v>45890.80208333334</v>
       </c>
       <c r="B78">
-        <v>490</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45889.8125</v>
+        <v>45890.8125</v>
       </c>
       <c r="B79">
-        <v>496</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45889.82291666666</v>
+        <v>45890.82291666666</v>
       </c>
       <c r="B80">
-        <v>503</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45889.83333333334</v>
+        <v>45890.83333333334</v>
       </c>
       <c r="B81">
-        <v>510</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45889.84375</v>
+        <v>45890.84375</v>
       </c>
       <c r="B82">
-        <v>664</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45889.85416666666</v>
+        <v>45890.85416666666</v>
       </c>
       <c r="B83">
-        <v>668</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45889.86458333334</v>
+        <v>45890.86458333334</v>
       </c>
       <c r="B84">
-        <v>673</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45889.875</v>
+        <v>45890.875</v>
       </c>
       <c r="B85">
-        <v>677</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45889.88541666666</v>
+        <v>45890.88541666666</v>
       </c>
       <c r="B86">
-        <v>711</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45889.89583333334</v>
+        <v>45890.89583333334</v>
       </c>
       <c r="B87">
-        <v>713</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45889.90625</v>
+        <v>45890.90625</v>
       </c>
       <c r="B88">
-        <v>716</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45889.91666666666</v>
+        <v>45890.91666666666</v>
       </c>
       <c r="B89">
-        <v>718</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45889.92708333334</v>
+        <v>45890.92708333334</v>
       </c>
       <c r="B90">
-        <v>720</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45889.9375</v>
+        <v>45890.9375</v>
       </c>
       <c r="B91">
-        <v>720</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45889.94791666666</v>
+        <v>45890.94791666666</v>
       </c>
       <c r="B92">
-        <v>720</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45889.95833333334</v>
+        <v>45890.95833333334</v>
       </c>
       <c r="B93">
-        <v>720</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45889.96875</v>
+        <v>45890.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45889.97916666666</v>
+        <v>45890.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45889.98958333334</v>
+        <v>45890.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45890.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B2">
-        <v>761</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45890.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B3">
-        <v>755</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45890.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B4">
-        <v>751</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45890.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B5">
-        <v>745</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45890.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B6">
-        <v>688</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45890.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B7">
-        <v>685</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45890.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B8">
-        <v>684</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45890.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B9">
-        <v>677</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45890.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B10">
-        <v>643</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45890.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B11">
-        <v>640</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45890.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B12">
-        <v>635</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45890.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B13">
-        <v>632</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45890.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B14">
-        <v>570</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45890.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B15">
-        <v>565</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45890.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B16">
-        <v>562</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45890.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B17">
-        <v>555</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45890.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B18">
-        <v>488</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45890.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B19">
-        <v>484</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45890.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B20">
-        <v>480</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45890.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B21">
-        <v>477</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45890.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B22">
-        <v>382</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45890.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B23">
-        <v>374</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45890.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B24">
-        <v>378</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45890.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B25">
-        <v>377</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45890.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B26">
-        <v>331</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45890.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B27">
-        <v>328</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45890.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B28">
-        <v>324</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45890.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B29">
-        <v>326</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45890.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B30">
-        <v>255</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45890.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B31">
-        <v>248</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45890.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B32">
-        <v>244</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45890.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B33">
-        <v>241</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45890.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B34">
-        <v>164</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45890.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B35">
-        <v>164</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45890.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B36">
-        <v>162</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45890.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B37">
-        <v>160</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45890.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B38">
-        <v>167</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45890.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B39">
-        <v>167</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45890.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B40">
-        <v>168</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45890.41666666666</v>
+        <v>45918.41666666666</v>
       </c>
       <c r="B41">
-        <v>169</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45890.42708333334</v>
+        <v>45918.42708333334</v>
       </c>
       <c r="B42">
-        <v>174</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45890.4375</v>
+        <v>45918.4375</v>
       </c>
       <c r="B43">
-        <v>175</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45890.44791666666</v>
+        <v>45918.44791666666</v>
       </c>
       <c r="B44">
-        <v>176</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45890.45833333334</v>
+        <v>45918.45833333334</v>
       </c>
       <c r="B45">
-        <v>177</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45890.46875</v>
+        <v>45918.46875</v>
       </c>
       <c r="B46">
-        <v>221</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45890.47916666666</v>
+        <v>45918.47916666666</v>
       </c>
       <c r="B47">
-        <v>223</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45890.48958333334</v>
+        <v>45918.48958333334</v>
       </c>
       <c r="B48">
-        <v>224</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45890.5</v>
+        <v>45918.5</v>
       </c>
       <c r="B49">
-        <v>226</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45890.51041666666</v>
+        <v>45918.51041666666</v>
       </c>
       <c r="B50">
-        <v>323</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45890.52083333334</v>
+        <v>45918.52083333334</v>
       </c>
       <c r="B51">
-        <v>325</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45890.53125</v>
+        <v>45918.53125</v>
       </c>
       <c r="B52">
-        <v>327</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45890.54166666666</v>
+        <v>45918.54166666666</v>
       </c>
       <c r="B53">
-        <v>329</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45890.55208333334</v>
+        <v>45918.55208333334</v>
       </c>
       <c r="B54">
-        <v>481</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45890.5625</v>
+        <v>45918.5625</v>
       </c>
       <c r="B55">
-        <v>485</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45890.57291666666</v>
+        <v>45918.57291666666</v>
       </c>
       <c r="B56">
-        <v>488</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45890.58333333334</v>
+        <v>45918.58333333334</v>
       </c>
       <c r="B57">
-        <v>491</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45890.59375</v>
+        <v>45918.59375</v>
       </c>
       <c r="B58">
-        <v>699</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45890.60416666666</v>
+        <v>45918.60416666666</v>
       </c>
       <c r="B59">
-        <v>702</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45890.61458333334</v>
+        <v>45918.61458333334</v>
       </c>
       <c r="B60">
-        <v>705</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45890.625</v>
+        <v>45918.625</v>
       </c>
       <c r="B61">
-        <v>708</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45890.63541666666</v>
+        <v>45918.63541666666</v>
       </c>
       <c r="B62">
-        <v>913</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45890.64583333334</v>
+        <v>45918.64583333334</v>
       </c>
       <c r="B63">
-        <v>918</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45890.65625</v>
+        <v>45918.65625</v>
       </c>
       <c r="B64">
-        <v>922</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45890.66666666666</v>
+        <v>45918.66666666666</v>
       </c>
       <c r="B65">
-        <v>926</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45890.67708333334</v>
+        <v>45918.67708333334</v>
       </c>
       <c r="B66">
-        <v>1114</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45890.6875</v>
+        <v>45918.6875</v>
       </c>
       <c r="B67">
-        <v>1120</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45890.69791666666</v>
+        <v>45918.69791666666</v>
       </c>
       <c r="B68">
-        <v>1125</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45890.70833333334</v>
+        <v>45918.70833333334</v>
       </c>
       <c r="B69">
-        <v>1131</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45890.71875</v>
+        <v>45918.71875</v>
       </c>
       <c r="B70">
-        <v>1302</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45890.72916666666</v>
+        <v>45918.72916666666</v>
       </c>
       <c r="B71">
-        <v>1308</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45890.73958333334</v>
+        <v>45918.73958333334</v>
       </c>
       <c r="B72">
-        <v>1314</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45890.75</v>
+        <v>45918.75</v>
       </c>
       <c r="B73">
-        <v>1321</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45890.76041666666</v>
+        <v>45918.76041666666</v>
       </c>
       <c r="B74">
-        <v>1498</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45890.77083333334</v>
+        <v>45918.77083333334</v>
       </c>
       <c r="B75">
-        <v>1500</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45890.78125</v>
+        <v>45918.78125</v>
       </c>
       <c r="B76">
-        <v>1504</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45890.79166666666</v>
+        <v>45918.79166666666</v>
       </c>
       <c r="B77">
-        <v>1507</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45890.80208333334</v>
+        <v>45918.80208333334</v>
       </c>
       <c r="B78">
-        <v>1664</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45890.8125</v>
+        <v>45918.8125</v>
       </c>
       <c r="B79">
-        <v>1669</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45890.82291666666</v>
+        <v>45918.82291666666</v>
       </c>
       <c r="B80">
-        <v>1674</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45890.83333333334</v>
+        <v>45918.83333333334</v>
       </c>
       <c r="B81">
-        <v>1679</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45890.84375</v>
+        <v>45918.84375</v>
       </c>
       <c r="B82">
-        <v>1759</v>
+        <v>995</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45890.85416666666</v>
+        <v>45918.85416666666</v>
       </c>
       <c r="B83">
-        <v>1765</v>
+        <v>994</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45890.86458333334</v>
+        <v>45918.86458333334</v>
       </c>
       <c r="B84">
-        <v>1771</v>
+        <v>993</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45890.875</v>
+        <v>45918.875</v>
       </c>
       <c r="B85">
-        <v>1777</v>
+        <v>993</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45890.88541666666</v>
+        <v>45918.88541666666</v>
       </c>
       <c r="B86">
-        <v>1823</v>
+        <v>987</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45890.89583333334</v>
+        <v>45918.89583333334</v>
       </c>
       <c r="B87">
-        <v>1826</v>
+        <v>987</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45890.90625</v>
+        <v>45918.90625</v>
       </c>
       <c r="B88">
-        <v>1830</v>
+        <v>987</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45890.91666666666</v>
+        <v>45918.91666666666</v>
       </c>
       <c r="B89">
-        <v>1833</v>
+        <v>988</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45890.92708333334</v>
+        <v>45918.92708333334</v>
       </c>
       <c r="B90">
-        <v>1842</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45890.9375</v>
+        <v>45918.9375</v>
       </c>
       <c r="B91">
-        <v>1842</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45890.94791666666</v>
+        <v>45918.94791666666</v>
       </c>
       <c r="B92">
-        <v>1843</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45890.95833333334</v>
+        <v>45918.95833333334</v>
       </c>
       <c r="B93">
-        <v>1844</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45890.96875</v>
+        <v>45918.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45890.97916666666</v>
+        <v>45918.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45890.98958333334</v>
+        <v>45918.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45918.01041666666</v>
+        <v>45919.01041666666</v>
       </c>
       <c r="B2">
-        <v>1683</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45918.02083333334</v>
+        <v>45919.02083333334</v>
       </c>
       <c r="B3">
-        <v>1693</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45918.03125</v>
+        <v>45919.03125</v>
       </c>
       <c r="B4">
-        <v>1697</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45918.04166666666</v>
+        <v>45919.04166666666</v>
       </c>
       <c r="B5">
-        <v>1703</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45918.05208333334</v>
+        <v>45919.05208333334</v>
       </c>
       <c r="B6">
-        <v>1845</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45918.0625</v>
+        <v>45919.0625</v>
       </c>
       <c r="B7">
-        <v>1871</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45918.07291666666</v>
+        <v>45919.07291666666</v>
       </c>
       <c r="B8">
-        <v>1883</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45918.08333333334</v>
+        <v>45919.08333333334</v>
       </c>
       <c r="B9">
-        <v>1898</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45918.09375</v>
+        <v>45919.09375</v>
       </c>
       <c r="B10">
-        <v>2004</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45918.10416666666</v>
+        <v>45919.10416666666</v>
       </c>
       <c r="B11">
-        <v>2007</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45918.11458333334</v>
+        <v>45919.11458333334</v>
       </c>
       <c r="B12">
-        <v>2007</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45918.125</v>
+        <v>45919.125</v>
       </c>
       <c r="B13">
-        <v>2031</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45918.13541666666</v>
+        <v>45919.13541666666</v>
       </c>
       <c r="B14">
-        <v>2048</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45918.14583333334</v>
+        <v>45919.14583333334</v>
       </c>
       <c r="B15">
-        <v>2051</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45918.15625</v>
+        <v>45919.15625</v>
       </c>
       <c r="B16">
-        <v>2045</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45918.16666666666</v>
+        <v>45919.16666666666</v>
       </c>
       <c r="B17">
-        <v>2041</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45918.17708333334</v>
+        <v>45919.17708333334</v>
       </c>
       <c r="B18">
-        <v>2059</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45918.1875</v>
+        <v>45919.1875</v>
       </c>
       <c r="B19">
-        <v>2059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45918.19791666666</v>
+        <v>45919.19791666666</v>
       </c>
       <c r="B20">
-        <v>2061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45918.20833333334</v>
+        <v>45919.20833333334</v>
       </c>
       <c r="B21">
-        <v>2065</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45918.21875</v>
+        <v>45919.21875</v>
       </c>
       <c r="B22">
-        <v>2074</v>
+        <v>882</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45918.22916666666</v>
+        <v>45919.22916666666</v>
       </c>
       <c r="B23">
-        <v>2077</v>
+        <v>883</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45918.23958333334</v>
+        <v>45919.23958333334</v>
       </c>
       <c r="B24">
-        <v>2068</v>
+        <v>885</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45918.25</v>
+        <v>45919.25</v>
       </c>
       <c r="B25">
-        <v>2070</v>
+        <v>886</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45918.26041666666</v>
+        <v>45919.26041666666</v>
       </c>
       <c r="B26">
-        <v>2084</v>
+        <v>758</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45918.27083333334</v>
+        <v>45919.27083333334</v>
       </c>
       <c r="B27">
-        <v>2089</v>
+        <v>763</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45918.28125</v>
+        <v>45919.28125</v>
       </c>
       <c r="B28">
-        <v>2091</v>
+        <v>761</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45918.29166666666</v>
+        <v>45919.29166666666</v>
       </c>
       <c r="B29">
-        <v>2080</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45918.30208333334</v>
+        <v>45919.30208333334</v>
       </c>
       <c r="B30">
-        <v>2030</v>
+        <v>682</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45918.3125</v>
+        <v>45919.3125</v>
       </c>
       <c r="B31">
-        <v>2034</v>
+        <v>682</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45918.32291666666</v>
+        <v>45919.32291666666</v>
       </c>
       <c r="B32">
-        <v>2035</v>
+        <v>683</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45918.33333333334</v>
+        <v>45919.33333333334</v>
       </c>
       <c r="B33">
-        <v>2038</v>
+        <v>681</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45918.34375</v>
+        <v>45919.34375</v>
       </c>
       <c r="B34">
-        <v>2213</v>
+        <v>560</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45918.35416666666</v>
+        <v>45919.35416666666</v>
       </c>
       <c r="B35">
-        <v>2223</v>
+        <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45918.36458333334</v>
+        <v>45919.36458333334</v>
       </c>
       <c r="B36">
-        <v>2230</v>
+        <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45918.375</v>
+        <v>45919.375</v>
       </c>
       <c r="B37">
-        <v>2240</v>
+        <v>562</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45918.38541666666</v>
+        <v>45919.38541666666</v>
       </c>
       <c r="B38">
-        <v>2351</v>
+        <v>537</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45918.39583333334</v>
+        <v>45919.39583333334</v>
       </c>
       <c r="B39">
-        <v>2355</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45918.40625</v>
+        <v>45919.40625</v>
       </c>
       <c r="B40">
-        <v>2358</v>
+        <v>545</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45918.41666666666</v>
+        <v>45919.41666666666</v>
       </c>
       <c r="B41">
-        <v>2361</v>
+        <v>549</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45918.42708333334</v>
+        <v>45919.42708333334</v>
       </c>
       <c r="B42">
-        <v>2346</v>
+        <v>639</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45918.4375</v>
+        <v>45919.4375</v>
       </c>
       <c r="B43">
-        <v>2347</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45918.44791666666</v>
+        <v>45919.44791666666</v>
       </c>
       <c r="B44">
-        <v>2347</v>
+        <v>645</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45918.45833333334</v>
+        <v>45919.45833333334</v>
       </c>
       <c r="B45">
-        <v>2348</v>
+        <v>647</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45918.46875</v>
+        <v>45919.46875</v>
       </c>
       <c r="B46">
-        <v>2363</v>
+        <v>730</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45918.47916666666</v>
+        <v>45919.47916666666</v>
       </c>
       <c r="B47">
-        <v>2362</v>
+        <v>730</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45918.48958333334</v>
+        <v>45919.48958333334</v>
       </c>
       <c r="B48">
-        <v>2362</v>
+        <v>731</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45918.5</v>
+        <v>45919.5</v>
       </c>
       <c r="B49">
-        <v>2361</v>
+        <v>732</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45918.51041666666</v>
+        <v>45919.51041666666</v>
       </c>
       <c r="B50">
-        <v>2352</v>
+        <v>717</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45918.52083333334</v>
+        <v>45919.52083333334</v>
       </c>
       <c r="B51">
-        <v>2351</v>
+        <v>717</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45918.53125</v>
+        <v>45919.53125</v>
       </c>
       <c r="B52">
-        <v>2351</v>
+        <v>716</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45918.54166666666</v>
+        <v>45919.54166666666</v>
       </c>
       <c r="B53">
-        <v>2350</v>
+        <v>715</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45918.55208333334</v>
+        <v>45919.55208333334</v>
       </c>
       <c r="B54">
-        <v>2220</v>
+        <v>700</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45918.5625</v>
+        <v>45919.5625</v>
       </c>
       <c r="B55">
-        <v>2219</v>
+        <v>701</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45918.57291666666</v>
+        <v>45919.57291666666</v>
       </c>
       <c r="B56">
-        <v>2219</v>
+        <v>701</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45918.58333333334</v>
+        <v>45919.58333333334</v>
       </c>
       <c r="B57">
-        <v>2219</v>
+        <v>701</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45918.59375</v>
+        <v>45919.59375</v>
       </c>
       <c r="B58">
-        <v>2149</v>
+        <v>785</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45918.60416666666</v>
+        <v>45919.60416666666</v>
       </c>
       <c r="B59">
-        <v>2147</v>
+        <v>785</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45918.61458333334</v>
+        <v>45919.61458333334</v>
       </c>
       <c r="B60">
-        <v>2145</v>
+        <v>784</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45918.625</v>
+        <v>45919.625</v>
       </c>
       <c r="B61">
-        <v>2143</v>
+        <v>784</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45918.63541666666</v>
+        <v>45919.63541666666</v>
       </c>
       <c r="B62">
-        <v>2237</v>
+        <v>767</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45918.64583333334</v>
+        <v>45919.64583333334</v>
       </c>
       <c r="B63">
-        <v>2233</v>
+        <v>765</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45918.65625</v>
+        <v>45919.65625</v>
       </c>
       <c r="B64">
-        <v>2229</v>
+        <v>764</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45918.66666666666</v>
+        <v>45919.66666666666</v>
       </c>
       <c r="B65">
-        <v>2225</v>
+        <v>763</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45918.67708333334</v>
+        <v>45919.67708333334</v>
       </c>
       <c r="B66">
-        <v>1971</v>
+        <v>671</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45918.6875</v>
+        <v>45919.6875</v>
       </c>
       <c r="B67">
-        <v>1962</v>
+        <v>666</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45918.69791666666</v>
+        <v>45919.69791666666</v>
       </c>
       <c r="B68">
-        <v>1952</v>
+        <v>665</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45918.70833333334</v>
+        <v>45919.70833333334</v>
       </c>
       <c r="B69">
-        <v>1942</v>
+        <v>660</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45918.71875</v>
+        <v>45919.71875</v>
       </c>
       <c r="B70">
-        <v>1556</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45918.72916666666</v>
+        <v>45919.72916666666</v>
       </c>
       <c r="B71">
-        <v>1540</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45918.73958333334</v>
+        <v>45919.73958333334</v>
       </c>
       <c r="B72">
-        <v>1525</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45918.75</v>
+        <v>45919.75</v>
       </c>
       <c r="B73">
-        <v>1509</v>
+        <v>457</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45918.76041666666</v>
+        <v>45919.76041666666</v>
       </c>
       <c r="B74">
-        <v>1246</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45918.77083333334</v>
+        <v>45919.77083333334</v>
       </c>
       <c r="B75">
-        <v>1240</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45918.78125</v>
+        <v>45919.78125</v>
       </c>
       <c r="B76">
-        <v>1234</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45918.79166666666</v>
+        <v>45919.79166666666</v>
       </c>
       <c r="B77">
-        <v>1228</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45918.80208333334</v>
+        <v>45919.80208333334</v>
       </c>
       <c r="B78">
-        <v>1068</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45918.8125</v>
+        <v>45919.8125</v>
       </c>
       <c r="B79">
-        <v>1065</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45918.82291666666</v>
+        <v>45919.82291666666</v>
       </c>
       <c r="B80">
-        <v>1063</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45918.83333333334</v>
+        <v>45919.83333333334</v>
       </c>
       <c r="B81">
-        <v>1061</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45918.84375</v>
+        <v>45919.84375</v>
       </c>
       <c r="B82">
-        <v>995</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45918.85416666666</v>
+        <v>45919.85416666666</v>
       </c>
       <c r="B83">
-        <v>994</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45918.86458333334</v>
+        <v>45919.86458333334</v>
       </c>
       <c r="B84">
-        <v>993</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45918.875</v>
+        <v>45919.875</v>
       </c>
       <c r="B85">
-        <v>993</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45918.88541666666</v>
+        <v>45919.88541666666</v>
       </c>
       <c r="B86">
-        <v>987</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45918.89583333334</v>
+        <v>45919.89583333334</v>
       </c>
       <c r="B87">
-        <v>987</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45918.90625</v>
+        <v>45919.90625</v>
       </c>
       <c r="B88">
-        <v>987</v>
+        <v>315</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45918.91666666666</v>
+        <v>45919.91666666666</v>
       </c>
       <c r="B89">
-        <v>988</v>
+        <v>315</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45918.92708333334</v>
+        <v>45919.92708333334</v>
       </c>
       <c r="B90">
-        <v>1038</v>
+        <v>375</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45918.9375</v>
+        <v>45919.9375</v>
       </c>
       <c r="B91">
-        <v>1039</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45918.94791666666</v>
+        <v>45919.94791666666</v>
       </c>
       <c r="B92">
-        <v>1041</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45918.95833333334</v>
+        <v>45919.95833333334</v>
       </c>
       <c r="B93">
-        <v>1044</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45918.96875</v>
+        <v>45919.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45918.97916666666</v>
+        <v>45919.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45918.98958333334</v>
+        <v>45919.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45919.01041666666</v>
+        <v>45923.01041666666</v>
       </c>
       <c r="B2">
-        <v>1180</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45919.02083333334</v>
+        <v>45923.02083333334</v>
       </c>
       <c r="B3">
-        <v>1179</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45919.03125</v>
+        <v>45923.03125</v>
       </c>
       <c r="B4">
-        <v>1183</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45919.04166666666</v>
+        <v>45923.04166666666</v>
       </c>
       <c r="B5">
-        <v>1176</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45919.05208333334</v>
+        <v>45923.05208333334</v>
       </c>
       <c r="B6">
-        <v>1232</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45919.0625</v>
+        <v>45923.0625</v>
       </c>
       <c r="B7">
-        <v>1236</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45919.07291666666</v>
+        <v>45923.07291666666</v>
       </c>
       <c r="B8">
-        <v>1244</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45919.08333333334</v>
+        <v>45923.08333333334</v>
       </c>
       <c r="B9">
-        <v>1244</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45919.09375</v>
+        <v>45923.09375</v>
       </c>
       <c r="B10">
-        <v>1237</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45919.10416666666</v>
+        <v>45923.10416666666</v>
       </c>
       <c r="B11">
-        <v>1229</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45919.11458333334</v>
+        <v>45923.11458333334</v>
       </c>
       <c r="B12">
-        <v>1234</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45919.125</v>
+        <v>45923.125</v>
       </c>
       <c r="B13">
-        <v>1238</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45919.13541666666</v>
+        <v>45923.13541666666</v>
       </c>
       <c r="B14">
-        <v>1191</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45919.14583333334</v>
+        <v>45923.14583333334</v>
       </c>
       <c r="B15">
-        <v>1187</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45919.15625</v>
+        <v>45923.15625</v>
       </c>
       <c r="B16">
-        <v>1181</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45919.16666666666</v>
+        <v>45923.16666666666</v>
       </c>
       <c r="B17">
-        <v>1176</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45919.17708333334</v>
+        <v>45923.17708333334</v>
       </c>
       <c r="B18">
-        <v>1064</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45919.1875</v>
+        <v>45923.1875</v>
       </c>
       <c r="B19">
-        <v>1061</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45919.19791666666</v>
+        <v>45923.19791666666</v>
       </c>
       <c r="B20">
-        <v>1058</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45919.20833333334</v>
+        <v>45923.20833333334</v>
       </c>
       <c r="B21">
-        <v>1057</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45919.21875</v>
+        <v>45923.21875</v>
       </c>
       <c r="B22">
-        <v>882</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45919.22916666666</v>
+        <v>45923.22916666666</v>
       </c>
       <c r="B23">
-        <v>883</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45919.23958333334</v>
+        <v>45923.23958333334</v>
       </c>
       <c r="B24">
-        <v>885</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45919.25</v>
+        <v>45923.25</v>
       </c>
       <c r="B25">
-        <v>886</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45919.26041666666</v>
+        <v>45923.26041666666</v>
       </c>
       <c r="B26">
-        <v>758</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45919.27083333334</v>
+        <v>45923.27083333334</v>
       </c>
       <c r="B27">
-        <v>763</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45919.28125</v>
+        <v>45923.28125</v>
       </c>
       <c r="B28">
-        <v>761</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45919.29166666666</v>
+        <v>45923.29166666666</v>
       </c>
       <c r="B29">
-        <v>759</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45919.30208333334</v>
+        <v>45923.30208333334</v>
       </c>
       <c r="B30">
-        <v>682</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45919.3125</v>
+        <v>45923.3125</v>
       </c>
       <c r="B31">
-        <v>682</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45919.32291666666</v>
+        <v>45923.32291666666</v>
       </c>
       <c r="B32">
-        <v>683</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45919.33333333334</v>
+        <v>45923.33333333334</v>
       </c>
       <c r="B33">
-        <v>681</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45919.34375</v>
+        <v>45923.34375</v>
       </c>
       <c r="B34">
-        <v>560</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45919.35416666666</v>
+        <v>45923.35416666666</v>
       </c>
       <c r="B35">
-        <v>561</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45919.36458333334</v>
+        <v>45923.36458333334</v>
       </c>
       <c r="B36">
-        <v>563</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45919.375</v>
+        <v>45923.375</v>
       </c>
       <c r="B37">
-        <v>562</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45919.38541666666</v>
+        <v>45923.38541666666</v>
       </c>
       <c r="B38">
-        <v>537</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45919.39583333334</v>
+        <v>45923.39583333334</v>
       </c>
       <c r="B39">
-        <v>541</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45919.40625</v>
+        <v>45923.40625</v>
       </c>
       <c r="B40">
-        <v>545</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45919.41666666666</v>
+        <v>45923.41666666666</v>
       </c>
       <c r="B41">
-        <v>549</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45919.42708333334</v>
+        <v>45923.42708333334</v>
       </c>
       <c r="B42">
-        <v>639</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45919.4375</v>
+        <v>45923.4375</v>
       </c>
       <c r="B43">
-        <v>642</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45919.44791666666</v>
+        <v>45923.44791666666</v>
       </c>
       <c r="B44">
-        <v>645</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45919.45833333334</v>
+        <v>45923.45833333334</v>
       </c>
       <c r="B45">
-        <v>647</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45919.46875</v>
+        <v>45923.46875</v>
       </c>
       <c r="B46">
-        <v>730</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45919.47916666666</v>
+        <v>45923.47916666666</v>
       </c>
       <c r="B47">
-        <v>730</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45919.48958333334</v>
+        <v>45923.48958333334</v>
       </c>
       <c r="B48">
-        <v>731</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45919.5</v>
+        <v>45923.5</v>
       </c>
       <c r="B49">
-        <v>732</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45919.51041666666</v>
+        <v>45923.51041666666</v>
       </c>
       <c r="B50">
-        <v>717</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45919.52083333334</v>
+        <v>45923.52083333334</v>
       </c>
       <c r="B51">
-        <v>717</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45919.53125</v>
+        <v>45923.53125</v>
       </c>
       <c r="B52">
-        <v>716</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45919.54166666666</v>
+        <v>45923.54166666666</v>
       </c>
       <c r="B53">
-        <v>715</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45919.55208333334</v>
+        <v>45923.55208333334</v>
       </c>
       <c r="B54">
-        <v>700</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45919.5625</v>
+        <v>45923.5625</v>
       </c>
       <c r="B55">
-        <v>701</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45919.57291666666</v>
+        <v>45923.57291666666</v>
       </c>
       <c r="B56">
-        <v>701</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45919.58333333334</v>
+        <v>45923.58333333334</v>
       </c>
       <c r="B57">
-        <v>701</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45919.59375</v>
+        <v>45923.59375</v>
       </c>
       <c r="B58">
-        <v>785</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45919.60416666666</v>
+        <v>45923.60416666666</v>
       </c>
       <c r="B59">
-        <v>785</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45919.61458333334</v>
+        <v>45923.61458333334</v>
       </c>
       <c r="B60">
-        <v>784</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45919.625</v>
+        <v>45923.625</v>
       </c>
       <c r="B61">
-        <v>784</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45919.63541666666</v>
+        <v>45923.63541666666</v>
       </c>
       <c r="B62">
-        <v>767</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45919.64583333334</v>
+        <v>45923.64583333334</v>
       </c>
       <c r="B63">
-        <v>765</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45919.65625</v>
+        <v>45923.65625</v>
       </c>
       <c r="B64">
-        <v>764</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45919.66666666666</v>
+        <v>45923.66666666666</v>
       </c>
       <c r="B65">
-        <v>763</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45919.67708333334</v>
+        <v>45923.67708333334</v>
       </c>
       <c r="B66">
-        <v>671</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45919.6875</v>
+        <v>45923.6875</v>
       </c>
       <c r="B67">
-        <v>666</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45919.69791666666</v>
+        <v>45923.69791666666</v>
       </c>
       <c r="B68">
-        <v>665</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45919.70833333334</v>
+        <v>45923.70833333334</v>
       </c>
       <c r="B69">
-        <v>660</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45919.71875</v>
+        <v>45923.71875</v>
       </c>
       <c r="B70">
-        <v>480</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45919.72916666666</v>
+        <v>45923.72916666666</v>
       </c>
       <c r="B71">
-        <v>474</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45919.73958333334</v>
+        <v>45923.73958333334</v>
       </c>
       <c r="B72">
-        <v>463</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45919.75</v>
+        <v>45923.75</v>
       </c>
       <c r="B73">
-        <v>457</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45919.76041666666</v>
+        <v>45923.76041666666</v>
       </c>
       <c r="B74">
-        <v>298</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45919.77083333334</v>
+        <v>45923.77083333334</v>
       </c>
       <c r="B75">
-        <v>291</v>
+        <v>448</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45919.78125</v>
+        <v>45923.78125</v>
       </c>
       <c r="B76">
-        <v>290</v>
+        <v>449</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45919.79166666666</v>
+        <v>45923.79166666666</v>
       </c>
       <c r="B77">
-        <v>289</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45919.80208333334</v>
+        <v>45923.80208333334</v>
       </c>
       <c r="B78">
-        <v>260</v>
+        <v>461</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45919.8125</v>
+        <v>45923.8125</v>
       </c>
       <c r="B79">
-        <v>259</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45919.82291666666</v>
+        <v>45923.82291666666</v>
       </c>
       <c r="B80">
-        <v>259</v>
+        <v>459</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45919.83333333334</v>
+        <v>45923.83333333334</v>
       </c>
       <c r="B81">
-        <v>258</v>
+        <v>459</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45919.84375</v>
+        <v>45923.84375</v>
       </c>
       <c r="B82">
-        <v>267</v>
+        <v>408</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45919.85416666666</v>
+        <v>45923.85416666666</v>
       </c>
       <c r="B83">
-        <v>267</v>
+        <v>407</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45919.86458333334</v>
+        <v>45923.86458333334</v>
       </c>
       <c r="B84">
-        <v>267</v>
+        <v>407</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45919.875</v>
+        <v>45923.875</v>
       </c>
       <c r="B85">
-        <v>267</v>
+        <v>407</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45919.88541666666</v>
+        <v>45923.88541666666</v>
       </c>
       <c r="B86">
-        <v>314</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45919.89583333334</v>
+        <v>45923.89583333334</v>
       </c>
       <c r="B87">
-        <v>315</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45919.90625</v>
+        <v>45923.90625</v>
       </c>
       <c r="B88">
-        <v>315</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45919.91666666666</v>
+        <v>45923.91666666666</v>
       </c>
       <c r="B89">
-        <v>315</v>
+        <v>346</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45919.92708333334</v>
+        <v>45923.92708333334</v>
       </c>
       <c r="B90">
-        <v>375</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45919.9375</v>
+        <v>45923.9375</v>
       </c>
       <c r="B91">
-        <v>376</v>
+        <v>295</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45919.94791666666</v>
+        <v>45923.94791666666</v>
       </c>
       <c r="B92">
-        <v>377</v>
+        <v>294</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45919.95833333334</v>
+        <v>45923.95833333334</v>
       </c>
       <c r="B93">
-        <v>378</v>
+        <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45919.96875</v>
+        <v>45923.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45919.97916666666</v>
+        <v>45923.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45919.98958333334</v>
+        <v>45923.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45920</v>
+        <v>45924</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45923.01041666666</v>
+        <v>45932.01041666666</v>
       </c>
       <c r="B2">
-        <v>605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45923.02083333334</v>
+        <v>45932.02083333334</v>
       </c>
       <c r="B3">
-        <v>602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45923.03125</v>
+        <v>45932.03125</v>
       </c>
       <c r="B4">
-        <v>599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45923.04166666666</v>
+        <v>45932.04166666666</v>
       </c>
       <c r="B5">
-        <v>595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45923.05208333334</v>
+        <v>45932.05208333334</v>
       </c>
       <c r="B6">
-        <v>467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45923.0625</v>
+        <v>45932.0625</v>
       </c>
       <c r="B7">
-        <v>464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45923.07291666666</v>
+        <v>45932.07291666666</v>
       </c>
       <c r="B8">
-        <v>461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45923.08333333334</v>
+        <v>45932.08333333334</v>
       </c>
       <c r="B9">
-        <v>459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45923.09375</v>
+        <v>45932.09375</v>
       </c>
       <c r="B10">
-        <v>382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45923.10416666666</v>
+        <v>45932.10416666666</v>
       </c>
       <c r="B11">
-        <v>380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45923.11458333334</v>
+        <v>45932.11458333334</v>
       </c>
       <c r="B12">
-        <v>379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45923.125</v>
+        <v>45932.125</v>
       </c>
       <c r="B13">
-        <v>378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45923.13541666666</v>
+        <v>45932.13541666666</v>
       </c>
       <c r="B14">
-        <v>307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45923.14583333334</v>
+        <v>45932.14583333334</v>
       </c>
       <c r="B15">
-        <v>306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45923.15625</v>
+        <v>45932.15625</v>
       </c>
       <c r="B16">
-        <v>306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45923.16666666666</v>
+        <v>45932.16666666666</v>
       </c>
       <c r="B17">
-        <v>305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45923.17708333334</v>
+        <v>45932.17708333334</v>
       </c>
       <c r="B18">
-        <v>265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45923.1875</v>
+        <v>45932.1875</v>
       </c>
       <c r="B19">
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45923.19791666666</v>
+        <v>45932.19791666666</v>
       </c>
       <c r="B20">
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45923.20833333334</v>
+        <v>45932.20833333334</v>
       </c>
       <c r="B21">
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45923.21875</v>
+        <v>45932.21875</v>
       </c>
       <c r="B22">
-        <v>236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45923.22916666666</v>
+        <v>45932.22916666666</v>
       </c>
       <c r="B23">
-        <v>236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45923.23958333334</v>
+        <v>45932.23958333334</v>
       </c>
       <c r="B24">
-        <v>236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45923.25</v>
+        <v>45932.25</v>
       </c>
       <c r="B25">
-        <v>235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45923.26041666666</v>
+        <v>45932.26041666666</v>
       </c>
       <c r="B26">
-        <v>225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45923.27083333334</v>
+        <v>45932.27083333334</v>
       </c>
       <c r="B27">
-        <v>225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45923.28125</v>
+        <v>45932.28125</v>
       </c>
       <c r="B28">
-        <v>225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45923.29166666666</v>
+        <v>45932.29166666666</v>
       </c>
       <c r="B29">
-        <v>225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45923.30208333334</v>
+        <v>45932.30208333334</v>
       </c>
       <c r="B30">
-        <v>212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45923.3125</v>
+        <v>45932.3125</v>
       </c>
       <c r="B31">
-        <v>212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45923.32291666666</v>
+        <v>45932.32291666666</v>
       </c>
       <c r="B32">
-        <v>212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45923.33333333334</v>
+        <v>45932.33333333334</v>
       </c>
       <c r="B33">
-        <v>212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45923.34375</v>
+        <v>45932.34375</v>
       </c>
       <c r="B34">
-        <v>195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45923.35416666666</v>
+        <v>45932.35416666666</v>
       </c>
       <c r="B35">
-        <v>197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45923.36458333334</v>
+        <v>45932.36458333334</v>
       </c>
       <c r="B36">
-        <v>198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45923.375</v>
+        <v>45932.375</v>
       </c>
       <c r="B37">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45923.38541666666</v>
+        <v>45932.38541666666</v>
       </c>
       <c r="B38">
-        <v>205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45923.39583333334</v>
+        <v>45932.39583333334</v>
       </c>
       <c r="B39">
-        <v>206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45923.40625</v>
+        <v>45932.40625</v>
       </c>
       <c r="B40">
-        <v>207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45923.41666666666</v>
+        <v>45932.41666666666</v>
       </c>
       <c r="B41">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45923.42708333334</v>
+        <v>45932.42708333334</v>
       </c>
       <c r="B42">
-        <v>207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45923.4375</v>
+        <v>45932.4375</v>
       </c>
       <c r="B43">
-        <v>207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45923.44791666666</v>
+        <v>45932.44791666666</v>
       </c>
       <c r="B44">
-        <v>207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45923.45833333334</v>
+        <v>45932.45833333334</v>
       </c>
       <c r="B45">
-        <v>207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45923.46875</v>
+        <v>45932.46875</v>
       </c>
       <c r="B46">
-        <v>197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45923.47916666666</v>
+        <v>45932.47916666666</v>
       </c>
       <c r="B47">
-        <v>197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45923.48958333334</v>
+        <v>45932.48958333334</v>
       </c>
       <c r="B48">
-        <v>197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45923.5</v>
+        <v>45932.5</v>
       </c>
       <c r="B49">
-        <v>196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45923.51041666666</v>
+        <v>45932.51041666666</v>
       </c>
       <c r="B50">
-        <v>194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45923.52083333334</v>
+        <v>45932.52083333334</v>
       </c>
       <c r="B51">
-        <v>194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45923.53125</v>
+        <v>45932.53125</v>
       </c>
       <c r="B52">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45923.54166666666</v>
+        <v>45932.54166666666</v>
       </c>
       <c r="B53">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45923.55208333334</v>
+        <v>45932.55208333334</v>
       </c>
       <c r="B54">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45923.5625</v>
+        <v>45932.5625</v>
       </c>
       <c r="B55">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45923.57291666666</v>
+        <v>45932.57291666666</v>
       </c>
       <c r="B56">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45923.58333333334</v>
+        <v>45932.58333333334</v>
       </c>
       <c r="B57">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45923.59375</v>
+        <v>45932.59375</v>
       </c>
       <c r="B58">
-        <v>208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45923.60416666666</v>
+        <v>45932.60416666666</v>
       </c>
       <c r="B59">
-        <v>208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45923.61458333334</v>
+        <v>45932.61458333334</v>
       </c>
       <c r="B60">
-        <v>208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45923.625</v>
+        <v>45932.625</v>
       </c>
       <c r="B61">
-        <v>208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45923.63541666666</v>
+        <v>45932.63541666666</v>
       </c>
       <c r="B62">
-        <v>227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45923.64583333334</v>
+        <v>45932.64583333334</v>
       </c>
       <c r="B63">
-        <v>227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45923.65625</v>
+        <v>45932.65625</v>
       </c>
       <c r="B64">
-        <v>226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45923.66666666666</v>
+        <v>45932.66666666666</v>
       </c>
       <c r="B65">
-        <v>225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45923.67708333334</v>
+        <v>45932.67708333334</v>
       </c>
       <c r="B66">
-        <v>279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45923.6875</v>
+        <v>45932.6875</v>
       </c>
       <c r="B67">
-        <v>279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45923.69791666666</v>
+        <v>45932.69791666666</v>
       </c>
       <c r="B68">
-        <v>279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45923.70833333334</v>
+        <v>45932.70833333334</v>
       </c>
       <c r="B69">
-        <v>279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45923.71875</v>
+        <v>45932.71875</v>
       </c>
       <c r="B70">
-        <v>361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45923.72916666666</v>
+        <v>45932.72916666666</v>
       </c>
       <c r="B71">
-        <v>363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45923.73958333334</v>
+        <v>45932.73958333334</v>
       </c>
       <c r="B72">
-        <v>364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45923.75</v>
+        <v>45932.75</v>
       </c>
       <c r="B73">
-        <v>366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45923.76041666666</v>
+        <v>45932.76041666666</v>
       </c>
       <c r="B74">
-        <v>447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45923.77083333334</v>
+        <v>45932.77083333334</v>
       </c>
       <c r="B75">
-        <v>448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45923.78125</v>
+        <v>45932.78125</v>
       </c>
       <c r="B76">
-        <v>449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45923.79166666666</v>
+        <v>45932.79166666666</v>
       </c>
       <c r="B77">
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45923.80208333334</v>
+        <v>45932.80208333334</v>
       </c>
       <c r="B78">
-        <v>461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45923.8125</v>
+        <v>45932.8125</v>
       </c>
       <c r="B79">
-        <v>460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45923.82291666666</v>
+        <v>45932.82291666666</v>
       </c>
       <c r="B80">
-        <v>459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45923.83333333334</v>
+        <v>45932.83333333334</v>
       </c>
       <c r="B81">
-        <v>459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45923.84375</v>
+        <v>45932.84375</v>
       </c>
       <c r="B82">
-        <v>408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45923.85416666666</v>
+        <v>45932.85416666666</v>
       </c>
       <c r="B83">
-        <v>407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45923.86458333334</v>
+        <v>45932.86458333334</v>
       </c>
       <c r="B84">
-        <v>407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45923.875</v>
+        <v>45932.875</v>
       </c>
       <c r="B85">
-        <v>407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45923.88541666666</v>
+        <v>45932.88541666666</v>
       </c>
       <c r="B86">
-        <v>347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45923.89583333334</v>
+        <v>45932.89583333334</v>
       </c>
       <c r="B87">
-        <v>346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45923.90625</v>
+        <v>45932.90625</v>
       </c>
       <c r="B88">
-        <v>346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45923.91666666666</v>
+        <v>45932.91666666666</v>
       </c>
       <c r="B89">
-        <v>346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45923.92708333334</v>
+        <v>45932.92708333334</v>
       </c>
       <c r="B90">
-        <v>295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45923.9375</v>
+        <v>45932.9375</v>
       </c>
       <c r="B91">
-        <v>295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45923.94791666666</v>
+        <v>45932.94791666666</v>
       </c>
       <c r="B92">
-        <v>294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45923.95833333334</v>
+        <v>45932.95833333334</v>
       </c>
       <c r="B93">
-        <v>294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45923.96875</v>
+        <v>45932.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45923.97916666666</v>
+        <v>45932.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45923.98958333334</v>
+        <v>45932.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45924</v>
+        <v>45933</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45932.01041666666</v>
+        <v>45946.01041666666</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45932.02083333334</v>
+        <v>45946.02083333334</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45932.03125</v>
+        <v>45946.03125</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45932.04166666666</v>
+        <v>45946.04166666666</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45932.05208333334</v>
+        <v>45946.05208333334</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45932.0625</v>
+        <v>45946.0625</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45932.07291666666</v>
+        <v>45946.07291666666</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45932.08333333334</v>
+        <v>45946.08333333334</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45932.09375</v>
+        <v>45946.09375</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45932.10416666666</v>
+        <v>45946.10416666666</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45932.11458333334</v>
+        <v>45946.11458333334</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45932.125</v>
+        <v>45946.125</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45932.13541666666</v>
+        <v>45946.13541666666</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45932.14583333334</v>
+        <v>45946.14583333334</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45932.15625</v>
+        <v>45946.15625</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45932.16666666666</v>
+        <v>45946.16666666666</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45932.17708333334</v>
+        <v>45946.17708333334</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45932.1875</v>
+        <v>45946.1875</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45932.19791666666</v>
+        <v>45946.19791666666</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45932.20833333334</v>
+        <v>45946.20833333334</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45932.21875</v>
+        <v>45946.21875</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45932.22916666666</v>
+        <v>45946.22916666666</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45932.23958333334</v>
+        <v>45946.23958333334</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45932.25</v>
+        <v>45946.25</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45932.26041666666</v>
+        <v>45946.26041666666</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45932.27083333334</v>
+        <v>45946.27083333334</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45932.28125</v>
+        <v>45946.28125</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45932.29166666666</v>
+        <v>45946.29166666666</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45932.30208333334</v>
+        <v>45946.30208333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45932.3125</v>
+        <v>45946.3125</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45932.32291666666</v>
+        <v>45946.32291666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45932.33333333334</v>
+        <v>45946.33333333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45932.34375</v>
+        <v>45946.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45932.35416666666</v>
+        <v>45946.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45932.36458333334</v>
+        <v>45946.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45932.375</v>
+        <v>45946.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45932.38541666666</v>
+        <v>45946.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45932.39583333334</v>
+        <v>45946.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45932.40625</v>
+        <v>45946.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45932.41666666666</v>
+        <v>45946.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45932.42708333334</v>
+        <v>45946.42708333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45932.4375</v>
+        <v>45946.4375</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45932.44791666666</v>
+        <v>45946.44791666666</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45932.45833333334</v>
+        <v>45946.45833333334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45932.46875</v>
+        <v>45946.46875</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45932.47916666666</v>
+        <v>45946.47916666666</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45932.48958333334</v>
+        <v>45946.48958333334</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45932.5</v>
+        <v>45946.5</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45932.51041666666</v>
+        <v>45946.51041666666</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45932.52083333334</v>
+        <v>45946.52083333334</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45932.53125</v>
+        <v>45946.53125</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45932.54166666666</v>
+        <v>45946.54166666666</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45932.55208333334</v>
+        <v>45946.55208333334</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45932.5625</v>
+        <v>45946.5625</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45932.57291666666</v>
+        <v>45946.57291666666</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45932.58333333334</v>
+        <v>45946.58333333334</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45932.59375</v>
+        <v>45946.59375</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45932.60416666666</v>
+        <v>45946.60416666666</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45932.61458333334</v>
+        <v>45946.61458333334</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45932.625</v>
+        <v>45946.625</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45932.63541666666</v>
+        <v>45946.63541666666</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45932.64583333334</v>
+        <v>45946.64583333334</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45932.65625</v>
+        <v>45946.65625</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45932.66666666666</v>
+        <v>45946.66666666666</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45932.67708333334</v>
+        <v>45946.67708333334</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45932.6875</v>
+        <v>45946.6875</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45932.69791666666</v>
+        <v>45946.69791666666</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45932.70833333334</v>
+        <v>45946.70833333334</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45932.71875</v>
+        <v>45946.71875</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45932.72916666666</v>
+        <v>45946.72916666666</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45932.73958333334</v>
+        <v>45946.73958333334</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45932.75</v>
+        <v>45946.75</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45932.76041666666</v>
+        <v>45946.76041666666</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45932.77083333334</v>
+        <v>45946.77083333334</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>392</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45932.78125</v>
+        <v>45946.78125</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>407</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45932.79166666666</v>
+        <v>45946.79166666666</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45932.80208333334</v>
+        <v>45946.80208333334</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>464</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45932.8125</v>
+        <v>45946.8125</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45932.82291666666</v>
+        <v>45946.82291666666</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>484</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45932.83333333334</v>
+        <v>45946.83333333334</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>494</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45932.84375</v>
+        <v>45946.84375</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>520</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45932.85416666666</v>
+        <v>45946.85416666666</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>526</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45932.86458333334</v>
+        <v>45946.86458333334</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>531</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45932.875</v>
+        <v>45946.875</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>535</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45932.88541666666</v>
+        <v>45946.88541666666</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>546</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45932.89583333334</v>
+        <v>45946.89583333334</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>548</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45932.90625</v>
+        <v>45946.90625</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>551</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45932.91666666666</v>
+        <v>45946.91666666666</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>554</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45932.92708333334</v>
+        <v>45946.92708333334</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>555</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45932.9375</v>
+        <v>45946.9375</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>558</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45932.94791666666</v>
+        <v>45946.94791666666</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>558</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45932.95833333334</v>
+        <v>45946.95833333334</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>556</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45932.96875</v>
+        <v>45946.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45932.97916666666</v>
+        <v>45946.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45932.98958333334</v>
+        <v>45946.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45933</v>
+        <v>45947</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45946.01041666666</v>
+        <v>45947.01041666666</v>
       </c>
       <c r="B2">
-        <v>82</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45946.02083333334</v>
+        <v>45947.02083333334</v>
       </c>
       <c r="B3">
-        <v>81</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45946.03125</v>
+        <v>45947.03125</v>
       </c>
       <c r="B4">
-        <v>81</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45946.04166666666</v>
+        <v>45947.04166666666</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45946.05208333334</v>
+        <v>45947.05208333334</v>
       </c>
       <c r="B6">
-        <v>91</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45946.0625</v>
+        <v>45947.0625</v>
       </c>
       <c r="B7">
-        <v>91</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45946.07291666666</v>
+        <v>45947.07291666666</v>
       </c>
       <c r="B8">
-        <v>86</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45946.08333333334</v>
+        <v>45947.08333333334</v>
       </c>
       <c r="B9">
-        <v>86</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45946.09375</v>
+        <v>45947.09375</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45946.10416666666</v>
+        <v>45947.10416666666</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45946.11458333334</v>
+        <v>45947.11458333334</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45946.125</v>
+        <v>45947.125</v>
       </c>
       <c r="B13">
-        <v>88</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45946.13541666666</v>
+        <v>45947.13541666666</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45946.14583333334</v>
+        <v>45947.14583333334</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45946.15625</v>
+        <v>45947.15625</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45946.16666666666</v>
+        <v>45947.16666666666</v>
       </c>
       <c r="B17">
-        <v>92</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45946.17708333334</v>
+        <v>45947.17708333334</v>
       </c>
       <c r="B18">
-        <v>98</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45946.1875</v>
+        <v>45947.1875</v>
       </c>
       <c r="B19">
-        <v>98</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45946.19791666666</v>
+        <v>45947.19791666666</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45946.20833333334</v>
+        <v>45947.20833333334</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45946.21875</v>
+        <v>45947.21875</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45946.22916666666</v>
+        <v>45947.22916666666</v>
       </c>
       <c r="B23">
-        <v>97</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45946.23958333334</v>
+        <v>45947.23958333334</v>
       </c>
       <c r="B24">
-        <v>98</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45946.25</v>
+        <v>45947.25</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45946.26041666666</v>
+        <v>45947.26041666666</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45946.27083333334</v>
+        <v>45947.27083333334</v>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45946.28125</v>
+        <v>45947.28125</v>
       </c>
       <c r="B28">
-        <v>103</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45946.29166666666</v>
+        <v>45947.29166666666</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45946.30208333334</v>
+        <v>45947.30208333334</v>
       </c>
       <c r="B30">
-        <v>111</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45946.3125</v>
+        <v>45947.3125</v>
       </c>
       <c r="B31">
-        <v>115</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45946.32291666666</v>
+        <v>45947.32291666666</v>
       </c>
       <c r="B32">
-        <v>116</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45946.33333333334</v>
+        <v>45947.33333333334</v>
       </c>
       <c r="B33">
-        <v>118</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45946.34375</v>
+        <v>45947.34375</v>
       </c>
       <c r="B34">
-        <v>115</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45946.35416666666</v>
+        <v>45947.35416666666</v>
       </c>
       <c r="B35">
-        <v>114</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45946.36458333334</v>
+        <v>45947.36458333334</v>
       </c>
       <c r="B36">
-        <v>110</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45946.375</v>
+        <v>45947.375</v>
       </c>
       <c r="B37">
-        <v>110</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45946.38541666666</v>
+        <v>45947.38541666666</v>
       </c>
       <c r="B38">
-        <v>119</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45946.39583333334</v>
+        <v>45947.39583333334</v>
       </c>
       <c r="B39">
-        <v>114</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45946.40625</v>
+        <v>45947.40625</v>
       </c>
       <c r="B40">
-        <v>111</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45946.41666666666</v>
+        <v>45947.41666666666</v>
       </c>
       <c r="B41">
-        <v>109</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45946.42708333334</v>
+        <v>45947.42708333334</v>
       </c>
       <c r="B42">
-        <v>99</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45946.4375</v>
+        <v>45947.4375</v>
       </c>
       <c r="B43">
-        <v>99</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45946.44791666666</v>
+        <v>45947.44791666666</v>
       </c>
       <c r="B44">
-        <v>99</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45946.45833333334</v>
+        <v>45947.45833333334</v>
       </c>
       <c r="B45">
-        <v>100</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45946.46875</v>
+        <v>45947.46875</v>
       </c>
       <c r="B46">
-        <v>99</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45946.47916666666</v>
+        <v>45947.47916666666</v>
       </c>
       <c r="B47">
-        <v>100</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45946.48958333334</v>
+        <v>45947.48958333334</v>
       </c>
       <c r="B48">
-        <v>102</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45946.5</v>
+        <v>45947.5</v>
       </c>
       <c r="B49">
-        <v>103</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45946.51041666666</v>
+        <v>45947.51041666666</v>
       </c>
       <c r="B50">
-        <v>102</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45946.52083333334</v>
+        <v>45947.52083333334</v>
       </c>
       <c r="B51">
-        <v>104</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45946.53125</v>
+        <v>45947.53125</v>
       </c>
       <c r="B52">
-        <v>106</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45946.54166666666</v>
+        <v>45947.54166666666</v>
       </c>
       <c r="B53">
-        <v>107</v>
+        <v>403</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45946.55208333334</v>
+        <v>45947.55208333334</v>
       </c>
       <c r="B54">
-        <v>108</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45946.5625</v>
+        <v>45947.5625</v>
       </c>
       <c r="B55">
-        <v>110</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45946.57291666666</v>
+        <v>45947.57291666666</v>
       </c>
       <c r="B56">
-        <v>112</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45946.58333333334</v>
+        <v>45947.58333333334</v>
       </c>
       <c r="B57">
-        <v>114</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45946.59375</v>
+        <v>45947.59375</v>
       </c>
       <c r="B58">
-        <v>125</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45946.60416666666</v>
+        <v>45947.60416666666</v>
       </c>
       <c r="B59">
-        <v>127</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45946.61458333334</v>
+        <v>45947.61458333334</v>
       </c>
       <c r="B60">
-        <v>129</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45946.625</v>
+        <v>45947.625</v>
       </c>
       <c r="B61">
-        <v>131</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45946.63541666666</v>
+        <v>45947.63541666666</v>
       </c>
       <c r="B62">
-        <v>146</v>
+        <v>487</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45946.64583333334</v>
+        <v>45947.64583333334</v>
       </c>
       <c r="B63">
-        <v>149</v>
+        <v>498</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45946.65625</v>
+        <v>45947.65625</v>
       </c>
       <c r="B64">
-        <v>153</v>
+        <v>508</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45946.66666666666</v>
+        <v>45947.66666666666</v>
       </c>
       <c r="B65">
-        <v>156</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45946.67708333334</v>
+        <v>45947.67708333334</v>
       </c>
       <c r="B66">
-        <v>183</v>
+        <v>591</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45946.6875</v>
+        <v>45947.6875</v>
       </c>
       <c r="B67">
-        <v>192</v>
+        <v>612</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45946.69791666666</v>
+        <v>45947.69791666666</v>
       </c>
       <c r="B68">
-        <v>205</v>
+        <v>633</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45946.70833333334</v>
+        <v>45947.70833333334</v>
       </c>
       <c r="B69">
-        <v>215</v>
+        <v>655</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45946.71875</v>
+        <v>45947.71875</v>
       </c>
       <c r="B70">
-        <v>266</v>
+        <v>740</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45946.72916666666</v>
+        <v>45947.72916666666</v>
       </c>
       <c r="B71">
-        <v>284</v>
+        <v>769</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45946.73958333334</v>
+        <v>45947.73958333334</v>
       </c>
       <c r="B72">
-        <v>302</v>
+        <v>798</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45946.75</v>
+        <v>45947.75</v>
       </c>
       <c r="B73">
-        <v>320</v>
+        <v>826</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45946.76041666666</v>
+        <v>45947.76041666666</v>
       </c>
       <c r="B74">
-        <v>377</v>
+        <v>891</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45946.77083333334</v>
+        <v>45947.77083333334</v>
       </c>
       <c r="B75">
-        <v>392</v>
+        <v>905</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45946.78125</v>
+        <v>45947.78125</v>
       </c>
       <c r="B76">
-        <v>407</v>
+        <v>919</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45946.79166666666</v>
+        <v>45947.79166666666</v>
       </c>
       <c r="B77">
-        <v>423</v>
+        <v>933</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45946.80208333334</v>
+        <v>45947.80208333334</v>
       </c>
       <c r="B78">
-        <v>464</v>
+        <v>917</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45946.8125</v>
+        <v>45947.8125</v>
       </c>
       <c r="B79">
-        <v>474</v>
+        <v>922</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45946.82291666666</v>
+        <v>45947.82291666666</v>
       </c>
       <c r="B80">
-        <v>484</v>
+        <v>925</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45946.83333333334</v>
+        <v>45947.83333333334</v>
       </c>
       <c r="B81">
-        <v>494</v>
+        <v>928</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45946.84375</v>
+        <v>45947.84375</v>
       </c>
       <c r="B82">
-        <v>520</v>
+        <v>936</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45946.85416666666</v>
+        <v>45947.85416666666</v>
       </c>
       <c r="B83">
-        <v>526</v>
+        <v>927</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45946.86458333334</v>
+        <v>45947.86458333334</v>
       </c>
       <c r="B84">
-        <v>531</v>
+        <v>921</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45946.875</v>
+        <v>45947.875</v>
       </c>
       <c r="B85">
-        <v>535</v>
+        <v>917</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45946.88541666666</v>
+        <v>45947.88541666666</v>
       </c>
       <c r="B86">
-        <v>546</v>
+        <v>868</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45946.89583333334</v>
+        <v>45947.89583333334</v>
       </c>
       <c r="B87">
-        <v>548</v>
+        <v>862</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45946.90625</v>
+        <v>45947.90625</v>
       </c>
       <c r="B88">
-        <v>551</v>
+        <v>853</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45946.91666666666</v>
+        <v>45947.91666666666</v>
       </c>
       <c r="B89">
-        <v>554</v>
+        <v>844</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45946.92708333334</v>
+        <v>45947.92708333334</v>
       </c>
       <c r="B90">
-        <v>555</v>
+        <v>782</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45946.9375</v>
+        <v>45947.9375</v>
       </c>
       <c r="B91">
-        <v>558</v>
+        <v>769</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45946.94791666666</v>
+        <v>45947.94791666666</v>
       </c>
       <c r="B92">
-        <v>558</v>
+        <v>757</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45946.95833333334</v>
+        <v>45947.95833333334</v>
       </c>
       <c r="B93">
-        <v>556</v>
+        <v>745</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45946.96875</v>
+        <v>45947.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45946.97916666666</v>
+        <v>45947.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45946.98958333334</v>
+        <v>45947.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45947.01041666666</v>
+        <v>45954.01041666666</v>
       </c>
       <c r="B2">
-        <v>392</v>
+        <v>1199.288</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45947.02083333334</v>
+        <v>45954.02083333334</v>
       </c>
       <c r="B3">
-        <v>392</v>
+        <v>1199.726</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45947.03125</v>
+        <v>45954.03125</v>
       </c>
       <c r="B4">
-        <v>400</v>
+        <v>1196.317</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45947.04166666666</v>
+        <v>45954.04166666666</v>
       </c>
       <c r="B5">
-        <v>399</v>
+        <v>1195.015</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45947.05208333334</v>
+        <v>45954.05208333334</v>
       </c>
       <c r="B6">
-        <v>413</v>
+        <v>1202.108</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45947.0625</v>
+        <v>45954.0625</v>
       </c>
       <c r="B7">
-        <v>409</v>
+        <v>1212.43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45947.07291666666</v>
+        <v>45954.07291666666</v>
       </c>
       <c r="B8">
-        <v>407</v>
+        <v>1221.562</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45947.08333333334</v>
+        <v>45954.08333333334</v>
       </c>
       <c r="B9">
-        <v>406</v>
+        <v>1228.64</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45947.09375</v>
+        <v>45954.09375</v>
       </c>
       <c r="B10">
-        <v>426</v>
+        <v>1267.47</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45947.10416666666</v>
+        <v>45954.10416666666</v>
       </c>
       <c r="B11">
-        <v>427</v>
+        <v>1279.135</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45947.11458333334</v>
+        <v>45954.11458333334</v>
       </c>
       <c r="B12">
-        <v>426</v>
+        <v>1290.313</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45947.125</v>
+        <v>45954.125</v>
       </c>
       <c r="B13">
-        <v>425</v>
+        <v>1300.841</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45947.13541666666</v>
+        <v>45954.13541666666</v>
       </c>
       <c r="B14">
-        <v>416</v>
+        <v>1376.972</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45947.14583333334</v>
+        <v>45954.14583333334</v>
       </c>
       <c r="B15">
-        <v>414</v>
+        <v>1388.671</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45947.15625</v>
+        <v>45954.15625</v>
       </c>
       <c r="B16">
-        <v>408</v>
+        <v>1406.527</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45947.16666666666</v>
+        <v>45954.16666666666</v>
       </c>
       <c r="B17">
-        <v>390</v>
+        <v>1422.275</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45947.17708333334</v>
+        <v>45954.17708333334</v>
       </c>
       <c r="B18">
-        <v>368</v>
+        <v>1505.394</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45947.1875</v>
+        <v>45954.1875</v>
       </c>
       <c r="B19">
-        <v>365</v>
+        <v>1526.395</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45947.19791666666</v>
+        <v>45954.19791666666</v>
       </c>
       <c r="B20">
-        <v>356</v>
+        <v>1539.993</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45947.20833333334</v>
+        <v>45954.20833333334</v>
       </c>
       <c r="B21">
-        <v>353</v>
+        <v>1548.989</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45947.21875</v>
+        <v>45954.21875</v>
       </c>
       <c r="B22">
-        <v>337</v>
+        <v>1623.143</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45947.22916666666</v>
+        <v>45954.22916666666</v>
       </c>
       <c r="B23">
-        <v>329</v>
+        <v>1635.552</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45947.23958333334</v>
+        <v>45954.23958333334</v>
       </c>
       <c r="B24">
-        <v>323</v>
+        <v>1649.058</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45947.25</v>
+        <v>45954.25</v>
       </c>
       <c r="B25">
-        <v>320</v>
+        <v>1657.691</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45947.26041666666</v>
+        <v>45954.26041666666</v>
       </c>
       <c r="B26">
-        <v>302</v>
+        <v>1700.383</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45947.27083333334</v>
+        <v>45954.27083333334</v>
       </c>
       <c r="B27">
-        <v>299</v>
+        <v>1700.858</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45947.28125</v>
+        <v>45954.28125</v>
       </c>
       <c r="B28">
-        <v>296</v>
+        <v>1699.654</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45947.29166666666</v>
+        <v>45954.29166666666</v>
       </c>
       <c r="B29">
-        <v>292</v>
+        <v>1700.248</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45947.30208333334</v>
+        <v>45954.30208333334</v>
       </c>
       <c r="B30">
-        <v>288</v>
+        <v>1787.311</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45947.3125</v>
+        <v>45954.3125</v>
       </c>
       <c r="B31">
-        <v>285</v>
+        <v>1801.938</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45947.32291666666</v>
+        <v>45954.32291666666</v>
       </c>
       <c r="B32">
-        <v>281</v>
+        <v>1800.569</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45947.33333333334</v>
+        <v>45954.33333333334</v>
       </c>
       <c r="B33">
-        <v>277</v>
+        <v>1826.572</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45947.34375</v>
+        <v>45954.34375</v>
       </c>
       <c r="B34">
-        <v>290</v>
+        <v>1876.659</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45947.35416666666</v>
+        <v>45954.35416666666</v>
       </c>
       <c r="B35">
-        <v>281</v>
+        <v>1885.045</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45947.36458333334</v>
+        <v>45954.36458333334</v>
       </c>
       <c r="B36">
-        <v>275</v>
+        <v>1874.511</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45947.375</v>
+        <v>45954.375</v>
       </c>
       <c r="B37">
-        <v>269</v>
+        <v>1884.377</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45947.38541666666</v>
+        <v>45954.38541666666</v>
       </c>
       <c r="B38">
-        <v>270</v>
+        <v>1939.765</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45947.39583333334</v>
+        <v>45954.39583333334</v>
       </c>
       <c r="B39">
-        <v>269</v>
+        <v>1939.032</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45947.40625</v>
+        <v>45954.40625</v>
       </c>
       <c r="B40">
-        <v>275</v>
+        <v>1936.875</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45947.41666666666</v>
+        <v>45954.41666666666</v>
       </c>
       <c r="B41">
-        <v>277</v>
+        <v>1933.973</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45947.42708333334</v>
+        <v>45954.42708333334</v>
       </c>
       <c r="B42">
-        <v>307</v>
+        <v>1903.804</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45947.4375</v>
+        <v>45954.4375</v>
       </c>
       <c r="B43">
-        <v>322</v>
+        <v>1896.775</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45947.44791666666</v>
+        <v>45954.44791666666</v>
       </c>
       <c r="B44">
-        <v>333</v>
+        <v>1886.578</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45947.45833333334</v>
+        <v>45954.45833333334</v>
       </c>
       <c r="B45">
-        <v>343</v>
+        <v>1879.451</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45947.46875</v>
+        <v>45954.46875</v>
       </c>
       <c r="B46">
-        <v>372</v>
+        <v>1863.773</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45947.47916666666</v>
+        <v>45954.47916666666</v>
       </c>
       <c r="B47">
-        <v>377</v>
+        <v>1862.55</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45947.48958333334</v>
+        <v>45954.48958333334</v>
       </c>
       <c r="B48">
-        <v>382</v>
+        <v>1867.589</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45947.5</v>
+        <v>45954.5</v>
       </c>
       <c r="B49">
-        <v>388</v>
+        <v>1858.665</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45947.51041666666</v>
+        <v>45954.51041666666</v>
       </c>
       <c r="B50">
-        <v>400</v>
+        <v>1837.728</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45947.52083333334</v>
+        <v>45954.52083333334</v>
       </c>
       <c r="B51">
-        <v>402</v>
+        <v>1835.666</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45947.53125</v>
+        <v>45954.53125</v>
       </c>
       <c r="B52">
-        <v>402</v>
+        <v>1830.982</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45947.54166666666</v>
+        <v>45954.54166666666</v>
       </c>
       <c r="B53">
-        <v>403</v>
+        <v>1822.491</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45947.55208333334</v>
+        <v>45954.55208333334</v>
       </c>
       <c r="B54">
-        <v>410</v>
+        <v>1815.844</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45947.5625</v>
+        <v>45954.5625</v>
       </c>
       <c r="B55">
-        <v>412</v>
+        <v>1828.701</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45947.57291666666</v>
+        <v>45954.57291666666</v>
       </c>
       <c r="B56">
-        <v>413</v>
+        <v>1831.139</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45947.58333333334</v>
+        <v>45954.58333333334</v>
       </c>
       <c r="B57">
-        <v>414</v>
+        <v>1830.163</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45947.59375</v>
+        <v>45954.59375</v>
       </c>
       <c r="B58">
-        <v>436</v>
+        <v>1839.614</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45947.60416666666</v>
+        <v>45954.60416666666</v>
       </c>
       <c r="B59">
-        <v>442</v>
+        <v>1845.722</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45947.61458333334</v>
+        <v>45954.61458333334</v>
       </c>
       <c r="B60">
-        <v>446</v>
+        <v>1853.768</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45947.625</v>
+        <v>45954.625</v>
       </c>
       <c r="B61">
-        <v>450</v>
+        <v>1862.423</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45947.63541666666</v>
+        <v>45954.63541666666</v>
       </c>
       <c r="B62">
-        <v>487</v>
+        <v>1950.152</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45947.64583333334</v>
+        <v>45954.64583333334</v>
       </c>
       <c r="B63">
-        <v>498</v>
+        <v>1961.682</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45947.65625</v>
+        <v>45954.65625</v>
       </c>
       <c r="B64">
-        <v>508</v>
+        <v>1981.396</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45947.66666666666</v>
+        <v>45954.66666666666</v>
       </c>
       <c r="B65">
-        <v>517</v>
+        <v>1997.301</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45947.67708333334</v>
+        <v>45954.67708333334</v>
       </c>
       <c r="B66">
-        <v>591</v>
+        <v>2128.534</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45947.6875</v>
+        <v>45954.6875</v>
       </c>
       <c r="B67">
-        <v>612</v>
+        <v>2142.771</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45947.69791666666</v>
+        <v>45954.69791666666</v>
       </c>
       <c r="B68">
-        <v>633</v>
+        <v>2152.226</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45947.70833333334</v>
+        <v>45954.70833333334</v>
       </c>
       <c r="B69">
-        <v>655</v>
+        <v>2155.577</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45947.71875</v>
+        <v>45954.71875</v>
       </c>
       <c r="B70">
-        <v>740</v>
+        <v>2205.565</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45947.72916666666</v>
+        <v>45954.72916666666</v>
       </c>
       <c r="B71">
-        <v>769</v>
+        <v>2212.186</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45947.73958333334</v>
+        <v>45954.73958333334</v>
       </c>
       <c r="B72">
-        <v>798</v>
+        <v>2216.976</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45947.75</v>
+        <v>45954.75</v>
       </c>
       <c r="B73">
-        <v>826</v>
+        <v>2219.762</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45947.76041666666</v>
+        <v>45954.76041666666</v>
       </c>
       <c r="B74">
-        <v>891</v>
+        <v>2188.144</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45947.77083333334</v>
+        <v>45954.77083333334</v>
       </c>
       <c r="B75">
-        <v>905</v>
+        <v>2181.107</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45947.78125</v>
+        <v>45954.78125</v>
       </c>
       <c r="B76">
-        <v>919</v>
+        <v>2176.217</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45947.79166666666</v>
+        <v>45954.79166666666</v>
       </c>
       <c r="B77">
-        <v>933</v>
+        <v>2170.559</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45947.80208333334</v>
+        <v>45954.80208333334</v>
       </c>
       <c r="B78">
-        <v>917</v>
+        <v>2087.455</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45947.8125</v>
+        <v>45954.8125</v>
       </c>
       <c r="B79">
-        <v>922</v>
+        <v>2078.662</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45947.82291666666</v>
+        <v>45954.82291666666</v>
       </c>
       <c r="B80">
-        <v>925</v>
+        <v>2070.376</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45947.83333333334</v>
+        <v>45954.83333333334</v>
       </c>
       <c r="B81">
-        <v>928</v>
+        <v>2062.612</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45947.84375</v>
+        <v>45954.84375</v>
       </c>
       <c r="B82">
-        <v>936</v>
+        <v>1971.327</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45947.85416666666</v>
+        <v>45954.85416666666</v>
       </c>
       <c r="B83">
-        <v>927</v>
+        <v>1954.78</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45947.86458333334</v>
+        <v>45954.86458333334</v>
       </c>
       <c r="B84">
-        <v>921</v>
+        <v>1914.862</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45947.875</v>
+        <v>45954.875</v>
       </c>
       <c r="B85">
-        <v>917</v>
+        <v>1896.872</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45947.88541666666</v>
+        <v>45954.88541666666</v>
       </c>
       <c r="B86">
-        <v>868</v>
+        <v>1758.969</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45947.89583333334</v>
+        <v>45954.89583333334</v>
       </c>
       <c r="B87">
-        <v>862</v>
+        <v>1735.241</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45947.90625</v>
+        <v>45954.90625</v>
       </c>
       <c r="B88">
-        <v>853</v>
+        <v>1709.694</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45947.91666666666</v>
+        <v>45954.91666666666</v>
       </c>
       <c r="B89">
-        <v>844</v>
+        <v>1683.212</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45947.92708333334</v>
+        <v>45954.92708333334</v>
       </c>
       <c r="B90">
-        <v>782</v>
+        <v>1537.174</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45947.9375</v>
+        <v>45954.9375</v>
       </c>
       <c r="B91">
-        <v>769</v>
+        <v>1515.99</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45947.94791666666</v>
+        <v>45954.94791666666</v>
       </c>
       <c r="B92">
-        <v>757</v>
+        <v>1494.493</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45947.95833333334</v>
+        <v>45954.95833333334</v>
       </c>
       <c r="B93">
-        <v>745</v>
+        <v>1464.91</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45947.96875</v>
+        <v>45954.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45947.97916666666</v>
+        <v>45954.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45947.98958333334</v>
+        <v>45954.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45948</v>
+        <v>45955</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45954.01041666666</v>
+        <v>45969.01041666666</v>
       </c>
       <c r="B2">
-        <v>1199.288</v>
+        <v>571.776</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45954.02083333334</v>
+        <v>45969.02083333334</v>
       </c>
       <c r="B3">
-        <v>1199.726</v>
+        <v>554.698</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45954.03125</v>
+        <v>45969.03125</v>
       </c>
       <c r="B4">
-        <v>1196.317</v>
+        <v>546.198</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45954.04166666666</v>
+        <v>45969.04166666666</v>
       </c>
       <c r="B5">
-        <v>1195.015</v>
+        <v>535.633</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45954.05208333334</v>
+        <v>45969.05208333334</v>
       </c>
       <c r="B6">
-        <v>1202.108</v>
+        <v>481.43</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45954.0625</v>
+        <v>45969.0625</v>
       </c>
       <c r="B7">
-        <v>1212.43</v>
+        <v>466.436</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45954.07291666666</v>
+        <v>45969.07291666666</v>
       </c>
       <c r="B8">
-        <v>1221.562</v>
+        <v>456.647</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45954.08333333334</v>
+        <v>45969.08333333334</v>
       </c>
       <c r="B9">
-        <v>1228.64</v>
+        <v>443.172</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45954.09375</v>
+        <v>45969.09375</v>
       </c>
       <c r="B10">
-        <v>1267.47</v>
+        <v>380.655</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45954.10416666666</v>
+        <v>45969.10416666666</v>
       </c>
       <c r="B11">
-        <v>1279.135</v>
+        <v>369.014</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45954.11458333334</v>
+        <v>45969.11458333334</v>
       </c>
       <c r="B12">
-        <v>1290.313</v>
+        <v>367.614</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45954.125</v>
+        <v>45969.125</v>
       </c>
       <c r="B13">
-        <v>1300.841</v>
+        <v>361.848</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45954.13541666666</v>
+        <v>45969.13541666666</v>
       </c>
       <c r="B14">
-        <v>1376.972</v>
+        <v>338.062</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45954.14583333334</v>
+        <v>45969.14583333334</v>
       </c>
       <c r="B15">
-        <v>1388.671</v>
+        <v>334.954</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45954.15625</v>
+        <v>45969.15625</v>
       </c>
       <c r="B16">
-        <v>1406.527</v>
+        <v>332.886</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45954.16666666666</v>
+        <v>45969.16666666666</v>
       </c>
       <c r="B17">
-        <v>1422.275</v>
+        <v>337.147</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45954.17708333334</v>
+        <v>45969.17708333334</v>
       </c>
       <c r="B18">
-        <v>1505.394</v>
+        <v>300.026</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45954.1875</v>
+        <v>45969.1875</v>
       </c>
       <c r="B19">
-        <v>1526.395</v>
+        <v>300.183</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45954.19791666666</v>
+        <v>45969.19791666666</v>
       </c>
       <c r="B20">
-        <v>1539.993</v>
+        <v>300.646</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45954.20833333334</v>
+        <v>45969.20833333334</v>
       </c>
       <c r="B21">
-        <v>1548.989</v>
+        <v>301.231</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45954.21875</v>
+        <v>45969.21875</v>
       </c>
       <c r="B22">
-        <v>1623.143</v>
+        <v>271.841</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45954.22916666666</v>
+        <v>45969.22916666666</v>
       </c>
       <c r="B23">
-        <v>1635.552</v>
+        <v>262.17</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45954.23958333334</v>
+        <v>45969.23958333334</v>
       </c>
       <c r="B24">
-        <v>1649.058</v>
+        <v>262.759</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45954.25</v>
+        <v>45969.25</v>
       </c>
       <c r="B25">
-        <v>1657.691</v>
+        <v>262.796</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45954.26041666666</v>
+        <v>45969.26041666666</v>
       </c>
       <c r="B26">
-        <v>1700.383</v>
+        <v>217.634</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45954.27083333334</v>
+        <v>45969.27083333334</v>
       </c>
       <c r="B27">
-        <v>1700.858</v>
+        <v>219.144</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45954.28125</v>
+        <v>45969.28125</v>
       </c>
       <c r="B28">
-        <v>1699.654</v>
+        <v>222.802</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45954.29166666666</v>
+        <v>45969.29166666666</v>
       </c>
       <c r="B29">
-        <v>1700.248</v>
+        <v>222.087</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45954.30208333334</v>
+        <v>45969.30208333334</v>
       </c>
       <c r="B30">
-        <v>1787.311</v>
+        <v>201.781</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45954.3125</v>
+        <v>45969.3125</v>
       </c>
       <c r="B31">
-        <v>1801.938</v>
+        <v>200.647</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45954.32291666666</v>
+        <v>45969.32291666666</v>
       </c>
       <c r="B32">
-        <v>1800.569</v>
+        <v>201.161</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45954.33333333334</v>
+        <v>45969.33333333334</v>
       </c>
       <c r="B33">
-        <v>1826.572</v>
+        <v>213.702</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45954.34375</v>
+        <v>45969.34375</v>
       </c>
       <c r="B34">
-        <v>1876.659</v>
+        <v>198.141</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45954.35416666666</v>
+        <v>45969.35416666666</v>
       </c>
       <c r="B35">
-        <v>1885.045</v>
+        <v>196.635</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45954.36458333334</v>
+        <v>45969.36458333334</v>
       </c>
       <c r="B36">
-        <v>1874.511</v>
+        <v>195.075</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45954.375</v>
+        <v>45969.375</v>
       </c>
       <c r="B37">
-        <v>1884.377</v>
+        <v>193.415</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45954.38541666666</v>
+        <v>45969.38541666666</v>
       </c>
       <c r="B38">
-        <v>1939.765</v>
+        <v>142.44</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45954.39583333334</v>
+        <v>45969.39583333334</v>
       </c>
       <c r="B39">
-        <v>1939.032</v>
+        <v>144.325</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45954.40625</v>
+        <v>45969.40625</v>
       </c>
       <c r="B40">
-        <v>1936.875</v>
+        <v>146.418</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45954.41666666666</v>
+        <v>45969.41666666666</v>
       </c>
       <c r="B41">
-        <v>1933.973</v>
+        <v>148.548</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45954.42708333334</v>
+        <v>45969.42708333334</v>
       </c>
       <c r="B42">
-        <v>1903.804</v>
+        <v>153.826</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45954.4375</v>
+        <v>45969.4375</v>
       </c>
       <c r="B43">
-        <v>1896.775</v>
+        <v>155.711</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45954.44791666666</v>
+        <v>45969.44791666666</v>
       </c>
       <c r="B44">
-        <v>1886.578</v>
+        <v>158.136</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45954.45833333334</v>
+        <v>45969.45833333334</v>
       </c>
       <c r="B45">
-        <v>1879.451</v>
+        <v>161.251</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45954.46875</v>
+        <v>45969.46875</v>
       </c>
       <c r="B46">
-        <v>1863.773</v>
+        <v>166.35</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45954.47916666666</v>
+        <v>45969.47916666666</v>
       </c>
       <c r="B47">
-        <v>1862.55</v>
+        <v>167.929</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45954.48958333334</v>
+        <v>45969.48958333334</v>
       </c>
       <c r="B48">
-        <v>1867.589</v>
+        <v>169.592</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45954.5</v>
+        <v>45969.5</v>
       </c>
       <c r="B49">
-        <v>1858.665</v>
+        <v>171.285</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45954.51041666666</v>
+        <v>45969.51041666666</v>
       </c>
       <c r="B50">
-        <v>1837.728</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45954.52083333334</v>
+        <v>45969.52083333334</v>
       </c>
       <c r="B51">
-        <v>1835.666</v>
+        <v>165.597</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45954.53125</v>
+        <v>45969.53125</v>
       </c>
       <c r="B52">
-        <v>1830.982</v>
+        <v>167.298</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45954.54166666666</v>
+        <v>45969.54166666666</v>
       </c>
       <c r="B53">
-        <v>1822.491</v>
+        <v>170.008</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45954.55208333334</v>
+        <v>45969.55208333334</v>
       </c>
       <c r="B54">
-        <v>1815.844</v>
+        <v>186.81</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45954.5625</v>
+        <v>45969.5625</v>
       </c>
       <c r="B55">
-        <v>1828.701</v>
+        <v>196.689</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45954.57291666666</v>
+        <v>45969.57291666666</v>
       </c>
       <c r="B56">
-        <v>1831.139</v>
+        <v>203.337</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45954.58333333334</v>
+        <v>45969.58333333334</v>
       </c>
       <c r="B57">
-        <v>1830.163</v>
+        <v>209.317</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45954.59375</v>
+        <v>45969.59375</v>
       </c>
       <c r="B58">
-        <v>1839.614</v>
+        <v>242.87</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45954.60416666666</v>
+        <v>45969.60416666666</v>
       </c>
       <c r="B59">
-        <v>1845.722</v>
+        <v>253.947</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45954.61458333334</v>
+        <v>45969.61458333334</v>
       </c>
       <c r="B60">
-        <v>1853.768</v>
+        <v>265.156</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45954.625</v>
+        <v>45969.625</v>
       </c>
       <c r="B61">
-        <v>1862.423</v>
+        <v>276.455</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45954.63541666666</v>
+        <v>45969.63541666666</v>
       </c>
       <c r="B62">
-        <v>1950.152</v>
+        <v>339.271</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45954.64583333334</v>
+        <v>45969.64583333334</v>
       </c>
       <c r="B63">
-        <v>1961.682</v>
+        <v>359.931</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45954.65625</v>
+        <v>45969.65625</v>
       </c>
       <c r="B64">
-        <v>1981.396</v>
+        <v>386.541</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45954.66666666666</v>
+        <v>45969.66666666666</v>
       </c>
       <c r="B65">
-        <v>1997.301</v>
+        <v>412.83</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45954.67708333334</v>
+        <v>45969.67708333334</v>
       </c>
       <c r="B66">
-        <v>2128.534</v>
+        <v>524.6660000000001</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45954.6875</v>
+        <v>45969.6875</v>
       </c>
       <c r="B67">
-        <v>2142.771</v>
+        <v>543.4349999999999</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45954.69791666666</v>
+        <v>45969.69791666666</v>
       </c>
       <c r="B68">
-        <v>2152.226</v>
+        <v>562.8440000000001</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45954.70833333334</v>
+        <v>45969.70833333334</v>
       </c>
       <c r="B69">
-        <v>2155.577</v>
+        <v>582.532</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45954.71875</v>
+        <v>45969.71875</v>
       </c>
       <c r="B70">
-        <v>2205.565</v>
+        <v>645.328</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45954.72916666666</v>
+        <v>45969.72916666666</v>
       </c>
       <c r="B71">
-        <v>2212.186</v>
+        <v>662.972</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45954.73958333334</v>
+        <v>45969.73958333334</v>
       </c>
       <c r="B72">
-        <v>2216.976</v>
+        <v>682.532</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45954.75</v>
+        <v>45969.75</v>
       </c>
       <c r="B73">
-        <v>2219.762</v>
+        <v>701.092</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45954.76041666666</v>
+        <v>45969.76041666666</v>
       </c>
       <c r="B74">
-        <v>2188.144</v>
+        <v>764.998</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45954.77083333334</v>
+        <v>45969.77083333334</v>
       </c>
       <c r="B75">
-        <v>2181.107</v>
+        <v>778.794</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45954.78125</v>
+        <v>45969.78125</v>
       </c>
       <c r="B76">
-        <v>2176.217</v>
+        <v>792.442</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45954.79166666666</v>
+        <v>45969.79166666666</v>
       </c>
       <c r="B77">
-        <v>2170.559</v>
+        <v>806.359</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45954.80208333334</v>
+        <v>45969.80208333334</v>
       </c>
       <c r="B78">
-        <v>2087.455</v>
+        <v>867.9690000000001</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45954.8125</v>
+        <v>45969.8125</v>
       </c>
       <c r="B79">
-        <v>2078.662</v>
+        <v>880.427</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45954.82291666666</v>
+        <v>45969.82291666666</v>
       </c>
       <c r="B80">
-        <v>2070.376</v>
+        <v>894.407</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45954.83333333334</v>
+        <v>45969.83333333334</v>
       </c>
       <c r="B81">
-        <v>2062.612</v>
+        <v>908.177</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45954.84375</v>
+        <v>45969.84375</v>
       </c>
       <c r="B82">
-        <v>1971.327</v>
+        <v>942.256</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45954.85416666666</v>
+        <v>45969.85416666666</v>
       </c>
       <c r="B83">
-        <v>1954.78</v>
+        <v>961.4349999999999</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45954.86458333334</v>
+        <v>45969.86458333334</v>
       </c>
       <c r="B84">
-        <v>1914.862</v>
+        <v>979.0410000000001</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45954.875</v>
+        <v>45969.875</v>
       </c>
       <c r="B85">
-        <v>1896.872</v>
+        <v>995.51</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45954.88541666666</v>
+        <v>45969.88541666666</v>
       </c>
       <c r="B86">
-        <v>1758.969</v>
+        <v>1056.404</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45954.89583333334</v>
+        <v>45969.89583333334</v>
       </c>
       <c r="B87">
-        <v>1735.241</v>
+        <v>1067.375</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45954.90625</v>
+        <v>45969.90625</v>
       </c>
       <c r="B88">
-        <v>1709.694</v>
+        <v>1076.984</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45954.91666666666</v>
+        <v>45969.91666666666</v>
       </c>
       <c r="B89">
-        <v>1683.212</v>
+        <v>1089.982</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45954.92708333334</v>
+        <v>45969.92708333334</v>
       </c>
       <c r="B90">
-        <v>1537.174</v>
+        <v>1132.035</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45954.9375</v>
+        <v>45969.9375</v>
       </c>
       <c r="B91">
-        <v>1515.99</v>
+        <v>1138.548</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45954.94791666666</v>
+        <v>45969.94791666666</v>
       </c>
       <c r="B92">
-        <v>1494.493</v>
+        <v>1145.8</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45954.95833333334</v>
+        <v>45969.95833333334</v>
       </c>
       <c r="B93">
-        <v>1464.91</v>
+        <v>1153.016</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45954.96875</v>
+        <v>45969.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45954.97916666666</v>
+        <v>45969.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45954.98958333334</v>
+        <v>45969.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45955</v>
+        <v>45970</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45969.01041666666</v>
+        <v>45970.01041666666</v>
       </c>
       <c r="B2">
-        <v>571.776</v>
+        <v>1322.946</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45969.02083333334</v>
+        <v>45970.02083333334</v>
       </c>
       <c r="B3">
-        <v>554.698</v>
+        <v>1330.455</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45969.03125</v>
+        <v>45970.03125</v>
       </c>
       <c r="B4">
-        <v>546.198</v>
+        <v>1337.381</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45969.04166666666</v>
+        <v>45970.04166666666</v>
       </c>
       <c r="B5">
-        <v>535.633</v>
+        <v>1343.411</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45969.05208333334</v>
+        <v>45970.05208333334</v>
       </c>
       <c r="B6">
-        <v>481.43</v>
+        <v>1362.475</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45969.0625</v>
+        <v>45970.0625</v>
       </c>
       <c r="B7">
-        <v>466.436</v>
+        <v>1357.056</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45969.07291666666</v>
+        <v>45970.07291666666</v>
       </c>
       <c r="B8">
-        <v>456.647</v>
+        <v>1349.069</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45969.08333333334</v>
+        <v>45970.08333333334</v>
       </c>
       <c r="B9">
-        <v>443.172</v>
+        <v>1335.757</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45969.09375</v>
+        <v>45970.09375</v>
       </c>
       <c r="B10">
-        <v>380.655</v>
+        <v>1312.52</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45969.10416666666</v>
+        <v>45970.10416666666</v>
       </c>
       <c r="B11">
-        <v>369.014</v>
+        <v>1303.816</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45969.11458333334</v>
+        <v>45970.11458333334</v>
       </c>
       <c r="B12">
-        <v>367.614</v>
+        <v>1288.597</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45969.125</v>
+        <v>45970.125</v>
       </c>
       <c r="B13">
-        <v>361.848</v>
+        <v>1267.889</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45969.13541666666</v>
+        <v>45970.13541666666</v>
       </c>
       <c r="B14">
-        <v>338.062</v>
+        <v>1229.041</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45969.14583333334</v>
+        <v>45970.14583333334</v>
       </c>
       <c r="B15">
-        <v>334.954</v>
+        <v>1208.372</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45969.15625</v>
+        <v>45970.15625</v>
       </c>
       <c r="B16">
-        <v>332.886</v>
+        <v>1201.594</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45969.16666666666</v>
+        <v>45970.16666666666</v>
       </c>
       <c r="B17">
-        <v>337.147</v>
+        <v>1182.459</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45969.17708333334</v>
+        <v>45970.17708333334</v>
       </c>
       <c r="B18">
-        <v>300.026</v>
+        <v>1129.25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45969.1875</v>
+        <v>45970.1875</v>
       </c>
       <c r="B19">
-        <v>300.183</v>
+        <v>1098.795</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45969.19791666666</v>
+        <v>45970.19791666666</v>
       </c>
       <c r="B20">
-        <v>300.646</v>
+        <v>1079.545</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45969.20833333334</v>
+        <v>45970.20833333334</v>
       </c>
       <c r="B21">
-        <v>301.231</v>
+        <v>1060.094</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45969.21875</v>
+        <v>45970.21875</v>
       </c>
       <c r="B22">
-        <v>271.841</v>
+        <v>1001.651</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45969.22916666666</v>
+        <v>45970.22916666666</v>
       </c>
       <c r="B23">
-        <v>262.17</v>
+        <v>983.398</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45969.23958333334</v>
+        <v>45970.23958333334</v>
       </c>
       <c r="B24">
-        <v>262.759</v>
+        <v>965.845</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45969.25</v>
+        <v>45970.25</v>
       </c>
       <c r="B25">
-        <v>262.796</v>
+        <v>951.062</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45969.26041666666</v>
+        <v>45970.26041666666</v>
       </c>
       <c r="B26">
-        <v>217.634</v>
+        <v>860.994</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45969.27083333334</v>
+        <v>45970.27083333334</v>
       </c>
       <c r="B27">
-        <v>219.144</v>
+        <v>847.509</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45969.28125</v>
+        <v>45970.28125</v>
       </c>
       <c r="B28">
-        <v>222.802</v>
+        <v>826.183</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45969.29166666666</v>
+        <v>45970.29166666666</v>
       </c>
       <c r="B29">
-        <v>222.087</v>
+        <v>812.2809999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45969.30208333334</v>
+        <v>45970.30208333334</v>
       </c>
       <c r="B30">
-        <v>201.781</v>
+        <v>713.424</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45969.3125</v>
+        <v>45970.3125</v>
       </c>
       <c r="B31">
-        <v>200.647</v>
+        <v>689.9349999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45969.32291666666</v>
+        <v>45970.32291666666</v>
       </c>
       <c r="B32">
-        <v>201.161</v>
+        <v>685.6799999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45969.33333333334</v>
+        <v>45970.33333333334</v>
       </c>
       <c r="B33">
-        <v>213.702</v>
+        <v>660.442</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45969.34375</v>
+        <v>45970.34375</v>
       </c>
       <c r="B34">
-        <v>198.141</v>
+        <v>575.135</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45969.35416666666</v>
+        <v>45970.35416666666</v>
       </c>
       <c r="B35">
-        <v>196.635</v>
+        <v>563.577</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45969.36458333334</v>
+        <v>45970.36458333334</v>
       </c>
       <c r="B36">
-        <v>195.075</v>
+        <v>543.49</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45969.375</v>
+        <v>45970.375</v>
       </c>
       <c r="B37">
-        <v>193.415</v>
+        <v>525.671</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45969.38541666666</v>
+        <v>45970.38541666666</v>
       </c>
       <c r="B38">
-        <v>142.44</v>
+        <v>439.411</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45969.39583333334</v>
+        <v>45970.39583333334</v>
       </c>
       <c r="B39">
-        <v>144.325</v>
+        <v>421.232</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45969.40625</v>
+        <v>45970.40625</v>
       </c>
       <c r="B40">
-        <v>146.418</v>
+        <v>408.565</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45969.41666666666</v>
+        <v>45970.41666666666</v>
       </c>
       <c r="B41">
-        <v>148.548</v>
+        <v>396.959</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45969.42708333334</v>
+        <v>45970.42708333334</v>
       </c>
       <c r="B42">
-        <v>153.826</v>
+        <v>338.414</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45969.4375</v>
+        <v>45970.4375</v>
       </c>
       <c r="B43">
-        <v>155.711</v>
+        <v>333.146</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45969.44791666666</v>
+        <v>45970.44791666666</v>
       </c>
       <c r="B44">
-        <v>158.136</v>
+        <v>327.795</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45969.45833333334</v>
+        <v>45970.45833333334</v>
       </c>
       <c r="B45">
-        <v>161.251</v>
+        <v>320.928</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45969.46875</v>
+        <v>45970.46875</v>
       </c>
       <c r="B46">
-        <v>166.35</v>
+        <v>298.231</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45969.47916666666</v>
+        <v>45970.47916666666</v>
       </c>
       <c r="B47">
-        <v>167.929</v>
+        <v>294.683</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45969.48958333334</v>
+        <v>45970.48958333334</v>
       </c>
       <c r="B48">
-        <v>169.592</v>
+        <v>290.608</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45969.5</v>
+        <v>45970.5</v>
       </c>
       <c r="B49">
-        <v>171.285</v>
+        <v>286.349</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45969.51041666666</v>
+        <v>45970.51041666666</v>
       </c>
       <c r="B50">
-        <v>163</v>
+        <v>254.591</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45969.52083333334</v>
+        <v>45970.52083333334</v>
       </c>
       <c r="B51">
-        <v>165.597</v>
+        <v>250.447</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45969.53125</v>
+        <v>45970.53125</v>
       </c>
       <c r="B52">
-        <v>167.298</v>
+        <v>243.81</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45969.54166666666</v>
+        <v>45970.54166666666</v>
       </c>
       <c r="B53">
-        <v>170.008</v>
+        <v>239.759</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45969.55208333334</v>
+        <v>45970.55208333334</v>
       </c>
       <c r="B54">
-        <v>186.81</v>
+        <v>208.813</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45969.5625</v>
+        <v>45970.5625</v>
       </c>
       <c r="B55">
-        <v>196.689</v>
+        <v>204.906</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45969.57291666666</v>
+        <v>45970.57291666666</v>
       </c>
       <c r="B56">
-        <v>203.337</v>
+        <v>201.216</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45969.58333333334</v>
+        <v>45970.58333333334</v>
       </c>
       <c r="B57">
-        <v>209.317</v>
+        <v>197.736</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45969.59375</v>
+        <v>45970.59375</v>
       </c>
       <c r="B58">
-        <v>242.87</v>
+        <v>182.476</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45969.60416666666</v>
+        <v>45970.60416666666</v>
       </c>
       <c r="B59">
-        <v>253.947</v>
+        <v>179.577</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45969.61458333334</v>
+        <v>45970.61458333334</v>
       </c>
       <c r="B60">
-        <v>265.156</v>
+        <v>177.85</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45969.625</v>
+        <v>45970.625</v>
       </c>
       <c r="B61">
-        <v>276.455</v>
+        <v>176.391</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45969.63541666666</v>
+        <v>45970.63541666666</v>
       </c>
       <c r="B62">
-        <v>339.271</v>
+        <v>171.384</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45969.64583333334</v>
+        <v>45970.64583333334</v>
       </c>
       <c r="B63">
-        <v>359.931</v>
+        <v>174.06</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45969.65625</v>
+        <v>45970.65625</v>
       </c>
       <c r="B64">
-        <v>386.541</v>
+        <v>176.973</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45969.66666666666</v>
+        <v>45970.66666666666</v>
       </c>
       <c r="B65">
-        <v>412.83</v>
+        <v>179.983</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45969.67708333334</v>
+        <v>45970.67708333334</v>
       </c>
       <c r="B66">
-        <v>524.6660000000001</v>
+        <v>183.646</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45969.6875</v>
+        <v>45970.6875</v>
       </c>
       <c r="B67">
-        <v>543.4349999999999</v>
+        <v>187.258</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45969.69791666666</v>
+        <v>45970.69791666666</v>
       </c>
       <c r="B68">
-        <v>562.8440000000001</v>
+        <v>190.854</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45969.70833333334</v>
+        <v>45970.70833333334</v>
       </c>
       <c r="B69">
-        <v>582.532</v>
+        <v>194.335</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45969.71875</v>
+        <v>45970.71875</v>
       </c>
       <c r="B70">
-        <v>645.328</v>
+        <v>196.092</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45969.72916666666</v>
+        <v>45970.72916666666</v>
       </c>
       <c r="B71">
-        <v>662.972</v>
+        <v>196.927</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45969.73958333334</v>
+        <v>45970.73958333334</v>
       </c>
       <c r="B72">
-        <v>682.532</v>
+        <v>197.585</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45969.75</v>
+        <v>45970.75</v>
       </c>
       <c r="B73">
-        <v>701.092</v>
+        <v>198.126</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45969.76041666666</v>
+        <v>45970.76041666666</v>
       </c>
       <c r="B74">
-        <v>764.998</v>
+        <v>201.43</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45969.77083333334</v>
+        <v>45970.77083333334</v>
       </c>
       <c r="B75">
-        <v>778.794</v>
+        <v>201.684</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45969.78125</v>
+        <v>45970.78125</v>
       </c>
       <c r="B76">
-        <v>792.442</v>
+        <v>201.132</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45969.79166666666</v>
+        <v>45970.79166666666</v>
       </c>
       <c r="B77">
-        <v>806.359</v>
+        <v>200.322</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45969.80208333334</v>
+        <v>45970.80208333334</v>
       </c>
       <c r="B78">
-        <v>867.9690000000001</v>
+        <v>191.729</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45969.8125</v>
+        <v>45970.8125</v>
       </c>
       <c r="B79">
-        <v>880.427</v>
+        <v>189.691</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45969.82291666666</v>
+        <v>45970.82291666666</v>
       </c>
       <c r="B80">
-        <v>894.407</v>
+        <v>187.817</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45969.83333333334</v>
+        <v>45970.83333333334</v>
       </c>
       <c r="B81">
-        <v>908.177</v>
+        <v>185.464</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45969.84375</v>
+        <v>45970.84375</v>
       </c>
       <c r="B82">
-        <v>942.256</v>
+        <v>171.915</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45969.85416666666</v>
+        <v>45970.85416666666</v>
       </c>
       <c r="B83">
-        <v>961.4349999999999</v>
+        <v>169.076</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45969.86458333334</v>
+        <v>45970.86458333334</v>
       </c>
       <c r="B84">
-        <v>979.0410000000001</v>
+        <v>165.77</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45969.875</v>
+        <v>45970.875</v>
       </c>
       <c r="B85">
-        <v>995.51</v>
+        <v>162.154</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45969.88541666666</v>
+        <v>45970.88541666666</v>
       </c>
       <c r="B86">
-        <v>1056.404</v>
+        <v>155.216</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45969.89583333334</v>
+        <v>45970.89583333334</v>
       </c>
       <c r="B87">
-        <v>1067.375</v>
+        <v>151.082</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45969.90625</v>
+        <v>45970.90625</v>
       </c>
       <c r="B88">
-        <v>1076.984</v>
+        <v>147.821</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45969.91666666666</v>
+        <v>45970.91666666666</v>
       </c>
       <c r="B89">
-        <v>1089.982</v>
+        <v>144.626</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45969.92708333334</v>
+        <v>45970.92708333334</v>
       </c>
       <c r="B90">
-        <v>1132.035</v>
+        <v>128.292</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45969.9375</v>
+        <v>45970.9375</v>
       </c>
       <c r="B91">
-        <v>1138.548</v>
+        <v>124.73</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45969.94791666666</v>
+        <v>45970.94791666666</v>
       </c>
       <c r="B92">
-        <v>1145.8</v>
+        <v>121.594</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45969.95833333334</v>
+        <v>45970.95833333334</v>
       </c>
       <c r="B93">
-        <v>1153.016</v>
+        <v>119.13</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45969.96875</v>
+        <v>45970.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45969.97916666666</v>
+        <v>45970.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45969.98958333334</v>
+        <v>45970.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45970</v>
+        <v>45971</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,769 +397,2305 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45970.01041666666</v>
+        <v>45972</v>
       </c>
       <c r="B2">
-        <v>1322.946</v>
+        <v>518.313</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45970.02083333334</v>
+        <v>45972.01041666666</v>
       </c>
       <c r="B3">
-        <v>1330.455</v>
+        <v>502.125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45970.03125</v>
+        <v>45972.02083333334</v>
       </c>
       <c r="B4">
-        <v>1337.381</v>
+        <v>487.897</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45970.04166666666</v>
+        <v>45972.03125</v>
       </c>
       <c r="B5">
-        <v>1343.411</v>
+        <v>477.92</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45970.05208333334</v>
+        <v>45972.04166666666</v>
       </c>
       <c r="B6">
-        <v>1362.475</v>
+        <v>381.362</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45970.0625</v>
+        <v>45972.05208333334</v>
       </c>
       <c r="B7">
-        <v>1357.056</v>
+        <v>376.241</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45970.07291666666</v>
+        <v>45972.0625</v>
       </c>
       <c r="B8">
-        <v>1349.069</v>
+        <v>363.677</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45970.08333333334</v>
+        <v>45972.07291666666</v>
       </c>
       <c r="B9">
-        <v>1335.757</v>
+        <v>357.52</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45970.09375</v>
+        <v>45972.08333333334</v>
       </c>
       <c r="B10">
-        <v>1312.52</v>
+        <v>339.925</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45970.10416666666</v>
+        <v>45972.09375</v>
       </c>
       <c r="B11">
-        <v>1303.816</v>
+        <v>334.141</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45970.11458333334</v>
+        <v>45972.10416666666</v>
       </c>
       <c r="B12">
-        <v>1288.597</v>
+        <v>332.725</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45970.125</v>
+        <v>45972.11458333334</v>
       </c>
       <c r="B13">
-        <v>1267.889</v>
+        <v>330.776</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45970.13541666666</v>
+        <v>45972.125</v>
       </c>
       <c r="B14">
-        <v>1229.041</v>
+        <v>316.309</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45970.14583333334</v>
+        <v>45972.13541666666</v>
       </c>
       <c r="B15">
-        <v>1208.372</v>
+        <v>317.768</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45970.15625</v>
+        <v>45972.14583333334</v>
       </c>
       <c r="B16">
-        <v>1201.594</v>
+        <v>319.097</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45970.16666666666</v>
+        <v>45972.15625</v>
       </c>
       <c r="B17">
-        <v>1182.459</v>
+        <v>322.187</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45970.17708333334</v>
+        <v>45972.16666666666</v>
       </c>
       <c r="B18">
-        <v>1129.25</v>
+        <v>331.827</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45970.1875</v>
+        <v>45972.17708333334</v>
       </c>
       <c r="B19">
-        <v>1098.795</v>
+        <v>330.825</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45970.19791666666</v>
+        <v>45972.1875</v>
       </c>
       <c r="B20">
-        <v>1079.545</v>
+        <v>330.135</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45970.20833333334</v>
+        <v>45972.19791666666</v>
       </c>
       <c r="B21">
-        <v>1060.094</v>
+        <v>330.007</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45970.21875</v>
+        <v>45972.20833333334</v>
       </c>
       <c r="B22">
-        <v>1001.651</v>
+        <v>322.864</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45970.22916666666</v>
+        <v>45972.21875</v>
       </c>
       <c r="B23">
-        <v>983.398</v>
+        <v>324.806</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45970.23958333334</v>
+        <v>45972.22916666666</v>
       </c>
       <c r="B24">
-        <v>965.845</v>
+        <v>327.568</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45970.25</v>
+        <v>45972.23958333334</v>
       </c>
       <c r="B25">
-        <v>951.062</v>
+        <v>329.975</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45970.26041666666</v>
+        <v>45972.25</v>
       </c>
       <c r="B26">
-        <v>860.994</v>
+        <v>305.997</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45970.27083333334</v>
+        <v>45972.26041666666</v>
       </c>
       <c r="B27">
-        <v>847.509</v>
+        <v>306.464</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45970.28125</v>
+        <v>45972.27083333334</v>
       </c>
       <c r="B28">
-        <v>826.183</v>
+        <v>298.897</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45970.29166666666</v>
+        <v>45972.28125</v>
       </c>
       <c r="B29">
-        <v>812.2809999999999</v>
+        <v>302.666</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45970.30208333334</v>
+        <v>45972.29166666666</v>
       </c>
       <c r="B30">
-        <v>713.424</v>
+        <v>346.479</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45970.3125</v>
+        <v>45972.30208333334</v>
       </c>
       <c r="B31">
-        <v>689.9349999999999</v>
+        <v>353.96</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45970.32291666666</v>
+        <v>45972.3125</v>
       </c>
       <c r="B32">
-        <v>685.6799999999999</v>
+        <v>360.652</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45970.33333333334</v>
+        <v>45972.32291666666</v>
       </c>
       <c r="B33">
-        <v>660.442</v>
+        <v>365.319</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45970.34375</v>
+        <v>45972.33333333334</v>
       </c>
       <c r="B34">
-        <v>575.135</v>
+        <v>415.422</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45970.35416666666</v>
+        <v>45972.34375</v>
       </c>
       <c r="B35">
-        <v>563.577</v>
+        <v>424.632</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45970.36458333334</v>
+        <v>45972.35416666666</v>
       </c>
       <c r="B36">
-        <v>543.49</v>
+        <v>431.58</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45970.375</v>
+        <v>45972.36458333334</v>
       </c>
       <c r="B37">
-        <v>525.671</v>
+        <v>440.958</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45970.38541666666</v>
+        <v>45972.375</v>
       </c>
       <c r="B38">
-        <v>439.411</v>
+        <v>458.92</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45970.39583333334</v>
+        <v>45972.38541666666</v>
       </c>
       <c r="B39">
-        <v>421.232</v>
+        <v>474.467</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45970.40625</v>
+        <v>45972.39583333334</v>
       </c>
       <c r="B40">
-        <v>408.565</v>
+        <v>491.122</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45970.41666666666</v>
+        <v>45972.40625</v>
       </c>
       <c r="B41">
-        <v>396.959</v>
+        <v>507.902</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45970.42708333334</v>
+        <v>45972.41666666666</v>
       </c>
       <c r="B42">
-        <v>338.414</v>
+        <v>594.859</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45970.4375</v>
+        <v>45972.42708333334</v>
       </c>
       <c r="B43">
-        <v>333.146</v>
+        <v>615.822</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45970.44791666666</v>
+        <v>45972.4375</v>
       </c>
       <c r="B44">
-        <v>327.795</v>
+        <v>636.631</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45970.45833333334</v>
+        <v>45972.44791666666</v>
       </c>
       <c r="B45">
-        <v>320.928</v>
+        <v>658.133</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45970.46875</v>
+        <v>45972.45833333334</v>
       </c>
       <c r="B46">
-        <v>298.231</v>
+        <v>785.018</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45970.47916666666</v>
+        <v>45972.46875</v>
       </c>
       <c r="B47">
-        <v>294.683</v>
+        <v>811.121</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45970.48958333334</v>
+        <v>45972.47916666666</v>
       </c>
       <c r="B48">
-        <v>290.608</v>
+        <v>835.427</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45970.5</v>
+        <v>45972.48958333334</v>
       </c>
       <c r="B49">
-        <v>286.349</v>
+        <v>858.867</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45970.51041666666</v>
+        <v>45972.5</v>
       </c>
       <c r="B50">
-        <v>254.591</v>
+        <v>1042.801</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45970.52083333334</v>
+        <v>45972.51041666666</v>
       </c>
       <c r="B51">
-        <v>250.447</v>
+        <v>1073.778</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45970.53125</v>
+        <v>45972.52083333334</v>
       </c>
       <c r="B52">
-        <v>243.81</v>
+        <v>1104.823</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45970.54166666666</v>
+        <v>45972.53125</v>
       </c>
       <c r="B53">
-        <v>239.759</v>
+        <v>1153.92</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45970.55208333334</v>
+        <v>45972.54166666666</v>
       </c>
       <c r="B54">
-        <v>208.813</v>
+        <v>1350.786</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45970.5625</v>
+        <v>45972.55208333334</v>
       </c>
       <c r="B55">
-        <v>204.906</v>
+        <v>1378.569</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45970.57291666666</v>
+        <v>45972.5625</v>
       </c>
       <c r="B56">
-        <v>201.216</v>
+        <v>1403.069</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45970.58333333334</v>
+        <v>45972.57291666666</v>
       </c>
       <c r="B57">
-        <v>197.736</v>
+        <v>1429.637</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45970.59375</v>
+        <v>45972.58333333334</v>
       </c>
       <c r="B58">
-        <v>182.476</v>
+        <v>1609.557</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45970.60416666666</v>
+        <v>45972.59375</v>
       </c>
       <c r="B59">
-        <v>179.577</v>
+        <v>1631.032</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45970.61458333334</v>
+        <v>45972.60416666666</v>
       </c>
       <c r="B60">
-        <v>177.85</v>
+        <v>1649.9</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45970.625</v>
+        <v>45972.61458333334</v>
       </c>
       <c r="B61">
-        <v>176.391</v>
+        <v>1667.616</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45970.63541666666</v>
+        <v>45972.625</v>
       </c>
       <c r="B62">
-        <v>171.384</v>
+        <v>1822.246</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45970.64583333334</v>
+        <v>45972.63541666666</v>
       </c>
       <c r="B63">
-        <v>174.06</v>
+        <v>1834.16</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45970.65625</v>
+        <v>45972.64583333334</v>
       </c>
       <c r="B64">
-        <v>176.973</v>
+        <v>1844.673</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45970.66666666666</v>
+        <v>45972.65625</v>
       </c>
       <c r="B65">
-        <v>179.983</v>
+        <v>1854.522</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45970.67708333334</v>
+        <v>45972.66666666666</v>
       </c>
       <c r="B66">
-        <v>183.646</v>
+        <v>1950.162</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45970.6875</v>
+        <v>45972.67708333334</v>
       </c>
       <c r="B67">
-        <v>187.258</v>
+        <v>1955.395</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45970.69791666666</v>
+        <v>45972.6875</v>
       </c>
       <c r="B68">
-        <v>190.854</v>
+        <v>1964.109</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45970.70833333334</v>
+        <v>45972.69791666666</v>
       </c>
       <c r="B69">
-        <v>194.335</v>
+        <v>1972.149</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45970.71875</v>
+        <v>45972.70833333334</v>
       </c>
       <c r="B70">
-        <v>196.092</v>
+        <v>1994.837</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45970.72916666666</v>
+        <v>45972.71875</v>
       </c>
       <c r="B71">
-        <v>196.927</v>
+        <v>1990.587</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45970.73958333334</v>
+        <v>45972.72916666666</v>
       </c>
       <c r="B72">
-        <v>197.585</v>
+        <v>1988.336</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45970.75</v>
+        <v>45972.73958333334</v>
       </c>
       <c r="B73">
-        <v>198.126</v>
+        <v>1984.57</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45970.76041666666</v>
+        <v>45972.75</v>
       </c>
       <c r="B74">
-        <v>201.43</v>
+        <v>1969.584</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45970.77083333334</v>
+        <v>45972.76041666666</v>
       </c>
       <c r="B75">
-        <v>201.684</v>
+        <v>1964.836</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45970.78125</v>
+        <v>45972.77083333334</v>
       </c>
       <c r="B76">
-        <v>201.132</v>
+        <v>1961.766</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45970.79166666666</v>
+        <v>45972.78125</v>
       </c>
       <c r="B77">
-        <v>200.322</v>
+        <v>1958.485</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45970.80208333334</v>
+        <v>45972.79166666666</v>
       </c>
       <c r="B78">
-        <v>191.729</v>
+        <v>1955.899</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45970.8125</v>
+        <v>45972.80208333334</v>
       </c>
       <c r="B79">
-        <v>189.691</v>
+        <v>1954.117</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45970.82291666666</v>
+        <v>45972.8125</v>
       </c>
       <c r="B80">
-        <v>187.817</v>
+        <v>1953.4</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45970.83333333334</v>
+        <v>45972.82291666666</v>
       </c>
       <c r="B81">
-        <v>185.464</v>
+        <v>1952.515</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45970.84375</v>
+        <v>45972.83333333334</v>
       </c>
       <c r="B82">
-        <v>171.915</v>
+        <v>1942.986</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45970.85416666666</v>
+        <v>45972.84375</v>
       </c>
       <c r="B83">
-        <v>169.076</v>
+        <v>1940.981</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45970.86458333334</v>
+        <v>45972.85416666666</v>
       </c>
       <c r="B84">
-        <v>165.77</v>
+        <v>1938.649</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45970.875</v>
+        <v>45972.86458333334</v>
       </c>
       <c r="B85">
-        <v>162.154</v>
+        <v>1936.561</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45970.88541666666</v>
+        <v>45972.875</v>
       </c>
       <c r="B86">
-        <v>155.216</v>
+        <v>1913.828</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45970.89583333334</v>
+        <v>45972.88541666666</v>
       </c>
       <c r="B87">
-        <v>151.082</v>
+        <v>1909.895</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45970.90625</v>
+        <v>45972.89583333334</v>
       </c>
       <c r="B88">
-        <v>147.821</v>
+        <v>1900.903</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45970.91666666666</v>
+        <v>45972.90625</v>
       </c>
       <c r="B89">
-        <v>144.626</v>
+        <v>1892.705</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45970.92708333334</v>
+        <v>45972.91666666666</v>
       </c>
       <c r="B90">
-        <v>128.292</v>
+        <v>1862.381</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45970.9375</v>
+        <v>45972.92708333334</v>
       </c>
       <c r="B91">
-        <v>124.73</v>
+        <v>1852.416</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45970.94791666666</v>
+        <v>45972.9375</v>
       </c>
       <c r="B92">
-        <v>121.594</v>
+        <v>1842.231</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45970.95833333334</v>
+        <v>45972.94791666666</v>
       </c>
       <c r="B93">
-        <v>119.13</v>
+        <v>1831.453</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45970.96875</v>
+        <v>45972.95833333334</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1339.073</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45970.97916666666</v>
+        <v>45972.96875</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1326.697</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45970.98958333334</v>
+        <v>45972.97916666666</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1311.948</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45971</v>
+        <v>45972.98958333334</v>
       </c>
       <c r="B97">
+        <v>1304.505</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
+        <v>45973</v>
+      </c>
+      <c r="B98">
+        <v>840.059</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
+        <v>45973.01041666666</v>
+      </c>
+      <c r="B99">
+        <v>828.712</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
+        <v>45973.02083333334</v>
+      </c>
+      <c r="B100">
+        <v>812.053</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
+        <v>45973.03125</v>
+      </c>
+      <c r="B101">
+        <v>795.223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
+        <v>45973.04166666666</v>
+      </c>
+      <c r="B102">
+        <v>704.265</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
+        <v>45973.05208333334</v>
+      </c>
+      <c r="B103">
+        <v>694.732</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
+        <v>45973.0625</v>
+      </c>
+      <c r="B104">
+        <v>708.508</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
+        <v>45973.07291666666</v>
+      </c>
+      <c r="B105">
+        <v>697.568</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
+        <v>45973.08333333334</v>
+      </c>
+      <c r="B106">
+        <v>659.237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
+        <v>45973.09375</v>
+      </c>
+      <c r="B107">
+        <v>650.812</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
+        <v>45973.10416666666</v>
+      </c>
+      <c r="B108">
+        <v>642.859</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
+        <v>45973.11458333334</v>
+      </c>
+      <c r="B109">
+        <v>634.111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
+        <v>45973.125</v>
+      </c>
+      <c r="B110">
+        <v>601.885</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
+        <v>45973.13541666666</v>
+      </c>
+      <c r="B111">
+        <v>584.4640000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
+        <v>45973.14583333334</v>
+      </c>
+      <c r="B112">
+        <v>568.7809999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
+        <v>45973.15625</v>
+      </c>
+      <c r="B113">
+        <v>554.004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
+        <v>45973.16666666666</v>
+      </c>
+      <c r="B114">
+        <v>470.676</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
+        <v>45973.17708333334</v>
+      </c>
+      <c r="B115">
+        <v>456.004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
+        <v>45973.1875</v>
+      </c>
+      <c r="B116">
+        <v>443.481</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
+        <v>45973.19791666666</v>
+      </c>
+      <c r="B117">
+        <v>423.801</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
+        <v>45973.20833333334</v>
+      </c>
+      <c r="B118">
+        <v>356.83</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
+        <v>45973.21875</v>
+      </c>
+      <c r="B119">
+        <v>351.231</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
+        <v>45973.22916666666</v>
+      </c>
+      <c r="B120">
+        <v>341.193</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
+        <v>45973.23958333334</v>
+      </c>
+      <c r="B121">
+        <v>331.647</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
+        <v>45973.25</v>
+      </c>
+      <c r="B122">
+        <v>277.986</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
+        <v>45973.26041666666</v>
+      </c>
+      <c r="B123">
+        <v>272.15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
+        <v>45973.27083333334</v>
+      </c>
+      <c r="B124">
+        <v>254.394</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
+        <v>45973.28125</v>
+      </c>
+      <c r="B125">
+        <v>248.286</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
+        <v>45973.29166666666</v>
+      </c>
+      <c r="B126">
+        <v>248.672</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
+        <v>45973.30208333334</v>
+      </c>
+      <c r="B127">
+        <v>240.915</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
+        <v>45973.3125</v>
+      </c>
+      <c r="B128">
+        <v>234.813</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
+        <v>45973.32291666666</v>
+      </c>
+      <c r="B129">
+        <v>231.165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
+        <v>45973.33333333334</v>
+      </c>
+      <c r="B130">
+        <v>165.896</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
+        <v>45973.34375</v>
+      </c>
+      <c r="B131">
+        <v>157.129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
+        <v>45973.35416666666</v>
+      </c>
+      <c r="B132">
+        <v>152.02</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
+        <v>45973.36458333334</v>
+      </c>
+      <c r="B133">
+        <v>141.499</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
+        <v>45973.375</v>
+      </c>
+      <c r="B134">
+        <v>137.215</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
+        <v>45973.38541666666</v>
+      </c>
+      <c r="B135">
+        <v>129.05</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
+        <v>45973.39583333334</v>
+      </c>
+      <c r="B136">
+        <v>122.992</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
+        <v>45973.40625</v>
+      </c>
+      <c r="B137">
+        <v>119.257</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
+        <v>45973.41666666666</v>
+      </c>
+      <c r="B138">
+        <v>119.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
+        <v>45973.42708333334</v>
+      </c>
+      <c r="B139">
+        <v>121.794</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
+        <v>45973.4375</v>
+      </c>
+      <c r="B140">
+        <v>124.606</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
+        <v>45973.44791666666</v>
+      </c>
+      <c r="B141">
+        <v>128.24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
+        <v>45973.45833333334</v>
+      </c>
+      <c r="B142">
+        <v>148.023</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
+        <v>45973.46875</v>
+      </c>
+      <c r="B143">
+        <v>154.22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
+        <v>45973.47916666666</v>
+      </c>
+      <c r="B144">
+        <v>157.87</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2">
+        <v>45973.48958333334</v>
+      </c>
+      <c r="B145">
+        <v>159.454</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2">
+        <v>45973.5</v>
+      </c>
+      <c r="B146">
+        <v>174.55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2">
+        <v>45973.51041666666</v>
+      </c>
+      <c r="B147">
+        <v>176.19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2">
+        <v>45973.52083333334</v>
+      </c>
+      <c r="B148">
+        <v>177.819</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2">
+        <v>45973.53125</v>
+      </c>
+      <c r="B149">
+        <v>179.017</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2">
+        <v>45973.54166666666</v>
+      </c>
+      <c r="B150">
+        <v>162.166</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2">
+        <v>45973.55208333334</v>
+      </c>
+      <c r="B151">
+        <v>160.771</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2">
+        <v>45973.5625</v>
+      </c>
+      <c r="B152">
+        <v>157.923</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2">
+        <v>45973.57291666666</v>
+      </c>
+      <c r="B153">
+        <v>155.762</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2">
+        <v>45973.58333333334</v>
+      </c>
+      <c r="B154">
+        <v>134.448</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2">
+        <v>45973.59375</v>
+      </c>
+      <c r="B155">
+        <v>129.417</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2">
+        <v>45973.60416666666</v>
+      </c>
+      <c r="B156">
+        <v>124.232</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2">
+        <v>45973.61458333334</v>
+      </c>
+      <c r="B157">
+        <v>119.177</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2">
+        <v>45973.625</v>
+      </c>
+      <c r="B158">
+        <v>97.40600000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2">
+        <v>45973.63541666666</v>
+      </c>
+      <c r="B159">
+        <v>95.318</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2">
+        <v>45973.64583333334</v>
+      </c>
+      <c r="B160">
+        <v>93.98699999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2">
+        <v>45973.65625</v>
+      </c>
+      <c r="B161">
+        <v>93.095</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2">
+        <v>45973.66666666666</v>
+      </c>
+      <c r="B162">
+        <v>88.20399999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2">
+        <v>45973.67708333334</v>
+      </c>
+      <c r="B163">
+        <v>87.846</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2">
+        <v>45973.6875</v>
+      </c>
+      <c r="B164">
+        <v>87.505</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2">
+        <v>45973.69791666666</v>
+      </c>
+      <c r="B165">
+        <v>87.535</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2">
+        <v>45973.70833333334</v>
+      </c>
+      <c r="B166">
+        <v>84.824</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2">
+        <v>45973.71875</v>
+      </c>
+      <c r="B167">
+        <v>85.377</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2">
+        <v>45973.72916666666</v>
+      </c>
+      <c r="B168">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2">
+        <v>45973.73958333334</v>
+      </c>
+      <c r="B169">
+        <v>86.714</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2">
+        <v>45973.75</v>
+      </c>
+      <c r="B170">
+        <v>88.304</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2">
+        <v>45973.76041666666</v>
+      </c>
+      <c r="B171">
+        <v>90.239</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2">
+        <v>45973.77083333334</v>
+      </c>
+      <c r="B172">
+        <v>92.46599999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2">
+        <v>45973.78125</v>
+      </c>
+      <c r="B173">
+        <v>94.679</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2">
+        <v>45973.79166666666</v>
+      </c>
+      <c r="B174">
+        <v>100.791</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2">
+        <v>45973.80208333334</v>
+      </c>
+      <c r="B175">
+        <v>102.749</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2">
+        <v>45973.8125</v>
+      </c>
+      <c r="B176">
+        <v>104.648</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2">
+        <v>45973.82291666666</v>
+      </c>
+      <c r="B177">
+        <v>106.619</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2">
+        <v>45973.83333333334</v>
+      </c>
+      <c r="B178">
+        <v>112.062</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="2">
+        <v>45973.84375</v>
+      </c>
+      <c r="B179">
+        <v>112.413</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="2">
+        <v>45973.85416666666</v>
+      </c>
+      <c r="B180">
+        <v>112.576</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="2">
+        <v>45973.86458333334</v>
+      </c>
+      <c r="B181">
+        <v>113.145</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="2">
+        <v>45973.875</v>
+      </c>
+      <c r="B182">
+        <v>116.686</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2">
+        <v>45973.88541666666</v>
+      </c>
+      <c r="B183">
+        <v>116.447</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="2">
+        <v>45973.89583333334</v>
+      </c>
+      <c r="B184">
+        <v>115.811</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="2">
+        <v>45973.90625</v>
+      </c>
+      <c r="B185">
+        <v>115.421</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="2">
+        <v>45973.91666666666</v>
+      </c>
+      <c r="B186">
+        <v>100.807</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="2">
+        <v>45973.92708333334</v>
+      </c>
+      <c r="B187">
+        <v>100.049</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2">
+        <v>45973.9375</v>
+      </c>
+      <c r="B188">
+        <v>99.557</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2">
+        <v>45973.94791666666</v>
+      </c>
+      <c r="B189">
+        <v>99.23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="2">
+        <v>45973.95833333334</v>
+      </c>
+      <c r="B190">
+        <v>121.368</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="2">
+        <v>45973.96875</v>
+      </c>
+      <c r="B191">
+        <v>122.268</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="2">
+        <v>45973.97916666666</v>
+      </c>
+      <c r="B192">
+        <v>123.116</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="2">
+        <v>45973.98958333334</v>
+      </c>
+      <c r="B193">
+        <v>138.419</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2">
+        <v>45974</v>
+      </c>
+      <c r="B194">
+        <v>107.284</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2">
+        <v>45974.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>109.722</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2">
+        <v>45974.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>111.538</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2">
+        <v>45974.03125</v>
+      </c>
+      <c r="B197">
+        <v>115.233</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2">
+        <v>45974.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>115.57</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2">
+        <v>45974.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>115.016</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2">
+        <v>45974.0625</v>
+      </c>
+      <c r="B200">
+        <v>114.421</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2">
+        <v>45974.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>114.521</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2">
+        <v>45974.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>106.401</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2">
+        <v>45974.09375</v>
+      </c>
+      <c r="B203">
+        <v>104.282</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2">
+        <v>45974.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>102.028</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2">
+        <v>45974.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>96.474</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2">
+        <v>45974.125</v>
+      </c>
+      <c r="B206">
+        <v>87.852</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2">
+        <v>45974.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>86.535</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
+        <v>45974.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>85.276</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
+        <v>45974.15625</v>
+      </c>
+      <c r="B209">
+        <v>84.396</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
+        <v>45974.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>68.334</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
+        <v>45974.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>66.11799999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
+        <v>45974.1875</v>
+      </c>
+      <c r="B212">
+        <v>63.862</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2">
+        <v>45974.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>61.801</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
+        <v>45974.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>42.416</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2">
+        <v>45974.21875</v>
+      </c>
+      <c r="B215">
+        <v>40.634</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2">
+        <v>45974.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>39.044</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2">
+        <v>45974.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>37.75</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2">
+        <v>45974.25</v>
+      </c>
+      <c r="B218">
+        <v>36.133</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2">
+        <v>45974.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>35.181</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2">
+        <v>45974.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>34.497</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2">
+        <v>45974.28125</v>
+      </c>
+      <c r="B221">
+        <v>33.765</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2">
+        <v>45974.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>31.554</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2">
+        <v>45974.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>31.254</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2">
+        <v>45974.3125</v>
+      </c>
+      <c r="B224">
+        <v>31.255</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2">
+        <v>45974.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>31.388</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2">
+        <v>45974.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>38.361</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2">
+        <v>45974.34375</v>
+      </c>
+      <c r="B227">
+        <v>38.997</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2">
+        <v>45974.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>38.276</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2">
+        <v>45974.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>38.266</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2">
+        <v>45974.375</v>
+      </c>
+      <c r="B230">
+        <v>41.794</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2">
+        <v>45974.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>42.39</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2">
+        <v>45974.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>42.933</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2">
+        <v>45974.40625</v>
+      </c>
+      <c r="B233">
+        <v>43.186</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2">
+        <v>45974.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>44.947</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2">
+        <v>45974.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>46.19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2">
+        <v>45974.4375</v>
+      </c>
+      <c r="B236">
+        <v>47.326</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2">
+        <v>45974.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>48.337</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2">
+        <v>45974.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>54.257</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2">
+        <v>45974.46875</v>
+      </c>
+      <c r="B239">
+        <v>54.45</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2">
+        <v>45974.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>54.841</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2">
+        <v>45974.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>55.646</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2">
+        <v>45974.5</v>
+      </c>
+      <c r="B242">
+        <v>58.168</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2">
+        <v>45974.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>58.753</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2">
+        <v>45974.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>58.79</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2">
+        <v>45974.53125</v>
+      </c>
+      <c r="B245">
+        <v>59.068</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2">
+        <v>45974.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>59.79</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2">
+        <v>45974.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>59.295</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2">
+        <v>45974.5625</v>
+      </c>
+      <c r="B248">
+        <v>58.617</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2">
+        <v>45974.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>57.764</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2">
+        <v>45974.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>55.004</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2">
+        <v>45974.59375</v>
+      </c>
+      <c r="B251">
+        <v>53.56</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2">
+        <v>45974.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>52.646</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2">
+        <v>45974.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>51.955</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2">
+        <v>45974.625</v>
+      </c>
+      <c r="B254">
+        <v>48.616</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2">
+        <v>45974.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>50.002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2">
+        <v>45974.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>51.15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
+        <v>45974.65625</v>
+      </c>
+      <c r="B257">
+        <v>52.354</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
+        <v>45974.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>55.142</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
+        <v>45974.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>57.279</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
+        <v>45974.6875</v>
+      </c>
+      <c r="B260">
+        <v>59.629</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
+        <v>45974.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>61.793</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
+        <v>45974.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>66.60599999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
+        <v>45974.71875</v>
+      </c>
+      <c r="B263">
+        <v>69.253</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
+        <v>45974.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>72.077</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
+        <v>45974.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>74.747</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
+        <v>45974.75</v>
+      </c>
+      <c r="B266">
+        <v>82.268</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
+        <v>45974.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>85.155</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
+        <v>45974.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>88.008</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
+        <v>45974.78125</v>
+      </c>
+      <c r="B269">
+        <v>91.13200000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
+        <v>45974.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>101.235</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
+        <v>45974.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>102.9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
+        <v>45974.8125</v>
+      </c>
+      <c r="B272">
+        <v>104.642</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2">
+        <v>45974.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>106.231</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2">
+        <v>45974.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>106.466</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
+        <v>45974.84375</v>
+      </c>
+      <c r="B275">
+        <v>107.243</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2">
+        <v>45974.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>108.237</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2">
+        <v>45974.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>109.352</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2">
+        <v>45974.875</v>
+      </c>
+      <c r="B278">
+        <v>112.61</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2">
+        <v>45974.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>113.025</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2">
+        <v>45974.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>113.016</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2">
+        <v>45974.90625</v>
+      </c>
+      <c r="B281">
+        <v>112.872</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2">
+        <v>45974.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>114.811</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2">
+        <v>45974.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>115.578</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2">
+        <v>45974.9375</v>
+      </c>
+      <c r="B284">
+        <v>116.293</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2">
+        <v>45974.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>116.436</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2">
+        <v>45974.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2">
+        <v>45974.96875</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2">
+        <v>45974.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2">
+        <v>45974.98958333334</v>
+      </c>
+      <c r="B289">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,769 +397,1537 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45982.01041666666</v>
+        <v>45984</v>
       </c>
       <c r="B2">
-        <v>1150.275</v>
+        <v>878.795</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45982.02083333334</v>
+        <v>45984.01041666666</v>
       </c>
       <c r="B3">
-        <v>1147.769</v>
+        <v>868.408</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45982.03125</v>
+        <v>45984.02083333334</v>
       </c>
       <c r="B4">
-        <v>1145.673</v>
+        <v>862.803</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45982.04166666666</v>
+        <v>45984.03125</v>
       </c>
       <c r="B5">
-        <v>1145.789</v>
+        <v>858.99</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45982.05208333334</v>
+        <v>45984.04166666666</v>
       </c>
       <c r="B6">
-        <v>1157.754</v>
+        <v>849.802</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45982.0625</v>
+        <v>45984.05208333334</v>
       </c>
       <c r="B7">
-        <v>1161.79</v>
+        <v>834.905</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45982.07291666666</v>
+        <v>45984.0625</v>
       </c>
       <c r="B8">
-        <v>1170.114</v>
+        <v>826.1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45982.08333333334</v>
+        <v>45984.07291666666</v>
       </c>
       <c r="B9">
-        <v>1181.013</v>
+        <v>827.9829999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45982.09375</v>
+        <v>45984.08333333334</v>
       </c>
       <c r="B10">
-        <v>1189.874</v>
+        <v>883.707</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45982.10416666666</v>
+        <v>45984.09375</v>
       </c>
       <c r="B11">
-        <v>1191.934</v>
+        <v>880.232</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45982.11458333334</v>
+        <v>45984.10416666666</v>
       </c>
       <c r="B12">
-        <v>1198.07</v>
+        <v>887.051</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45982.125</v>
+        <v>45984.11458333334</v>
       </c>
       <c r="B13">
-        <v>1201.465</v>
+        <v>878.87</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45982.13541666666</v>
+        <v>45984.125</v>
       </c>
       <c r="B14">
-        <v>1199.116</v>
+        <v>861.723</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45982.14583333334</v>
+        <v>45984.13541666666</v>
       </c>
       <c r="B15">
-        <v>1205.554</v>
+        <v>849.698</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45982.15625</v>
+        <v>45984.14583333334</v>
       </c>
       <c r="B16">
-        <v>1210.56</v>
+        <v>842.054</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45982.16666666666</v>
+        <v>45984.15625</v>
       </c>
       <c r="B17">
-        <v>1216.469</v>
+        <v>840.265</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45982.17708333334</v>
+        <v>45984.16666666666</v>
       </c>
       <c r="B18">
-        <v>1250.279</v>
+        <v>812.731</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45982.1875</v>
+        <v>45984.17708333334</v>
       </c>
       <c r="B19">
-        <v>1253.769</v>
+        <v>792.284</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45982.19791666666</v>
+        <v>45984.1875</v>
       </c>
       <c r="B20">
-        <v>1264.21</v>
+        <v>779.635</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45982.20833333334</v>
+        <v>45984.19791666666</v>
       </c>
       <c r="B21">
-        <v>1271.767</v>
+        <v>770.172</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45982.21875</v>
+        <v>45984.20833333334</v>
       </c>
       <c r="B22">
-        <v>1347.027</v>
+        <v>725.098</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45982.22916666666</v>
+        <v>45984.21875</v>
       </c>
       <c r="B23">
-        <v>1361.428</v>
+        <v>725.178</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45982.23958333334</v>
+        <v>45984.22916666666</v>
       </c>
       <c r="B24">
-        <v>1382.67</v>
+        <v>715.955</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45982.25</v>
+        <v>45984.23958333334</v>
       </c>
       <c r="B25">
-        <v>1398.078</v>
+        <v>704.086</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45982.26041666666</v>
+        <v>45984.25</v>
       </c>
       <c r="B26">
-        <v>1520.5</v>
+        <v>668.1900000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45982.27083333334</v>
+        <v>45984.26041666666</v>
       </c>
       <c r="B27">
-        <v>1539.924</v>
+        <v>650.3390000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45982.28125</v>
+        <v>45984.27083333334</v>
       </c>
       <c r="B28">
-        <v>1562.444</v>
+        <v>637.2569999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45982.29166666666</v>
+        <v>45984.28125</v>
       </c>
       <c r="B29">
-        <v>1586.359</v>
+        <v>624.425</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45982.30208333334</v>
+        <v>45984.29166666666</v>
       </c>
       <c r="B30">
-        <v>1720.97</v>
+        <v>619.766</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45982.3125</v>
+        <v>45984.30208333334</v>
       </c>
       <c r="B31">
-        <v>1744.355</v>
+        <v>610.104</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45982.32291666666</v>
+        <v>45984.3125</v>
       </c>
       <c r="B32">
-        <v>1759.772</v>
+        <v>601.676</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45982.33333333334</v>
+        <v>45984.32291666666</v>
       </c>
       <c r="B33">
-        <v>1774.238</v>
+        <v>593.153</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45982.34375</v>
+        <v>45984.33333333334</v>
       </c>
       <c r="B34">
-        <v>1835.304</v>
+        <v>519.0940000000001</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45982.35416666666</v>
+        <v>45984.34375</v>
       </c>
       <c r="B35">
-        <v>1835.371</v>
+        <v>501.333</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45982.36458333334</v>
+        <v>45984.35416666666</v>
       </c>
       <c r="B36">
-        <v>1843.49</v>
+        <v>496.575</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45982.375</v>
+        <v>45984.36458333334</v>
       </c>
       <c r="B37">
-        <v>1850.013</v>
+        <v>488.891</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45982.38541666666</v>
+        <v>45984.375</v>
       </c>
       <c r="B38">
-        <v>1907.443</v>
+        <v>489.157</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45982.39583333334</v>
+        <v>45984.38541666666</v>
       </c>
       <c r="B39">
-        <v>1918.208</v>
+        <v>488.162</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45982.40625</v>
+        <v>45984.39583333334</v>
       </c>
       <c r="B40">
-        <v>1924.676</v>
+        <v>486.254</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45982.41666666666</v>
+        <v>45984.40625</v>
       </c>
       <c r="B41">
-        <v>1933.12</v>
+        <v>483.49</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45982.42708333334</v>
+        <v>45984.41666666666</v>
       </c>
       <c r="B42">
-        <v>1983.011</v>
+        <v>503.557</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45982.4375</v>
+        <v>45984.42708333334</v>
       </c>
       <c r="B43">
-        <v>1996.517</v>
+        <v>501.479</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45982.44791666666</v>
+        <v>45984.4375</v>
       </c>
       <c r="B44">
-        <v>2002.899</v>
+        <v>499.612</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45982.45833333334</v>
+        <v>45984.44791666666</v>
       </c>
       <c r="B45">
-        <v>2013.218</v>
+        <v>497.762</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45982.46875</v>
+        <v>45984.45833333334</v>
       </c>
       <c r="B46">
-        <v>2043.963</v>
+        <v>458.748</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45982.47916666666</v>
+        <v>45984.46875</v>
       </c>
       <c r="B47">
-        <v>2044.52</v>
+        <v>455.528</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45982.48958333334</v>
+        <v>45984.47916666666</v>
       </c>
       <c r="B48">
-        <v>2049.395</v>
+        <v>453.023</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45982.5</v>
+        <v>45984.48958333334</v>
       </c>
       <c r="B49">
-        <v>2042.848</v>
+        <v>450.345</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45982.51041666666</v>
+        <v>45984.5</v>
       </c>
       <c r="B50">
-        <v>1998.376</v>
+        <v>428.471</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45982.52083333334</v>
+        <v>45984.51041666666</v>
       </c>
       <c r="B51">
-        <v>1987.311</v>
+        <v>426.613</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45982.53125</v>
+        <v>45984.52083333334</v>
       </c>
       <c r="B52">
-        <v>1971.61</v>
+        <v>425.44</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45982.54166666666</v>
+        <v>45984.53125</v>
       </c>
       <c r="B53">
-        <v>1963.218</v>
+        <v>425.257</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45982.55208333334</v>
+        <v>45984.54166666666</v>
       </c>
       <c r="B54">
-        <v>1907.818</v>
+        <v>407.512</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45982.5625</v>
+        <v>45984.55208333334</v>
       </c>
       <c r="B55">
-        <v>1891.815</v>
+        <v>407.002</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45982.57291666666</v>
+        <v>45984.5625</v>
       </c>
       <c r="B56">
-        <v>1877.063</v>
+        <v>405.96</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45982.58333333334</v>
+        <v>45984.57291666666</v>
       </c>
       <c r="B57">
-        <v>1869.462</v>
+        <v>409.505</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45982.59375</v>
+        <v>45984.58333333334</v>
       </c>
       <c r="B58">
-        <v>1816.468</v>
+        <v>379.823</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45982.60416666666</v>
+        <v>45984.59375</v>
       </c>
       <c r="B59">
-        <v>1814.699</v>
+        <v>380.182</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45982.61458333334</v>
+        <v>45984.60416666666</v>
       </c>
       <c r="B60">
-        <v>1809.592</v>
+        <v>380.044</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45982.625</v>
+        <v>45984.61458333334</v>
       </c>
       <c r="B61">
-        <v>1802.605</v>
+        <v>380.235</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45982.63541666666</v>
+        <v>45984.625</v>
       </c>
       <c r="B62">
-        <v>1773.327</v>
+        <v>377.1</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45982.64583333334</v>
+        <v>45984.63541666666</v>
       </c>
       <c r="B63">
-        <v>1767.708</v>
+        <v>382.162</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45982.65625</v>
+        <v>45984.64583333334</v>
       </c>
       <c r="B64">
-        <v>1762.705</v>
+        <v>387.751</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45982.66666666666</v>
+        <v>45984.65625</v>
       </c>
       <c r="B65">
-        <v>1758.518</v>
+        <v>393.85</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45982.67708333334</v>
+        <v>45984.66666666666</v>
       </c>
       <c r="B66">
-        <v>1778.94</v>
+        <v>441.825</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45982.6875</v>
+        <v>45984.67708333334</v>
       </c>
       <c r="B67">
-        <v>1784.534</v>
+        <v>451.526</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45982.69791666666</v>
+        <v>45984.6875</v>
       </c>
       <c r="B68">
-        <v>1787.741</v>
+        <v>462.323</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45982.70833333334</v>
+        <v>45984.69791666666</v>
       </c>
       <c r="B69">
-        <v>1790.125</v>
+        <v>472.976</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45982.71875</v>
+        <v>45984.70833333334</v>
       </c>
       <c r="B70">
-        <v>1774.921</v>
+        <v>519.572</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45982.72916666666</v>
+        <v>45984.71875</v>
       </c>
       <c r="B71">
-        <v>1773.027</v>
+        <v>531.687</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45982.73958333334</v>
+        <v>45984.72916666666</v>
       </c>
       <c r="B72">
-        <v>1770.112</v>
+        <v>549.261</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45982.75</v>
+        <v>45984.73958333334</v>
       </c>
       <c r="B73">
-        <v>1759.751</v>
+        <v>561.777</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45982.76041666666</v>
+        <v>45984.75</v>
       </c>
       <c r="B74">
-        <v>1718.752</v>
+        <v>636.325</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45982.77083333334</v>
+        <v>45984.76041666666</v>
       </c>
       <c r="B75">
-        <v>1714.855</v>
+        <v>652.73</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45982.78125</v>
+        <v>45984.77083333334</v>
       </c>
       <c r="B76">
-        <v>1712.666</v>
+        <v>669.112</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45982.79166666666</v>
+        <v>45984.78125</v>
       </c>
       <c r="B77">
-        <v>1710.066</v>
+        <v>684.951</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45982.80208333334</v>
+        <v>45984.79166666666</v>
       </c>
       <c r="B78">
-        <v>1676.448</v>
+        <v>784.409</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45982.8125</v>
+        <v>45984.80208333334</v>
       </c>
       <c r="B79">
-        <v>1667.928</v>
+        <v>807.501</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45982.82291666666</v>
+        <v>45984.8125</v>
       </c>
       <c r="B80">
-        <v>1661.388</v>
+        <v>832.088</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45982.83333333334</v>
+        <v>45984.82291666666</v>
       </c>
       <c r="B81">
-        <v>1657.635</v>
+        <v>857.155</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45982.84375</v>
+        <v>45984.83333333334</v>
       </c>
       <c r="B82">
-        <v>1625.052</v>
+        <v>981.458</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45982.85416666666</v>
+        <v>45984.84375</v>
       </c>
       <c r="B83">
-        <v>1617.331</v>
+        <v>1006.624</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45982.86458333334</v>
+        <v>45984.85416666666</v>
       </c>
       <c r="B84">
-        <v>1610.664</v>
+        <v>1032.229</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45982.875</v>
+        <v>45984.86458333334</v>
       </c>
       <c r="B85">
-        <v>1604.955</v>
+        <v>1057.837</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45982.88541666666</v>
+        <v>45984.875</v>
       </c>
       <c r="B86">
-        <v>1581.88</v>
+        <v>1185.628</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45982.89583333334</v>
+        <v>45984.88541666666</v>
       </c>
       <c r="B87">
-        <v>1579.155</v>
+        <v>1208.266</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45982.90625</v>
+        <v>45984.89583333334</v>
       </c>
       <c r="B88">
-        <v>1571.606</v>
+        <v>1227.632</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45982.91666666666</v>
+        <v>45984.90625</v>
       </c>
       <c r="B89">
-        <v>1564.562</v>
+        <v>1246.761</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45982.92708333334</v>
+        <v>45984.91666666666</v>
       </c>
       <c r="B90">
-        <v>1547.092</v>
+        <v>1341.954</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45982.9375</v>
+        <v>45984.92708333334</v>
       </c>
       <c r="B91">
-        <v>1544.387</v>
+        <v>1348.25</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45982.94791666666</v>
+        <v>45984.9375</v>
       </c>
       <c r="B92">
-        <v>1543.156</v>
+        <v>1354.735</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45982.95833333334</v>
+        <v>45984.94791666666</v>
       </c>
       <c r="B93">
-        <v>1542.277</v>
+        <v>1360.085</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45982.96875</v>
+        <v>45984.95833333334</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1483.938</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45982.97916666666</v>
+        <v>45984.96875</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1513.688</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45982.98958333334</v>
+        <v>45984.97916666666</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1538.328</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45983</v>
+        <v>45984.98958333334</v>
       </c>
       <c r="B97">
+        <v>1545.953</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
+        <v>45985</v>
+      </c>
+      <c r="B98">
+        <v>1457.332</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
+        <v>45985.01041666666</v>
+      </c>
+      <c r="B99">
+        <v>1455.791</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
+        <v>45985.02083333334</v>
+      </c>
+      <c r="B100">
+        <v>1454.08</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
+        <v>45985.03125</v>
+      </c>
+      <c r="B101">
+        <v>1467.109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
+        <v>45985.04166666666</v>
+      </c>
+      <c r="B102">
+        <v>1454.006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
+        <v>45985.05208333334</v>
+      </c>
+      <c r="B103">
+        <v>1451.358</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
+        <v>45985.0625</v>
+      </c>
+      <c r="B104">
+        <v>1449.819</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
+        <v>45985.07291666666</v>
+      </c>
+      <c r="B105">
+        <v>1446.909</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
+        <v>45985.08333333334</v>
+      </c>
+      <c r="B106">
+        <v>1473.469</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
+        <v>45985.09375</v>
+      </c>
+      <c r="B107">
+        <v>1472.111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
+        <v>45985.10416666666</v>
+      </c>
+      <c r="B108">
+        <v>1469.664</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
+        <v>45985.11458333334</v>
+      </c>
+      <c r="B109">
+        <v>1473.593</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
+        <v>45985.125</v>
+      </c>
+      <c r="B110">
+        <v>1422.306</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
+        <v>45985.13541666666</v>
+      </c>
+      <c r="B111">
+        <v>1432.667</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
+        <v>45985.14583333334</v>
+      </c>
+      <c r="B112">
+        <v>1437.712</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
+        <v>45985.15625</v>
+      </c>
+      <c r="B113">
+        <v>1446.196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
+        <v>45985.16666666666</v>
+      </c>
+      <c r="B114">
+        <v>1424.477</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
+        <v>45985.17708333334</v>
+      </c>
+      <c r="B115">
+        <v>1423.767</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
+        <v>45985.1875</v>
+      </c>
+      <c r="B116">
+        <v>1415.337</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
+        <v>45985.19791666666</v>
+      </c>
+      <c r="B117">
+        <v>1394.316</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
+        <v>45985.20833333334</v>
+      </c>
+      <c r="B118">
+        <v>1315.978</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
+        <v>45985.21875</v>
+      </c>
+      <c r="B119">
+        <v>1302.751</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
+        <v>45985.22916666666</v>
+      </c>
+      <c r="B120">
+        <v>1294.366</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
+        <v>45985.23958333334</v>
+      </c>
+      <c r="B121">
+        <v>1279.388</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
+        <v>45985.25</v>
+      </c>
+      <c r="B122">
+        <v>1247.351</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
+        <v>45985.26041666666</v>
+      </c>
+      <c r="B123">
+        <v>1225.865</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
+        <v>45985.27083333334</v>
+      </c>
+      <c r="B124">
+        <v>1216.98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
+        <v>45985.28125</v>
+      </c>
+      <c r="B125">
+        <v>1212.956</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
+        <v>45985.29166666666</v>
+      </c>
+      <c r="B126">
+        <v>1126.066</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
+        <v>45985.30208333334</v>
+      </c>
+      <c r="B127">
+        <v>1118.823</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
+        <v>45985.3125</v>
+      </c>
+      <c r="B128">
+        <v>1113.083</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
+        <v>45985.32291666666</v>
+      </c>
+      <c r="B129">
+        <v>1102.674</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
+        <v>45985.33333333334</v>
+      </c>
+      <c r="B130">
+        <v>1115.31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
+        <v>45985.34375</v>
+      </c>
+      <c r="B131">
+        <v>1097.075</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
+        <v>45985.35416666666</v>
+      </c>
+      <c r="B132">
+        <v>1076.391</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
+        <v>45985.36458333334</v>
+      </c>
+      <c r="B133">
+        <v>1065.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
+        <v>45985.375</v>
+      </c>
+      <c r="B134">
+        <v>933.807</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
+        <v>45985.38541666666</v>
+      </c>
+      <c r="B135">
+        <v>920.025</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
+        <v>45985.39583333334</v>
+      </c>
+      <c r="B136">
+        <v>906.495</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
+        <v>45985.40625</v>
+      </c>
+      <c r="B137">
+        <v>892.881</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
+        <v>45985.41666666666</v>
+      </c>
+      <c r="B138">
+        <v>807.77</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
+        <v>45985.42708333334</v>
+      </c>
+      <c r="B139">
+        <v>801.841</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
+        <v>45985.4375</v>
+      </c>
+      <c r="B140">
+        <v>798.548</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
+        <v>45985.44791666666</v>
+      </c>
+      <c r="B141">
+        <v>796.593</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
+        <v>45985.45833333334</v>
+      </c>
+      <c r="B142">
+        <v>777.231</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
+        <v>45985.46875</v>
+      </c>
+      <c r="B143">
+        <v>781.074</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
+        <v>45985.47916666666</v>
+      </c>
+      <c r="B144">
+        <v>783.77</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2">
+        <v>45985.48958333334</v>
+      </c>
+      <c r="B145">
+        <v>786.563</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2">
+        <v>45985.5</v>
+      </c>
+      <c r="B146">
+        <v>802.85</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2">
+        <v>45985.51041666666</v>
+      </c>
+      <c r="B147">
+        <v>806.4109999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2">
+        <v>45985.52083333334</v>
+      </c>
+      <c r="B148">
+        <v>809.6319999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2">
+        <v>45985.53125</v>
+      </c>
+      <c r="B149">
+        <v>812.316</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2">
+        <v>45985.54166666666</v>
+      </c>
+      <c r="B150">
+        <v>829.495</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2">
+        <v>45985.55208333334</v>
+      </c>
+      <c r="B151">
+        <v>827.122</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2">
+        <v>45985.5625</v>
+      </c>
+      <c r="B152">
+        <v>824.962</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2">
+        <v>45985.57291666666</v>
+      </c>
+      <c r="B153">
+        <v>824.224</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2">
+        <v>45985.58333333334</v>
+      </c>
+      <c r="B154">
+        <v>797.061</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2">
+        <v>45985.59375</v>
+      </c>
+      <c r="B155">
+        <v>789.697</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2">
+        <v>45985.60416666666</v>
+      </c>
+      <c r="B156">
+        <v>779.848</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2">
+        <v>45985.61458333334</v>
+      </c>
+      <c r="B157">
+        <v>770.21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2">
+        <v>45985.625</v>
+      </c>
+      <c r="B158">
+        <v>762.14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2">
+        <v>45985.63541666666</v>
+      </c>
+      <c r="B159">
+        <v>771.236</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2">
+        <v>45985.64583333334</v>
+      </c>
+      <c r="B160">
+        <v>781.263</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2">
+        <v>45985.65625</v>
+      </c>
+      <c r="B161">
+        <v>792.227</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2">
+        <v>45985.66666666666</v>
+      </c>
+      <c r="B162">
+        <v>878.603</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2">
+        <v>45985.67708333334</v>
+      </c>
+      <c r="B163">
+        <v>893.546</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2">
+        <v>45985.6875</v>
+      </c>
+      <c r="B164">
+        <v>908.11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2">
+        <v>45985.69791666666</v>
+      </c>
+      <c r="B165">
+        <v>921.89</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2">
+        <v>45985.70833333334</v>
+      </c>
+      <c r="B166">
+        <v>976.688</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2">
+        <v>45985.71875</v>
+      </c>
+      <c r="B167">
+        <v>982.855</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2">
+        <v>45985.72916666666</v>
+      </c>
+      <c r="B168">
+        <v>987.227</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2">
+        <v>45985.73958333334</v>
+      </c>
+      <c r="B169">
+        <v>993.1130000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2">
+        <v>45985.75</v>
+      </c>
+      <c r="B170">
+        <v>1010.39</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2">
+        <v>45985.76041666666</v>
+      </c>
+      <c r="B171">
+        <v>1013.651</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2">
+        <v>45985.77083333334</v>
+      </c>
+      <c r="B172">
+        <v>1017.101</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2">
+        <v>45985.78125</v>
+      </c>
+      <c r="B173">
+        <v>1018.913</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2">
+        <v>45985.79166666666</v>
+      </c>
+      <c r="B174">
+        <v>1027.22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2">
+        <v>45985.80208333334</v>
+      </c>
+      <c r="B175">
+        <v>1031.598</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2">
+        <v>45985.8125</v>
+      </c>
+      <c r="B176">
+        <v>1035.125</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2">
+        <v>45985.82291666666</v>
+      </c>
+      <c r="B177">
+        <v>1038.523</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2">
+        <v>45985.83333333334</v>
+      </c>
+      <c r="B178">
+        <v>1051.474</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="2">
+        <v>45985.84375</v>
+      </c>
+      <c r="B179">
+        <v>1061.45</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="2">
+        <v>45985.85416666666</v>
+      </c>
+      <c r="B180">
+        <v>1069.777</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="2">
+        <v>45985.86458333334</v>
+      </c>
+      <c r="B181">
+        <v>1079.057</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="2">
+        <v>45985.875</v>
+      </c>
+      <c r="B182">
+        <v>1128.275</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2">
+        <v>45985.88541666666</v>
+      </c>
+      <c r="B183">
+        <v>1135.472</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="2">
+        <v>45985.89583333334</v>
+      </c>
+      <c r="B184">
+        <v>1146.954</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="2">
+        <v>45985.90625</v>
+      </c>
+      <c r="B185">
+        <v>1159.394</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="2">
+        <v>45985.91666666666</v>
+      </c>
+      <c r="B186">
+        <v>1205.894</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="2">
+        <v>45985.92708333334</v>
+      </c>
+      <c r="B187">
+        <v>1221.507</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2">
+        <v>45985.9375</v>
+      </c>
+      <c r="B188">
+        <v>1234.014</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2">
+        <v>45985.94791666666</v>
+      </c>
+      <c r="B189">
+        <v>1244.741</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="2">
+        <v>45985.95833333334</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="2">
+        <v>45985.96875</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="2">
+        <v>45985.97916666666</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="2">
+        <v>45985.98958333334</v>
+      </c>
+      <c r="B193">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45993.01041666666</v>
+        <v>45995.01041666666</v>
       </c>
       <c r="B2">
-        <v>82.59999999999999</v>
+        <v>724.54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45993.02083333334</v>
+        <v>45995.02083333334</v>
       </c>
       <c r="B3">
-        <v>79.973</v>
+        <v>719.773</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45993.03125</v>
+        <v>45995.03125</v>
       </c>
       <c r="B4">
-        <v>88.65300000000001</v>
+        <v>719.586</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45993.04166666666</v>
+        <v>45995.04166666666</v>
       </c>
       <c r="B5">
-        <v>89.124</v>
+        <v>719.097</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45993.05208333334</v>
+        <v>45995.05208333334</v>
       </c>
       <c r="B6">
-        <v>80.313</v>
+        <v>716.026</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45993.0625</v>
+        <v>45995.0625</v>
       </c>
       <c r="B7">
-        <v>79.751</v>
+        <v>711.239</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45993.07291666666</v>
+        <v>45995.07291666666</v>
       </c>
       <c r="B8">
-        <v>82.992</v>
+        <v>707.9930000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45993.08333333334</v>
+        <v>45995.08333333334</v>
       </c>
       <c r="B9">
-        <v>84.73099999999999</v>
+        <v>706.694</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45993.09375</v>
+        <v>45995.09375</v>
       </c>
       <c r="B10">
-        <v>66.255</v>
+        <v>675.131</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45993.10416666666</v>
+        <v>45995.10416666666</v>
       </c>
       <c r="B11">
-        <v>61.926</v>
+        <v>670.09</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45993.11458333334</v>
+        <v>45995.11458333334</v>
       </c>
       <c r="B12">
-        <v>61.591</v>
+        <v>666.676</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45993.125</v>
+        <v>45995.125</v>
       </c>
       <c r="B13">
-        <v>61.362</v>
+        <v>659.307</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45993.13541666666</v>
+        <v>45995.13541666666</v>
       </c>
       <c r="B14">
-        <v>56.71</v>
+        <v>642.804</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45993.14583333334</v>
+        <v>45995.14583333334</v>
       </c>
       <c r="B15">
-        <v>67.20999999999999</v>
+        <v>640.3339999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45993.15625</v>
+        <v>45995.15625</v>
       </c>
       <c r="B16">
-        <v>75.80800000000001</v>
+        <v>647.052</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45993.16666666666</v>
+        <v>45995.16666666666</v>
       </c>
       <c r="B17">
-        <v>68.41</v>
+        <v>651.152</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45993.17708333334</v>
+        <v>45995.17708333334</v>
       </c>
       <c r="B18">
-        <v>80.991</v>
+        <v>646.528</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45993.1875</v>
+        <v>45995.1875</v>
       </c>
       <c r="B19">
-        <v>80.767</v>
+        <v>644.745</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45993.19791666666</v>
+        <v>45995.19791666666</v>
       </c>
       <c r="B20">
-        <v>83.143</v>
+        <v>644.319</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45993.20833333334</v>
+        <v>45995.20833333334</v>
       </c>
       <c r="B21">
-        <v>82.621</v>
+        <v>647.171</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45993.21875</v>
+        <v>45995.21875</v>
       </c>
       <c r="B22">
-        <v>81.19799999999999</v>
+        <v>667.477</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45993.22916666666</v>
+        <v>45995.22916666666</v>
       </c>
       <c r="B23">
-        <v>80.494</v>
+        <v>672.465</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45993.23958333334</v>
+        <v>45995.23958333334</v>
       </c>
       <c r="B24">
-        <v>71.99299999999999</v>
+        <v>680.78</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45993.25</v>
+        <v>45995.25</v>
       </c>
       <c r="B25">
-        <v>69.38800000000001</v>
+        <v>681.104</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45993.26041666666</v>
+        <v>45995.26041666666</v>
       </c>
       <c r="B26">
-        <v>66.43300000000001</v>
+        <v>698.953</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45993.27083333334</v>
+        <v>45995.27083333334</v>
       </c>
       <c r="B27">
-        <v>62.709</v>
+        <v>702.8630000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45993.28125</v>
+        <v>45995.28125</v>
       </c>
       <c r="B28">
-        <v>57.134</v>
+        <v>710.482</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45993.29166666666</v>
+        <v>45995.29166666666</v>
       </c>
       <c r="B29">
-        <v>54.61</v>
+        <v>714.982</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45993.30208333334</v>
+        <v>45995.30208333334</v>
       </c>
       <c r="B30">
-        <v>45.617</v>
+        <v>728.373</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45993.3125</v>
+        <v>45995.3125</v>
       </c>
       <c r="B31">
-        <v>44.372</v>
+        <v>720.95</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45993.32291666666</v>
+        <v>45995.32291666666</v>
       </c>
       <c r="B32">
-        <v>42.348</v>
+        <v>717.526</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45993.33333333334</v>
+        <v>45995.33333333334</v>
       </c>
       <c r="B33">
-        <v>44.23</v>
+        <v>739.006</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45993.34375</v>
+        <v>45995.34375</v>
       </c>
       <c r="B34">
-        <v>39.408</v>
+        <v>735.3440000000001</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45993.35416666666</v>
+        <v>45995.35416666666</v>
       </c>
       <c r="B35">
-        <v>36.401</v>
+        <v>722.639</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45993.36458333334</v>
+        <v>45995.36458333334</v>
       </c>
       <c r="B36">
-        <v>36.572</v>
+        <v>712.6609999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45993.375</v>
+        <v>45995.375</v>
       </c>
       <c r="B37">
-        <v>36.741</v>
+        <v>699.61</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45993.38541666666</v>
+        <v>45995.38541666666</v>
       </c>
       <c r="B38">
-        <v>38.866</v>
+        <v>631.605</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45993.39583333334</v>
+        <v>45995.39583333334</v>
       </c>
       <c r="B39">
-        <v>39.021</v>
+        <v>630.264</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45993.40625</v>
+        <v>45995.40625</v>
       </c>
       <c r="B40">
-        <v>39.334</v>
+        <v>630.049</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45993.41666666666</v>
+        <v>45995.41666666666</v>
       </c>
       <c r="B41">
-        <v>39.612</v>
+        <v>628.54</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45993.42708333334</v>
+        <v>45995.42708333334</v>
       </c>
       <c r="B42">
-        <v>47.935</v>
+        <v>633.442</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45993.4375</v>
+        <v>45995.4375</v>
       </c>
       <c r="B43">
-        <v>48.287</v>
+        <v>639.984</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45993.44791666666</v>
+        <v>45995.44791666666</v>
       </c>
       <c r="B44">
-        <v>48.497</v>
+        <v>644.61</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45993.45833333334</v>
+        <v>45995.45833333334</v>
       </c>
       <c r="B45">
-        <v>48.788</v>
+        <v>650.254</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45993.46875</v>
+        <v>45995.46875</v>
       </c>
       <c r="B46">
-        <v>50.468</v>
+        <v>685.206</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45993.47916666666</v>
+        <v>45995.47916666666</v>
       </c>
       <c r="B47">
-        <v>50.645</v>
+        <v>691.34</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45993.48958333334</v>
+        <v>45995.48958333334</v>
       </c>
       <c r="B48">
-        <v>50.873</v>
+        <v>697.177</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45993.5</v>
+        <v>45995.5</v>
       </c>
       <c r="B49">
-        <v>51.146</v>
+        <v>701.143</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45993.51041666666</v>
+        <v>45995.51041666666</v>
       </c>
       <c r="B50">
-        <v>54.464</v>
+        <v>723.912</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45993.52083333334</v>
+        <v>45995.52083333334</v>
       </c>
       <c r="B51">
-        <v>54.405</v>
+        <v>727.295</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45993.53125</v>
+        <v>45995.53125</v>
       </c>
       <c r="B52">
-        <v>54.239</v>
+        <v>731.057</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45993.54166666666</v>
+        <v>45995.54166666666</v>
       </c>
       <c r="B53">
-        <v>54.153</v>
+        <v>733.58</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45993.55208333334</v>
+        <v>45995.55208333334</v>
       </c>
       <c r="B54">
-        <v>53.943</v>
+        <v>755.203</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45993.5625</v>
+        <v>45995.5625</v>
       </c>
       <c r="B55">
-        <v>53.303</v>
+        <v>756.473</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45993.57291666666</v>
+        <v>45995.57291666666</v>
       </c>
       <c r="B56">
-        <v>52.744</v>
+        <v>758.595</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45993.58333333334</v>
+        <v>45995.58333333334</v>
       </c>
       <c r="B57">
-        <v>52.181</v>
+        <v>762.244</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45993.59375</v>
+        <v>45995.59375</v>
       </c>
       <c r="B58">
-        <v>54.761</v>
+        <v>818.069</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45993.60416666666</v>
+        <v>45995.60416666666</v>
       </c>
       <c r="B59">
-        <v>54.333</v>
+        <v>829.103</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45993.61458333334</v>
+        <v>45995.61458333334</v>
       </c>
       <c r="B60">
-        <v>54.003</v>
+        <v>838.48</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45993.625</v>
+        <v>45995.625</v>
       </c>
       <c r="B61">
-        <v>53.728</v>
+        <v>850.179</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45993.63541666666</v>
+        <v>45995.63541666666</v>
       </c>
       <c r="B62">
-        <v>59.919</v>
+        <v>975.63</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45993.64583333334</v>
+        <v>45995.64583333334</v>
       </c>
       <c r="B63">
-        <v>60.353</v>
+        <v>1006.756</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45993.65625</v>
+        <v>45995.65625</v>
       </c>
       <c r="B64">
-        <v>60.974</v>
+        <v>1037.027</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45993.66666666666</v>
+        <v>45995.66666666666</v>
       </c>
       <c r="B65">
-        <v>61.676</v>
+        <v>1068.292</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45993.67708333334</v>
+        <v>45995.67708333334</v>
       </c>
       <c r="B66">
-        <v>67.29900000000001</v>
+        <v>1232.764</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45993.6875</v>
+        <v>45995.6875</v>
       </c>
       <c r="B67">
-        <v>68.574</v>
+        <v>1258.494</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45993.69791666666</v>
+        <v>45995.69791666666</v>
       </c>
       <c r="B68">
-        <v>69.952</v>
+        <v>1286.907</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45993.70833333334</v>
+        <v>45995.70833333334</v>
       </c>
       <c r="B69">
-        <v>71.432</v>
+        <v>1313.416</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45993.71875</v>
+        <v>45995.71875</v>
       </c>
       <c r="B70">
-        <v>79.104</v>
+        <v>1433.269</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45993.72916666666</v>
+        <v>45995.72916666666</v>
       </c>
       <c r="B71">
-        <v>81.44199999999999</v>
+        <v>1453.575</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45993.73958333334</v>
+        <v>45995.73958333334</v>
       </c>
       <c r="B72">
-        <v>83.373</v>
+        <v>1474.513</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45993.75</v>
+        <v>45995.75</v>
       </c>
       <c r="B73">
-        <v>85.20699999999999</v>
+        <v>1496.505</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45993.76041666666</v>
+        <v>45995.76041666666</v>
       </c>
       <c r="B74">
-        <v>95.611</v>
+        <v>1590.79</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45993.77083333334</v>
+        <v>45995.77083333334</v>
       </c>
       <c r="B75">
-        <v>97.801</v>
+        <v>1609.126</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45993.78125</v>
+        <v>45995.78125</v>
       </c>
       <c r="B76">
-        <v>100.29</v>
+        <v>1628.86</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45993.79166666666</v>
+        <v>45995.79166666666</v>
       </c>
       <c r="B77">
-        <v>103.006</v>
+        <v>1649.397</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45993.80208333334</v>
+        <v>45995.80208333334</v>
       </c>
       <c r="B78">
-        <v>111.424</v>
+        <v>1728.262</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45993.8125</v>
+        <v>45995.8125</v>
       </c>
       <c r="B79">
-        <v>113.735</v>
+        <v>1749.354</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45993.82291666666</v>
+        <v>45995.82291666666</v>
       </c>
       <c r="B80">
-        <v>116.062</v>
+        <v>1767.393</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45993.83333333334</v>
+        <v>45995.83333333334</v>
       </c>
       <c r="B81">
-        <v>119.007</v>
+        <v>1781.468</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45993.84375</v>
+        <v>45995.84375</v>
       </c>
       <c r="B82">
-        <v>130.741</v>
+        <v>1864.414</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45993.85416666666</v>
+        <v>45995.85416666666</v>
       </c>
       <c r="B83">
-        <v>132.118</v>
+        <v>1871.211</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45993.86458333334</v>
+        <v>45995.86458333334</v>
       </c>
       <c r="B84">
-        <v>133.783</v>
+        <v>1878.781</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45993.875</v>
+        <v>45995.875</v>
       </c>
       <c r="B85">
-        <v>135.607</v>
+        <v>1904.183</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45993.88541666666</v>
+        <v>45995.88541666666</v>
       </c>
       <c r="B86">
-        <v>142.152</v>
+        <v>1937.212</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45993.89583333334</v>
+        <v>45995.89583333334</v>
       </c>
       <c r="B87">
-        <v>142.547</v>
+        <v>1938.842</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45993.90625</v>
+        <v>45995.90625</v>
       </c>
       <c r="B88">
-        <v>142.974</v>
+        <v>1921.829</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45993.91666666666</v>
+        <v>45995.91666666666</v>
       </c>
       <c r="B89">
-        <v>143.677</v>
+        <v>1925.147</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45993.92708333334</v>
+        <v>45995.92708333334</v>
       </c>
       <c r="B90">
-        <v>151.899</v>
+        <v>1936.867</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45993.9375</v>
+        <v>45995.9375</v>
       </c>
       <c r="B91">
-        <v>152.605</v>
+        <v>1936.479</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45993.94791666666</v>
+        <v>45995.94791666666</v>
       </c>
       <c r="B92">
-        <v>153.61</v>
+        <v>1938.308</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45993.95833333334</v>
+        <v>45995.95833333334</v>
       </c>
       <c r="B93">
-        <v>154.796</v>
+        <v>1943.87</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45993.96875</v>
+        <v>45995.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45993.97916666666</v>
+        <v>45995.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45993.98958333334</v>
+        <v>45995.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45995.01041666666</v>
+        <v>46006.01041666666</v>
       </c>
       <c r="B2">
-        <v>724.54</v>
+        <v>937.261</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45995.02083333334</v>
+        <v>46006.02083333334</v>
       </c>
       <c r="B3">
-        <v>719.773</v>
+        <v>932.956</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45995.03125</v>
+        <v>46006.03125</v>
       </c>
       <c r="B4">
-        <v>719.586</v>
+        <v>929.153</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45995.04166666666</v>
+        <v>46006.04166666666</v>
       </c>
       <c r="B5">
-        <v>719.097</v>
+        <v>925.774</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45995.05208333334</v>
+        <v>46006.05208333334</v>
       </c>
       <c r="B6">
-        <v>716.026</v>
+        <v>913.081</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45995.0625</v>
+        <v>46006.0625</v>
       </c>
       <c r="B7">
-        <v>711.239</v>
+        <v>909.109</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45995.07291666666</v>
+        <v>46006.07291666666</v>
       </c>
       <c r="B8">
-        <v>707.9930000000001</v>
+        <v>905.133</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45995.08333333334</v>
+        <v>46006.08333333334</v>
       </c>
       <c r="B9">
-        <v>706.694</v>
+        <v>900.58</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45995.09375</v>
+        <v>46006.09375</v>
       </c>
       <c r="B10">
-        <v>675.131</v>
+        <v>884.306</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45995.10416666666</v>
+        <v>46006.10416666666</v>
       </c>
       <c r="B11">
-        <v>670.09</v>
+        <v>876.432</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45995.11458333334</v>
+        <v>46006.11458333334</v>
       </c>
       <c r="B12">
-        <v>666.676</v>
+        <v>869.972</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45995.125</v>
+        <v>46006.125</v>
       </c>
       <c r="B13">
-        <v>659.307</v>
+        <v>863.168</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45995.13541666666</v>
+        <v>46006.13541666666</v>
       </c>
       <c r="B14">
-        <v>642.804</v>
+        <v>837.7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45995.14583333334</v>
+        <v>46006.14583333334</v>
       </c>
       <c r="B15">
-        <v>640.3339999999999</v>
+        <v>826.774</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45995.15625</v>
+        <v>46006.15625</v>
       </c>
       <c r="B16">
-        <v>647.052</v>
+        <v>816.167</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45995.16666666666</v>
+        <v>46006.16666666666</v>
       </c>
       <c r="B17">
-        <v>651.152</v>
+        <v>806.5700000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45995.17708333334</v>
+        <v>46006.17708333334</v>
       </c>
       <c r="B18">
-        <v>646.528</v>
+        <v>750.4589999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45995.1875</v>
+        <v>46006.1875</v>
       </c>
       <c r="B19">
-        <v>644.745</v>
+        <v>736.3630000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45995.19791666666</v>
+        <v>46006.19791666666</v>
       </c>
       <c r="B20">
-        <v>644.319</v>
+        <v>723.223</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45995.20833333334</v>
+        <v>46006.20833333334</v>
       </c>
       <c r="B21">
-        <v>647.171</v>
+        <v>711.098</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45995.21875</v>
+        <v>46006.21875</v>
       </c>
       <c r="B22">
-        <v>667.477</v>
+        <v>632.876</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45995.22916666666</v>
+        <v>46006.22916666666</v>
       </c>
       <c r="B23">
-        <v>672.465</v>
+        <v>622.7329999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45995.23958333334</v>
+        <v>46006.23958333334</v>
       </c>
       <c r="B24">
-        <v>680.78</v>
+        <v>610.134</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45995.25</v>
+        <v>46006.25</v>
       </c>
       <c r="B25">
-        <v>681.104</v>
+        <v>597.129</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45995.26041666666</v>
+        <v>46006.26041666666</v>
       </c>
       <c r="B26">
-        <v>698.953</v>
+        <v>524.886</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45995.27083333334</v>
+        <v>46006.27083333334</v>
       </c>
       <c r="B27">
-        <v>702.8630000000001</v>
+        <v>513.283</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45995.28125</v>
+        <v>46006.28125</v>
       </c>
       <c r="B28">
-        <v>710.482</v>
+        <v>503.74</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45995.29166666666</v>
+        <v>46006.29166666666</v>
       </c>
       <c r="B29">
-        <v>714.982</v>
+        <v>493.923</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45995.30208333334</v>
+        <v>46006.30208333334</v>
       </c>
       <c r="B30">
-        <v>728.373</v>
+        <v>436.062</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45995.3125</v>
+        <v>46006.3125</v>
       </c>
       <c r="B31">
-        <v>720.95</v>
+        <v>421.035</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45995.32291666666</v>
+        <v>46006.32291666666</v>
       </c>
       <c r="B32">
-        <v>717.526</v>
+        <v>411.93</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45995.33333333334</v>
+        <v>46006.33333333334</v>
       </c>
       <c r="B33">
-        <v>739.006</v>
+        <v>402.774</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45995.34375</v>
+        <v>46006.34375</v>
       </c>
       <c r="B34">
-        <v>735.3440000000001</v>
+        <v>351.746</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45995.35416666666</v>
+        <v>46006.35416666666</v>
       </c>
       <c r="B35">
-        <v>722.639</v>
+        <v>346.643</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45995.36458333334</v>
+        <v>46006.36458333334</v>
       </c>
       <c r="B36">
-        <v>712.6609999999999</v>
+        <v>341.089</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45995.375</v>
+        <v>46006.375</v>
       </c>
       <c r="B37">
-        <v>699.61</v>
+        <v>334.89</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45995.38541666666</v>
+        <v>46006.38541666666</v>
       </c>
       <c r="B38">
-        <v>631.605</v>
+        <v>306.955</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45995.39583333334</v>
+        <v>46006.39583333334</v>
       </c>
       <c r="B39">
-        <v>630.264</v>
+        <v>300.059</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45995.40625</v>
+        <v>46006.40625</v>
       </c>
       <c r="B40">
-        <v>630.049</v>
+        <v>293.136</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45995.41666666666</v>
+        <v>46006.41666666666</v>
       </c>
       <c r="B41">
-        <v>628.54</v>
+        <v>287.493</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45995.42708333334</v>
+        <v>46006.42708333334</v>
       </c>
       <c r="B42">
-        <v>633.442</v>
+        <v>277.635</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45995.4375</v>
+        <v>46006.4375</v>
       </c>
       <c r="B43">
-        <v>639.984</v>
+        <v>280.59</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45995.44791666666</v>
+        <v>46006.44791666666</v>
       </c>
       <c r="B44">
-        <v>644.61</v>
+        <v>283.653</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45995.45833333334</v>
+        <v>46006.45833333334</v>
       </c>
       <c r="B45">
-        <v>650.254</v>
+        <v>286.745</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45995.46875</v>
+        <v>46006.46875</v>
       </c>
       <c r="B46">
-        <v>685.206</v>
+        <v>307.512</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45995.47916666666</v>
+        <v>46006.47916666666</v>
       </c>
       <c r="B47">
-        <v>691.34</v>
+        <v>313.838</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45995.48958333334</v>
+        <v>46006.48958333334</v>
       </c>
       <c r="B48">
-        <v>697.177</v>
+        <v>320.726</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45995.5</v>
+        <v>46006.5</v>
       </c>
       <c r="B49">
-        <v>701.143</v>
+        <v>326.03</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45995.51041666666</v>
+        <v>46006.51041666666</v>
       </c>
       <c r="B50">
-        <v>723.912</v>
+        <v>342.461</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45995.52083333334</v>
+        <v>46006.52083333334</v>
       </c>
       <c r="B51">
-        <v>727.295</v>
+        <v>342.234</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45995.53125</v>
+        <v>46006.53125</v>
       </c>
       <c r="B52">
-        <v>731.057</v>
+        <v>341.676</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45995.54166666666</v>
+        <v>46006.54166666666</v>
       </c>
       <c r="B53">
-        <v>733.58</v>
+        <v>341.601</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45995.55208333334</v>
+        <v>46006.55208333334</v>
       </c>
       <c r="B54">
-        <v>755.203</v>
+        <v>334.062</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45995.5625</v>
+        <v>46006.5625</v>
       </c>
       <c r="B55">
-        <v>756.473</v>
+        <v>331.693</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45995.57291666666</v>
+        <v>46006.57291666666</v>
       </c>
       <c r="B56">
-        <v>758.595</v>
+        <v>328.983</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45995.58333333334</v>
+        <v>46006.58333333334</v>
       </c>
       <c r="B57">
-        <v>762.244</v>
+        <v>326.873</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45995.59375</v>
+        <v>46006.59375</v>
       </c>
       <c r="B58">
-        <v>818.069</v>
+        <v>325.235</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45995.60416666666</v>
+        <v>46006.60416666666</v>
       </c>
       <c r="B59">
-        <v>829.103</v>
+        <v>324.801</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45995.61458333334</v>
+        <v>46006.61458333334</v>
       </c>
       <c r="B60">
-        <v>838.48</v>
+        <v>324.689</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45995.625</v>
+        <v>46006.625</v>
       </c>
       <c r="B61">
-        <v>850.179</v>
+        <v>324.475</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45995.63541666666</v>
+        <v>46006.63541666666</v>
       </c>
       <c r="B62">
-        <v>975.63</v>
+        <v>350.469</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45995.64583333334</v>
+        <v>46006.64583333334</v>
       </c>
       <c r="B63">
-        <v>1006.756</v>
+        <v>358.493</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45995.65625</v>
+        <v>46006.65625</v>
       </c>
       <c r="B64">
-        <v>1037.027</v>
+        <v>371.012</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45995.66666666666</v>
+        <v>46006.66666666666</v>
       </c>
       <c r="B65">
-        <v>1068.292</v>
+        <v>382.068</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45995.67708333334</v>
+        <v>46006.67708333334</v>
       </c>
       <c r="B66">
-        <v>1232.764</v>
+        <v>419.286</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45995.6875</v>
+        <v>46006.6875</v>
       </c>
       <c r="B67">
-        <v>1258.494</v>
+        <v>430.392</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45995.69791666666</v>
+        <v>46006.69791666666</v>
       </c>
       <c r="B68">
-        <v>1286.907</v>
+        <v>441.486</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45995.70833333334</v>
+        <v>46006.70833333334</v>
       </c>
       <c r="B69">
-        <v>1313.416</v>
+        <v>452.66</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45995.71875</v>
+        <v>46006.71875</v>
       </c>
       <c r="B70">
-        <v>1433.269</v>
+        <v>479.221</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45995.72916666666</v>
+        <v>46006.72916666666</v>
       </c>
       <c r="B71">
-        <v>1453.575</v>
+        <v>486.026</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45995.73958333334</v>
+        <v>46006.73958333334</v>
       </c>
       <c r="B72">
-        <v>1474.513</v>
+        <v>491.678</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45995.75</v>
+        <v>46006.75</v>
       </c>
       <c r="B73">
-        <v>1496.505</v>
+        <v>496.765</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45995.76041666666</v>
+        <v>46006.76041666666</v>
       </c>
       <c r="B74">
-        <v>1590.79</v>
+        <v>517.583</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45995.77083333334</v>
+        <v>46006.77083333334</v>
       </c>
       <c r="B75">
-        <v>1609.126</v>
+        <v>515.527</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45995.78125</v>
+        <v>46006.78125</v>
       </c>
       <c r="B76">
-        <v>1628.86</v>
+        <v>516.807</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45995.79166666666</v>
+        <v>46006.79166666666</v>
       </c>
       <c r="B77">
-        <v>1649.397</v>
+        <v>518.3150000000001</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45995.80208333334</v>
+        <v>46006.80208333334</v>
       </c>
       <c r="B78">
-        <v>1728.262</v>
+        <v>522.943</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45995.8125</v>
+        <v>46006.8125</v>
       </c>
       <c r="B79">
-        <v>1749.354</v>
+        <v>518.777</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45995.82291666666</v>
+        <v>46006.82291666666</v>
       </c>
       <c r="B80">
-        <v>1767.393</v>
+        <v>514.928</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45995.83333333334</v>
+        <v>46006.83333333334</v>
       </c>
       <c r="B81">
-        <v>1781.468</v>
+        <v>511.411</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45995.84375</v>
+        <v>46006.84375</v>
       </c>
       <c r="B82">
-        <v>1864.414</v>
+        <v>502.445</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45995.85416666666</v>
+        <v>46006.85416666666</v>
       </c>
       <c r="B83">
-        <v>1871.211</v>
+        <v>496.982</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45995.86458333334</v>
+        <v>46006.86458333334</v>
       </c>
       <c r="B84">
-        <v>1878.781</v>
+        <v>492.478</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45995.875</v>
+        <v>46006.875</v>
       </c>
       <c r="B85">
-        <v>1904.183</v>
+        <v>487.799</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45995.88541666666</v>
+        <v>46006.88541666666</v>
       </c>
       <c r="B86">
-        <v>1937.212</v>
+        <v>461.875</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45995.89583333334</v>
+        <v>46006.89583333334</v>
       </c>
       <c r="B87">
-        <v>1938.842</v>
+        <v>455.647</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45995.90625</v>
+        <v>46006.90625</v>
       </c>
       <c r="B88">
-        <v>1921.829</v>
+        <v>449.685</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45995.91666666666</v>
+        <v>46006.91666666666</v>
       </c>
       <c r="B89">
-        <v>1925.147</v>
+        <v>443.43</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45995.92708333334</v>
+        <v>46006.92708333334</v>
       </c>
       <c r="B90">
-        <v>1936.867</v>
+        <v>412.369</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45995.9375</v>
+        <v>46006.9375</v>
       </c>
       <c r="B91">
-        <v>1936.479</v>
+        <v>405.978</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45995.94791666666</v>
+        <v>46006.94791666666</v>
       </c>
       <c r="B92">
-        <v>1938.308</v>
+        <v>402.926</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45995.95833333334</v>
+        <v>46006.95833333334</v>
       </c>
       <c r="B93">
-        <v>1943.87</v>
+        <v>396.87</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45995.96875</v>
+        <v>46006.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45995.97916666666</v>
+        <v>46006.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45995.98958333334</v>
+        <v>46006.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45996</v>
+        <v>46007</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46006.01041666666</v>
+        <v>46022.01041666666</v>
       </c>
       <c r="B2">
-        <v>937.261</v>
+        <v>903.744</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46006.02083333334</v>
+        <v>46022.02083333334</v>
       </c>
       <c r="B3">
-        <v>932.956</v>
+        <v>936.202</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46006.03125</v>
+        <v>46022.03125</v>
       </c>
       <c r="B4">
-        <v>929.153</v>
+        <v>964.2329999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46006.04166666666</v>
+        <v>46022.04166666666</v>
       </c>
       <c r="B5">
-        <v>925.774</v>
+        <v>1005.484</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46006.05208333334</v>
+        <v>46022.05208333334</v>
       </c>
       <c r="B6">
-        <v>913.081</v>
+        <v>1135.639</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46006.0625</v>
+        <v>46022.0625</v>
       </c>
       <c r="B7">
-        <v>909.109</v>
+        <v>1158.652</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46006.07291666666</v>
+        <v>46022.07291666666</v>
       </c>
       <c r="B8">
-        <v>905.133</v>
+        <v>1182.285</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46006.08333333334</v>
+        <v>46022.08333333334</v>
       </c>
       <c r="B9">
-        <v>900.58</v>
+        <v>1211.832</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46006.09375</v>
+        <v>46022.09375</v>
       </c>
       <c r="B10">
-        <v>884.306</v>
+        <v>1332.306</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46006.10416666666</v>
+        <v>46022.10416666666</v>
       </c>
       <c r="B11">
-        <v>876.432</v>
+        <v>1357.809</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46006.11458333334</v>
+        <v>46022.11458333334</v>
       </c>
       <c r="B12">
-        <v>869.972</v>
+        <v>1378.94</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46006.125</v>
+        <v>46022.125</v>
       </c>
       <c r="B13">
-        <v>863.168</v>
+        <v>1394.862</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46006.13541666666</v>
+        <v>46022.13541666666</v>
       </c>
       <c r="B14">
-        <v>837.7</v>
+        <v>1479.896</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46006.14583333334</v>
+        <v>46022.14583333334</v>
       </c>
       <c r="B15">
-        <v>826.774</v>
+        <v>1476.957</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46006.15625</v>
+        <v>46022.15625</v>
       </c>
       <c r="B16">
-        <v>816.167</v>
+        <v>1474.458</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46006.16666666666</v>
+        <v>46022.16666666666</v>
       </c>
       <c r="B17">
-        <v>806.5700000000001</v>
+        <v>1458.317</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46006.17708333334</v>
+        <v>46022.17708333334</v>
       </c>
       <c r="B18">
-        <v>750.4589999999999</v>
+        <v>1469.855</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46006.1875</v>
+        <v>46022.1875</v>
       </c>
       <c r="B19">
-        <v>736.3630000000001</v>
+        <v>1462.407</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46006.19791666666</v>
+        <v>46022.19791666666</v>
       </c>
       <c r="B20">
-        <v>723.223</v>
+        <v>1463.447</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46006.20833333334</v>
+        <v>46022.20833333334</v>
       </c>
       <c r="B21">
-        <v>711.098</v>
+        <v>1464.583</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46006.21875</v>
+        <v>46022.21875</v>
       </c>
       <c r="B22">
-        <v>632.876</v>
+        <v>1466.976</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46006.22916666666</v>
+        <v>46022.22916666666</v>
       </c>
       <c r="B23">
-        <v>622.7329999999999</v>
+        <v>1468.8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46006.23958333334</v>
+        <v>46022.23958333334</v>
       </c>
       <c r="B24">
-        <v>610.134</v>
+        <v>1473.553</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46006.25</v>
+        <v>46022.25</v>
       </c>
       <c r="B25">
-        <v>597.129</v>
+        <v>1492.896</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46006.26041666666</v>
+        <v>46022.26041666666</v>
       </c>
       <c r="B26">
-        <v>524.886</v>
+        <v>1503.965</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46006.27083333334</v>
+        <v>46022.27083333334</v>
       </c>
       <c r="B27">
-        <v>513.283</v>
+        <v>1510.492</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46006.28125</v>
+        <v>46022.28125</v>
       </c>
       <c r="B28">
-        <v>503.74</v>
+        <v>1514.385</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46006.29166666666</v>
+        <v>46022.29166666666</v>
       </c>
       <c r="B29">
-        <v>493.923</v>
+        <v>1514.651</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46006.30208333334</v>
+        <v>46022.30208333334</v>
       </c>
       <c r="B30">
-        <v>436.062</v>
+        <v>1519.159</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46006.3125</v>
+        <v>46022.3125</v>
       </c>
       <c r="B31">
-        <v>421.035</v>
+        <v>1533.212</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46006.32291666666</v>
+        <v>46022.32291666666</v>
       </c>
       <c r="B32">
-        <v>411.93</v>
+        <v>1543.169</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46006.33333333334</v>
+        <v>46022.33333333334</v>
       </c>
       <c r="B33">
-        <v>402.774</v>
+        <v>1546.354</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46006.34375</v>
+        <v>46022.34375</v>
       </c>
       <c r="B34">
-        <v>351.746</v>
+        <v>1590.506</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46006.35416666666</v>
+        <v>46022.35416666666</v>
       </c>
       <c r="B35">
-        <v>346.643</v>
+        <v>1575.339</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46006.36458333334</v>
+        <v>46022.36458333334</v>
       </c>
       <c r="B36">
-        <v>341.089</v>
+        <v>1566.141</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46006.375</v>
+        <v>46022.375</v>
       </c>
       <c r="B37">
-        <v>334.89</v>
+        <v>1551.08</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46006.38541666666</v>
+        <v>46022.38541666666</v>
       </c>
       <c r="B38">
-        <v>306.955</v>
+        <v>1542.78</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46006.39583333334</v>
+        <v>46022.39583333334</v>
       </c>
       <c r="B39">
-        <v>300.059</v>
+        <v>1538.739</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46006.40625</v>
+        <v>46022.40625</v>
       </c>
       <c r="B40">
-        <v>293.136</v>
+        <v>1532.367</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46006.41666666666</v>
+        <v>46022.41666666666</v>
       </c>
       <c r="B41">
-        <v>287.493</v>
+        <v>1527.225</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46006.42708333334</v>
+        <v>46022.42708333334</v>
       </c>
       <c r="B42">
-        <v>277.635</v>
+        <v>1542.189</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46006.4375</v>
+        <v>46022.4375</v>
       </c>
       <c r="B43">
-        <v>280.59</v>
+        <v>1549.313</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46006.44791666666</v>
+        <v>46022.44791666666</v>
       </c>
       <c r="B44">
-        <v>283.653</v>
+        <v>1558.065</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46006.45833333334</v>
+        <v>46022.45833333334</v>
       </c>
       <c r="B45">
-        <v>286.745</v>
+        <v>1566.065</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46006.46875</v>
+        <v>46022.46875</v>
       </c>
       <c r="B46">
-        <v>307.512</v>
+        <v>1593.893</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46006.47916666666</v>
+        <v>46022.47916666666</v>
       </c>
       <c r="B47">
-        <v>313.838</v>
+        <v>1603.318</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46006.48958333334</v>
+        <v>46022.48958333334</v>
       </c>
       <c r="B48">
-        <v>320.726</v>
+        <v>1609.563</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46006.5</v>
+        <v>46022.5</v>
       </c>
       <c r="B49">
-        <v>326.03</v>
+        <v>1614.984</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46006.51041666666</v>
+        <v>46022.51041666666</v>
       </c>
       <c r="B50">
-        <v>342.461</v>
+        <v>1631.337</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46006.52083333334</v>
+        <v>46022.52083333334</v>
       </c>
       <c r="B51">
-        <v>342.234</v>
+        <v>1629.503</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46006.53125</v>
+        <v>46022.53125</v>
       </c>
       <c r="B52">
-        <v>341.676</v>
+        <v>1628.493</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46006.54166666666</v>
+        <v>46022.54166666666</v>
       </c>
       <c r="B53">
-        <v>341.601</v>
+        <v>1627.616</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46006.55208333334</v>
+        <v>46022.55208333334</v>
       </c>
       <c r="B54">
-        <v>334.062</v>
+        <v>1589.559</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46006.5625</v>
+        <v>46022.5625</v>
       </c>
       <c r="B55">
-        <v>331.693</v>
+        <v>1573.236</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46006.57291666666</v>
+        <v>46022.57291666666</v>
       </c>
       <c r="B56">
-        <v>328.983</v>
+        <v>1568.323</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46006.58333333334</v>
+        <v>46022.58333333334</v>
       </c>
       <c r="B57">
-        <v>326.873</v>
+        <v>1553.258</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46006.59375</v>
+        <v>46022.59375</v>
       </c>
       <c r="B58">
-        <v>325.235</v>
+        <v>1398.222</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46006.60416666666</v>
+        <v>46022.60416666666</v>
       </c>
       <c r="B59">
-        <v>324.801</v>
+        <v>1351.237</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46006.61458333334</v>
+        <v>46022.61458333334</v>
       </c>
       <c r="B60">
-        <v>324.689</v>
+        <v>1319.67</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46006.625</v>
+        <v>46022.625</v>
       </c>
       <c r="B61">
-        <v>324.475</v>
+        <v>1288.401</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46006.63541666666</v>
+        <v>46022.63541666666</v>
       </c>
       <c r="B62">
-        <v>350.469</v>
+        <v>1153.061</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46006.64583333334</v>
+        <v>46022.64583333334</v>
       </c>
       <c r="B63">
-        <v>358.493</v>
+        <v>1148.212</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46006.65625</v>
+        <v>46022.65625</v>
       </c>
       <c r="B64">
-        <v>371.012</v>
+        <v>1146.077</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46006.66666666666</v>
+        <v>46022.66666666666</v>
       </c>
       <c r="B65">
-        <v>382.068</v>
+        <v>1145.868</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46006.67708333334</v>
+        <v>46022.67708333334</v>
       </c>
       <c r="B66">
-        <v>419.286</v>
+        <v>1126.743</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46006.6875</v>
+        <v>46022.6875</v>
       </c>
       <c r="B67">
-        <v>430.392</v>
+        <v>1133.628</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46006.69791666666</v>
+        <v>46022.69791666666</v>
       </c>
       <c r="B68">
-        <v>441.486</v>
+        <v>1137.36</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46006.70833333334</v>
+        <v>46022.70833333334</v>
       </c>
       <c r="B69">
-        <v>452.66</v>
+        <v>1141.682</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46006.71875</v>
+        <v>46022.71875</v>
       </c>
       <c r="B70">
-        <v>479.221</v>
+        <v>1126.966</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46006.72916666666</v>
+        <v>46022.72916666666</v>
       </c>
       <c r="B71">
-        <v>486.026</v>
+        <v>1123.421</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46006.73958333334</v>
+        <v>46022.73958333334</v>
       </c>
       <c r="B72">
-        <v>491.678</v>
+        <v>1117.823</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46006.75</v>
+        <v>46022.75</v>
       </c>
       <c r="B73">
-        <v>496.765</v>
+        <v>1112.883</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46006.76041666666</v>
+        <v>46022.76041666666</v>
       </c>
       <c r="B74">
-        <v>517.583</v>
+        <v>1083.455</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46006.77083333334</v>
+        <v>46022.77083333334</v>
       </c>
       <c r="B75">
-        <v>515.527</v>
+        <v>1075.758</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46006.78125</v>
+        <v>46022.78125</v>
       </c>
       <c r="B76">
-        <v>516.807</v>
+        <v>1067.595</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46006.79166666666</v>
+        <v>46022.79166666666</v>
       </c>
       <c r="B77">
-        <v>518.3150000000001</v>
+        <v>1058.242</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46006.80208333334</v>
+        <v>46022.80208333334</v>
       </c>
       <c r="B78">
-        <v>522.943</v>
+        <v>1003.46</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46006.8125</v>
+        <v>46022.8125</v>
       </c>
       <c r="B79">
-        <v>518.777</v>
+        <v>992.689</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46006.82291666666</v>
+        <v>46022.82291666666</v>
       </c>
       <c r="B80">
-        <v>514.928</v>
+        <v>982.527</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46006.83333333334</v>
+        <v>46022.83333333334</v>
       </c>
       <c r="B81">
-        <v>511.411</v>
+        <v>972.771</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46006.84375</v>
+        <v>46022.84375</v>
       </c>
       <c r="B82">
-        <v>502.445</v>
+        <v>914.629</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46006.85416666666</v>
+        <v>46022.85416666666</v>
       </c>
       <c r="B83">
-        <v>496.982</v>
+        <v>904.546</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46006.86458333334</v>
+        <v>46022.86458333334</v>
       </c>
       <c r="B84">
-        <v>492.478</v>
+        <v>893.795</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46006.875</v>
+        <v>46022.875</v>
       </c>
       <c r="B85">
-        <v>487.799</v>
+        <v>881.6900000000001</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46006.88541666666</v>
+        <v>46022.88541666666</v>
       </c>
       <c r="B86">
-        <v>461.875</v>
+        <v>823.369</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46006.89583333334</v>
+        <v>46022.89583333334</v>
       </c>
       <c r="B87">
-        <v>455.647</v>
+        <v>809.65</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46006.90625</v>
+        <v>46022.90625</v>
       </c>
       <c r="B88">
-        <v>449.685</v>
+        <v>797.66</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46006.91666666666</v>
+        <v>46022.91666666666</v>
       </c>
       <c r="B89">
-        <v>443.43</v>
+        <v>785.998</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46006.92708333334</v>
+        <v>46022.92708333334</v>
       </c>
       <c r="B90">
-        <v>412.369</v>
+        <v>728.465</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46006.9375</v>
+        <v>46022.9375</v>
       </c>
       <c r="B91">
-        <v>405.978</v>
+        <v>715.326</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46006.94791666666</v>
+        <v>46022.94791666666</v>
       </c>
       <c r="B92">
-        <v>402.926</v>
+        <v>698.865</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46006.95833333334</v>
+        <v>46022.95833333334</v>
       </c>
       <c r="B93">
-        <v>396.87</v>
+        <v>685.077</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46006.96875</v>
+        <v>46022.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46006.97916666666</v>
+        <v>46022.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46006.98958333334</v>
+        <v>46022.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46007</v>
+        <v>46023</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46022.01041666666</v>
+        <v>46044.01041666666</v>
       </c>
       <c r="B2">
-        <v>903.744</v>
+        <v>1332.404</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46022.02083333334</v>
+        <v>46044.02083333334</v>
       </c>
       <c r="B3">
-        <v>936.202</v>
+        <v>1325.558</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46022.03125</v>
+        <v>46044.03125</v>
       </c>
       <c r="B4">
-        <v>964.2329999999999</v>
+        <v>1313.384</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46022.04166666666</v>
+        <v>46044.04166666666</v>
       </c>
       <c r="B5">
-        <v>1005.484</v>
+        <v>1295.986</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46022.05208333334</v>
+        <v>46044.05208333334</v>
       </c>
       <c r="B6">
-        <v>1135.639</v>
+        <v>1300.795</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46022.0625</v>
+        <v>46044.0625</v>
       </c>
       <c r="B7">
-        <v>1158.652</v>
+        <v>1272.537</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46022.07291666666</v>
+        <v>46044.07291666666</v>
       </c>
       <c r="B8">
-        <v>1182.285</v>
+        <v>1251.279</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46022.08333333334</v>
+        <v>46044.08333333334</v>
       </c>
       <c r="B9">
-        <v>1211.832</v>
+        <v>1235.507</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46022.09375</v>
+        <v>46044.09375</v>
       </c>
       <c r="B10">
-        <v>1332.306</v>
+        <v>1210.012</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46022.10416666666</v>
+        <v>46044.10416666666</v>
       </c>
       <c r="B11">
-        <v>1357.809</v>
+        <v>1191.375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46022.11458333334</v>
+        <v>46044.11458333334</v>
       </c>
       <c r="B12">
-        <v>1378.94</v>
+        <v>1175.627</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46022.125</v>
+        <v>46044.125</v>
       </c>
       <c r="B13">
-        <v>1394.862</v>
+        <v>1164.894</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46022.13541666666</v>
+        <v>46044.13541666666</v>
       </c>
       <c r="B14">
-        <v>1479.896</v>
+        <v>1177.262</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46022.14583333334</v>
+        <v>46044.14583333334</v>
       </c>
       <c r="B15">
-        <v>1476.957</v>
+        <v>1166.248</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46022.15625</v>
+        <v>46044.15625</v>
       </c>
       <c r="B16">
-        <v>1474.458</v>
+        <v>1163.779</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46022.16666666666</v>
+        <v>46044.16666666666</v>
       </c>
       <c r="B17">
-        <v>1458.317</v>
+        <v>1152.966</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46022.17708333334</v>
+        <v>46044.17708333334</v>
       </c>
       <c r="B18">
-        <v>1469.855</v>
+        <v>1149.779</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46022.1875</v>
+        <v>46044.1875</v>
       </c>
       <c r="B19">
-        <v>1462.407</v>
+        <v>1147.482</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46022.19791666666</v>
+        <v>46044.19791666666</v>
       </c>
       <c r="B20">
-        <v>1463.447</v>
+        <v>1134.008</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46022.20833333334</v>
+        <v>46044.20833333334</v>
       </c>
       <c r="B21">
-        <v>1464.583</v>
+        <v>1121.308</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46022.21875</v>
+        <v>46044.21875</v>
       </c>
       <c r="B22">
-        <v>1466.976</v>
+        <v>1101.211</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46022.22916666666</v>
+        <v>46044.22916666666</v>
       </c>
       <c r="B23">
-        <v>1468.8</v>
+        <v>1104.157</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46022.23958333334</v>
+        <v>46044.23958333334</v>
       </c>
       <c r="B24">
-        <v>1473.553</v>
+        <v>1100.684</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46022.25</v>
+        <v>46044.25</v>
       </c>
       <c r="B25">
-        <v>1492.896</v>
+        <v>1094.931</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46022.26041666666</v>
+        <v>46044.26041666666</v>
       </c>
       <c r="B26">
-        <v>1503.965</v>
+        <v>1009.908</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46022.27083333334</v>
+        <v>46044.27083333334</v>
       </c>
       <c r="B27">
-        <v>1510.492</v>
+        <v>1007.421</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46022.28125</v>
+        <v>46044.28125</v>
       </c>
       <c r="B28">
-        <v>1514.385</v>
+        <v>996.52</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46022.29166666666</v>
+        <v>46044.29166666666</v>
       </c>
       <c r="B29">
-        <v>1514.651</v>
+        <v>974.601</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46022.30208333334</v>
+        <v>46044.30208333334</v>
       </c>
       <c r="B30">
-        <v>1519.159</v>
+        <v>935.1319999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46022.3125</v>
+        <v>46044.3125</v>
       </c>
       <c r="B31">
-        <v>1533.212</v>
+        <v>942.851</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46022.32291666666</v>
+        <v>46044.32291666666</v>
       </c>
       <c r="B32">
-        <v>1543.169</v>
+        <v>925.564</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46022.33333333334</v>
+        <v>46044.33333333334</v>
       </c>
       <c r="B33">
-        <v>1546.354</v>
+        <v>908.027</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46022.34375</v>
+        <v>46044.34375</v>
       </c>
       <c r="B34">
-        <v>1590.506</v>
+        <v>899.673</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46022.35416666666</v>
+        <v>46044.35416666666</v>
       </c>
       <c r="B35">
-        <v>1575.339</v>
+        <v>883.2910000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46022.36458333334</v>
+        <v>46044.36458333334</v>
       </c>
       <c r="B36">
-        <v>1566.141</v>
+        <v>866.333</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46022.375</v>
+        <v>46044.375</v>
       </c>
       <c r="B37">
-        <v>1551.08</v>
+        <v>849.654</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46022.38541666666</v>
+        <v>46044.38541666666</v>
       </c>
       <c r="B38">
-        <v>1542.78</v>
+        <v>777.568</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46022.39583333334</v>
+        <v>46044.39583333334</v>
       </c>
       <c r="B39">
-        <v>1538.739</v>
+        <v>760.823</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46022.40625</v>
+        <v>46044.40625</v>
       </c>
       <c r="B40">
-        <v>1532.367</v>
+        <v>745.171</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46022.41666666666</v>
+        <v>46044.41666666666</v>
       </c>
       <c r="B41">
-        <v>1527.225</v>
+        <v>729.9349999999999</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46022.42708333334</v>
+        <v>46044.42708333334</v>
       </c>
       <c r="B42">
-        <v>1542.189</v>
+        <v>705.603</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46022.4375</v>
+        <v>46044.4375</v>
       </c>
       <c r="B43">
-        <v>1549.313</v>
+        <v>685.418</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46022.44791666666</v>
+        <v>46044.44791666666</v>
       </c>
       <c r="B44">
-        <v>1558.065</v>
+        <v>664.668</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46022.45833333334</v>
+        <v>46044.45833333334</v>
       </c>
       <c r="B45">
-        <v>1566.065</v>
+        <v>643.338</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46022.46875</v>
+        <v>46044.46875</v>
       </c>
       <c r="B46">
-        <v>1593.893</v>
+        <v>627.0410000000001</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46022.47916666666</v>
+        <v>46044.47916666666</v>
       </c>
       <c r="B47">
-        <v>1603.318</v>
+        <v>617.641</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46022.48958333334</v>
+        <v>46044.48958333334</v>
       </c>
       <c r="B48">
-        <v>1609.563</v>
+        <v>609.414</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46022.5</v>
+        <v>46044.5</v>
       </c>
       <c r="B49">
-        <v>1614.984</v>
+        <v>602.287</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46022.51041666666</v>
+        <v>46044.51041666666</v>
       </c>
       <c r="B50">
-        <v>1631.337</v>
+        <v>596.312</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46022.52083333334</v>
+        <v>46044.52083333334</v>
       </c>
       <c r="B51">
-        <v>1629.503</v>
+        <v>591.104</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46022.53125</v>
+        <v>46044.53125</v>
       </c>
       <c r="B52">
-        <v>1628.493</v>
+        <v>585.526</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46022.54166666666</v>
+        <v>46044.54166666666</v>
       </c>
       <c r="B53">
-        <v>1627.616</v>
+        <v>579.547</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46022.55208333334</v>
+        <v>46044.55208333334</v>
       </c>
       <c r="B54">
-        <v>1589.559</v>
+        <v>571.093</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46022.5625</v>
+        <v>46044.5625</v>
       </c>
       <c r="B55">
-        <v>1573.236</v>
+        <v>567.691</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46022.57291666666</v>
+        <v>46044.57291666666</v>
       </c>
       <c r="B56">
-        <v>1568.323</v>
+        <v>564.538</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46022.58333333334</v>
+        <v>46044.58333333334</v>
       </c>
       <c r="B57">
-        <v>1553.258</v>
+        <v>561.157</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46022.59375</v>
+        <v>46044.59375</v>
       </c>
       <c r="B58">
-        <v>1398.222</v>
+        <v>570.9690000000001</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46022.60416666666</v>
+        <v>46044.60416666666</v>
       </c>
       <c r="B59">
-        <v>1351.237</v>
+        <v>580.865</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46022.61458333334</v>
+        <v>46044.61458333334</v>
       </c>
       <c r="B60">
-        <v>1319.67</v>
+        <v>591.946</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46022.625</v>
+        <v>46044.625</v>
       </c>
       <c r="B61">
-        <v>1288.401</v>
+        <v>601.39</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46022.63541666666</v>
+        <v>46044.63541666666</v>
       </c>
       <c r="B62">
-        <v>1153.061</v>
+        <v>613.877</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46022.64583333334</v>
+        <v>46044.64583333334</v>
       </c>
       <c r="B63">
-        <v>1148.212</v>
+        <v>622.427</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46022.65625</v>
+        <v>46044.65625</v>
       </c>
       <c r="B64">
-        <v>1146.077</v>
+        <v>629.9589999999999</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46022.66666666666</v>
+        <v>46044.66666666666</v>
       </c>
       <c r="B65">
-        <v>1145.868</v>
+        <v>637.362</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46022.67708333334</v>
+        <v>46044.67708333334</v>
       </c>
       <c r="B66">
-        <v>1126.743</v>
+        <v>643.788</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46022.6875</v>
+        <v>46044.6875</v>
       </c>
       <c r="B67">
-        <v>1133.628</v>
+        <v>641.907</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46022.69791666666</v>
+        <v>46044.69791666666</v>
       </c>
       <c r="B68">
-        <v>1137.36</v>
+        <v>640.4349999999999</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46022.70833333334</v>
+        <v>46044.70833333334</v>
       </c>
       <c r="B69">
-        <v>1141.682</v>
+        <v>636.563</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46022.71875</v>
+        <v>46044.71875</v>
       </c>
       <c r="B70">
-        <v>1126.966</v>
+        <v>621.787</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46022.72916666666</v>
+        <v>46044.72916666666</v>
       </c>
       <c r="B71">
-        <v>1123.421</v>
+        <v>613.532</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46022.73958333334</v>
+        <v>46044.73958333334</v>
       </c>
       <c r="B72">
-        <v>1117.823</v>
+        <v>606.336</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46022.75</v>
+        <v>46044.75</v>
       </c>
       <c r="B73">
-        <v>1112.883</v>
+        <v>598.908</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46022.76041666666</v>
+        <v>46044.76041666666</v>
       </c>
       <c r="B74">
-        <v>1083.455</v>
+        <v>574.471</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46022.77083333334</v>
+        <v>46044.77083333334</v>
       </c>
       <c r="B75">
-        <v>1075.758</v>
+        <v>553.702</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46022.78125</v>
+        <v>46044.78125</v>
       </c>
       <c r="B76">
-        <v>1067.595</v>
+        <v>533.385</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46022.79166666666</v>
+        <v>46044.79166666666</v>
       </c>
       <c r="B77">
-        <v>1058.242</v>
+        <v>512.284</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46022.80208333334</v>
+        <v>46044.80208333334</v>
       </c>
       <c r="B78">
-        <v>1003.46</v>
+        <v>493.54</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46022.8125</v>
+        <v>46044.8125</v>
       </c>
       <c r="B79">
-        <v>992.689</v>
+        <v>473.792</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46022.82291666666</v>
+        <v>46044.82291666666</v>
       </c>
       <c r="B80">
-        <v>982.527</v>
+        <v>455.61</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46022.83333333334</v>
+        <v>46044.83333333334</v>
       </c>
       <c r="B81">
-        <v>972.771</v>
+        <v>437.834</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46022.84375</v>
+        <v>46044.84375</v>
       </c>
       <c r="B82">
-        <v>914.629</v>
+        <v>411.822</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46022.85416666666</v>
+        <v>46044.85416666666</v>
       </c>
       <c r="B83">
-        <v>904.546</v>
+        <v>400.777</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46022.86458333334</v>
+        <v>46044.86458333334</v>
       </c>
       <c r="B84">
-        <v>893.795</v>
+        <v>388.147</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46022.875</v>
+        <v>46044.875</v>
       </c>
       <c r="B85">
-        <v>881.6900000000001</v>
+        <v>375.682</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46022.88541666666</v>
+        <v>46044.88541666666</v>
       </c>
       <c r="B86">
-        <v>823.369</v>
+        <v>353.186</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46022.89583333334</v>
+        <v>46044.89583333334</v>
       </c>
       <c r="B87">
-        <v>809.65</v>
+        <v>340.238</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46022.90625</v>
+        <v>46044.90625</v>
       </c>
       <c r="B88">
-        <v>797.66</v>
+        <v>329.167</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46022.91666666666</v>
+        <v>46044.91666666666</v>
       </c>
       <c r="B89">
-        <v>785.998</v>
+        <v>321.449</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46022.92708333334</v>
+        <v>46044.92708333334</v>
       </c>
       <c r="B90">
-        <v>728.465</v>
+        <v>311.862</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46022.9375</v>
+        <v>46044.9375</v>
       </c>
       <c r="B91">
-        <v>715.326</v>
+        <v>308.91</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46022.94791666666</v>
+        <v>46044.94791666666</v>
       </c>
       <c r="B92">
-        <v>698.865</v>
+        <v>303.067</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46022.95833333334</v>
+        <v>46044.95833333334</v>
       </c>
       <c r="B93">
-        <v>685.077</v>
+        <v>297.061</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46022.96875</v>
+        <v>46044.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46022.97916666666</v>
+        <v>46044.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46022.98958333334</v>
+        <v>46044.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46044.01041666666</v>
+        <v>46046.01041666666</v>
       </c>
       <c r="B2">
-        <v>1332.404</v>
+        <v>249.749</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46044.02083333334</v>
+        <v>46046.02083333334</v>
       </c>
       <c r="B3">
-        <v>1325.558</v>
+        <v>246.398</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46044.03125</v>
+        <v>46046.03125</v>
       </c>
       <c r="B4">
-        <v>1313.384</v>
+        <v>242.562</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46044.04166666666</v>
+        <v>46046.04166666666</v>
       </c>
       <c r="B5">
-        <v>1295.986</v>
+        <v>239.851</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46044.05208333334</v>
+        <v>46046.05208333334</v>
       </c>
       <c r="B6">
-        <v>1300.795</v>
+        <v>232.206</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46044.0625</v>
+        <v>46046.0625</v>
       </c>
       <c r="B7">
-        <v>1272.537</v>
+        <v>225.794</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46044.07291666666</v>
+        <v>46046.07291666666</v>
       </c>
       <c r="B8">
-        <v>1251.279</v>
+        <v>221.343</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46044.08333333334</v>
+        <v>46046.08333333334</v>
       </c>
       <c r="B9">
-        <v>1235.507</v>
+        <v>215.796</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46044.09375</v>
+        <v>46046.09375</v>
       </c>
       <c r="B10">
-        <v>1210.012</v>
+        <v>203.927</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46044.10416666666</v>
+        <v>46046.10416666666</v>
       </c>
       <c r="B11">
-        <v>1191.375</v>
+        <v>200.271</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46044.11458333334</v>
+        <v>46046.11458333334</v>
       </c>
       <c r="B12">
-        <v>1175.627</v>
+        <v>195.829</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46044.125</v>
+        <v>46046.125</v>
       </c>
       <c r="B13">
-        <v>1164.894</v>
+        <v>190.87</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46044.13541666666</v>
+        <v>46046.13541666666</v>
       </c>
       <c r="B14">
-        <v>1177.262</v>
+        <v>184.661</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46044.14583333334</v>
+        <v>46046.14583333334</v>
       </c>
       <c r="B15">
-        <v>1166.248</v>
+        <v>179.079</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46044.15625</v>
+        <v>46046.15625</v>
       </c>
       <c r="B16">
-        <v>1163.779</v>
+        <v>174.598</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46044.16666666666</v>
+        <v>46046.16666666666</v>
       </c>
       <c r="B17">
-        <v>1152.966</v>
+        <v>170.409</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46044.17708333334</v>
+        <v>46046.17708333334</v>
       </c>
       <c r="B18">
-        <v>1149.779</v>
+        <v>165.129</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46044.1875</v>
+        <v>46046.1875</v>
       </c>
       <c r="B19">
-        <v>1147.482</v>
+        <v>162.833</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46044.19791666666</v>
+        <v>46046.19791666666</v>
       </c>
       <c r="B20">
-        <v>1134.008</v>
+        <v>159.561</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46044.20833333334</v>
+        <v>46046.20833333334</v>
       </c>
       <c r="B21">
-        <v>1121.308</v>
+        <v>156.313</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46044.21875</v>
+        <v>46046.21875</v>
       </c>
       <c r="B22">
-        <v>1101.211</v>
+        <v>146.621</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46044.22916666666</v>
+        <v>46046.22916666666</v>
       </c>
       <c r="B23">
-        <v>1104.157</v>
+        <v>144.578</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46044.23958333334</v>
+        <v>46046.23958333334</v>
       </c>
       <c r="B24">
-        <v>1100.684</v>
+        <v>142.626</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46044.25</v>
+        <v>46046.25</v>
       </c>
       <c r="B25">
-        <v>1094.931</v>
+        <v>140.528</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46044.26041666666</v>
+        <v>46046.26041666666</v>
       </c>
       <c r="B26">
-        <v>1009.908</v>
+        <v>138.326</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46044.27083333334</v>
+        <v>46046.27083333334</v>
       </c>
       <c r="B27">
-        <v>1007.421</v>
+        <v>138.975</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46044.28125</v>
+        <v>46046.28125</v>
       </c>
       <c r="B28">
-        <v>996.52</v>
+        <v>139.92</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46044.29166666666</v>
+        <v>46046.29166666666</v>
       </c>
       <c r="B29">
-        <v>974.601</v>
+        <v>141.167</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46044.30208333334</v>
+        <v>46046.30208333334</v>
       </c>
       <c r="B30">
-        <v>935.1319999999999</v>
+        <v>130.7</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46044.3125</v>
+        <v>46046.3125</v>
       </c>
       <c r="B31">
-        <v>942.851</v>
+        <v>132.828</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46044.32291666666</v>
+        <v>46046.32291666666</v>
       </c>
       <c r="B32">
-        <v>925.564</v>
+        <v>134.899</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46044.33333333334</v>
+        <v>46046.33333333334</v>
       </c>
       <c r="B33">
-        <v>908.027</v>
+        <v>136.978</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46044.34375</v>
+        <v>46046.34375</v>
       </c>
       <c r="B34">
-        <v>899.673</v>
+        <v>132.843</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46044.35416666666</v>
+        <v>46046.35416666666</v>
       </c>
       <c r="B35">
-        <v>883.2910000000001</v>
+        <v>131.746</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46044.36458333334</v>
+        <v>46046.36458333334</v>
       </c>
       <c r="B36">
-        <v>866.333</v>
+        <v>131.627</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46044.375</v>
+        <v>46046.375</v>
       </c>
       <c r="B37">
-        <v>849.654</v>
+        <v>131.184</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46044.38541666666</v>
+        <v>46046.38541666666</v>
       </c>
       <c r="B38">
-        <v>777.568</v>
+        <v>140.881</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46044.39583333334</v>
+        <v>46046.39583333334</v>
       </c>
       <c r="B39">
-        <v>760.823</v>
+        <v>139.694</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46044.40625</v>
+        <v>46046.40625</v>
       </c>
       <c r="B40">
-        <v>745.171</v>
+        <v>139.847</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46044.41666666666</v>
+        <v>46046.41666666666</v>
       </c>
       <c r="B41">
-        <v>729.9349999999999</v>
+        <v>139.836</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46044.42708333334</v>
+        <v>46046.42708333334</v>
       </c>
       <c r="B42">
-        <v>705.603</v>
+        <v>159.441</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46044.4375</v>
+        <v>46046.4375</v>
       </c>
       <c r="B43">
-        <v>685.418</v>
+        <v>159.49</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46044.44791666666</v>
+        <v>46046.44791666666</v>
       </c>
       <c r="B44">
-        <v>664.668</v>
+        <v>159.711</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46044.45833333334</v>
+        <v>46046.45833333334</v>
       </c>
       <c r="B45">
-        <v>643.338</v>
+        <v>158.988</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46044.46875</v>
+        <v>46046.46875</v>
       </c>
       <c r="B46">
-        <v>627.0410000000001</v>
+        <v>161.536</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46044.47916666666</v>
+        <v>46046.47916666666</v>
       </c>
       <c r="B47">
-        <v>617.641</v>
+        <v>162.513</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46044.48958333334</v>
+        <v>46046.48958333334</v>
       </c>
       <c r="B48">
-        <v>609.414</v>
+        <v>162.288</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46044.5</v>
+        <v>46046.5</v>
       </c>
       <c r="B49">
-        <v>602.287</v>
+        <v>163.184</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46044.51041666666</v>
+        <v>46046.51041666666</v>
       </c>
       <c r="B50">
-        <v>596.312</v>
+        <v>167.535</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46044.52083333334</v>
+        <v>46046.52083333334</v>
       </c>
       <c r="B51">
-        <v>591.104</v>
+        <v>171.695</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46044.53125</v>
+        <v>46046.53125</v>
       </c>
       <c r="B52">
-        <v>585.526</v>
+        <v>176.141</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46044.54166666666</v>
+        <v>46046.54166666666</v>
       </c>
       <c r="B53">
-        <v>579.547</v>
+        <v>180.376</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46044.55208333334</v>
+        <v>46046.55208333334</v>
       </c>
       <c r="B54">
-        <v>571.093</v>
+        <v>191.067</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46044.5625</v>
+        <v>46046.5625</v>
       </c>
       <c r="B55">
-        <v>567.691</v>
+        <v>202.355</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46044.57291666666</v>
+        <v>46046.57291666666</v>
       </c>
       <c r="B56">
-        <v>564.538</v>
+        <v>212.429</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46044.58333333334</v>
+        <v>46046.58333333334</v>
       </c>
       <c r="B57">
-        <v>561.157</v>
+        <v>223.967</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46044.59375</v>
+        <v>46046.59375</v>
       </c>
       <c r="B58">
-        <v>570.9690000000001</v>
+        <v>244.759</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46044.60416666666</v>
+        <v>46046.60416666666</v>
       </c>
       <c r="B59">
-        <v>580.865</v>
+        <v>261.394</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46044.61458333334</v>
+        <v>46046.61458333334</v>
       </c>
       <c r="B60">
-        <v>591.946</v>
+        <v>276.635</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46044.625</v>
+        <v>46046.625</v>
       </c>
       <c r="B61">
-        <v>601.39</v>
+        <v>293.032</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46044.63541666666</v>
+        <v>46046.63541666666</v>
       </c>
       <c r="B62">
-        <v>613.877</v>
+        <v>315.516</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46044.64583333334</v>
+        <v>46046.64583333334</v>
       </c>
       <c r="B63">
-        <v>622.427</v>
+        <v>327.263</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46044.65625</v>
+        <v>46046.65625</v>
       </c>
       <c r="B64">
-        <v>629.9589999999999</v>
+        <v>338.597</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46044.66666666666</v>
+        <v>46046.66666666666</v>
       </c>
       <c r="B65">
-        <v>637.362</v>
+        <v>350.391</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46044.67708333334</v>
+        <v>46046.67708333334</v>
       </c>
       <c r="B66">
-        <v>643.788</v>
+        <v>383.797</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46044.6875</v>
+        <v>46046.6875</v>
       </c>
       <c r="B67">
-        <v>641.907</v>
+        <v>404.337</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46044.69791666666</v>
+        <v>46046.69791666666</v>
       </c>
       <c r="B68">
-        <v>640.4349999999999</v>
+        <v>424.162</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46044.70833333334</v>
+        <v>46046.70833333334</v>
       </c>
       <c r="B69">
-        <v>636.563</v>
+        <v>444.898</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46044.71875</v>
+        <v>46046.71875</v>
       </c>
       <c r="B70">
-        <v>621.787</v>
+        <v>493.061</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46044.72916666666</v>
+        <v>46046.72916666666</v>
       </c>
       <c r="B71">
-        <v>613.532</v>
+        <v>513.91</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46044.73958333334</v>
+        <v>46046.73958333334</v>
       </c>
       <c r="B72">
-        <v>606.336</v>
+        <v>536.133</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46044.75</v>
+        <v>46046.75</v>
       </c>
       <c r="B73">
-        <v>598.908</v>
+        <v>558.796</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46044.76041666666</v>
+        <v>46046.76041666666</v>
       </c>
       <c r="B74">
-        <v>574.471</v>
+        <v>593.374</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46044.77083333334</v>
+        <v>46046.77083333334</v>
       </c>
       <c r="B75">
-        <v>553.702</v>
+        <v>603.645</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46044.78125</v>
+        <v>46046.78125</v>
       </c>
       <c r="B76">
-        <v>533.385</v>
+        <v>613.691</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46044.79166666666</v>
+        <v>46046.79166666666</v>
       </c>
       <c r="B77">
-        <v>512.284</v>
+        <v>625.3920000000001</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46044.80208333334</v>
+        <v>46046.80208333334</v>
       </c>
       <c r="B78">
-        <v>493.54</v>
+        <v>641.533</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46044.8125</v>
+        <v>46046.8125</v>
       </c>
       <c r="B79">
-        <v>473.792</v>
+        <v>647.958</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46044.82291666666</v>
+        <v>46046.82291666666</v>
       </c>
       <c r="B80">
-        <v>455.61</v>
+        <v>654.026</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46044.83333333334</v>
+        <v>46046.83333333334</v>
       </c>
       <c r="B81">
-        <v>437.834</v>
+        <v>660.431</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46044.84375</v>
+        <v>46046.84375</v>
       </c>
       <c r="B82">
-        <v>411.822</v>
+        <v>668.573</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46044.85416666666</v>
+        <v>46046.85416666666</v>
       </c>
       <c r="B83">
-        <v>400.777</v>
+        <v>672.7329999999999</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46044.86458333334</v>
+        <v>46046.86458333334</v>
       </c>
       <c r="B84">
-        <v>388.147</v>
+        <v>675.629</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46044.875</v>
+        <v>46046.875</v>
       </c>
       <c r="B85">
-        <v>375.682</v>
+        <v>678.681</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46044.88541666666</v>
+        <v>46046.88541666666</v>
       </c>
       <c r="B86">
-        <v>353.186</v>
+        <v>680.313</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46044.89583333334</v>
+        <v>46046.89583333334</v>
       </c>
       <c r="B87">
-        <v>340.238</v>
+        <v>684.021</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46044.90625</v>
+        <v>46046.90625</v>
       </c>
       <c r="B88">
-        <v>329.167</v>
+        <v>688.458</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46044.91666666666</v>
+        <v>46046.91666666666</v>
       </c>
       <c r="B89">
-        <v>321.449</v>
+        <v>691.741</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46044.92708333334</v>
+        <v>46046.92708333334</v>
       </c>
       <c r="B90">
-        <v>311.862</v>
+        <v>691.1130000000001</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46044.9375</v>
+        <v>46046.9375</v>
       </c>
       <c r="B91">
-        <v>308.91</v>
+        <v>693.045</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46044.94791666666</v>
+        <v>46046.94791666666</v>
       </c>
       <c r="B92">
-        <v>303.067</v>
+        <v>694.575</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46044.95833333334</v>
+        <v>46046.95833333334</v>
       </c>
       <c r="B93">
-        <v>297.061</v>
+        <v>696.1900000000001</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46044.96875</v>
+        <v>46046.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46044.97916666666</v>
+        <v>46046.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46044.98958333334</v>
+        <v>46046.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46046.01041666666</v>
+        <v>46048.01041666666</v>
       </c>
       <c r="B2">
-        <v>249.749</v>
+        <v>1101.716</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46046.02083333334</v>
+        <v>46048.02083333334</v>
       </c>
       <c r="B3">
-        <v>246.398</v>
+        <v>1102.039</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46046.03125</v>
+        <v>46048.03125</v>
       </c>
       <c r="B4">
-        <v>242.562</v>
+        <v>1105.753</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46046.04166666666</v>
+        <v>46048.04166666666</v>
       </c>
       <c r="B5">
-        <v>239.851</v>
+        <v>1107.947</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46046.05208333334</v>
+        <v>46048.05208333334</v>
       </c>
       <c r="B6">
-        <v>232.206</v>
+        <v>1086.88</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46046.0625</v>
+        <v>46048.0625</v>
       </c>
       <c r="B7">
-        <v>225.794</v>
+        <v>1083.883</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46046.07291666666</v>
+        <v>46048.07291666666</v>
       </c>
       <c r="B8">
-        <v>221.343</v>
+        <v>1080.828</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46046.08333333334</v>
+        <v>46048.08333333334</v>
       </c>
       <c r="B9">
-        <v>215.796</v>
+        <v>1090.565</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46046.09375</v>
+        <v>46048.09375</v>
       </c>
       <c r="B10">
-        <v>203.927</v>
+        <v>1112.264</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46046.10416666666</v>
+        <v>46048.10416666666</v>
       </c>
       <c r="B11">
-        <v>200.271</v>
+        <v>1111.065</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46046.11458333334</v>
+        <v>46048.11458333334</v>
       </c>
       <c r="B12">
-        <v>195.829</v>
+        <v>1094.499</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46046.125</v>
+        <v>46048.125</v>
       </c>
       <c r="B13">
-        <v>190.87</v>
+        <v>1100.095</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46046.13541666666</v>
+        <v>46048.13541666666</v>
       </c>
       <c r="B14">
-        <v>184.661</v>
+        <v>1125.717</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46046.14583333334</v>
+        <v>46048.14583333334</v>
       </c>
       <c r="B15">
-        <v>179.079</v>
+        <v>1141.02</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46046.15625</v>
+        <v>46048.15625</v>
       </c>
       <c r="B16">
-        <v>174.598</v>
+        <v>1153.939</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46046.16666666666</v>
+        <v>46048.16666666666</v>
       </c>
       <c r="B17">
-        <v>170.409</v>
+        <v>1164.699</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46046.17708333334</v>
+        <v>46048.17708333334</v>
       </c>
       <c r="B18">
-        <v>165.129</v>
+        <v>1202.892</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46046.1875</v>
+        <v>46048.1875</v>
       </c>
       <c r="B19">
-        <v>162.833</v>
+        <v>1223.042</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46046.19791666666</v>
+        <v>46048.19791666666</v>
       </c>
       <c r="B20">
-        <v>159.561</v>
+        <v>1243.582</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46046.20833333334</v>
+        <v>46048.20833333334</v>
       </c>
       <c r="B21">
-        <v>156.313</v>
+        <v>1269.881</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46046.21875</v>
+        <v>46048.21875</v>
       </c>
       <c r="B22">
-        <v>146.621</v>
+        <v>1321.709</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46046.22916666666</v>
+        <v>46048.22916666666</v>
       </c>
       <c r="B23">
-        <v>144.578</v>
+        <v>1331.1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46046.23958333334</v>
+        <v>46048.23958333334</v>
       </c>
       <c r="B24">
-        <v>142.626</v>
+        <v>1364.465</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46046.25</v>
+        <v>46048.25</v>
       </c>
       <c r="B25">
-        <v>140.528</v>
+        <v>1387.2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46046.26041666666</v>
+        <v>46048.26041666666</v>
       </c>
       <c r="B26">
-        <v>138.326</v>
+        <v>1414.398</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46046.27083333334</v>
+        <v>46048.27083333334</v>
       </c>
       <c r="B27">
-        <v>138.975</v>
+        <v>1451.946</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46046.28125</v>
+        <v>46048.28125</v>
       </c>
       <c r="B28">
-        <v>139.92</v>
+        <v>1481.248</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46046.29166666666</v>
+        <v>46048.29166666666</v>
       </c>
       <c r="B29">
-        <v>141.167</v>
+        <v>1514.838</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46046.30208333334</v>
+        <v>46048.30208333334</v>
       </c>
       <c r="B30">
-        <v>130.7</v>
+        <v>1542.983</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46046.3125</v>
+        <v>46048.3125</v>
       </c>
       <c r="B31">
-        <v>132.828</v>
+        <v>1569.846</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46046.32291666666</v>
+        <v>46048.32291666666</v>
       </c>
       <c r="B32">
-        <v>134.899</v>
+        <v>1609.337</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46046.33333333334</v>
+        <v>46048.33333333334</v>
       </c>
       <c r="B33">
-        <v>136.978</v>
+        <v>1652.398</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46046.34375</v>
+        <v>46048.34375</v>
       </c>
       <c r="B34">
-        <v>132.843</v>
+        <v>1669.671</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46046.35416666666</v>
+        <v>46048.35416666666</v>
       </c>
       <c r="B35">
-        <v>131.746</v>
+        <v>1682.026</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46046.36458333334</v>
+        <v>46048.36458333334</v>
       </c>
       <c r="B36">
-        <v>131.627</v>
+        <v>1692.539</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46046.375</v>
+        <v>46048.375</v>
       </c>
       <c r="B37">
-        <v>131.184</v>
+        <v>1702.331</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46046.38541666666</v>
+        <v>46048.38541666666</v>
       </c>
       <c r="B38">
-        <v>140.881</v>
+        <v>1754.731</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46046.39583333334</v>
+        <v>46048.39583333334</v>
       </c>
       <c r="B39">
-        <v>139.694</v>
+        <v>1758.813</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46046.40625</v>
+        <v>46048.40625</v>
       </c>
       <c r="B40">
-        <v>139.847</v>
+        <v>1761.748</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46046.41666666666</v>
+        <v>46048.41666666666</v>
       </c>
       <c r="B41">
-        <v>139.836</v>
+        <v>1765.151</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46046.42708333334</v>
+        <v>46048.42708333334</v>
       </c>
       <c r="B42">
-        <v>159.441</v>
+        <v>1748.232</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46046.4375</v>
+        <v>46048.4375</v>
       </c>
       <c r="B43">
-        <v>159.49</v>
+        <v>1751.486</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46046.44791666666</v>
+        <v>46048.44791666666</v>
       </c>
       <c r="B44">
-        <v>159.711</v>
+        <v>1754.289</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46046.45833333334</v>
+        <v>46048.45833333334</v>
       </c>
       <c r="B45">
-        <v>158.988</v>
+        <v>1757.821</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46046.46875</v>
+        <v>46048.46875</v>
       </c>
       <c r="B46">
-        <v>161.536</v>
+        <v>1788.058</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46046.47916666666</v>
+        <v>46048.47916666666</v>
       </c>
       <c r="B47">
-        <v>162.513</v>
+        <v>1795.429</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46046.48958333334</v>
+        <v>46048.48958333334</v>
       </c>
       <c r="B48">
-        <v>162.288</v>
+        <v>1803.093</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46046.5</v>
+        <v>46048.5</v>
       </c>
       <c r="B49">
-        <v>163.184</v>
+        <v>1808.888</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46046.51041666666</v>
+        <v>46048.51041666666</v>
       </c>
       <c r="B50">
-        <v>167.535</v>
+        <v>1823.814</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46046.52083333334</v>
+        <v>46048.52083333334</v>
       </c>
       <c r="B51">
-        <v>171.695</v>
+        <v>1835.011</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46046.53125</v>
+        <v>46048.53125</v>
       </c>
       <c r="B52">
-        <v>176.141</v>
+        <v>1846.892</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46046.54166666666</v>
+        <v>46048.54166666666</v>
       </c>
       <c r="B53">
-        <v>180.376</v>
+        <v>1861.2</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46046.55208333334</v>
+        <v>46048.55208333334</v>
       </c>
       <c r="B54">
-        <v>191.067</v>
+        <v>1883.215</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46046.5625</v>
+        <v>46048.5625</v>
       </c>
       <c r="B55">
-        <v>202.355</v>
+        <v>1895.295</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46046.57291666666</v>
+        <v>46048.57291666666</v>
       </c>
       <c r="B56">
-        <v>212.429</v>
+        <v>1906.769</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46046.58333333334</v>
+        <v>46048.58333333334</v>
       </c>
       <c r="B57">
-        <v>223.967</v>
+        <v>1918.476</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46046.59375</v>
+        <v>46048.59375</v>
       </c>
       <c r="B58">
-        <v>244.759</v>
+        <v>1950.239</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46046.60416666666</v>
+        <v>46048.60416666666</v>
       </c>
       <c r="B59">
-        <v>261.394</v>
+        <v>1959.19</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46046.61458333334</v>
+        <v>46048.61458333334</v>
       </c>
       <c r="B60">
-        <v>276.635</v>
+        <v>1966.8</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46046.625</v>
+        <v>46048.625</v>
       </c>
       <c r="B61">
-        <v>293.032</v>
+        <v>1975.237</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46046.63541666666</v>
+        <v>46048.63541666666</v>
       </c>
       <c r="B62">
-        <v>315.516</v>
+        <v>1993.795</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46046.64583333334</v>
+        <v>46048.64583333334</v>
       </c>
       <c r="B63">
-        <v>327.263</v>
+        <v>2001.035</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46046.65625</v>
+        <v>46048.65625</v>
       </c>
       <c r="B64">
-        <v>338.597</v>
+        <v>2008.698</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46046.66666666666</v>
+        <v>46048.66666666666</v>
       </c>
       <c r="B65">
-        <v>350.391</v>
+        <v>2015.384</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46046.67708333334</v>
+        <v>46048.67708333334</v>
       </c>
       <c r="B66">
-        <v>383.797</v>
+        <v>2027.816</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46046.6875</v>
+        <v>46048.6875</v>
       </c>
       <c r="B67">
-        <v>404.337</v>
+        <v>2037.76</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46046.69791666666</v>
+        <v>46048.69791666666</v>
       </c>
       <c r="B68">
-        <v>424.162</v>
+        <v>2046.713</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46046.70833333334</v>
+        <v>46048.70833333334</v>
       </c>
       <c r="B69">
-        <v>444.898</v>
+        <v>2054.723</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46046.71875</v>
+        <v>46048.71875</v>
       </c>
       <c r="B70">
-        <v>493.061</v>
+        <v>2069.757</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46046.72916666666</v>
+        <v>46048.72916666666</v>
       </c>
       <c r="B71">
-        <v>513.91</v>
+        <v>2076.09</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46046.73958333334</v>
+        <v>46048.73958333334</v>
       </c>
       <c r="B72">
-        <v>536.133</v>
+        <v>2078.482</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46046.75</v>
+        <v>46048.75</v>
       </c>
       <c r="B73">
-        <v>558.796</v>
+        <v>2081.26</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46046.76041666666</v>
+        <v>46048.76041666666</v>
       </c>
       <c r="B74">
-        <v>593.374</v>
+        <v>2091.872</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46046.77083333334</v>
+        <v>46048.77083333334</v>
       </c>
       <c r="B75">
-        <v>603.645</v>
+        <v>2092.214</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46046.78125</v>
+        <v>46048.78125</v>
       </c>
       <c r="B76">
-        <v>613.691</v>
+        <v>2090.851</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46046.79166666666</v>
+        <v>46048.79166666666</v>
       </c>
       <c r="B77">
-        <v>625.3920000000001</v>
+        <v>2091.227</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46046.80208333334</v>
+        <v>46048.80208333334</v>
       </c>
       <c r="B78">
-        <v>641.533</v>
+        <v>2102.51</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46046.8125</v>
+        <v>46048.8125</v>
       </c>
       <c r="B79">
-        <v>647.958</v>
+        <v>2105.951</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46046.82291666666</v>
+        <v>46048.82291666666</v>
       </c>
       <c r="B80">
-        <v>654.026</v>
+        <v>2109.178</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46046.83333333334</v>
+        <v>46048.83333333334</v>
       </c>
       <c r="B81">
-        <v>660.431</v>
+        <v>2114.225</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46046.84375</v>
+        <v>46048.84375</v>
       </c>
       <c r="B82">
-        <v>668.573</v>
+        <v>2116.677</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46046.85416666666</v>
+        <v>46048.85416666666</v>
       </c>
       <c r="B83">
-        <v>672.7329999999999</v>
+        <v>2125.973</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46046.86458333334</v>
+        <v>46048.86458333334</v>
       </c>
       <c r="B84">
-        <v>675.629</v>
+        <v>2134.939</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46046.875</v>
+        <v>46048.875</v>
       </c>
       <c r="B85">
-        <v>678.681</v>
+        <v>2142.235</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46046.88541666666</v>
+        <v>46048.88541666666</v>
       </c>
       <c r="B86">
-        <v>680.313</v>
+        <v>2142.705</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46046.89583333334</v>
+        <v>46048.89583333334</v>
       </c>
       <c r="B87">
-        <v>684.021</v>
+        <v>2140.639</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46046.90625</v>
+        <v>46048.90625</v>
       </c>
       <c r="B88">
-        <v>688.458</v>
+        <v>2134.807</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46046.91666666666</v>
+        <v>46048.91666666666</v>
       </c>
       <c r="B89">
-        <v>691.741</v>
+        <v>2131.16</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46046.92708333334</v>
+        <v>46048.92708333334</v>
       </c>
       <c r="B90">
-        <v>691.1130000000001</v>
+        <v>2124.294</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46046.9375</v>
+        <v>46048.9375</v>
       </c>
       <c r="B91">
-        <v>693.045</v>
+        <v>2114.384</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46046.94791666666</v>
+        <v>46048.94791666666</v>
       </c>
       <c r="B92">
-        <v>694.575</v>
+        <v>2104.221</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46046.95833333334</v>
+        <v>46048.95833333334</v>
       </c>
       <c r="B93">
-        <v>696.1900000000001</v>
+        <v>2094.773</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46046.96875</v>
+        <v>46048.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46046.97916666666</v>
+        <v>46048.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46046.98958333334</v>
+        <v>46048.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46048.01041666666</v>
+        <v>46049.01041666666</v>
       </c>
       <c r="B2">
-        <v>1101.716</v>
+        <v>1974.837</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46048.02083333334</v>
+        <v>46049.02083333334</v>
       </c>
       <c r="B3">
-        <v>1102.039</v>
+        <v>1954.002</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46048.03125</v>
+        <v>46049.03125</v>
       </c>
       <c r="B4">
-        <v>1105.753</v>
+        <v>1932.784</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46048.04166666666</v>
+        <v>46049.04166666666</v>
       </c>
       <c r="B5">
-        <v>1107.947</v>
+        <v>1925.656</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46048.05208333334</v>
+        <v>46049.05208333334</v>
       </c>
       <c r="B6">
-        <v>1086.88</v>
+        <v>1883.287</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46048.0625</v>
+        <v>46049.0625</v>
       </c>
       <c r="B7">
-        <v>1083.883</v>
+        <v>1843.881</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46048.07291666666</v>
+        <v>46049.07291666666</v>
       </c>
       <c r="B8">
-        <v>1080.828</v>
+        <v>1798.173</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46048.08333333334</v>
+        <v>46049.08333333334</v>
       </c>
       <c r="B9">
-        <v>1090.565</v>
+        <v>1757.249</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46048.09375</v>
+        <v>46049.09375</v>
       </c>
       <c r="B10">
-        <v>1112.264</v>
+        <v>1703.303</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46048.10416666666</v>
+        <v>46049.10416666666</v>
       </c>
       <c r="B11">
-        <v>1111.065</v>
+        <v>1644.679</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46048.11458333334</v>
+        <v>46049.11458333334</v>
       </c>
       <c r="B12">
-        <v>1094.499</v>
+        <v>1592.678</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46048.125</v>
+        <v>46049.125</v>
       </c>
       <c r="B13">
-        <v>1100.095</v>
+        <v>1534.322</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46048.13541666666</v>
+        <v>46049.13541666666</v>
       </c>
       <c r="B14">
-        <v>1125.717</v>
+        <v>1477.361</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46048.14583333334</v>
+        <v>46049.14583333334</v>
       </c>
       <c r="B15">
-        <v>1141.02</v>
+        <v>1457.716</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46048.15625</v>
+        <v>46049.15625</v>
       </c>
       <c r="B16">
-        <v>1153.939</v>
+        <v>1407.104</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46048.16666666666</v>
+        <v>46049.16666666666</v>
       </c>
       <c r="B17">
-        <v>1164.699</v>
+        <v>1358.555</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46048.17708333334</v>
+        <v>46049.17708333334</v>
       </c>
       <c r="B18">
-        <v>1202.892</v>
+        <v>1257.145</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46048.1875</v>
+        <v>46049.1875</v>
       </c>
       <c r="B19">
-        <v>1223.042</v>
+        <v>1207.411</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46048.19791666666</v>
+        <v>46049.19791666666</v>
       </c>
       <c r="B20">
-        <v>1243.582</v>
+        <v>1157.217</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46048.20833333334</v>
+        <v>46049.20833333334</v>
       </c>
       <c r="B21">
-        <v>1269.881</v>
+        <v>1109.479</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46048.21875</v>
+        <v>46049.21875</v>
       </c>
       <c r="B22">
-        <v>1321.709</v>
+        <v>965.3680000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46048.22916666666</v>
+        <v>46049.22916666666</v>
       </c>
       <c r="B23">
-        <v>1331.1</v>
+        <v>930.788</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46048.23958333334</v>
+        <v>46049.23958333334</v>
       </c>
       <c r="B24">
-        <v>1364.465</v>
+        <v>891.154</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46048.25</v>
+        <v>46049.25</v>
       </c>
       <c r="B25">
-        <v>1387.2</v>
+        <v>837.203</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46048.26041666666</v>
+        <v>46049.26041666666</v>
       </c>
       <c r="B26">
-        <v>1414.398</v>
+        <v>743.835</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46048.27083333334</v>
+        <v>46049.27083333334</v>
       </c>
       <c r="B27">
-        <v>1451.946</v>
+        <v>686.65</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46048.28125</v>
+        <v>46049.28125</v>
       </c>
       <c r="B28">
-        <v>1481.248</v>
+        <v>647.857</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46048.29166666666</v>
+        <v>46049.29166666666</v>
       </c>
       <c r="B29">
-        <v>1514.838</v>
+        <v>604.904</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46048.30208333334</v>
+        <v>46049.30208333334</v>
       </c>
       <c r="B30">
-        <v>1542.983</v>
+        <v>568.997</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46048.3125</v>
+        <v>46049.3125</v>
       </c>
       <c r="B31">
-        <v>1569.846</v>
+        <v>548.943</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46048.32291666666</v>
+        <v>46049.32291666666</v>
       </c>
       <c r="B32">
-        <v>1609.337</v>
+        <v>523.662</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46048.33333333334</v>
+        <v>46049.33333333334</v>
       </c>
       <c r="B33">
-        <v>1652.398</v>
+        <v>494.949</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46048.34375</v>
+        <v>46049.34375</v>
       </c>
       <c r="B34">
-        <v>1669.671</v>
+        <v>444.617</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46048.35416666666</v>
+        <v>46049.35416666666</v>
       </c>
       <c r="B35">
-        <v>1682.026</v>
+        <v>425.238</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46048.36458333334</v>
+        <v>46049.36458333334</v>
       </c>
       <c r="B36">
-        <v>1692.539</v>
+        <v>390.342</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46048.375</v>
+        <v>46049.375</v>
       </c>
       <c r="B37">
-        <v>1702.331</v>
+        <v>369.207</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46048.38541666666</v>
+        <v>46049.38541666666</v>
       </c>
       <c r="B38">
-        <v>1754.731</v>
+        <v>316.628</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46048.39583333334</v>
+        <v>46049.39583333334</v>
       </c>
       <c r="B39">
-        <v>1758.813</v>
+        <v>302.658</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46048.40625</v>
+        <v>46049.40625</v>
       </c>
       <c r="B40">
-        <v>1761.748</v>
+        <v>275.073</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46048.41666666666</v>
+        <v>46049.41666666666</v>
       </c>
       <c r="B41">
-        <v>1765.151</v>
+        <v>261.815</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46048.42708333334</v>
+        <v>46049.42708333334</v>
       </c>
       <c r="B42">
-        <v>1748.232</v>
+        <v>238.008</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46048.4375</v>
+        <v>46049.4375</v>
       </c>
       <c r="B43">
-        <v>1751.486</v>
+        <v>231.883</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46048.44791666666</v>
+        <v>46049.44791666666</v>
       </c>
       <c r="B44">
-        <v>1754.289</v>
+        <v>225.48</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46048.45833333334</v>
+        <v>46049.45833333334</v>
       </c>
       <c r="B45">
-        <v>1757.821</v>
+        <v>218.87</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46048.46875</v>
+        <v>46049.46875</v>
       </c>
       <c r="B46">
-        <v>1788.058</v>
+        <v>206.183</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46048.47916666666</v>
+        <v>46049.47916666666</v>
       </c>
       <c r="B47">
-        <v>1795.429</v>
+        <v>201.691</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46048.48958333334</v>
+        <v>46049.48958333334</v>
       </c>
       <c r="B48">
-        <v>1803.093</v>
+        <v>196.876</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46048.5</v>
+        <v>46049.5</v>
       </c>
       <c r="B49">
-        <v>1808.888</v>
+        <v>192.095</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46048.51041666666</v>
+        <v>46049.51041666666</v>
       </c>
       <c r="B50">
-        <v>1823.814</v>
+        <v>187.23</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46048.52083333334</v>
+        <v>46049.52083333334</v>
       </c>
       <c r="B51">
-        <v>1835.011</v>
+        <v>184.178</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46048.53125</v>
+        <v>46049.53125</v>
       </c>
       <c r="B52">
-        <v>1846.892</v>
+        <v>181.47</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46048.54166666666</v>
+        <v>46049.54166666666</v>
       </c>
       <c r="B53">
-        <v>1861.2</v>
+        <v>179.028</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46048.55208333334</v>
+        <v>46049.55208333334</v>
       </c>
       <c r="B54">
-        <v>1883.215</v>
+        <v>175.407</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46048.5625</v>
+        <v>46049.5625</v>
       </c>
       <c r="B55">
-        <v>1895.295</v>
+        <v>175.742</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46048.57291666666</v>
+        <v>46049.57291666666</v>
       </c>
       <c r="B56">
-        <v>1906.769</v>
+        <v>177.446</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46048.58333333334</v>
+        <v>46049.58333333334</v>
       </c>
       <c r="B57">
-        <v>1918.476</v>
+        <v>178.5</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46048.59375</v>
+        <v>46049.59375</v>
       </c>
       <c r="B58">
-        <v>1950.239</v>
+        <v>181.447</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46048.60416666666</v>
+        <v>46049.60416666666</v>
       </c>
       <c r="B59">
-        <v>1959.19</v>
+        <v>181.352</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46048.61458333334</v>
+        <v>46049.61458333334</v>
       </c>
       <c r="B60">
-        <v>1966.8</v>
+        <v>181.744</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46048.625</v>
+        <v>46049.625</v>
       </c>
       <c r="B61">
-        <v>1975.237</v>
+        <v>196.884</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46048.63541666666</v>
+        <v>46049.63541666666</v>
       </c>
       <c r="B62">
-        <v>1993.795</v>
+        <v>188.206</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46048.64583333334</v>
+        <v>46049.64583333334</v>
       </c>
       <c r="B63">
-        <v>2001.035</v>
+        <v>209.324</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46048.65625</v>
+        <v>46049.65625</v>
       </c>
       <c r="B64">
-        <v>2008.698</v>
+        <v>215.563</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46048.66666666666</v>
+        <v>46049.66666666666</v>
       </c>
       <c r="B65">
-        <v>2015.384</v>
+        <v>221.56</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46048.67708333334</v>
+        <v>46049.67708333334</v>
       </c>
       <c r="B66">
-        <v>2027.816</v>
+        <v>216.509</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46048.6875</v>
+        <v>46049.6875</v>
       </c>
       <c r="B67">
-        <v>2037.76</v>
+        <v>225.956</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46048.69791666666</v>
+        <v>46049.69791666666</v>
       </c>
       <c r="B68">
-        <v>2046.713</v>
+        <v>248.806</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46048.70833333334</v>
+        <v>46049.70833333334</v>
       </c>
       <c r="B69">
-        <v>2054.723</v>
+        <v>258.029</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46048.71875</v>
+        <v>46049.71875</v>
       </c>
       <c r="B70">
-        <v>2069.757</v>
+        <v>260.149</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46048.72916666666</v>
+        <v>46049.72916666666</v>
       </c>
       <c r="B71">
-        <v>2076.09</v>
+        <v>277.895</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46048.73958333334</v>
+        <v>46049.73958333334</v>
       </c>
       <c r="B72">
-        <v>2078.482</v>
+        <v>282.456</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46048.75</v>
+        <v>46049.75</v>
       </c>
       <c r="B73">
-        <v>2081.26</v>
+        <v>275.149</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46048.76041666666</v>
+        <v>46049.76041666666</v>
       </c>
       <c r="B74">
-        <v>2091.872</v>
+        <v>295.977</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46048.77083333334</v>
+        <v>46049.77083333334</v>
       </c>
       <c r="B75">
-        <v>2092.214</v>
+        <v>304.318</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46048.78125</v>
+        <v>46049.78125</v>
       </c>
       <c r="B76">
-        <v>2090.851</v>
+        <v>312.819</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46048.79166666666</v>
+        <v>46049.79166666666</v>
       </c>
       <c r="B77">
-        <v>2091.227</v>
+        <v>310.149</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46048.80208333334</v>
+        <v>46049.80208333334</v>
       </c>
       <c r="B78">
-        <v>2102.51</v>
+        <v>332.131</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46048.8125</v>
+        <v>46049.8125</v>
       </c>
       <c r="B79">
-        <v>2105.951</v>
+        <v>342.978</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46048.82291666666</v>
+        <v>46049.82291666666</v>
       </c>
       <c r="B80">
-        <v>2109.178</v>
+        <v>352.459</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46048.83333333334</v>
+        <v>46049.83333333334</v>
       </c>
       <c r="B81">
-        <v>2114.225</v>
+        <v>352.315</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46048.84375</v>
+        <v>46049.84375</v>
       </c>
       <c r="B82">
-        <v>2116.677</v>
+        <v>377.231</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46048.85416666666</v>
+        <v>46049.85416666666</v>
       </c>
       <c r="B83">
-        <v>2125.973</v>
+        <v>373.78</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46048.86458333334</v>
+        <v>46049.86458333334</v>
       </c>
       <c r="B84">
-        <v>2134.939</v>
+        <v>380.419</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46048.875</v>
+        <v>46049.875</v>
       </c>
       <c r="B85">
-        <v>2142.235</v>
+        <v>387.249</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46048.88541666666</v>
+        <v>46049.88541666666</v>
       </c>
       <c r="B86">
-        <v>2142.705</v>
+        <v>396.631</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46048.89583333334</v>
+        <v>46049.89583333334</v>
       </c>
       <c r="B87">
-        <v>2140.639</v>
+        <v>401.198</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46048.90625</v>
+        <v>46049.90625</v>
       </c>
       <c r="B88">
-        <v>2134.807</v>
+        <v>404.451</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46048.91666666666</v>
+        <v>46049.91666666666</v>
       </c>
       <c r="B89">
-        <v>2131.16</v>
+        <v>406.218</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46048.92708333334</v>
+        <v>46049.92708333334</v>
       </c>
       <c r="B90">
-        <v>2124.294</v>
+        <v>407.996</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46048.9375</v>
+        <v>46049.9375</v>
       </c>
       <c r="B91">
-        <v>2114.384</v>
+        <v>411.749</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46048.94791666666</v>
+        <v>46049.94791666666</v>
       </c>
       <c r="B92">
-        <v>2104.221</v>
+        <v>415.837</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46048.95833333334</v>
+        <v>46049.95833333334</v>
       </c>
       <c r="B93">
-        <v>2094.773</v>
+        <v>421.176</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46048.96875</v>
+        <v>46049.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46048.97916666666</v>
+        <v>46049.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46048.98958333334</v>
+        <v>46049.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46049.01041666666</v>
+        <v>46056.01041666666</v>
       </c>
       <c r="B2">
-        <v>1974.837</v>
+        <v>154.003</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46049.02083333334</v>
+        <v>46056.02083333334</v>
       </c>
       <c r="B3">
-        <v>1954.002</v>
+        <v>148.826</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46049.03125</v>
+        <v>46056.03125</v>
       </c>
       <c r="B4">
-        <v>1932.784</v>
+        <v>144.383</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46049.04166666666</v>
+        <v>46056.04166666666</v>
       </c>
       <c r="B5">
-        <v>1925.656</v>
+        <v>139.561</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46049.05208333334</v>
+        <v>46056.05208333334</v>
       </c>
       <c r="B6">
-        <v>1883.287</v>
+        <v>131.369</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46049.0625</v>
+        <v>46056.0625</v>
       </c>
       <c r="B7">
-        <v>1843.881</v>
+        <v>126.962</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46049.07291666666</v>
+        <v>46056.07291666666</v>
       </c>
       <c r="B8">
-        <v>1798.173</v>
+        <v>122.441</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46049.08333333334</v>
+        <v>46056.08333333334</v>
       </c>
       <c r="B9">
-        <v>1757.249</v>
+        <v>118.598</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46049.09375</v>
+        <v>46056.09375</v>
       </c>
       <c r="B10">
-        <v>1703.303</v>
+        <v>114.35</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46049.10416666666</v>
+        <v>46056.10416666666</v>
       </c>
       <c r="B11">
-        <v>1644.679</v>
+        <v>111.643</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46049.11458333334</v>
+        <v>46056.11458333334</v>
       </c>
       <c r="B12">
-        <v>1592.678</v>
+        <v>109.267</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46049.125</v>
+        <v>46056.125</v>
       </c>
       <c r="B13">
-        <v>1534.322</v>
+        <v>107.022</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46049.13541666666</v>
+        <v>46056.13541666666</v>
       </c>
       <c r="B14">
-        <v>1477.361</v>
+        <v>103.261</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46049.14583333334</v>
+        <v>46056.14583333334</v>
       </c>
       <c r="B15">
-        <v>1457.716</v>
+        <v>101.261</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46049.15625</v>
+        <v>46056.15625</v>
       </c>
       <c r="B16">
-        <v>1407.104</v>
+        <v>98.959</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46049.16666666666</v>
+        <v>46056.16666666666</v>
       </c>
       <c r="B17">
-        <v>1358.555</v>
+        <v>97.19499999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46049.17708333334</v>
+        <v>46056.17708333334</v>
       </c>
       <c r="B18">
-        <v>1257.145</v>
+        <v>73.86</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46049.1875</v>
+        <v>46056.1875</v>
       </c>
       <c r="B19">
-        <v>1207.411</v>
+        <v>104.835</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46049.19791666666</v>
+        <v>46056.19791666666</v>
       </c>
       <c r="B20">
-        <v>1157.217</v>
+        <v>103.351</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46049.20833333334</v>
+        <v>46056.20833333334</v>
       </c>
       <c r="B21">
-        <v>1109.479</v>
+        <v>102.08</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46049.21875</v>
+        <v>46056.21875</v>
       </c>
       <c r="B22">
-        <v>965.3680000000001</v>
+        <v>77.923</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46049.22916666666</v>
+        <v>46056.22916666666</v>
       </c>
       <c r="B23">
-        <v>930.788</v>
+        <v>76.53100000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46049.23958333334</v>
+        <v>46056.23958333334</v>
       </c>
       <c r="B24">
-        <v>891.154</v>
+        <v>75.20099999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46049.25</v>
+        <v>46056.25</v>
       </c>
       <c r="B25">
-        <v>837.203</v>
+        <v>107.297</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46049.26041666666</v>
+        <v>46056.26041666666</v>
       </c>
       <c r="B26">
-        <v>743.835</v>
+        <v>76.929</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46049.27083333334</v>
+        <v>46056.27083333334</v>
       </c>
       <c r="B27">
-        <v>686.65</v>
+        <v>76.789</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46049.28125</v>
+        <v>46056.28125</v>
       </c>
       <c r="B28">
-        <v>647.857</v>
+        <v>76.97499999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46049.29166666666</v>
+        <v>46056.29166666666</v>
       </c>
       <c r="B29">
-        <v>604.904</v>
+        <v>77.18600000000001</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46049.30208333334</v>
+        <v>46056.30208333334</v>
       </c>
       <c r="B30">
-        <v>568.997</v>
+        <v>69.506</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46049.3125</v>
+        <v>46056.3125</v>
       </c>
       <c r="B31">
-        <v>548.943</v>
+        <v>70.932</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46049.32291666666</v>
+        <v>46056.32291666666</v>
       </c>
       <c r="B32">
-        <v>523.662</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46049.33333333334</v>
+        <v>46056.33333333334</v>
       </c>
       <c r="B33">
-        <v>494.949</v>
+        <v>81.31999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46049.34375</v>
+        <v>46056.34375</v>
       </c>
       <c r="B34">
-        <v>444.617</v>
+        <v>73.096</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46049.35416666666</v>
+        <v>46056.35416666666</v>
       </c>
       <c r="B35">
-        <v>425.238</v>
+        <v>74.39400000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46049.36458333334</v>
+        <v>46056.36458333334</v>
       </c>
       <c r="B36">
-        <v>390.342</v>
+        <v>77.167</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46049.375</v>
+        <v>46056.375</v>
       </c>
       <c r="B37">
-        <v>369.207</v>
+        <v>77.78400000000001</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46049.38541666666</v>
+        <v>46056.38541666666</v>
       </c>
       <c r="B38">
-        <v>316.628</v>
+        <v>104.846</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46049.39583333334</v>
+        <v>46056.39583333334</v>
       </c>
       <c r="B39">
-        <v>302.658</v>
+        <v>105.444</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46049.40625</v>
+        <v>46056.40625</v>
       </c>
       <c r="B40">
-        <v>275.073</v>
+        <v>105.095</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46049.41666666666</v>
+        <v>46056.41666666666</v>
       </c>
       <c r="B41">
-        <v>261.815</v>
+        <v>105.826</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46049.42708333334</v>
+        <v>46056.42708333334</v>
       </c>
       <c r="B42">
-        <v>238.008</v>
+        <v>111.221</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46049.4375</v>
+        <v>46056.4375</v>
       </c>
       <c r="B43">
-        <v>231.883</v>
+        <v>112.251</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46049.44791666666</v>
+        <v>46056.44791666666</v>
       </c>
       <c r="B44">
-        <v>225.48</v>
+        <v>113.463</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46049.45833333334</v>
+        <v>46056.45833333334</v>
       </c>
       <c r="B45">
-        <v>218.87</v>
+        <v>114.303</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46049.46875</v>
+        <v>46056.46875</v>
       </c>
       <c r="B46">
-        <v>206.183</v>
+        <v>115.169</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46049.47916666666</v>
+        <v>46056.47916666666</v>
       </c>
       <c r="B47">
-        <v>201.691</v>
+        <v>116.636</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46049.48958333334</v>
+        <v>46056.48958333334</v>
       </c>
       <c r="B48">
-        <v>196.876</v>
+        <v>117.575</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46049.5</v>
+        <v>46056.5</v>
       </c>
       <c r="B49">
-        <v>192.095</v>
+        <v>118.651</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46049.51041666666</v>
+        <v>46056.51041666666</v>
       </c>
       <c r="B50">
-        <v>187.23</v>
+        <v>122.039</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46049.52083333334</v>
+        <v>46056.52083333334</v>
       </c>
       <c r="B51">
-        <v>184.178</v>
+        <v>123.929</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46049.53125</v>
+        <v>46056.53125</v>
       </c>
       <c r="B52">
-        <v>181.47</v>
+        <v>126.78</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46049.54166666666</v>
+        <v>46056.54166666666</v>
       </c>
       <c r="B53">
-        <v>179.028</v>
+        <v>128.719</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46049.55208333334</v>
+        <v>46056.55208333334</v>
       </c>
       <c r="B54">
-        <v>175.407</v>
+        <v>134.09</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46049.5625</v>
+        <v>46056.5625</v>
       </c>
       <c r="B55">
-        <v>175.742</v>
+        <v>137.724</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46049.57291666666</v>
+        <v>46056.57291666666</v>
       </c>
       <c r="B56">
-        <v>177.446</v>
+        <v>142.514</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46049.58333333334</v>
+        <v>46056.58333333334</v>
       </c>
       <c r="B57">
-        <v>178.5</v>
+        <v>145.959</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46049.59375</v>
+        <v>46056.59375</v>
       </c>
       <c r="B58">
-        <v>181.447</v>
+        <v>152.466</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46049.60416666666</v>
+        <v>46056.60416666666</v>
       </c>
       <c r="B59">
-        <v>181.352</v>
+        <v>157.746</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46049.61458333334</v>
+        <v>46056.61458333334</v>
       </c>
       <c r="B60">
-        <v>181.744</v>
+        <v>164.443</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46049.625</v>
+        <v>46056.625</v>
       </c>
       <c r="B61">
-        <v>196.884</v>
+        <v>169.527</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46049.63541666666</v>
+        <v>46056.63541666666</v>
       </c>
       <c r="B62">
-        <v>188.206</v>
+        <v>184.667</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46049.64583333334</v>
+        <v>46056.64583333334</v>
       </c>
       <c r="B63">
-        <v>209.324</v>
+        <v>196.697</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46049.65625</v>
+        <v>46056.65625</v>
       </c>
       <c r="B64">
-        <v>215.563</v>
+        <v>208.533</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46049.66666666666</v>
+        <v>46056.66666666666</v>
       </c>
       <c r="B65">
-        <v>221.56</v>
+        <v>246.418</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46049.67708333334</v>
+        <v>46056.67708333334</v>
       </c>
       <c r="B66">
-        <v>216.509</v>
+        <v>253.584</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46049.6875</v>
+        <v>46056.6875</v>
       </c>
       <c r="B67">
-        <v>225.956</v>
+        <v>281.775</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46049.69791666666</v>
+        <v>46056.69791666666</v>
       </c>
       <c r="B68">
-        <v>248.806</v>
+        <v>311.001</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46049.70833333334</v>
+        <v>46056.70833333334</v>
       </c>
       <c r="B69">
-        <v>258.029</v>
+        <v>339.528</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46049.71875</v>
+        <v>46056.71875</v>
       </c>
       <c r="B70">
-        <v>260.149</v>
+        <v>387.296</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46049.72916666666</v>
+        <v>46056.72916666666</v>
       </c>
       <c r="B71">
-        <v>277.895</v>
+        <v>418.698</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46049.73958333334</v>
+        <v>46056.73958333334</v>
       </c>
       <c r="B72">
-        <v>282.456</v>
+        <v>450.255</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46049.75</v>
+        <v>46056.75</v>
       </c>
       <c r="B73">
-        <v>275.149</v>
+        <v>481.633</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46049.76041666666</v>
+        <v>46056.76041666666</v>
       </c>
       <c r="B74">
-        <v>295.977</v>
+        <v>530.521</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46049.77083333334</v>
+        <v>46056.77083333334</v>
       </c>
       <c r="B75">
-        <v>304.318</v>
+        <v>558.141</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46049.78125</v>
+        <v>46056.78125</v>
       </c>
       <c r="B76">
-        <v>312.819</v>
+        <v>586.798</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46049.79166666666</v>
+        <v>46056.79166666666</v>
       </c>
       <c r="B77">
-        <v>310.149</v>
+        <v>614.644</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46049.80208333334</v>
+        <v>46056.80208333334</v>
       </c>
       <c r="B78">
-        <v>332.131</v>
+        <v>653.846</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46049.8125</v>
+        <v>46056.8125</v>
       </c>
       <c r="B79">
-        <v>342.978</v>
+        <v>672.149</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46049.82291666666</v>
+        <v>46056.82291666666</v>
       </c>
       <c r="B80">
-        <v>352.459</v>
+        <v>689.759</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46049.83333333334</v>
+        <v>46056.83333333334</v>
       </c>
       <c r="B81">
-        <v>352.315</v>
+        <v>707.6559999999999</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46049.84375</v>
+        <v>46056.84375</v>
       </c>
       <c r="B82">
-        <v>377.231</v>
+        <v>741.17</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46049.85416666666</v>
+        <v>46056.85416666666</v>
       </c>
       <c r="B83">
-        <v>373.78</v>
+        <v>757.683</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46049.86458333334</v>
+        <v>46056.86458333334</v>
       </c>
       <c r="B84">
-        <v>380.419</v>
+        <v>774.265</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46049.875</v>
+        <v>46056.875</v>
       </c>
       <c r="B85">
-        <v>387.249</v>
+        <v>791.246</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46049.88541666666</v>
+        <v>46056.88541666666</v>
       </c>
       <c r="B86">
-        <v>396.631</v>
+        <v>809.602</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46049.89583333334</v>
+        <v>46056.89583333334</v>
       </c>
       <c r="B87">
-        <v>401.198</v>
+        <v>821.9880000000001</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46049.90625</v>
+        <v>46056.90625</v>
       </c>
       <c r="B88">
-        <v>404.451</v>
+        <v>834.153</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46049.91666666666</v>
+        <v>46056.91666666666</v>
       </c>
       <c r="B89">
-        <v>406.218</v>
+        <v>846.282</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46049.92708333334</v>
+        <v>46056.92708333334</v>
       </c>
       <c r="B90">
-        <v>407.996</v>
+        <v>862.717</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46049.9375</v>
+        <v>46056.9375</v>
       </c>
       <c r="B91">
-        <v>411.749</v>
+        <v>875.299</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46049.94791666666</v>
+        <v>46056.94791666666</v>
       </c>
       <c r="B92">
-        <v>415.837</v>
+        <v>888.052</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46049.95833333334</v>
+        <v>46056.95833333334</v>
       </c>
       <c r="B93">
-        <v>421.176</v>
+        <v>900.475</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46049.96875</v>
+        <v>46056.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46049.97916666666</v>
+        <v>46056.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46049.98958333334</v>
+        <v>46056.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46056.01041666666</v>
+        <v>46069.01041666666</v>
       </c>
       <c r="B2">
-        <v>154.003</v>
+        <v>1699.143</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46056.02083333334</v>
+        <v>46069.02083333334</v>
       </c>
       <c r="B3">
-        <v>148.826</v>
+        <v>1613.831</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46056.03125</v>
+        <v>46069.03125</v>
       </c>
       <c r="B4">
-        <v>144.383</v>
+        <v>1539.913</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46056.04166666666</v>
+        <v>46069.04166666666</v>
       </c>
       <c r="B5">
-        <v>139.561</v>
+        <v>1417.889</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46056.05208333334</v>
+        <v>46069.05208333334</v>
       </c>
       <c r="B6">
-        <v>131.369</v>
+        <v>1363.173</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46056.0625</v>
+        <v>46069.0625</v>
       </c>
       <c r="B7">
-        <v>126.962</v>
+        <v>1290.224</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46056.07291666666</v>
+        <v>46069.07291666666</v>
       </c>
       <c r="B8">
-        <v>122.441</v>
+        <v>1214.651</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46056.08333333334</v>
+        <v>46069.08333333334</v>
       </c>
       <c r="B9">
-        <v>118.598</v>
+        <v>1155.014</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46056.09375</v>
+        <v>46069.09375</v>
       </c>
       <c r="B10">
-        <v>114.35</v>
+        <v>1007.804</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46056.10416666666</v>
+        <v>46069.10416666666</v>
       </c>
       <c r="B11">
-        <v>111.643</v>
+        <v>937.307</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46056.11458333334</v>
+        <v>46069.11458333334</v>
       </c>
       <c r="B12">
-        <v>109.267</v>
+        <v>867.611</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46056.125</v>
+        <v>46069.125</v>
       </c>
       <c r="B13">
-        <v>107.022</v>
+        <v>810.5700000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46056.13541666666</v>
+        <v>46069.13541666666</v>
       </c>
       <c r="B14">
-        <v>103.261</v>
+        <v>742.712</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46056.14583333334</v>
+        <v>46069.14583333334</v>
       </c>
       <c r="B15">
-        <v>101.261</v>
+        <v>699.941</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46056.15625</v>
+        <v>46069.15625</v>
       </c>
       <c r="B16">
-        <v>98.959</v>
+        <v>660.016</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46056.16666666666</v>
+        <v>46069.16666666666</v>
       </c>
       <c r="B17">
-        <v>97.19499999999999</v>
+        <v>618.022</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46056.17708333334</v>
+        <v>46069.17708333334</v>
       </c>
       <c r="B18">
-        <v>73.86</v>
+        <v>568.939</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46056.1875</v>
+        <v>46069.1875</v>
       </c>
       <c r="B19">
-        <v>104.835</v>
+        <v>540.875</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46056.19791666666</v>
+        <v>46069.19791666666</v>
       </c>
       <c r="B20">
-        <v>103.351</v>
+        <v>513.686</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46056.20833333334</v>
+        <v>46069.20833333334</v>
       </c>
       <c r="B21">
-        <v>102.08</v>
+        <v>504.807</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46056.21875</v>
+        <v>46069.21875</v>
       </c>
       <c r="B22">
-        <v>77.923</v>
+        <v>452.196</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46056.22916666666</v>
+        <v>46069.22916666666</v>
       </c>
       <c r="B23">
-        <v>76.53100000000001</v>
+        <v>421.339</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46056.23958333334</v>
+        <v>46069.23958333334</v>
       </c>
       <c r="B24">
-        <v>75.20099999999999</v>
+        <v>397.641</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46056.25</v>
+        <v>46069.25</v>
       </c>
       <c r="B25">
-        <v>107.297</v>
+        <v>406.971</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46056.26041666666</v>
+        <v>46069.26041666666</v>
       </c>
       <c r="B26">
-        <v>76.929</v>
+        <v>363.281</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46056.27083333334</v>
+        <v>46069.27083333334</v>
       </c>
       <c r="B27">
-        <v>76.789</v>
+        <v>335.966</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46056.28125</v>
+        <v>46069.28125</v>
       </c>
       <c r="B28">
-        <v>76.97499999999999</v>
+        <v>317.319</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46056.29166666666</v>
+        <v>46069.29166666666</v>
       </c>
       <c r="B29">
-        <v>77.18600000000001</v>
+        <v>305.86</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46056.30208333334</v>
+        <v>46069.30208333334</v>
       </c>
       <c r="B30">
-        <v>69.506</v>
+        <v>321.44</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46056.3125</v>
+        <v>46069.3125</v>
       </c>
       <c r="B31">
-        <v>70.932</v>
+        <v>286.427</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46056.32291666666</v>
+        <v>46069.32291666666</v>
       </c>
       <c r="B32">
-        <v>72.7</v>
+        <v>271.957</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46056.33333333334</v>
+        <v>46069.33333333334</v>
       </c>
       <c r="B33">
-        <v>81.31999999999999</v>
+        <v>264.858</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46056.34375</v>
+        <v>46069.34375</v>
       </c>
       <c r="B34">
-        <v>73.096</v>
+        <v>243.656</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46056.35416666666</v>
+        <v>46069.35416666666</v>
       </c>
       <c r="B35">
-        <v>74.39400000000001</v>
+        <v>230.081</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46056.36458333334</v>
+        <v>46069.36458333334</v>
       </c>
       <c r="B36">
-        <v>77.167</v>
+        <v>210.575</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46056.375</v>
+        <v>46069.375</v>
       </c>
       <c r="B37">
-        <v>77.78400000000001</v>
+        <v>196.169</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46056.38541666666</v>
+        <v>46069.38541666666</v>
       </c>
       <c r="B38">
-        <v>104.846</v>
+        <v>192.915</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46056.39583333334</v>
+        <v>46069.39583333334</v>
       </c>
       <c r="B39">
-        <v>105.444</v>
+        <v>163.932</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46056.40625</v>
+        <v>46069.40625</v>
       </c>
       <c r="B40">
-        <v>105.095</v>
+        <v>154.234</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46056.41666666666</v>
+        <v>46069.41666666666</v>
       </c>
       <c r="B41">
-        <v>105.826</v>
+        <v>144.519</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46056.42708333334</v>
+        <v>46069.42708333334</v>
       </c>
       <c r="B42">
-        <v>111.221</v>
+        <v>141.76</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46056.4375</v>
+        <v>46069.4375</v>
       </c>
       <c r="B43">
-        <v>112.251</v>
+        <v>136.168</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46056.44791666666</v>
+        <v>46069.44791666666</v>
       </c>
       <c r="B44">
-        <v>113.463</v>
+        <v>131.159</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46056.45833333334</v>
+        <v>46069.45833333334</v>
       </c>
       <c r="B45">
-        <v>114.303</v>
+        <v>125.024</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46056.46875</v>
+        <v>46069.46875</v>
       </c>
       <c r="B46">
-        <v>115.169</v>
+        <v>126.609</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46056.47916666666</v>
+        <v>46069.47916666666</v>
       </c>
       <c r="B47">
-        <v>116.636</v>
+        <v>126.021</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46056.48958333334</v>
+        <v>46069.48958333334</v>
       </c>
       <c r="B48">
-        <v>117.575</v>
+        <v>126.216</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46056.5</v>
+        <v>46069.5</v>
       </c>
       <c r="B49">
-        <v>118.651</v>
+        <v>126.498</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46056.51041666666</v>
+        <v>46069.51041666666</v>
       </c>
       <c r="B50">
-        <v>122.039</v>
+        <v>129.762</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46056.52083333334</v>
+        <v>46069.52083333334</v>
       </c>
       <c r="B51">
-        <v>123.929</v>
+        <v>134.041</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46056.53125</v>
+        <v>46069.53125</v>
       </c>
       <c r="B52">
-        <v>126.78</v>
+        <v>137.887</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46056.54166666666</v>
+        <v>46069.54166666666</v>
       </c>
       <c r="B53">
-        <v>128.719</v>
+        <v>141.787</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46056.55208333334</v>
+        <v>46069.55208333334</v>
       </c>
       <c r="B54">
-        <v>134.09</v>
+        <v>151.789</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46056.5625</v>
+        <v>46069.5625</v>
       </c>
       <c r="B55">
-        <v>137.724</v>
+        <v>160.071</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46056.57291666666</v>
+        <v>46069.57291666666</v>
       </c>
       <c r="B56">
-        <v>142.514</v>
+        <v>169.193</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46056.58333333334</v>
+        <v>46069.58333333334</v>
       </c>
       <c r="B57">
-        <v>145.959</v>
+        <v>177.43</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46056.59375</v>
+        <v>46069.59375</v>
       </c>
       <c r="B58">
-        <v>152.466</v>
+        <v>187.007</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46056.60416666666</v>
+        <v>46069.60416666666</v>
       </c>
       <c r="B59">
-        <v>157.746</v>
+        <v>195.291</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46056.61458333334</v>
+        <v>46069.61458333334</v>
       </c>
       <c r="B60">
-        <v>164.443</v>
+        <v>205.065</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46056.625</v>
+        <v>46069.625</v>
       </c>
       <c r="B61">
-        <v>169.527</v>
+        <v>214.501</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46056.63541666666</v>
+        <v>46069.63541666666</v>
       </c>
       <c r="B62">
-        <v>184.667</v>
+        <v>224.213</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46056.64583333334</v>
+        <v>46069.64583333334</v>
       </c>
       <c r="B63">
-        <v>196.697</v>
+        <v>229.386</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46056.65625</v>
+        <v>46069.65625</v>
       </c>
       <c r="B64">
-        <v>208.533</v>
+        <v>234.852</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46056.66666666666</v>
+        <v>46069.66666666666</v>
       </c>
       <c r="B65">
-        <v>246.418</v>
+        <v>271.115</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46056.67708333334</v>
+        <v>46069.67708333334</v>
       </c>
       <c r="B66">
-        <v>253.584</v>
+        <v>248.112</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46056.6875</v>
+        <v>46069.6875</v>
       </c>
       <c r="B67">
-        <v>281.775</v>
+        <v>254.727</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46056.69791666666</v>
+        <v>46069.69791666666</v>
       </c>
       <c r="B68">
-        <v>311.001</v>
+        <v>261.919</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46056.70833333334</v>
+        <v>46069.70833333334</v>
       </c>
       <c r="B69">
-        <v>339.528</v>
+        <v>269.056</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46056.71875</v>
+        <v>46069.71875</v>
       </c>
       <c r="B70">
-        <v>387.296</v>
+        <v>319.553</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46056.72916666666</v>
+        <v>46069.72916666666</v>
       </c>
       <c r="B71">
-        <v>418.698</v>
+        <v>310.33</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46056.73958333334</v>
+        <v>46069.73958333334</v>
       </c>
       <c r="B72">
-        <v>450.255</v>
+        <v>321.097</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46056.75</v>
+        <v>46069.75</v>
       </c>
       <c r="B73">
-        <v>481.633</v>
+        <v>330.585</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46056.76041666666</v>
+        <v>46069.76041666666</v>
       </c>
       <c r="B74">
-        <v>530.521</v>
+        <v>373.529</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46056.77083333334</v>
+        <v>46069.77083333334</v>
       </c>
       <c r="B75">
-        <v>558.141</v>
+        <v>368.131</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46056.78125</v>
+        <v>46069.78125</v>
       </c>
       <c r="B76">
-        <v>586.798</v>
+        <v>380.964</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46056.79166666666</v>
+        <v>46069.79166666666</v>
       </c>
       <c r="B77">
-        <v>614.644</v>
+        <v>361.019</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46056.80208333334</v>
+        <v>46069.80208333334</v>
       </c>
       <c r="B78">
-        <v>653.846</v>
+        <v>371.639</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46056.8125</v>
+        <v>46069.8125</v>
       </c>
       <c r="B79">
-        <v>672.149</v>
+        <v>377.923</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46056.82291666666</v>
+        <v>46069.82291666666</v>
       </c>
       <c r="B80">
-        <v>689.759</v>
+        <v>405.699</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46056.83333333334</v>
+        <v>46069.83333333334</v>
       </c>
       <c r="B81">
-        <v>707.6559999999999</v>
+        <v>395.404</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46056.84375</v>
+        <v>46069.84375</v>
       </c>
       <c r="B82">
-        <v>741.17</v>
+        <v>420.93</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46056.85416666666</v>
+        <v>46069.85416666666</v>
       </c>
       <c r="B83">
-        <v>757.683</v>
+        <v>406.697</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46056.86458333334</v>
+        <v>46069.86458333334</v>
       </c>
       <c r="B84">
-        <v>774.265</v>
+        <v>411.92</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46056.875</v>
+        <v>46069.875</v>
       </c>
       <c r="B85">
-        <v>791.246</v>
+        <v>418.554</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46056.88541666666</v>
+        <v>46069.88541666666</v>
       </c>
       <c r="B86">
-        <v>809.602</v>
+        <v>449.686</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46056.89583333334</v>
+        <v>46069.89583333334</v>
       </c>
       <c r="B87">
-        <v>821.9880000000001</v>
+        <v>454.145</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46056.90625</v>
+        <v>46069.90625</v>
       </c>
       <c r="B88">
-        <v>834.153</v>
+        <v>472.575</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46056.91666666666</v>
+        <v>46069.91666666666</v>
       </c>
       <c r="B89">
-        <v>846.282</v>
+        <v>490.539</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46056.92708333334</v>
+        <v>46069.92708333334</v>
       </c>
       <c r="B90">
-        <v>862.717</v>
+        <v>516.123</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46056.9375</v>
+        <v>46069.9375</v>
       </c>
       <c r="B91">
-        <v>875.299</v>
+        <v>530.508</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46056.94791666666</v>
+        <v>46069.94791666666</v>
       </c>
       <c r="B92">
-        <v>888.052</v>
+        <v>543.8440000000001</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46056.95833333334</v>
+        <v>46069.95833333334</v>
       </c>
       <c r="B93">
-        <v>900.475</v>
+        <v>558.048</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46056.96875</v>
+        <v>46069.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46056.97916666666</v>
+        <v>46069.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46056.98958333334</v>
+        <v>46069.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46057</v>
+        <v>46070</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46069.01041666666</v>
+        <v>46070.01041666666</v>
       </c>
       <c r="B2">
-        <v>1699.143</v>
+        <v>610.155</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46069.02083333334</v>
+        <v>46070.02083333334</v>
       </c>
       <c r="B3">
-        <v>1613.831</v>
+        <v>622.7329999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46069.03125</v>
+        <v>46070.03125</v>
       </c>
       <c r="B4">
-        <v>1539.913</v>
+        <v>634.5650000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46069.04166666666</v>
+        <v>46070.04166666666</v>
       </c>
       <c r="B5">
-        <v>1417.889</v>
+        <v>647.2910000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46069.05208333334</v>
+        <v>46070.05208333334</v>
       </c>
       <c r="B6">
-        <v>1363.173</v>
+        <v>676.96</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46069.0625</v>
+        <v>46070.0625</v>
       </c>
       <c r="B7">
-        <v>1290.224</v>
+        <v>699.244</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46069.07291666666</v>
+        <v>46070.07291666666</v>
       </c>
       <c r="B8">
-        <v>1214.651</v>
+        <v>722.215</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46069.08333333334</v>
+        <v>46070.08333333334</v>
       </c>
       <c r="B9">
-        <v>1155.014</v>
+        <v>745.693</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46069.09375</v>
+        <v>46070.09375</v>
       </c>
       <c r="B10">
-        <v>1007.804</v>
+        <v>779.1799999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46069.10416666666</v>
+        <v>46070.10416666666</v>
       </c>
       <c r="B11">
-        <v>937.307</v>
+        <v>801.361</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46069.11458333334</v>
+        <v>46070.11458333334</v>
       </c>
       <c r="B12">
-        <v>867.611</v>
+        <v>823.302</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46069.125</v>
+        <v>46070.125</v>
       </c>
       <c r="B13">
-        <v>810.5700000000001</v>
+        <v>844.577</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46069.13541666666</v>
+        <v>46070.13541666666</v>
       </c>
       <c r="B14">
-        <v>742.712</v>
+        <v>894.139</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46069.14583333334</v>
+        <v>46070.14583333334</v>
       </c>
       <c r="B15">
-        <v>699.941</v>
+        <v>921.274</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46069.15625</v>
+        <v>46070.15625</v>
       </c>
       <c r="B16">
-        <v>660.016</v>
+        <v>949.04</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46069.16666666666</v>
+        <v>46070.16666666666</v>
       </c>
       <c r="B17">
-        <v>618.022</v>
+        <v>976.562</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46069.17708333334</v>
+        <v>46070.17708333334</v>
       </c>
       <c r="B18">
-        <v>568.939</v>
+        <v>1032.549</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46069.1875</v>
+        <v>46070.1875</v>
       </c>
       <c r="B19">
-        <v>540.875</v>
+        <v>1072.03</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46069.19791666666</v>
+        <v>46070.19791666666</v>
       </c>
       <c r="B20">
-        <v>513.686</v>
+        <v>1111.022</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46069.20833333334</v>
+        <v>46070.20833333334</v>
       </c>
       <c r="B21">
-        <v>504.807</v>
+        <v>1150.906</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46069.21875</v>
+        <v>46070.21875</v>
       </c>
       <c r="B22">
-        <v>452.196</v>
+        <v>1219.499</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46069.22916666666</v>
+        <v>46070.22916666666</v>
       </c>
       <c r="B23">
-        <v>421.339</v>
+        <v>1267.366</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46069.23958333334</v>
+        <v>46070.23958333334</v>
       </c>
       <c r="B24">
-        <v>397.641</v>
+        <v>1314.879</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46069.25</v>
+        <v>46070.25</v>
       </c>
       <c r="B25">
-        <v>406.971</v>
+        <v>1396.655</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46069.26041666666</v>
+        <v>46070.26041666666</v>
       </c>
       <c r="B26">
-        <v>363.281</v>
+        <v>1422.915</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46069.27083333334</v>
+        <v>46070.27083333334</v>
       </c>
       <c r="B27">
-        <v>335.966</v>
+        <v>1456.81</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46069.28125</v>
+        <v>46070.28125</v>
       </c>
       <c r="B28">
-        <v>317.319</v>
+        <v>1522.308</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46069.29166666666</v>
+        <v>46070.29166666666</v>
       </c>
       <c r="B29">
-        <v>305.86</v>
+        <v>1558.588</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46069.30208333334</v>
+        <v>46070.30208333334</v>
       </c>
       <c r="B30">
-        <v>321.44</v>
+        <v>1589.479</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46069.3125</v>
+        <v>46070.3125</v>
       </c>
       <c r="B31">
-        <v>286.427</v>
+        <v>1606.581</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46069.32291666666</v>
+        <v>46070.32291666666</v>
       </c>
       <c r="B32">
-        <v>271.957</v>
+        <v>1620.897</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46069.33333333334</v>
+        <v>46070.33333333334</v>
       </c>
       <c r="B33">
-        <v>264.858</v>
+        <v>1636.54</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46069.34375</v>
+        <v>46070.34375</v>
       </c>
       <c r="B34">
-        <v>243.656</v>
+        <v>1643.287</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46069.35416666666</v>
+        <v>46070.35416666666</v>
       </c>
       <c r="B35">
-        <v>230.081</v>
+        <v>1668.963</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46069.36458333334</v>
+        <v>46070.36458333334</v>
       </c>
       <c r="B36">
-        <v>210.575</v>
+        <v>1694.65</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46069.375</v>
+        <v>46070.375</v>
       </c>
       <c r="B37">
-        <v>196.169</v>
+        <v>1721.997</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46069.38541666666</v>
+        <v>46070.38541666666</v>
       </c>
       <c r="B38">
-        <v>192.915</v>
+        <v>1771.669</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46069.39583333334</v>
+        <v>46070.39583333334</v>
       </c>
       <c r="B39">
-        <v>163.932</v>
+        <v>1796.292</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46069.40625</v>
+        <v>46070.40625</v>
       </c>
       <c r="B40">
-        <v>154.234</v>
+        <v>1819.563</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46069.41666666666</v>
+        <v>46070.41666666666</v>
       </c>
       <c r="B41">
-        <v>144.519</v>
+        <v>1844.172</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46069.42708333334</v>
+        <v>46070.42708333334</v>
       </c>
       <c r="B42">
-        <v>141.76</v>
+        <v>1890.347</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46069.4375</v>
+        <v>46070.4375</v>
       </c>
       <c r="B43">
-        <v>136.168</v>
+        <v>1916.943</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46069.44791666666</v>
+        <v>46070.44791666666</v>
       </c>
       <c r="B44">
-        <v>131.159</v>
+        <v>1944.919</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46069.45833333334</v>
+        <v>46070.45833333334</v>
       </c>
       <c r="B45">
-        <v>125.024</v>
+        <v>1974.492</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46069.46875</v>
+        <v>46070.46875</v>
       </c>
       <c r="B46">
-        <v>126.609</v>
+        <v>2012.855</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46069.47916666666</v>
+        <v>46070.47916666666</v>
       </c>
       <c r="B47">
-        <v>126.021</v>
+        <v>2036.77</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46069.48958333334</v>
+        <v>46070.48958333334</v>
       </c>
       <c r="B48">
-        <v>126.216</v>
+        <v>2059.049</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46069.5</v>
+        <v>46070.5</v>
       </c>
       <c r="B49">
-        <v>126.498</v>
+        <v>2079.852</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46069.51041666666</v>
+        <v>46070.51041666666</v>
       </c>
       <c r="B50">
-        <v>129.762</v>
+        <v>2110.469</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46069.52083333334</v>
+        <v>46070.52083333334</v>
       </c>
       <c r="B51">
-        <v>134.041</v>
+        <v>2133.3</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46069.53125</v>
+        <v>46070.53125</v>
       </c>
       <c r="B52">
-        <v>137.887</v>
+        <v>2141.844</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46069.54166666666</v>
+        <v>46070.54166666666</v>
       </c>
       <c r="B53">
-        <v>141.787</v>
+        <v>2166.49</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46069.55208333334</v>
+        <v>46070.55208333334</v>
       </c>
       <c r="B54">
-        <v>151.789</v>
+        <v>2200.902</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46069.5625</v>
+        <v>46070.5625</v>
       </c>
       <c r="B55">
-        <v>160.071</v>
+        <v>2218.604</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46069.57291666666</v>
+        <v>46070.57291666666</v>
       </c>
       <c r="B56">
-        <v>169.193</v>
+        <v>2232.56</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46069.58333333334</v>
+        <v>46070.58333333334</v>
       </c>
       <c r="B57">
-        <v>177.43</v>
+        <v>2247.999</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46069.59375</v>
+        <v>46070.59375</v>
       </c>
       <c r="B58">
-        <v>187.007</v>
+        <v>2290.145</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46069.60416666666</v>
+        <v>46070.60416666666</v>
       </c>
       <c r="B59">
-        <v>195.291</v>
+        <v>2303.524</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46069.61458333334</v>
+        <v>46070.61458333334</v>
       </c>
       <c r="B60">
-        <v>205.065</v>
+        <v>2316.275</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46069.625</v>
+        <v>46070.625</v>
       </c>
       <c r="B61">
-        <v>214.501</v>
+        <v>2329.355</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46069.63541666666</v>
+        <v>46070.63541666666</v>
       </c>
       <c r="B62">
-        <v>224.213</v>
+        <v>2355.24</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46069.64583333334</v>
+        <v>46070.64583333334</v>
       </c>
       <c r="B63">
-        <v>229.386</v>
+        <v>2363.817</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46069.65625</v>
+        <v>46070.65625</v>
       </c>
       <c r="B64">
-        <v>234.852</v>
+        <v>2372.477</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46069.66666666666</v>
+        <v>46070.66666666666</v>
       </c>
       <c r="B65">
-        <v>271.115</v>
+        <v>2314.155</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46069.67708333334</v>
+        <v>46070.67708333334</v>
       </c>
       <c r="B66">
-        <v>248.112</v>
+        <v>2322.99</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46069.6875</v>
+        <v>46070.6875</v>
       </c>
       <c r="B67">
-        <v>254.727</v>
+        <v>2398.713</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46069.69791666666</v>
+        <v>46070.69791666666</v>
       </c>
       <c r="B68">
-        <v>261.919</v>
+        <v>2406.908</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46069.70833333334</v>
+        <v>46070.70833333334</v>
       </c>
       <c r="B69">
-        <v>269.056</v>
+        <v>2413.852</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46069.71875</v>
+        <v>46070.71875</v>
       </c>
       <c r="B70">
-        <v>319.553</v>
+        <v>2433.293</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46069.72916666666</v>
+        <v>46070.72916666666</v>
       </c>
       <c r="B71">
-        <v>310.33</v>
+        <v>2432.504</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46069.73958333334</v>
+        <v>46070.73958333334</v>
       </c>
       <c r="B72">
-        <v>321.097</v>
+        <v>2432.357</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46069.75</v>
+        <v>46070.75</v>
       </c>
       <c r="B73">
-        <v>330.585</v>
+        <v>2430.213</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46069.76041666666</v>
+        <v>46070.76041666666</v>
       </c>
       <c r="B74">
-        <v>373.529</v>
+        <v>2425.504</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46069.77083333334</v>
+        <v>46070.77083333334</v>
       </c>
       <c r="B75">
-        <v>368.131</v>
+        <v>2423.982</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46069.78125</v>
+        <v>46070.78125</v>
       </c>
       <c r="B76">
-        <v>380.964</v>
+        <v>2423.517</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46069.79166666666</v>
+        <v>46070.79166666666</v>
       </c>
       <c r="B77">
-        <v>361.019</v>
+        <v>2422.766</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46069.80208333334</v>
+        <v>46070.80208333334</v>
       </c>
       <c r="B78">
-        <v>371.639</v>
+        <v>2426.662</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46069.8125</v>
+        <v>46070.8125</v>
       </c>
       <c r="B79">
-        <v>377.923</v>
+        <v>2426.54</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46069.82291666666</v>
+        <v>46070.82291666666</v>
       </c>
       <c r="B80">
-        <v>405.699</v>
+        <v>2426.833</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46069.83333333334</v>
+        <v>46070.83333333334</v>
       </c>
       <c r="B81">
-        <v>395.404</v>
+        <v>2425.379</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46069.84375</v>
+        <v>46070.84375</v>
       </c>
       <c r="B82">
-        <v>420.93</v>
+        <v>2418.536</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46069.85416666666</v>
+        <v>46070.85416666666</v>
       </c>
       <c r="B83">
-        <v>406.697</v>
+        <v>2416.146</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46069.86458333334</v>
+        <v>46070.86458333334</v>
       </c>
       <c r="B84">
-        <v>411.92</v>
+        <v>2413.646</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46069.875</v>
+        <v>46070.875</v>
       </c>
       <c r="B85">
-        <v>418.554</v>
+        <v>2411.294</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46069.88541666666</v>
+        <v>46070.88541666666</v>
       </c>
       <c r="B86">
-        <v>449.686</v>
+        <v>2401.289</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46069.89583333334</v>
+        <v>46070.89583333334</v>
       </c>
       <c r="B87">
-        <v>454.145</v>
+        <v>2332.134</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46069.90625</v>
+        <v>46070.90625</v>
       </c>
       <c r="B88">
-        <v>472.575</v>
+        <v>2330.047</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46069.91666666666</v>
+        <v>46070.91666666666</v>
       </c>
       <c r="B89">
-        <v>490.539</v>
+        <v>2329.357</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46069.92708333334</v>
+        <v>46070.92708333334</v>
       </c>
       <c r="B90">
-        <v>516.123</v>
+        <v>2399.196</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46069.9375</v>
+        <v>46070.9375</v>
       </c>
       <c r="B91">
-        <v>530.508</v>
+        <v>2341.932</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46069.94791666666</v>
+        <v>46070.94791666666</v>
       </c>
       <c r="B92">
-        <v>543.8440000000001</v>
+        <v>2348.17</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46069.95833333334</v>
+        <v>46070.95833333334</v>
       </c>
       <c r="B93">
-        <v>558.048</v>
+        <v>2354.198</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46069.96875</v>
+        <v>46070.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46069.97916666666</v>
+        <v>46070.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46069.98958333334</v>
+        <v>46070.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46070.01041666666</v>
+        <v>46071.01041666666</v>
       </c>
       <c r="B2">
-        <v>610.155</v>
+        <v>2463.053</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46070.02083333334</v>
+        <v>46071.02083333334</v>
       </c>
       <c r="B3">
-        <v>622.7329999999999</v>
+        <v>2513.594</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46070.03125</v>
+        <v>46071.03125</v>
       </c>
       <c r="B4">
-        <v>634.5650000000001</v>
+        <v>2512.251</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46070.04166666666</v>
+        <v>46071.04166666666</v>
       </c>
       <c r="B5">
-        <v>647.2910000000001</v>
+        <v>2512.578</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46070.05208333334</v>
+        <v>46071.05208333334</v>
       </c>
       <c r="B6">
-        <v>676.96</v>
+        <v>2509.834</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46070.0625</v>
+        <v>46071.0625</v>
       </c>
       <c r="B7">
-        <v>699.244</v>
+        <v>2509.987</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46070.07291666666</v>
+        <v>46071.07291666666</v>
       </c>
       <c r="B8">
-        <v>722.215</v>
+        <v>2513.228</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46070.08333333334</v>
+        <v>46071.08333333334</v>
       </c>
       <c r="B9">
-        <v>745.693</v>
+        <v>2513.173</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46070.09375</v>
+        <v>46071.09375</v>
       </c>
       <c r="B10">
-        <v>779.1799999999999</v>
+        <v>2503.831</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46070.10416666666</v>
+        <v>46071.10416666666</v>
       </c>
       <c r="B11">
-        <v>801.361</v>
+        <v>2498.452</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46070.11458333334</v>
+        <v>46071.11458333334</v>
       </c>
       <c r="B12">
-        <v>823.302</v>
+        <v>2493.971</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46070.125</v>
+        <v>46071.125</v>
       </c>
       <c r="B13">
-        <v>844.577</v>
+        <v>2489.608</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46070.13541666666</v>
+        <v>46071.13541666666</v>
       </c>
       <c r="B14">
-        <v>894.139</v>
+        <v>2486.004</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46070.14583333334</v>
+        <v>46071.14583333334</v>
       </c>
       <c r="B15">
-        <v>921.274</v>
+        <v>2479.585</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46070.15625</v>
+        <v>46071.15625</v>
       </c>
       <c r="B16">
-        <v>949.04</v>
+        <v>2473.81</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46070.16666666666</v>
+        <v>46071.16666666666</v>
       </c>
       <c r="B17">
-        <v>976.562</v>
+        <v>2468.688</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46070.17708333334</v>
+        <v>46071.17708333334</v>
       </c>
       <c r="B18">
-        <v>1032.549</v>
+        <v>2414.813</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46070.1875</v>
+        <v>46071.1875</v>
       </c>
       <c r="B19">
-        <v>1072.03</v>
+        <v>2396.077</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46070.19791666666</v>
+        <v>46071.19791666666</v>
       </c>
       <c r="B20">
-        <v>1111.022</v>
+        <v>2435.363</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46070.20833333334</v>
+        <v>46071.20833333334</v>
       </c>
       <c r="B21">
-        <v>1150.906</v>
+        <v>2425.5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46070.21875</v>
+        <v>46071.21875</v>
       </c>
       <c r="B22">
-        <v>1219.499</v>
+        <v>2407.195</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46070.22916666666</v>
+        <v>46071.22916666666</v>
       </c>
       <c r="B23">
-        <v>1267.366</v>
+        <v>2396.278</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46070.23958333334</v>
+        <v>46071.23958333334</v>
       </c>
       <c r="B24">
-        <v>1314.879</v>
+        <v>2381.012</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46070.25</v>
+        <v>46071.25</v>
       </c>
       <c r="B25">
-        <v>1396.655</v>
+        <v>2430.486</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46070.26041666666</v>
+        <v>46071.26041666666</v>
       </c>
       <c r="B26">
-        <v>1422.915</v>
+        <v>2346.001</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46070.27083333334</v>
+        <v>46071.27083333334</v>
       </c>
       <c r="B27">
-        <v>1456.81</v>
+        <v>2408.635</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46070.28125</v>
+        <v>46071.28125</v>
       </c>
       <c r="B28">
-        <v>1522.308</v>
+        <v>2397.472</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46070.29166666666</v>
+        <v>46071.29166666666</v>
       </c>
       <c r="B29">
-        <v>1558.588</v>
+        <v>2387.696</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46070.30208333334</v>
+        <v>46071.30208333334</v>
       </c>
       <c r="B30">
-        <v>1589.479</v>
+        <v>2368.854</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46070.3125</v>
+        <v>46071.3125</v>
       </c>
       <c r="B31">
-        <v>1606.581</v>
+        <v>2319.774</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46070.32291666666</v>
+        <v>46071.32291666666</v>
       </c>
       <c r="B32">
-        <v>1620.897</v>
+        <v>2282.062</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46070.33333333334</v>
+        <v>46071.33333333334</v>
       </c>
       <c r="B33">
-        <v>1636.54</v>
+        <v>2275.967</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46070.34375</v>
+        <v>46071.34375</v>
       </c>
       <c r="B34">
-        <v>1643.287</v>
+        <v>2266.263</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46070.35416666666</v>
+        <v>46071.35416666666</v>
       </c>
       <c r="B35">
-        <v>1668.963</v>
+        <v>2334.075</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46070.36458333334</v>
+        <v>46071.36458333334</v>
       </c>
       <c r="B36">
-        <v>1694.65</v>
+        <v>2330.932</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46070.375</v>
+        <v>46071.375</v>
       </c>
       <c r="B37">
-        <v>1721.997</v>
+        <v>2287.097</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46070.38541666666</v>
+        <v>46071.38541666666</v>
       </c>
       <c r="B38">
-        <v>1771.669</v>
+        <v>2327.294</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46070.39583333334</v>
+        <v>46071.39583333334</v>
       </c>
       <c r="B39">
-        <v>1796.292</v>
+        <v>2327.533</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46070.40625</v>
+        <v>46071.40625</v>
       </c>
       <c r="B40">
-        <v>1819.563</v>
+        <v>2338.478</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46070.41666666666</v>
+        <v>46071.41666666666</v>
       </c>
       <c r="B41">
-        <v>1844.172</v>
+        <v>2271.155</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46070.42708333334</v>
+        <v>46071.42708333334</v>
       </c>
       <c r="B42">
-        <v>1890.347</v>
+        <v>2256.558</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46070.4375</v>
+        <v>46071.4375</v>
       </c>
       <c r="B43">
-        <v>1916.943</v>
+        <v>2268.089</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46070.44791666666</v>
+        <v>46071.44791666666</v>
       </c>
       <c r="B44">
-        <v>1944.919</v>
+        <v>2266.102</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46070.45833333334</v>
+        <v>46071.45833333334</v>
       </c>
       <c r="B45">
-        <v>1974.492</v>
+        <v>2263.024</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46070.46875</v>
+        <v>46071.46875</v>
       </c>
       <c r="B46">
-        <v>2012.855</v>
+        <v>2263.705</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46070.47916666666</v>
+        <v>46071.47916666666</v>
       </c>
       <c r="B47">
-        <v>2036.77</v>
+        <v>2261.263</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46070.48958333334</v>
+        <v>46071.48958333334</v>
       </c>
       <c r="B48">
-        <v>2059.049</v>
+        <v>2259.501</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46070.5</v>
+        <v>46071.5</v>
       </c>
       <c r="B49">
-        <v>2079.852</v>
+        <v>2257.677</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46070.51041666666</v>
+        <v>46071.51041666666</v>
       </c>
       <c r="B50">
-        <v>2110.469</v>
+        <v>2252.241</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46070.52083333334</v>
+        <v>46071.52083333334</v>
       </c>
       <c r="B51">
-        <v>2133.3</v>
+        <v>2252.011</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46070.53125</v>
+        <v>46071.53125</v>
       </c>
       <c r="B52">
-        <v>2141.844</v>
+        <v>2249.037</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46070.54166666666</v>
+        <v>46071.54166666666</v>
       </c>
       <c r="B53">
-        <v>2166.49</v>
+        <v>2249.674</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46070.55208333334</v>
+        <v>46071.55208333334</v>
       </c>
       <c r="B54">
-        <v>2200.902</v>
+        <v>2245.542</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46070.5625</v>
+        <v>46071.5625</v>
       </c>
       <c r="B55">
-        <v>2218.604</v>
+        <v>2240.777</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46070.57291666666</v>
+        <v>46071.57291666666</v>
       </c>
       <c r="B56">
-        <v>2232.56</v>
+        <v>2236.367</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46070.58333333334</v>
+        <v>46071.58333333334</v>
       </c>
       <c r="B57">
-        <v>2247.999</v>
+        <v>2231.553</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46070.59375</v>
+        <v>46071.59375</v>
       </c>
       <c r="B58">
-        <v>2290.145</v>
+        <v>2234.336</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46070.60416666666</v>
+        <v>46071.60416666666</v>
       </c>
       <c r="B59">
-        <v>2303.524</v>
+        <v>2224.506</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46070.61458333334</v>
+        <v>46071.61458333334</v>
       </c>
       <c r="B60">
-        <v>2316.275</v>
+        <v>2214.764</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46070.625</v>
+        <v>46071.625</v>
       </c>
       <c r="B61">
-        <v>2329.355</v>
+        <v>2206.038</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46070.63541666666</v>
+        <v>46071.63541666666</v>
       </c>
       <c r="B62">
-        <v>2355.24</v>
+        <v>2187.782</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46070.64583333334</v>
+        <v>46071.64583333334</v>
       </c>
       <c r="B63">
-        <v>2363.817</v>
+        <v>2176.793</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46070.65625</v>
+        <v>46071.65625</v>
       </c>
       <c r="B64">
-        <v>2372.477</v>
+        <v>2232.889</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46070.66666666666</v>
+        <v>46071.66666666666</v>
       </c>
       <c r="B65">
-        <v>2314.155</v>
+        <v>2220.198</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46070.67708333334</v>
+        <v>46071.67708333334</v>
       </c>
       <c r="B66">
-        <v>2322.99</v>
+        <v>2126.174</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46070.6875</v>
+        <v>46071.6875</v>
       </c>
       <c r="B67">
-        <v>2398.713</v>
+        <v>2106.884</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46070.69791666666</v>
+        <v>46071.69791666666</v>
       </c>
       <c r="B68">
-        <v>2406.908</v>
+        <v>2152.414</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46070.70833333334</v>
+        <v>46071.70833333334</v>
       </c>
       <c r="B69">
-        <v>2413.852</v>
+        <v>2131.175</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46070.71875</v>
+        <v>46071.71875</v>
       </c>
       <c r="B70">
-        <v>2433.293</v>
+        <v>2114.181</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46070.72916666666</v>
+        <v>46071.72916666666</v>
       </c>
       <c r="B71">
-        <v>2432.504</v>
+        <v>2083.805</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46070.73958333334</v>
+        <v>46071.73958333334</v>
       </c>
       <c r="B72">
-        <v>2432.357</v>
+        <v>2052.356</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46070.75</v>
+        <v>46071.75</v>
       </c>
       <c r="B73">
-        <v>2430.213</v>
+        <v>2021.27</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46070.76041666666</v>
+        <v>46071.76041666666</v>
       </c>
       <c r="B74">
-        <v>2425.504</v>
+        <v>1978.173</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46070.77083333334</v>
+        <v>46071.77083333334</v>
       </c>
       <c r="B75">
-        <v>2423.982</v>
+        <v>1942.199</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46070.78125</v>
+        <v>46071.78125</v>
       </c>
       <c r="B76">
-        <v>2423.517</v>
+        <v>1905.566</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46070.79166666666</v>
+        <v>46071.79166666666</v>
       </c>
       <c r="B77">
-        <v>2422.766</v>
+        <v>1869.225</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46070.80208333334</v>
+        <v>46071.80208333334</v>
       </c>
       <c r="B78">
-        <v>2426.662</v>
+        <v>1823.235</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46070.8125</v>
+        <v>46071.8125</v>
       </c>
       <c r="B79">
-        <v>2426.54</v>
+        <v>1794.612</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46070.82291666666</v>
+        <v>46071.82291666666</v>
       </c>
       <c r="B80">
-        <v>2426.833</v>
+        <v>1765.596</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46070.83333333334</v>
+        <v>46071.83333333334</v>
       </c>
       <c r="B81">
-        <v>2425.379</v>
+        <v>1737.247</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46070.84375</v>
+        <v>46071.84375</v>
       </c>
       <c r="B82">
-        <v>2418.536</v>
+        <v>1682.928</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46070.85416666666</v>
+        <v>46071.85416666666</v>
       </c>
       <c r="B83">
-        <v>2416.146</v>
+        <v>1651.05</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46070.86458333334</v>
+        <v>46071.86458333334</v>
       </c>
       <c r="B84">
-        <v>2413.646</v>
+        <v>1618.691</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46070.875</v>
+        <v>46071.875</v>
       </c>
       <c r="B85">
-        <v>2411.294</v>
+        <v>1586.118</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46070.88541666666</v>
+        <v>46071.88541666666</v>
       </c>
       <c r="B86">
-        <v>2401.289</v>
+        <v>1527.538</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46070.89583333334</v>
+        <v>46071.89583333334</v>
       </c>
       <c r="B87">
-        <v>2332.134</v>
+        <v>1493.436</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46070.90625</v>
+        <v>46071.90625</v>
       </c>
       <c r="B88">
-        <v>2330.047</v>
+        <v>1457.91</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46070.91666666666</v>
+        <v>46071.91666666666</v>
       </c>
       <c r="B89">
-        <v>2329.357</v>
+        <v>1423.211</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46070.92708333334</v>
+        <v>46071.92708333334</v>
       </c>
       <c r="B90">
-        <v>2399.196</v>
+        <v>1364.647</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46070.9375</v>
+        <v>46071.9375</v>
       </c>
       <c r="B91">
-        <v>2341.932</v>
+        <v>1324.051</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46070.94791666666</v>
+        <v>46071.94791666666</v>
       </c>
       <c r="B92">
-        <v>2348.17</v>
+        <v>1283.083</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46070.95833333334</v>
+        <v>46071.95833333334</v>
       </c>
       <c r="B93">
-        <v>2354.198</v>
+        <v>1243.139</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46070.96875</v>
+        <v>46071.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46070.97916666666</v>
+        <v>46071.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46070.98958333334</v>
+        <v>46071.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46071.01041666666</v>
+        <v>46073.01041666666</v>
       </c>
       <c r="B2">
-        <v>2463.053</v>
+        <v>1599.067</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46071.02083333334</v>
+        <v>46073.02083333334</v>
       </c>
       <c r="B3">
-        <v>2513.594</v>
+        <v>1583.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46071.03125</v>
+        <v>46073.03125</v>
       </c>
       <c r="B4">
-        <v>2512.251</v>
+        <v>1567.819</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46071.04166666666</v>
+        <v>46073.04166666666</v>
       </c>
       <c r="B5">
-        <v>2512.578</v>
+        <v>1552.087</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46071.05208333334</v>
+        <v>46073.05208333334</v>
       </c>
       <c r="B6">
-        <v>2509.834</v>
+        <v>1527.694</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46071.0625</v>
+        <v>46073.0625</v>
       </c>
       <c r="B7">
-        <v>2509.987</v>
+        <v>1501.378</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46071.07291666666</v>
+        <v>46073.07291666666</v>
       </c>
       <c r="B8">
-        <v>2513.228</v>
+        <v>1476.185</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46071.08333333334</v>
+        <v>46073.08333333334</v>
       </c>
       <c r="B9">
-        <v>2513.173</v>
+        <v>1451.41</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46071.09375</v>
+        <v>46073.09375</v>
       </c>
       <c r="B10">
-        <v>2503.831</v>
+        <v>1402.109</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46071.10416666666</v>
+        <v>46073.10416666666</v>
       </c>
       <c r="B11">
-        <v>2498.452</v>
+        <v>1368.829</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46071.11458333334</v>
+        <v>46073.11458333334</v>
       </c>
       <c r="B12">
-        <v>2493.971</v>
+        <v>1335.304</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46071.125</v>
+        <v>46073.125</v>
       </c>
       <c r="B13">
-        <v>2489.608</v>
+        <v>1301.601</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46071.13541666666</v>
+        <v>46073.13541666666</v>
       </c>
       <c r="B14">
-        <v>2486.004</v>
+        <v>1248.825</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46071.14583333334</v>
+        <v>46073.14583333334</v>
       </c>
       <c r="B15">
-        <v>2479.585</v>
+        <v>1220.87</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46071.15625</v>
+        <v>46073.15625</v>
       </c>
       <c r="B16">
-        <v>2473.81</v>
+        <v>1192.142</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46071.16666666666</v>
+        <v>46073.16666666666</v>
       </c>
       <c r="B17">
-        <v>2468.688</v>
+        <v>1162.905</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46071.17708333334</v>
+        <v>46073.17708333334</v>
       </c>
       <c r="B18">
-        <v>2414.813</v>
+        <v>1115.353</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46071.1875</v>
+        <v>46073.1875</v>
       </c>
       <c r="B19">
-        <v>2396.077</v>
+        <v>1092.907</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46071.19791666666</v>
+        <v>46073.19791666666</v>
       </c>
       <c r="B20">
-        <v>2435.363</v>
+        <v>1070.461</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46071.20833333334</v>
+        <v>46073.20833333334</v>
       </c>
       <c r="B21">
-        <v>2425.5</v>
+        <v>1047.27</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46071.21875</v>
+        <v>46073.21875</v>
       </c>
       <c r="B22">
-        <v>2407.195</v>
+        <v>1010.717</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46071.22916666666</v>
+        <v>46073.22916666666</v>
       </c>
       <c r="B23">
-        <v>2396.278</v>
+        <v>984.1420000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46071.23958333334</v>
+        <v>46073.23958333334</v>
       </c>
       <c r="B24">
-        <v>2381.012</v>
+        <v>966.395</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46071.25</v>
+        <v>46073.25</v>
       </c>
       <c r="B25">
-        <v>2430.486</v>
+        <v>939.346</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46071.26041666666</v>
+        <v>46073.26041666666</v>
       </c>
       <c r="B26">
-        <v>2346.001</v>
+        <v>901.658</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46071.27083333334</v>
+        <v>46073.27083333334</v>
       </c>
       <c r="B27">
-        <v>2408.635</v>
+        <v>875.3049999999999</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46071.28125</v>
+        <v>46073.28125</v>
       </c>
       <c r="B28">
-        <v>2397.472</v>
+        <v>847.294</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46071.29166666666</v>
+        <v>46073.29166666666</v>
       </c>
       <c r="B29">
-        <v>2387.696</v>
+        <v>820.127</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46071.30208333334</v>
+        <v>46073.30208333334</v>
       </c>
       <c r="B30">
-        <v>2368.854</v>
+        <v>782.283</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46071.3125</v>
+        <v>46073.3125</v>
       </c>
       <c r="B31">
-        <v>2319.774</v>
+        <v>756.772</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46071.32291666666</v>
+        <v>46073.32291666666</v>
       </c>
       <c r="B32">
-        <v>2282.062</v>
+        <v>734.167</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46071.33333333334</v>
+        <v>46073.33333333334</v>
       </c>
       <c r="B33">
-        <v>2275.967</v>
+        <v>712.423</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46071.34375</v>
+        <v>46073.34375</v>
       </c>
       <c r="B34">
-        <v>2266.263</v>
+        <v>667.518</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46071.35416666666</v>
+        <v>46073.35416666666</v>
       </c>
       <c r="B35">
-        <v>2334.075</v>
+        <v>643.956</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46071.36458333334</v>
+        <v>46073.36458333334</v>
       </c>
       <c r="B36">
-        <v>2330.932</v>
+        <v>623.4450000000001</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46071.375</v>
+        <v>46073.375</v>
       </c>
       <c r="B37">
-        <v>2287.097</v>
+        <v>602.985</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46071.38541666666</v>
+        <v>46073.38541666666</v>
       </c>
       <c r="B38">
-        <v>2327.294</v>
+        <v>573.835</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46071.39583333334</v>
+        <v>46073.39583333334</v>
       </c>
       <c r="B39">
-        <v>2327.533</v>
+        <v>564.038</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46071.40625</v>
+        <v>46073.40625</v>
       </c>
       <c r="B40">
-        <v>2338.478</v>
+        <v>555.514</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46071.41666666666</v>
+        <v>46073.41666666666</v>
       </c>
       <c r="B41">
-        <v>2271.155</v>
+        <v>546.5069999999999</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46071.42708333334</v>
+        <v>46073.42708333334</v>
       </c>
       <c r="B42">
-        <v>2256.558</v>
+        <v>537.799</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46071.4375</v>
+        <v>46073.4375</v>
       </c>
       <c r="B43">
-        <v>2268.089</v>
+        <v>545.877</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46071.44791666666</v>
+        <v>46073.44791666666</v>
       </c>
       <c r="B44">
-        <v>2266.102</v>
+        <v>555.498</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46071.45833333334</v>
+        <v>46073.45833333334</v>
       </c>
       <c r="B45">
-        <v>2263.024</v>
+        <v>564.889</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46071.46875</v>
+        <v>46073.46875</v>
       </c>
       <c r="B46">
-        <v>2263.705</v>
+        <v>582.177</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46071.47916666666</v>
+        <v>46073.47916666666</v>
       </c>
       <c r="B47">
-        <v>2261.263</v>
+        <v>611.064</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46071.48958333334</v>
+        <v>46073.48958333334</v>
       </c>
       <c r="B48">
-        <v>2259.501</v>
+        <v>641.582</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46071.5</v>
+        <v>46073.5</v>
       </c>
       <c r="B49">
-        <v>2257.677</v>
+        <v>672.793</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46071.51041666666</v>
+        <v>46073.51041666666</v>
       </c>
       <c r="B50">
-        <v>2252.241</v>
+        <v>740.553</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46071.52083333334</v>
+        <v>46073.52083333334</v>
       </c>
       <c r="B51">
-        <v>2252.011</v>
+        <v>792.776</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46071.53125</v>
+        <v>46073.53125</v>
       </c>
       <c r="B52">
-        <v>2249.037</v>
+        <v>846.354</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46071.54166666666</v>
+        <v>46073.54166666666</v>
       </c>
       <c r="B53">
-        <v>2249.674</v>
+        <v>900.99</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46071.55208333334</v>
+        <v>46073.55208333334</v>
       </c>
       <c r="B54">
-        <v>2245.542</v>
+        <v>1019.103</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46071.5625</v>
+        <v>46073.5625</v>
       </c>
       <c r="B55">
-        <v>2240.777</v>
+        <v>1110.436</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46071.57291666666</v>
+        <v>46073.57291666666</v>
       </c>
       <c r="B56">
-        <v>2236.367</v>
+        <v>1179.974</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46071.58333333334</v>
+        <v>46073.58333333334</v>
       </c>
       <c r="B57">
-        <v>2231.553</v>
+        <v>1294.811</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46071.59375</v>
+        <v>46073.59375</v>
       </c>
       <c r="B58">
-        <v>2234.336</v>
+        <v>1445.912</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46071.60416666666</v>
+        <v>46073.60416666666</v>
       </c>
       <c r="B59">
-        <v>2224.506</v>
+        <v>1533.49</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46071.61458333334</v>
+        <v>46073.61458333334</v>
       </c>
       <c r="B60">
-        <v>2214.764</v>
+        <v>1574.243</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46071.625</v>
+        <v>46073.625</v>
       </c>
       <c r="B61">
-        <v>2206.038</v>
+        <v>1653.016</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46071.63541666666</v>
+        <v>46073.63541666666</v>
       </c>
       <c r="B62">
-        <v>2187.782</v>
+        <v>1739.951</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46071.64583333334</v>
+        <v>46073.64583333334</v>
       </c>
       <c r="B63">
-        <v>2176.793</v>
+        <v>1798.899</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46071.65625</v>
+        <v>46073.65625</v>
       </c>
       <c r="B64">
-        <v>2232.889</v>
+        <v>1908.164</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46071.66666666666</v>
+        <v>46073.66666666666</v>
       </c>
       <c r="B65">
-        <v>2220.198</v>
+        <v>1967.702</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46071.67708333334</v>
+        <v>46073.67708333334</v>
       </c>
       <c r="B66">
-        <v>2126.174</v>
+        <v>2057.548</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46071.6875</v>
+        <v>46073.6875</v>
       </c>
       <c r="B67">
-        <v>2106.884</v>
+        <v>2098.204</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46071.69791666666</v>
+        <v>46073.69791666666</v>
       </c>
       <c r="B68">
-        <v>2152.414</v>
+        <v>2138.75</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46071.70833333334</v>
+        <v>46073.70833333334</v>
       </c>
       <c r="B69">
-        <v>2131.175</v>
+        <v>2178.947</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46071.71875</v>
+        <v>46073.71875</v>
       </c>
       <c r="B70">
-        <v>2114.181</v>
+        <v>2229.217</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46071.72916666666</v>
+        <v>46073.72916666666</v>
       </c>
       <c r="B71">
-        <v>2083.805</v>
+        <v>2250.77</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46071.73958333334</v>
+        <v>46073.73958333334</v>
       </c>
       <c r="B72">
-        <v>2052.356</v>
+        <v>2272.106</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46071.75</v>
+        <v>46073.75</v>
       </c>
       <c r="B73">
-        <v>2021.27</v>
+        <v>2292.36</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46071.76041666666</v>
+        <v>46073.76041666666</v>
       </c>
       <c r="B74">
-        <v>1978.173</v>
+        <v>2322.006</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46071.77083333334</v>
+        <v>46073.77083333334</v>
       </c>
       <c r="B75">
-        <v>1942.199</v>
+        <v>2328.441</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46071.78125</v>
+        <v>46073.78125</v>
       </c>
       <c r="B76">
-        <v>1905.566</v>
+        <v>2334.06</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46071.79166666666</v>
+        <v>46073.79166666666</v>
       </c>
       <c r="B77">
-        <v>1869.225</v>
+        <v>2338.934</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46071.80208333334</v>
+        <v>46073.80208333334</v>
       </c>
       <c r="B78">
-        <v>1823.235</v>
+        <v>2340.843</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46071.8125</v>
+        <v>46073.8125</v>
       </c>
       <c r="B79">
-        <v>1794.612</v>
+        <v>2339.701</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46071.82291666666</v>
+        <v>46073.82291666666</v>
       </c>
       <c r="B80">
-        <v>1765.596</v>
+        <v>2339.241</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46071.83333333334</v>
+        <v>46073.83333333334</v>
       </c>
       <c r="B81">
-        <v>1737.247</v>
+        <v>2338.972</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46071.84375</v>
+        <v>46073.84375</v>
       </c>
       <c r="B82">
-        <v>1682.928</v>
+        <v>2343.798</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46071.85416666666</v>
+        <v>46073.85416666666</v>
       </c>
       <c r="B83">
-        <v>1651.05</v>
+        <v>2334.354</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46071.86458333334</v>
+        <v>46073.86458333334</v>
       </c>
       <c r="B84">
-        <v>1618.691</v>
+        <v>2324.34</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46071.875</v>
+        <v>46073.875</v>
       </c>
       <c r="B85">
-        <v>1586.118</v>
+        <v>2252.323</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46071.88541666666</v>
+        <v>46073.88541666666</v>
       </c>
       <c r="B86">
-        <v>1527.538</v>
+        <v>2305.569</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46071.89583333334</v>
+        <v>46073.89583333334</v>
       </c>
       <c r="B87">
-        <v>1493.436</v>
+        <v>2242.223</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46071.90625</v>
+        <v>46073.90625</v>
       </c>
       <c r="B88">
-        <v>1457.91</v>
+        <v>2238.162</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46071.91666666666</v>
+        <v>46073.91666666666</v>
       </c>
       <c r="B89">
-        <v>1423.211</v>
+        <v>2236.393</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46071.92708333334</v>
+        <v>46073.92708333334</v>
       </c>
       <c r="B90">
-        <v>1364.647</v>
+        <v>2225.751</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46071.9375</v>
+        <v>46073.9375</v>
       </c>
       <c r="B91">
-        <v>1324.051</v>
+        <v>2220.989</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46071.94791666666</v>
+        <v>46073.94791666666</v>
       </c>
       <c r="B92">
-        <v>1283.083</v>
+        <v>2216.946</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46071.95833333334</v>
+        <v>46073.95833333334</v>
       </c>
       <c r="B93">
-        <v>1243.139</v>
+        <v>2212.739</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46071.96875</v>
+        <v>46073.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46071.97916666666</v>
+        <v>46073.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46071.98958333334</v>
+        <v>46073.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46072</v>
+        <v>46074</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46073.01041666666</v>
+        <v>46074.01041666666</v>
       </c>
       <c r="B2">
-        <v>1599.067</v>
+        <v>2302.824</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46073.02083333334</v>
+        <v>46074.02083333334</v>
       </c>
       <c r="B3">
-        <v>1583.6</v>
+        <v>2290.375</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46073.03125</v>
+        <v>46074.03125</v>
       </c>
       <c r="B4">
-        <v>1567.819</v>
+        <v>2283.566</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46073.04166666666</v>
+        <v>46074.04166666666</v>
       </c>
       <c r="B5">
-        <v>1552.087</v>
+        <v>2277.197</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46073.05208333334</v>
+        <v>46074.05208333334</v>
       </c>
       <c r="B6">
-        <v>1527.694</v>
+        <v>2273.998</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46073.0625</v>
+        <v>46074.0625</v>
       </c>
       <c r="B7">
-        <v>1501.378</v>
+        <v>2258.526</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46073.07291666666</v>
+        <v>46074.07291666666</v>
       </c>
       <c r="B8">
-        <v>1476.185</v>
+        <v>2256.114</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46073.08333333334</v>
+        <v>46074.08333333334</v>
       </c>
       <c r="B9">
-        <v>1451.41</v>
+        <v>2240.242</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46073.09375</v>
+        <v>46074.09375</v>
       </c>
       <c r="B10">
-        <v>1402.109</v>
+        <v>2232.002</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46073.10416666666</v>
+        <v>46074.10416666666</v>
       </c>
       <c r="B11">
-        <v>1368.829</v>
+        <v>2228.131</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46073.11458333334</v>
+        <v>46074.11458333334</v>
       </c>
       <c r="B12">
-        <v>1335.304</v>
+        <v>2224.797</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46073.125</v>
+        <v>46074.125</v>
       </c>
       <c r="B13">
-        <v>1301.601</v>
+        <v>2220.095</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46073.13541666666</v>
+        <v>46074.13541666666</v>
       </c>
       <c r="B14">
-        <v>1248.825</v>
+        <v>2222.537</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46073.14583333334</v>
+        <v>46074.14583333334</v>
       </c>
       <c r="B15">
-        <v>1220.87</v>
+        <v>2214.861</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46073.15625</v>
+        <v>46074.15625</v>
       </c>
       <c r="B16">
-        <v>1192.142</v>
+        <v>2207.065</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46073.16666666666</v>
+        <v>46074.16666666666</v>
       </c>
       <c r="B17">
-        <v>1162.905</v>
+        <v>2206.985</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46073.17708333334</v>
+        <v>46074.17708333334</v>
       </c>
       <c r="B18">
-        <v>1115.353</v>
+        <v>2187.612</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46073.1875</v>
+        <v>46074.1875</v>
       </c>
       <c r="B19">
-        <v>1092.907</v>
+        <v>2180.397</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46073.19791666666</v>
+        <v>46074.19791666666</v>
       </c>
       <c r="B20">
-        <v>1070.461</v>
+        <v>2158.825</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46073.20833333334</v>
+        <v>46074.20833333334</v>
       </c>
       <c r="B21">
-        <v>1047.27</v>
+        <v>2152.32</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46073.21875</v>
+        <v>46074.21875</v>
       </c>
       <c r="B22">
-        <v>1010.717</v>
+        <v>2122.388</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46073.22916666666</v>
+        <v>46074.22916666666</v>
       </c>
       <c r="B23">
-        <v>984.1420000000001</v>
+        <v>2111.598</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46073.23958333334</v>
+        <v>46074.23958333334</v>
       </c>
       <c r="B24">
-        <v>966.395</v>
+        <v>2108.99</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46073.25</v>
+        <v>46074.25</v>
       </c>
       <c r="B25">
-        <v>939.346</v>
+        <v>2098.661</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46073.26041666666</v>
+        <v>46074.26041666666</v>
       </c>
       <c r="B26">
-        <v>901.658</v>
+        <v>2060.225</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46073.27083333334</v>
+        <v>46074.27083333334</v>
       </c>
       <c r="B27">
-        <v>875.3049999999999</v>
+        <v>2060.313</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46073.28125</v>
+        <v>46074.28125</v>
       </c>
       <c r="B28">
-        <v>847.294</v>
+        <v>2051.123</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46073.29166666666</v>
+        <v>46074.29166666666</v>
       </c>
       <c r="B29">
-        <v>820.127</v>
+        <v>2042.162</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46073.30208333334</v>
+        <v>46074.30208333334</v>
       </c>
       <c r="B30">
-        <v>782.283</v>
+        <v>2015.771</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46073.3125</v>
+        <v>46074.3125</v>
       </c>
       <c r="B31">
-        <v>756.772</v>
+        <v>2005.438</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46073.32291666666</v>
+        <v>46074.32291666666</v>
       </c>
       <c r="B32">
-        <v>734.167</v>
+        <v>1995.037</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46073.33333333334</v>
+        <v>46074.33333333334</v>
       </c>
       <c r="B33">
-        <v>712.423</v>
+        <v>1984.012</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46073.34375</v>
+        <v>46074.34375</v>
       </c>
       <c r="B34">
-        <v>667.518</v>
+        <v>1953.954</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46073.35416666666</v>
+        <v>46074.35416666666</v>
       </c>
       <c r="B35">
-        <v>643.956</v>
+        <v>1938.69</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46073.36458333334</v>
+        <v>46074.36458333334</v>
       </c>
       <c r="B36">
-        <v>623.4450000000001</v>
+        <v>1929.549</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46073.375</v>
+        <v>46074.375</v>
       </c>
       <c r="B37">
-        <v>602.985</v>
+        <v>1916.242</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46073.38541666666</v>
+        <v>46074.38541666666</v>
       </c>
       <c r="B38">
-        <v>573.835</v>
+        <v>1898.887</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46073.39583333334</v>
+        <v>46074.39583333334</v>
       </c>
       <c r="B39">
-        <v>564.038</v>
+        <v>1888.365</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46073.40625</v>
+        <v>46074.40625</v>
       </c>
       <c r="B40">
-        <v>555.514</v>
+        <v>1878.002</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46073.41666666666</v>
+        <v>46074.41666666666</v>
       </c>
       <c r="B41">
-        <v>546.5069999999999</v>
+        <v>1867.168</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46073.42708333334</v>
+        <v>46074.42708333334</v>
       </c>
       <c r="B42">
-        <v>537.799</v>
+        <v>1853.442</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46073.4375</v>
+        <v>46074.4375</v>
       </c>
       <c r="B43">
-        <v>545.877</v>
+        <v>1842.567</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46073.44791666666</v>
+        <v>46074.44791666666</v>
       </c>
       <c r="B44">
-        <v>555.498</v>
+        <v>1831.311</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46073.45833333334</v>
+        <v>46074.45833333334</v>
       </c>
       <c r="B45">
-        <v>564.889</v>
+        <v>1810.691</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46073.46875</v>
+        <v>46074.46875</v>
       </c>
       <c r="B46">
-        <v>582.177</v>
+        <v>1795.835</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46073.47916666666</v>
+        <v>46074.47916666666</v>
       </c>
       <c r="B47">
-        <v>611.064</v>
+        <v>1778.907</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46073.48958333334</v>
+        <v>46074.48958333334</v>
       </c>
       <c r="B48">
-        <v>641.582</v>
+        <v>1760.429</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46073.5</v>
+        <v>46074.5</v>
       </c>
       <c r="B49">
-        <v>672.793</v>
+        <v>1733.07</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46073.51041666666</v>
+        <v>46074.51041666666</v>
       </c>
       <c r="B50">
-        <v>740.553</v>
+        <v>1699.638</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46073.52083333334</v>
+        <v>46074.52083333334</v>
       </c>
       <c r="B51">
-        <v>792.776</v>
+        <v>1670.644</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46073.53125</v>
+        <v>46074.53125</v>
       </c>
       <c r="B52">
-        <v>846.354</v>
+        <v>1650.522</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46073.54166666666</v>
+        <v>46074.54166666666</v>
       </c>
       <c r="B53">
-        <v>900.99</v>
+        <v>1630.916</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46073.55208333334</v>
+        <v>46074.55208333334</v>
       </c>
       <c r="B54">
-        <v>1019.103</v>
+        <v>1599.797</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46073.5625</v>
+        <v>46074.5625</v>
       </c>
       <c r="B55">
-        <v>1110.436</v>
+        <v>1583.454</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46073.57291666666</v>
+        <v>46074.57291666666</v>
       </c>
       <c r="B56">
-        <v>1179.974</v>
+        <v>1559.865</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46073.58333333334</v>
+        <v>46074.58333333334</v>
       </c>
       <c r="B57">
-        <v>1294.811</v>
+        <v>1545.736</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46073.59375</v>
+        <v>46074.59375</v>
       </c>
       <c r="B58">
-        <v>1445.912</v>
+        <v>1508.666</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46073.60416666666</v>
+        <v>46074.60416666666</v>
       </c>
       <c r="B59">
-        <v>1533.49</v>
+        <v>1489.409</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46073.61458333334</v>
+        <v>46074.61458333334</v>
       </c>
       <c r="B60">
-        <v>1574.243</v>
+        <v>1478.327</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46073.625</v>
+        <v>46074.625</v>
       </c>
       <c r="B61">
-        <v>1653.016</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46073.63541666666</v>
+        <v>46074.63541666666</v>
       </c>
       <c r="B62">
-        <v>1739.951</v>
+        <v>1427.209</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46073.64583333334</v>
+        <v>46074.64583333334</v>
       </c>
       <c r="B63">
-        <v>1798.899</v>
+        <v>1417.418</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46073.65625</v>
+        <v>46074.65625</v>
       </c>
       <c r="B64">
-        <v>1908.164</v>
+        <v>1399.506</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46073.66666666666</v>
+        <v>46074.66666666666</v>
       </c>
       <c r="B65">
-        <v>1967.702</v>
+        <v>1381.071</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46073.67708333334</v>
+        <v>46074.67708333334</v>
       </c>
       <c r="B66">
-        <v>2057.548</v>
+        <v>1381.851</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46073.6875</v>
+        <v>46074.6875</v>
       </c>
       <c r="B67">
-        <v>2098.204</v>
+        <v>1363.691</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46073.69791666666</v>
+        <v>46074.69791666666</v>
       </c>
       <c r="B68">
-        <v>2138.75</v>
+        <v>1383.396</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46073.70833333334</v>
+        <v>46074.70833333334</v>
       </c>
       <c r="B69">
-        <v>2178.947</v>
+        <v>1364.168</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46073.71875</v>
+        <v>46074.71875</v>
       </c>
       <c r="B70">
-        <v>2229.217</v>
+        <v>1329.668</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46073.72916666666</v>
+        <v>46074.72916666666</v>
       </c>
       <c r="B71">
-        <v>2250.77</v>
+        <v>1309.73</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46073.73958333334</v>
+        <v>46074.73958333334</v>
       </c>
       <c r="B72">
-        <v>2272.106</v>
+        <v>1290.437</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46073.75</v>
+        <v>46074.75</v>
       </c>
       <c r="B73">
-        <v>2292.36</v>
+        <v>1271.469</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46073.76041666666</v>
+        <v>46074.76041666666</v>
       </c>
       <c r="B74">
-        <v>2322.006</v>
+        <v>1237.685</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46073.77083333334</v>
+        <v>46074.77083333334</v>
       </c>
       <c r="B75">
-        <v>2328.441</v>
+        <v>1212.919</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46073.78125</v>
+        <v>46074.78125</v>
       </c>
       <c r="B76">
-        <v>2334.06</v>
+        <v>1186.775</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46073.79166666666</v>
+        <v>46074.79166666666</v>
       </c>
       <c r="B77">
-        <v>2338.934</v>
+        <v>1162.391</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46073.80208333334</v>
+        <v>46074.80208333334</v>
       </c>
       <c r="B78">
-        <v>2340.843</v>
+        <v>1121.232</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46073.8125</v>
+        <v>46074.8125</v>
       </c>
       <c r="B79">
-        <v>2339.701</v>
+        <v>1096.588</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46073.82291666666</v>
+        <v>46074.82291666666</v>
       </c>
       <c r="B80">
-        <v>2339.241</v>
+        <v>1072.018</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46073.83333333334</v>
+        <v>46074.83333333334</v>
       </c>
       <c r="B81">
-        <v>2338.972</v>
+        <v>1047.866</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46073.84375</v>
+        <v>46074.84375</v>
       </c>
       <c r="B82">
-        <v>2343.798</v>
+        <v>1015.289</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46073.85416666666</v>
+        <v>46074.85416666666</v>
       </c>
       <c r="B83">
-        <v>2334.354</v>
+        <v>994.963</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46073.86458333334</v>
+        <v>46074.86458333334</v>
       </c>
       <c r="B84">
-        <v>2324.34</v>
+        <v>973.862</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46073.875</v>
+        <v>46074.875</v>
       </c>
       <c r="B85">
-        <v>2252.323</v>
+        <v>933.394</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46073.88541666666</v>
+        <v>46074.88541666666</v>
       </c>
       <c r="B86">
-        <v>2305.569</v>
+        <v>903.005</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46073.89583333334</v>
+        <v>46074.89583333334</v>
       </c>
       <c r="B87">
-        <v>2242.223</v>
+        <v>884.022</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46073.90625</v>
+        <v>46074.90625</v>
       </c>
       <c r="B88">
-        <v>2238.162</v>
+        <v>866.254</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46073.91666666666</v>
+        <v>46074.91666666666</v>
       </c>
       <c r="B89">
-        <v>2236.393</v>
+        <v>848.0700000000001</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46073.92708333334</v>
+        <v>46074.92708333334</v>
       </c>
       <c r="B90">
-        <v>2225.751</v>
+        <v>831.002</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46073.9375</v>
+        <v>46074.9375</v>
       </c>
       <c r="B91">
-        <v>2220.989</v>
+        <v>825.068</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46073.94791666666</v>
+        <v>46074.94791666666</v>
       </c>
       <c r="B92">
-        <v>2216.946</v>
+        <v>817.423</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46073.95833333334</v>
+        <v>46074.95833333334</v>
       </c>
       <c r="B93">
-        <v>2212.739</v>
+        <v>810.174</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46073.96875</v>
+        <v>46074.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46073.97916666666</v>
+        <v>46074.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46073.98958333334</v>
+        <v>46074.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Notified_Production_Wind.xlsx
+++ b/data_fetching/Entsoe/Notified_Production_Wind.xlsx
@@ -397,743 +397,743 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46074.01041666666</v>
+        <v>46079.01041666666</v>
       </c>
       <c r="B2">
-        <v>2302.824</v>
+        <v>920.524</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46074.02083333334</v>
+        <v>46079.02083333334</v>
       </c>
       <c r="B3">
-        <v>2290.375</v>
+        <v>931.064</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46074.03125</v>
+        <v>46079.03125</v>
       </c>
       <c r="B4">
-        <v>2283.566</v>
+        <v>945.496</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46074.04166666666</v>
+        <v>46079.04166666666</v>
       </c>
       <c r="B5">
-        <v>2277.197</v>
+        <v>949.593</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46074.05208333334</v>
+        <v>46079.05208333334</v>
       </c>
       <c r="B6">
-        <v>2273.998</v>
+        <v>970.5359999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46074.0625</v>
+        <v>46079.0625</v>
       </c>
       <c r="B7">
-        <v>2258.526</v>
+        <v>997.542</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46074.07291666666</v>
+        <v>46079.07291666666</v>
       </c>
       <c r="B8">
-        <v>2256.114</v>
+        <v>1021.302</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46074.08333333334</v>
+        <v>46079.08333333334</v>
       </c>
       <c r="B9">
-        <v>2240.242</v>
+        <v>1046.905</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46074.09375</v>
+        <v>46079.09375</v>
       </c>
       <c r="B10">
-        <v>2232.002</v>
+        <v>1077.073</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46074.10416666666</v>
+        <v>46079.10416666666</v>
       </c>
       <c r="B11">
-        <v>2228.131</v>
+        <v>1101.532</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46074.11458333334</v>
+        <v>46079.11458333334</v>
       </c>
       <c r="B12">
-        <v>2224.797</v>
+        <v>1132.267</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46074.125</v>
+        <v>46079.125</v>
       </c>
       <c r="B13">
-        <v>2220.095</v>
+        <v>1156.886</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46074.13541666666</v>
+        <v>46079.13541666666</v>
       </c>
       <c r="B14">
-        <v>2222.537</v>
+        <v>1217.117</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46074.14583333334</v>
+        <v>46079.14583333334</v>
       </c>
       <c r="B15">
-        <v>2214.861</v>
+        <v>1240.529</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46074.15625</v>
+        <v>46079.15625</v>
       </c>
       <c r="B16">
-        <v>2207.065</v>
+        <v>1264.845</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46074.16666666666</v>
+        <v>46079.16666666666</v>
       </c>
       <c r="B17">
-        <v>2206.985</v>
+        <v>1285.573</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46074.17708333334</v>
+        <v>46079.17708333334</v>
       </c>
       <c r="B18">
-        <v>2187.612</v>
+        <v>1354.253</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46074.1875</v>
+        <v>46079.1875</v>
       </c>
       <c r="B19">
-        <v>2180.397</v>
+        <v>1377.423</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46074.19791666666</v>
+        <v>46079.19791666666</v>
       </c>
       <c r="B20">
-        <v>2158.825</v>
+        <v>1400.985</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46074.20833333334</v>
+        <v>46079.20833333334</v>
       </c>
       <c r="B21">
-        <v>2152.32</v>
+        <v>1432.609</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46074.21875</v>
+        <v>46079.21875</v>
       </c>
       <c r="B22">
-        <v>2122.388</v>
+        <v>1502.359</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46074.22916666666</v>
+        <v>46079.22916666666</v>
       </c>
       <c r="B23">
-        <v>2111.598</v>
+        <v>1541.065</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46074.23958333334</v>
+        <v>46079.23958333334</v>
       </c>
       <c r="B24">
-        <v>2108.99</v>
+        <v>1588.608</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46074.25</v>
+        <v>46079.25</v>
       </c>
       <c r="B25">
-        <v>2098.661</v>
+        <v>1623.904</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46074.26041666666</v>
+        <v>46079.26041666666</v>
       </c>
       <c r="B26">
-        <v>2060.225</v>
+        <v>1640.748</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46074.27083333334</v>
+        <v>46079.27083333334</v>
       </c>
       <c r="B27">
-        <v>2060.313</v>
+        <v>1661.487</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46074.28125</v>
+        <v>46079.28125</v>
       </c>
       <c r="B28">
-        <v>2051.123</v>
+        <v>1686.489</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46074.29166666666</v>
+        <v>46079.29166666666</v>
       </c>
       <c r="B29">
-        <v>2042.162</v>
+        <v>1707.676</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46074.30208333334</v>
+        <v>46079.30208333334</v>
       </c>
       <c r="B30">
-        <v>2015.771</v>
+        <v>1714.817</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46074.3125</v>
+        <v>46079.3125</v>
       </c>
       <c r="B31">
-        <v>2005.438</v>
+        <v>1709.694</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46074.32291666666</v>
+        <v>46079.32291666666</v>
       </c>
       <c r="B32">
-        <v>1995.037</v>
+        <v>1720.588</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46074.33333333334</v>
+        <v>46079.33333333334</v>
       </c>
       <c r="B33">
-        <v>1984.012</v>
+        <v>1715.12</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46074.34375</v>
+        <v>46079.34375</v>
       </c>
       <c r="B34">
-        <v>1953.954</v>
+        <v>1668.335</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46074.35416666666</v>
+        <v>46079.35416666666</v>
       </c>
       <c r="B35">
-        <v>1938.69</v>
+        <v>1668.126</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46074.36458333334</v>
+        <v>46079.36458333334</v>
       </c>
       <c r="B36">
-        <v>1929.549</v>
+        <v>1652.964</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46074.375</v>
+        <v>46079.375</v>
       </c>
       <c r="B37">
-        <v>1916.242</v>
+        <v>1649.883</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46074.38541666666</v>
+        <v>46079.38541666666</v>
       </c>
       <c r="B38">
-        <v>1898.887</v>
+        <v>1832.228</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46074.39583333334</v>
+        <v>46079.39583333334</v>
       </c>
       <c r="B39">
-        <v>1888.365</v>
+        <v>1812.022</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46074.40625</v>
+        <v>46079.40625</v>
       </c>
       <c r="B40">
-        <v>1878.002</v>
+        <v>1787.707</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46074.41666666666</v>
+        <v>46079.41666666666</v>
       </c>
       <c r="B41">
-        <v>1867.168</v>
+        <v>1765.237</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46074.42708333334</v>
+        <v>46079.42708333334</v>
       </c>
       <c r="B42">
-        <v>1853.442</v>
+        <v>1755.211</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46074.4375</v>
+        <v>46079.4375</v>
       </c>
       <c r="B43">
-        <v>1842.567</v>
+        <v>1722.595</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46074.44791666666</v>
+        <v>46079.44791666666</v>
       </c>
       <c r="B44">
-        <v>1831.311</v>
+        <v>1689.932</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46074.45833333334</v>
+        <v>46079.45833333334</v>
       </c>
       <c r="B45">
-        <v>1810.691</v>
+        <v>1656.253</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46074.46875</v>
+        <v>46079.46875</v>
       </c>
       <c r="B46">
-        <v>1795.835</v>
+        <v>1625.553</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46074.47916666666</v>
+        <v>46079.47916666666</v>
       </c>
       <c r="B47">
-        <v>1778.907</v>
+        <v>1618.561</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46074.48958333334</v>
+        <v>46079.48958333334</v>
       </c>
       <c r="B48">
-        <v>1760.429</v>
+        <v>1611.877</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46074.5</v>
+        <v>46079.5</v>
       </c>
       <c r="B49">
-        <v>1733.07</v>
+        <v>1605.209</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46074.51041666666</v>
+        <v>46079.51041666666</v>
       </c>
       <c r="B50">
-        <v>1699.638</v>
+        <v>1617.489</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46074.52083333334</v>
+        <v>46079.52083333334</v>
       </c>
       <c r="B51">
-        <v>1670.644</v>
+        <v>1624.588</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46074.53125</v>
+        <v>46079.53125</v>
       </c>
       <c r="B52">
-        <v>1650.522</v>
+        <v>1631.367</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46074.54166666666</v>
+        <v>46079.54166666666</v>
       </c>
       <c r="B53">
-        <v>1630.916</v>
+        <v>1638.768</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46074.55208333334</v>
+        <v>46079.55208333334</v>
       </c>
       <c r="B54">
-        <v>1599.797</v>
+        <v>1651.801</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46074.5625</v>
+        <v>46079.5625</v>
       </c>
       <c r="B55">
-        <v>1583.454</v>
+        <v>1659.213</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46074.57291666666</v>
+        <v>46079.57291666666</v>
       </c>
       <c r="B56">
-        <v>1559.865</v>
+        <v>1666.19</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46074.58333333334</v>
+        <v>46079.58333333334</v>
       </c>
       <c r="B57">
-        <v>1545.736</v>
+        <v>1673.011</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46074.59375</v>
+        <v>46079.59375</v>
       </c>
       <c r="B58">
-        <v>1508.666</v>
+        <v>1709.548</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46074.60416666666</v>
+        <v>46079.60416666666</v>
       </c>
       <c r="B59">
-        <v>1489.409</v>
+        <v>1708.725</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46074.61458333334</v>
+        <v>46079.61458333334</v>
       </c>
       <c r="B60">
-        <v>1478.327</v>
+        <v>1706.367</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46074.625</v>
+        <v>46079.625</v>
       </c>
       <c r="B61">
-        <v>1458</v>
+        <v>1703.002</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46074.63541666666</v>
+        <v>46079.63541666666</v>
       </c>
       <c r="B62">
-        <v>1427.209</v>
+        <v>1680.72</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46074.64583333334</v>
+        <v>46079.64583333334</v>
       </c>
       <c r="B63">
-        <v>1417.418</v>
+        <v>1645.357</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46074.65625</v>
+        <v>46079.65625</v>
       </c>
       <c r="B64">
-        <v>1399.506</v>
+        <v>1609.523</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46074.66666666666</v>
+        <v>46079.66666666666</v>
       </c>
       <c r="B65">
-        <v>1381.071</v>
+        <v>1581.221</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46074.67708333334</v>
+        <v>46079.67708333334</v>
       </c>
       <c r="B66">
-        <v>1381.851</v>
+        <v>1366.736</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46074.6875</v>
+        <v>46079.6875</v>
       </c>
       <c r="B67">
-        <v>1363.691</v>
+        <v>1310.14</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46074.69791666666</v>
+        <v>46079.69791666666</v>
       </c>
       <c r="B68">
-        <v>1383.396</v>
+        <v>1249.842</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46074.70833333334</v>
+        <v>46079.70833333334</v>
       </c>
       <c r="B69">
-        <v>1364.168</v>
+        <v>1193.69</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46074.71875</v>
+        <v>46079.71875</v>
       </c>
       <c r="B70">
-        <v>1329.668</v>
+        <v>1120.788</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46074.72916666666</v>
+        <v>46079.72916666666</v>
       </c>
       <c r="B71">
-        <v>1309.73</v>
+        <v>1093.164</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46074.73958333334</v>
+        <v>46079.73958333334</v>
       </c>
       <c r="B72">
-        <v>1290.437</v>
+        <v>1064.168</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46074.75</v>
+        <v>46079.75</v>
       </c>
       <c r="B73">
-        <v>1271.469</v>
+        <v>1038.52</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46074.76041666666</v>
+        <v>46079.76041666666</v>
       </c>
       <c r="B74">
-        <v>1237.685</v>
+        <v>1004.053</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46074.77083333334</v>
+        <v>46079.77083333334</v>
       </c>
       <c r="B75">
-        <v>1212.919</v>
+        <v>989.991</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46074.78125</v>
+        <v>46079.78125</v>
       </c>
       <c r="B76">
-        <v>1186.775</v>
+        <v>977.901</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46074.79166666666</v>
+        <v>46079.79166666666</v>
       </c>
       <c r="B77">
-        <v>1162.391</v>
+        <v>964.999</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46074.80208333334</v>
+        <v>46079.80208333334</v>
       </c>
       <c r="B78">
-        <v>1121.232</v>
+        <v>976.068</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46074.8125</v>
+        <v>46079.8125</v>
       </c>
       <c r="B79">
-        <v>1096.588</v>
+        <v>962.5700000000001</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46074.82291666666</v>
+        <v>46079.82291666666</v>
       </c>
       <c r="B80">
-        <v>1072.018</v>
+        <v>951.317</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46074.83333333334</v>
+        <v>46079.83333333334</v>
       </c>
       <c r="B81">
-        <v>1047.866</v>
+        <v>940.407</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46074.84375</v>
+        <v>46079.84375</v>
       </c>
       <c r="B82">
-        <v>1015.289</v>
+        <v>915.997</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46074.85416666666</v>
+        <v>46079.85416666666</v>
       </c>
       <c r="B83">
-        <v>994.963</v>
+        <v>903.3</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46074.86458333334</v>
+        <v>46079.86458333334</v>
       </c>
       <c r="B84">
-        <v>973.862</v>
+        <v>892.0599999999999</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46074.875</v>
+        <v>46079.875</v>
       </c>
       <c r="B85">
-        <v>933.394</v>
+        <v>879.619</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46074.88541666666</v>
+        <v>46079.88541666666</v>
       </c>
       <c r="B86">
-        <v>903.005</v>
+        <v>864.264</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46074.89583333334</v>
+        <v>46079.89583333334</v>
       </c>
       <c r="B87">
-        <v>884.022</v>
+        <v>852.547</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46074.90625</v>
+        <v>46079.90625</v>
       </c>
       <c r="B88">
-        <v>866.254</v>
+        <v>841.578</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46074.91666666666</v>
+        <v>46079.91666666666</v>
       </c>
       <c r="B89">
-        <v>848.0700000000001</v>
+        <v>828.5309999999999</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46074.92708333334</v>
+        <v>46079.92708333334</v>
       </c>
       <c r="B90">
-        <v>831.002</v>
+        <v>805.571</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46074.9375</v>
+        <v>46079.9375</v>
       </c>
       <c r="B91">
-        <v>825.068</v>
+        <v>790.02</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46074.94791666666</v>
+        <v>46079.94791666666</v>
       </c>
       <c r="B92">
-        <v>817.423</v>
+        <v>774.717</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46074.95833333334</v>
+        <v>46079.95833333334</v>
       </c>
       <c r="B93">
-        <v>810.174</v>
+        <v>759.293</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46074.96875</v>
+        <v>46079.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46074.97916666666</v>
+        <v>46079.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46074.98958333334</v>
+        <v>46079.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46075</v>
+        <v>46080</v>
       </c>
       <c r="B97">
         <v>0</v>
